--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
   <si>
     <t>No</t>
   </si>
@@ -218,6 +218,48 @@
   </si>
   <si>
     <t>TKT/DB Designing</t>
+  </si>
+  <si>
+    <t>Paper Point Online and Inhouse Ordering</t>
+  </si>
+  <si>
+    <t>PPOIO</t>
+  </si>
+  <si>
+    <t>Project Study</t>
+  </si>
+  <si>
+    <t>Business Plan</t>
+  </si>
+  <si>
+    <t>Appframe</t>
+  </si>
+  <si>
+    <t>APPFRAME</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>PPOIO/Project Study</t>
+  </si>
+  <si>
+    <t>PPOIO/Business Plan</t>
+  </si>
+  <si>
+    <t>TEEBPD/Client Suggestion Implementation</t>
+  </si>
+  <si>
+    <t>Milestone Website</t>
+  </si>
+  <si>
+    <t>MITWEB</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t>MITWEB/Modification</t>
   </si>
 </sst>
 </file>
@@ -571,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -705,29 +747,24 @@
     <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,28 +772,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -780,56 +799,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -851,6 +855,57 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1715,7 +1770,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180</c:v>
+                  <c:v>239.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1789,11 +1844,11 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="61676544"/>
-        <c:axId val="61686528"/>
+        <c:axId val="65907712"/>
+        <c:axId val="65917696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61676544"/>
+        <c:axId val="65907712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,14 +1866,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61686528"/>
+        <c:crossAx val="65917696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61686528"/>
+        <c:axId val="65917696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61676544"/>
+        <c:crossAx val="65907712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1855,7 +1910,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2187,7 +2242,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>59.999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2486,11 +2541,11 @@
         </c:ser>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="61727104"/>
-        <c:axId val="61728640"/>
+        <c:axId val="64123264"/>
+        <c:axId val="64124800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61727104"/>
+        <c:axId val="64123264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,14 +2562,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61728640"/>
+        <c:crossAx val="64124800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61728640"/>
+        <c:axId val="64124800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,14 +2587,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61727104"/>
+        <c:crossAx val="64123264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2556,7 +2610,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2638,7 +2692,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180</c:v>
+                  <c:v>239.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2746,7 +2800,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2777,7 +2831,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3100,7 +3153,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>59.999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3400,11 +3453,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64639360"/>
-        <c:axId val="64640896"/>
+        <c:axId val="65978752"/>
+        <c:axId val="65980288"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="64639360"/>
+        <c:axId val="65978752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3422,14 +3475,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64640896"/>
+        <c:crossAx val="65980288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64640896"/>
+        <c:axId val="65980288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3448,14 +3501,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64639360"/>
+        <c:crossAx val="65978752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3472,7 +3524,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3498,7 +3550,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
@@ -3507,9 +3558,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.212399312154948E-2"/>
+          <c:x val="2.2123993121549494E-2"/>
           <c:y val="0"/>
-          <c:w val="0.70026343258816826"/>
+          <c:w val="0.70026343258816881"/>
           <c:h val="1"/>
         </c:manualLayout>
       </c:layout>
@@ -3637,7 +3688,7 @@
                   <c:v>330.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>59.999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3718,7 +3769,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3735,7 +3785,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3863,7 +3913,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4192,11 +4242,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="66282624"/>
-        <c:axId val="66284160"/>
+        <c:axId val="66499712"/>
+        <c:axId val="66501248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66282624"/>
+        <c:axId val="66499712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4213,14 +4263,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66284160"/>
+        <c:crossAx val="66501248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66284160"/>
+        <c:axId val="66501248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4238,7 +4288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66282624"/>
+        <c:crossAx val="66499712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4248,7 +4298,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4371,11 +4421,11 @@
         </c:ser>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="66595840"/>
-        <c:axId val="66609920"/>
+        <c:axId val="66948096"/>
+        <c:axId val="66958080"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="66595840"/>
+        <c:axId val="66948096"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4393,14 +4443,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66609920"/>
+        <c:crossAx val="66958080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66609920"/>
+        <c:axId val="66958080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,7 +4469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66595840"/>
+        <c:crossAx val="66948096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4429,7 +4479,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4697,8 +4747,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Project" displayName="Project" ref="D1:G5" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="D1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Project" displayName="Project" ref="D1:G8" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="D1:G8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="No" dataDxfId="35">
       <calculatedColumnFormula>IFERROR($D1+1,1)</calculatedColumnFormula>
@@ -4712,8 +4762,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G13" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G17" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:G17"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No" dataDxfId="29">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -4751,8 +4801,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q13"/>
   <tableColumns count="17">
     <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -5085,10 +5135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5130,7 +5180,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <f>IFERROR($D1+1,1)</f>
+        <f t="shared" ref="D2:D8" si="0">IFERROR($D1+1,1)</f>
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -5151,7 +5201,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3">
-        <f>IFERROR($D2+1,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -5166,7 +5216,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="40">
-        <f>IFERROR($D3+1,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E4" s="41" t="s">
@@ -5181,7 +5231,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="D5" s="40">
-        <f>IFERROR($D4+1,1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E5" s="42" t="s">
@@ -5194,9 +5244,54 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="D6" s="51">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="D7" s="51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="D8" s="51">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8">
       <formula1>ProjectCaregoryNames</formula1>
     </dataValidation>
   </dataValidations>
@@ -5211,10 +5306,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5586,9 +5681,121 @@
         <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="43">
+        <f>IFERROR($A13+1,1)</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="52" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
+        <v>PPOIO-1</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="53" t="str">
+        <f>CONCATENATE([Project],"/",[Task])</f>
+        <v>PPOIO/Project Study</v>
+      </c>
+      <c r="F14" s="53" t="str">
+        <f>[Project]</f>
+        <v>PPOIO</v>
+      </c>
+      <c r="G14" s="53" t="str">
+        <f>[Task]</f>
+        <v>Project Study</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="43">
+        <f>IFERROR($A14+1,1)</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="52" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
+        <v>PPOIO-2</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="53" t="str">
+        <f>CONCATENATE([Project],"/",[Task])</f>
+        <v>PPOIO/Business Plan</v>
+      </c>
+      <c r="F15" s="53" t="str">
+        <f>[Project]</f>
+        <v>PPOIO</v>
+      </c>
+      <c r="G15" s="53" t="str">
+        <f>[Task]</f>
+        <v>Business Plan</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="43">
+        <f>IFERROR($A15+1,1)</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="52" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
+        <v>APPFRAME-1</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="53" t="str">
+        <f>CONCATENATE([Project],"/",[Task])</f>
+        <v>APPFRAME/Development</v>
+      </c>
+      <c r="F16" s="53" t="str">
+        <f>[Project]</f>
+        <v>APPFRAME</v>
+      </c>
+      <c r="G16" s="53" t="str">
+        <f>[Task]</f>
+        <v>Development</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="43">
+        <f>IFERROR($A16+1,1)</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="52" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
+        <v>MITWEB-1</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="53" t="str">
+        <f>CONCATENATE([Project],"/",[Task])</f>
+        <v>MITWEB/Modification</v>
+      </c>
+      <c r="F17" s="53" t="str">
+        <f>[Project]</f>
+        <v>MITWEB</v>
+      </c>
+      <c r="G17" s="53" t="str">
+        <f>[Task]</f>
+        <v>Modification</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17">
       <formula1>ProjectCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -5666,10 +5873,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6194,12 +6401,337 @@
         <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="43">
+        <f>IFERROR($A8+1,1)</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="52" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C9" s="52" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Discussion for ticketing modification</v>
+      </c>
+      <c r="D9" s="52" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <v>Firose/43430</v>
+      </c>
+      <c r="E9" s="52">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Firose/43430/1</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="54">
+        <v>43430</v>
+      </c>
+      <c r="J9" s="55">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K9" s="55">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L9" s="51">
+        <f>([End Time]-[Start Time])*1440</f>
+        <v>59.999999999999943</v>
+      </c>
+      <c r="M9" s="51" t="str">
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <v>01:00</v>
+      </c>
+      <c r="N9" s="51">
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>419.99999999999989</v>
+      </c>
+      <c r="O9" s="51" t="str">
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>07:00</v>
+      </c>
+      <c r="P9" s="52" t="str">
+        <f>[PRJ]</f>
+        <v>TKT</v>
+      </c>
+      <c r="Q9" s="52" t="str">
+        <f>[TSK]</f>
+        <v>Discussion for ticketing modification</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="43">
+        <f>IFERROR($A9+1,1)</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="52" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>PPOIO</v>
+      </c>
+      <c r="C10" s="52" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Project Study</v>
+      </c>
+      <c r="D10" s="52" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <v>Firose/43430</v>
+      </c>
+      <c r="E10" s="52">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="52" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Firose/43430/2</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="54">
+        <v>43430</v>
+      </c>
+      <c r="J10" s="55">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K10" s="55">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L10" s="51">
+        <f>([End Time]-[Start Time])*1440</f>
+        <v>119.99999999999997</v>
+      </c>
+      <c r="M10" s="51" t="str">
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <v>02:00</v>
+      </c>
+      <c r="N10" s="51">
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>419.99999999999989</v>
+      </c>
+      <c r="O10" s="51" t="str">
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>07:00</v>
+      </c>
+      <c r="P10" s="52" t="str">
+        <f>[PRJ]</f>
+        <v>PPOIO</v>
+      </c>
+      <c r="Q10" s="52" t="str">
+        <f>[TSK]</f>
+        <v>Project Study</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="43">
+        <f>IFERROR($A10+1,1)</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="52" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>PPOIO</v>
+      </c>
+      <c r="C11" s="52" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Business Plan</v>
+      </c>
+      <c r="D11" s="52" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <v>Firose/43430</v>
+      </c>
+      <c r="E11" s="52">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Firose/43430/3</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="54">
+        <v>43430</v>
+      </c>
+      <c r="J11" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K11" s="55">
+        <v>0.75</v>
+      </c>
+      <c r="L11" s="51">
+        <f>([End Time]-[Start Time])*1440</f>
+        <v>239.99999999999994</v>
+      </c>
+      <c r="M11" s="51" t="str">
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <v>04:00</v>
+      </c>
+      <c r="N11" s="51">
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>419.99999999999989</v>
+      </c>
+      <c r="O11" s="51" t="str">
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>07:00</v>
+      </c>
+      <c r="P11" s="52" t="str">
+        <f>[PRJ]</f>
+        <v>PPOIO</v>
+      </c>
+      <c r="Q11" s="52" t="str">
+        <f>[TSK]</f>
+        <v>Business Plan</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="43">
+        <f>IFERROR($A11+1,1)</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="52" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TEEBPD</v>
+      </c>
+      <c r="C12" s="52" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Client Suggestion Implementation</v>
+      </c>
+      <c r="D12" s="52" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <v>Firose/43431</v>
+      </c>
+      <c r="E12" s="52">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="52" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Firose/43431/1</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="54">
+        <v>43431</v>
+      </c>
+      <c r="J12" s="55">
+        <v>0.375</v>
+      </c>
+      <c r="K12" s="55">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L12" s="51">
+        <f>([End Time]-[Start Time])*1440</f>
+        <v>480.00000000000006</v>
+      </c>
+      <c r="M12" s="51" t="str">
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <v>08:00</v>
+      </c>
+      <c r="N12" s="51">
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>480.00000000000006</v>
+      </c>
+      <c r="O12" s="51" t="str">
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>08:00</v>
+      </c>
+      <c r="P12" s="52" t="str">
+        <f>[PRJ]</f>
+        <v>TEEBPD</v>
+      </c>
+      <c r="Q12" s="52" t="str">
+        <f>[TSK]</f>
+        <v>Client Suggestion Implementation</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="43">
+        <f>IFERROR($A12+1,1)</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="52" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>MITWEB</v>
+      </c>
+      <c r="C13" s="52" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Modification</v>
+      </c>
+      <c r="D13" s="52" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <v>Firose/43432</v>
+      </c>
+      <c r="E13" s="52">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="52" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Firose/43432/1</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="54">
+        <v>43432</v>
+      </c>
+      <c r="J13" s="55">
+        <v>0.375</v>
+      </c>
+      <c r="K13" s="55">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L13" s="51">
+        <f>([End Time]-[Start Time])*1440</f>
+        <v>60.000000000000028</v>
+      </c>
+      <c r="M13" s="51" t="str">
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <v>01:00</v>
+      </c>
+      <c r="N13" s="51">
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>60.000000000000028</v>
+      </c>
+      <c r="O13" s="51" t="str">
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>01:00</v>
+      </c>
+      <c r="P13" s="52" t="str">
+        <f>[PRJ]</f>
+        <v>MITWEB</v>
+      </c>
+      <c r="Q13" s="52" t="str">
+        <f>[TSK]</f>
+        <v>Modification</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13">
       <formula1>EmployeeNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13">
       <formula1>TSKPRJCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -6225,42 +6757,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="J2" s="69" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="J2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A4" s="53" t="str">
+      <c r="A4" s="78" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="78"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -6284,83 +6816,83 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="59" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="J5" s="56" t="str">
+      <c r="H5" s="60"/>
+      <c r="J5" s="69" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="59" t="str">
+      <c r="K5" s="58" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="59" t="str">
+      <c r="L5" s="58" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="59" t="str">
+      <c r="M5" s="58" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="59" t="str">
+      <c r="N5" s="58" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="59" t="str">
+      <c r="O5" s="58" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="63" t="str">
+      <c r="P5" s="60" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="57"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="64"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="64"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="61"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="61"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="52" t="str">
+      <c r="B7" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Database Analysis from Old Project</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="61">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>121.00000000000006</v>
       </c>
-      <c r="H7" s="62"/>
+      <c r="H7" s="72"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6394,19 +6926,19 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="52" t="str">
+      <c r="B8" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>DB Designing</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="61">
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
         <v>119.99999999999989</v>
       </c>
-      <c r="H8" s="62"/>
+      <c r="H8" s="72"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6440,19 +6972,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="52" t="str">
+      <c r="B9" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Appframe configuration</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="61">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="62"/>
+      <c r="H9" s="72"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6486,19 +7018,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="52" t="str">
+      <c r="B10" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="61">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
-        <v>180</v>
-      </c>
-      <c r="H10" s="62"/>
+        <v>239.99999999999994</v>
+      </c>
+      <c r="H10" s="72"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>90</v>
@@ -6513,7 +7045,7 @@
       </c>
       <c r="M10" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],M$5)</f>
-        <v>0</v>
+        <v>59.999999999999943</v>
       </c>
       <c r="N10" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],N$5)</f>
@@ -6532,19 +7064,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="52" t="str">
+      <c r="B11" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="61">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="62"/>
+      <c r="H11" s="72"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6578,19 +7110,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="52" t="str">
+      <c r="B12" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="61">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="62"/>
+      <c r="H12" s="72"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6624,19 +7156,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="52" t="str">
+      <c r="B13" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="61">
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="62"/>
+      <c r="H13" s="72"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6670,19 +7202,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="52" t="str">
+      <c r="B14" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="61">
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="62"/>
+      <c r="H14" s="72"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6716,19 +7248,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="52" t="str">
+      <c r="B15" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="61">
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="62"/>
+      <c r="H15" s="72"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6762,19 +7294,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="52" t="str">
+      <c r="B16" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="61">
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="62"/>
+      <c r="H16" s="72"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6808,19 +7340,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="52" t="str">
+      <c r="B17" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="61">
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="62"/>
+      <c r="H17" s="72"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6854,19 +7386,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="52" t="str">
+      <c r="B18" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="61">
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="62"/>
+      <c r="H18" s="72"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6900,19 +7432,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="52" t="str">
+      <c r="B19" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="61">
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="62"/>
+      <c r="H19" s="72"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6946,19 +7478,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="52" t="str">
+      <c r="B20" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="61">
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="62"/>
+      <c r="H20" s="72"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6992,19 +7524,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="58" t="str">
+      <c r="B21" s="76" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="67">
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="74">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="68"/>
+      <c r="H21" s="75"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7036,67 +7568,91 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:16">
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="70">
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="63">
         <f>SUM(G7:H21)</f>
-        <v>420.99999999999994</v>
-      </c>
-      <c r="H23" s="72"/>
-      <c r="J23" s="65">
+        <v>480.99999999999989</v>
+      </c>
+      <c r="H23" s="65"/>
+      <c r="J23" s="56">
         <f>SUM(J7:J21)</f>
         <v>90</v>
       </c>
-      <c r="K23" s="65">
+      <c r="K23" s="56">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="65">
+      <c r="L23" s="56">
         <f t="shared" si="0"/>
         <v>330.99999999999994</v>
       </c>
-      <c r="M23" s="65">
+      <c r="M23" s="56">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="65">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="N23" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="65">
+      <c r="O23" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="65">
+      <c r="P23" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1">
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="75"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="68"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -7113,36 +7669,12 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -7166,16 +7698,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="F1" s="97" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="F1" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="97"/>
+      <c r="G1" s="85"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -7195,19 +7727,19 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="F2" s="96">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="F2" s="84">
         <v>43430</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="I2" s="76">
+      <c r="G2" s="84"/>
+      <c r="I2" s="101">
         <f>SUM(I7:I30)</f>
         <v>330</v>
       </c>
-      <c r="J2" s="78" t="str">
+      <c r="J2" s="95" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
         <v>5:30</v>
       </c>
@@ -7224,14 +7756,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="79"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -7245,41 +7777,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="86"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -7294,23 +7826,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B7" s="86">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="99" t="str">
+      <c r="C7" s="58"/>
+      <c r="D7" s="87" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="94">
         <f>SUM(H7:H10)</f>
         <v>330</v>
       </c>
@@ -7318,11 +7850,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="80" t="str">
+      <c r="L7" s="97" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="80"/>
+      <c r="M7" s="97"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -7370,29 +7902,29 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="89" t="str">
+      <c r="B8" s="70"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I8" s="78"/>
+      <c r="I8" s="95"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="80" t="str">
+      <c r="L8" s="97" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v>SDS</v>
       </c>
-      <c r="M8" s="80"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
         <v>240.00000000000003</v>
@@ -7440,29 +7972,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="89" t="str">
+      <c r="B9" s="70"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>89.999999999999915</v>
       </c>
-      <c r="I9" s="78"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="80" t="str">
+      <c r="L9" s="97" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="80"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7510,29 +8042,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="89" t="str">
+      <c r="B10" s="70"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="I10" s="78"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="80" t="str">
+      <c r="L10" s="97" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M10" s="80"/>
+      <c r="M10" s="97"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7580,23 +8112,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="89">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="89" t="str">
+      <c r="C11" s="59"/>
+      <c r="D11" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="95">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>0</v>
       </c>
@@ -7604,11 +8136,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="83" t="str">
+      <c r="L11" s="100" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="83"/>
+      <c r="M11" s="100"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7656,20 +8188,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="89" t="str">
+      <c r="B12" s="70"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="78"/>
+      <c r="I12" s="95"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -7718,27 +8250,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="89" t="str">
+      <c r="B13" s="70"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="78"/>
+      <c r="I13" s="95"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -7782,25 +8314,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="89" t="str">
+      <c r="B14" s="70"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="78"/>
+      <c r="I14" s="95"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -7844,37 +8376,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="89">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="89" t="str">
+      <c r="C15" s="59"/>
+      <c r="D15" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="78">
+      <c r="I15" s="95">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>0</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="85" t="s">
+      <c r="K15" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84" t="s">
+      <c r="L15" s="99"/>
+      <c r="M15" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -7920,40 +8452,40 @@
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="89" t="str">
+      <c r="B16" s="70"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="78"/>
+      <c r="I16" s="95"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="81" t="str">
+      <c r="K16" s="103" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="80" t="str">
+      <c r="L16" s="71"/>
+      <c r="M16" s="97" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="78">
+      <c r="R16" s="95">
         <f>SUM(Q16:Q19)</f>
         <v>90</v>
       </c>
@@ -7996,37 +8528,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="89" t="str">
+      <c r="B17" s="70"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="78"/>
+      <c r="I17" s="95"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="81"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="80" t="str">
+      <c r="K17" s="103"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="97" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="78"/>
+      <c r="R17" s="95"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -8066,37 +8598,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="89" t="str">
+      <c r="B18" s="70"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="95"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="81"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="80" t="str">
+      <c r="K18" s="103"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="97" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="78"/>
+      <c r="R18" s="95"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -8136,43 +8668,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="90">
+      <c r="B19" s="89">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="89" t="str">
+      <c r="C19" s="59"/>
+      <c r="D19" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="78">
+      <c r="I19" s="95">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="81"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="80" t="str">
+      <c r="K19" s="103"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="97" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="78"/>
+      <c r="R19" s="95"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -8212,40 +8744,40 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="89" t="str">
+      <c r="B20" s="70"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="78"/>
+      <c r="I20" s="95"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="81" t="str">
+      <c r="K20" s="103" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="80" t="str">
+      <c r="L20" s="71"/>
+      <c r="M20" s="97" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v>Decryption</v>
       </c>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
       <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="R20" s="78">
+      <c r="R20" s="95">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
         <v>240.00000000000003</v>
       </c>
@@ -8288,37 +8820,37 @@
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="89" t="str">
+      <c r="B21" s="70"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="78"/>
+      <c r="I21" s="95"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="81"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="80" t="str">
+      <c r="K21" s="103"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="97" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
         <v>209.99999999999997</v>
       </c>
-      <c r="R21" s="78"/>
+      <c r="R21" s="95"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -8358,37 +8890,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="89" t="str">
+      <c r="B22" s="70"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="78"/>
+      <c r="I22" s="95"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="80" t="str">
+      <c r="K22" s="103"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="97" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="78"/>
+      <c r="R22" s="95"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -8428,43 +8960,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="90">
+      <c r="B23" s="89">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="89" t="str">
+      <c r="C23" s="59"/>
+      <c r="D23" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="78">
+      <c r="I23" s="95">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>0</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="81"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="80" t="str">
+      <c r="K23" s="103"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="97" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="78"/>
+      <c r="R23" s="95"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -8504,40 +9036,40 @@
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="89" t="str">
+      <c r="B24" s="70"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="78"/>
+      <c r="I24" s="95"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="81" t="str">
+      <c r="K24" s="103" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="61"/>
-      <c r="M24" s="80" t="str">
+      <c r="L24" s="71"/>
+      <c r="M24" s="97" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="78">
+      <c r="R24" s="95">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -8580,37 +9112,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="89" t="str">
+      <c r="B25" s="70"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="78"/>
+      <c r="I25" s="95"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="81"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="80" t="str">
+      <c r="K25" s="103"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="97" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="78"/>
+      <c r="R25" s="95"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -8650,37 +9182,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="89" t="str">
+      <c r="B26" s="70"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="78"/>
+      <c r="I26" s="95"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="81"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="80" t="str">
+      <c r="K26" s="103"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="97" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="78"/>
+      <c r="R26" s="95"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -8720,43 +9252,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="90">
+      <c r="B27" s="89">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="89" t="str">
+      <c r="C27" s="59"/>
+      <c r="D27" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="78">
+      <c r="I27" s="95">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="81"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="80" t="str">
+      <c r="K27" s="103"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="97" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="78"/>
+      <c r="R27" s="95"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -8796,40 +9328,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="89" t="str">
+      <c r="B28" s="70"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="78"/>
+      <c r="I28" s="95"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="81" t="str">
+      <c r="K28" s="103" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L28" s="61"/>
-      <c r="M28" s="80" t="str">
+      <c r="L28" s="71"/>
+      <c r="M28" s="97" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
       <c r="Q28" s="22" t="str">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v/>
       </c>
-      <c r="R28" s="78">
+      <c r="R28" s="95">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>0</v>
       </c>
@@ -8872,37 +9404,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="89" t="str">
+      <c r="B29" s="70"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="78"/>
+      <c r="I29" s="95"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="81"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="80" t="str">
+      <c r="K29" s="103"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="97" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
       <c r="Q29" s="22" t="str">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v/>
       </c>
-      <c r="R29" s="78"/>
+      <c r="R29" s="95"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -8939,37 +9471,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="87" t="str">
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="93" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="79"/>
+      <c r="I30" s="96"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="81"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="80" t="str">
+      <c r="K30" s="103"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="97" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="97"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="78"/>
+      <c r="R30" s="95"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -9007,42 +9539,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="81"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="80" t="str">
+      <c r="K31" s="103"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="97" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="78"/>
+      <c r="R31" s="95"/>
     </row>
     <row r="32" spans="1:28">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="81" t="str">
+      <c r="K32" s="103" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="61"/>
-      <c r="M32" s="80" t="str">
+      <c r="L32" s="71"/>
+      <c r="M32" s="97" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="78">
+      <c r="R32" s="95">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -9051,61 +9583,127 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="81"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="80" t="str">
+      <c r="K33" s="103"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="97" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="78"/>
+      <c r="R33" s="95"/>
     </row>
     <row r="34" spans="10:18">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="81"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="80" t="str">
+      <c r="K34" s="103"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="97" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="78"/>
+      <c r="R34" s="95"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="82"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="83" t="str">
+      <c r="K35" s="104"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="100" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="79"/>
+      <c r="R35" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K20:L23"/>
+    <mergeCell ref="K24:L27"/>
+    <mergeCell ref="K28:L31"/>
+    <mergeCell ref="K32:L35"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K16:L19"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="K13:N14"/>
     <mergeCell ref="A1:D3"/>
@@ -9122,72 +9720,6 @@
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K20:L23"/>
-    <mergeCell ref="K24:L27"/>
-    <mergeCell ref="K28:L31"/>
-    <mergeCell ref="K32:L35"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K16:L19"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
   <si>
     <t>No</t>
   </si>
@@ -760,11 +760,29 @@
     <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,10 +790,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -799,41 +835,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -855,57 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1770,7 +1770,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>239.99999999999994</c:v>
+                  <c:v>269.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1844,11 +1844,11 @@
         </c:ser>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="65907712"/>
-        <c:axId val="65917696"/>
+        <c:axId val="65055744"/>
+        <c:axId val="65065728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65907712"/>
+        <c:axId val="65055744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,14 +1866,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65917696"/>
+        <c:crossAx val="65065728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65917696"/>
+        <c:axId val="65065728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,7 +1891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65907712"/>
+        <c:crossAx val="65055744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1910,7 +1910,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2242,7 +2242,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.999999999999943</c:v>
+                  <c:v>89.999999999999915</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2541,11 +2541,11 @@
         </c:ser>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="64123264"/>
-        <c:axId val="64124800"/>
+        <c:axId val="60719488"/>
+        <c:axId val="60721024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64123264"/>
+        <c:axId val="60719488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2562,14 +2562,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64124800"/>
+        <c:crossAx val="60721024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64124800"/>
+        <c:axId val="60721024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,7 +2587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64123264"/>
+        <c:crossAx val="60719488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2610,7 +2610,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2692,7 +2692,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>239.99999999999994</c:v>
+                  <c:v>269.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2800,7 +2800,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3153,7 +3153,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.999999999999943</c:v>
+                  <c:v>89.999999999999915</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3453,11 +3453,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="65978752"/>
-        <c:axId val="65980288"/>
+        <c:axId val="65126784"/>
+        <c:axId val="65128320"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="65978752"/>
+        <c:axId val="65126784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3475,14 +3475,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65980288"/>
+        <c:crossAx val="65128320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65980288"/>
+        <c:axId val="65128320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3501,7 +3501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65978752"/>
+        <c:crossAx val="65126784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3524,7 +3524,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3558,9 +3558,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.2123993121549494E-2"/>
+          <c:x val="2.2123993121549498E-2"/>
           <c:y val="0"/>
-          <c:w val="0.70026343258816881"/>
+          <c:w val="0.70026343258816892"/>
           <c:h val="1"/>
         </c:manualLayout>
       </c:layout>
@@ -3688,7 +3688,7 @@
                   <c:v>330.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.999999999999943</c:v>
+                  <c:v>89.999999999999915</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3785,7 +3785,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3913,7 +3913,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4242,11 +4242,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="66499712"/>
-        <c:axId val="66501248"/>
+        <c:axId val="67220608"/>
+        <c:axId val="67222144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66499712"/>
+        <c:axId val="67220608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4263,14 +4263,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66501248"/>
+        <c:crossAx val="67222144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66501248"/>
+        <c:axId val="67222144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4288,7 +4288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66499712"/>
+        <c:crossAx val="67220608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4298,7 +4298,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4421,11 +4421,11 @@
         </c:ser>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="66948096"/>
-        <c:axId val="66958080"/>
+        <c:axId val="67734528"/>
+        <c:axId val="67744512"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="66948096"/>
+        <c:axId val="67734528"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4443,14 +4443,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66958080"/>
+        <c:crossAx val="67744512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66958080"/>
+        <c:axId val="67744512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4469,7 +4469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66948096"/>
+        <c:crossAx val="67734528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4479,7 +4479,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4801,8 +4801,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q14"/>
   <tableColumns count="17">
     <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -5873,10 +5873,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="N13" s="51">
         <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
-        <v>60.000000000000028</v>
+        <v>90</v>
       </c>
       <c r="O13" s="51" t="str">
         <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
-        <v>01:00</v>
+        <v>01:30</v>
       </c>
       <c r="P13" s="52" t="str">
         <f>[PRJ]</f>
@@ -6726,12 +6726,77 @@
         <v>Modification</v>
       </c>
     </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="43">
+        <f>IFERROR($A13+1,1)</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="52" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C14" s="52" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Discussion for ticketing modification</v>
+      </c>
+      <c r="D14" s="52" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <v>Firose/43432</v>
+      </c>
+      <c r="E14" s="52">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>2</v>
+      </c>
+      <c r="F14" s="52" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Firose/43432/2</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="54">
+        <v>43432</v>
+      </c>
+      <c r="J14" s="55">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K14" s="55">
+        <v>0.4375</v>
+      </c>
+      <c r="L14" s="51">
+        <f>([End Time]-[Start Time])*1440</f>
+        <v>29.999999999999972</v>
+      </c>
+      <c r="M14" s="51" t="str">
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <v>00:30</v>
+      </c>
+      <c r="N14" s="51">
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>90</v>
+      </c>
+      <c r="O14" s="51" t="str">
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>01:30</v>
+      </c>
+      <c r="P14" s="52" t="str">
+        <f>[PRJ]</f>
+        <v>TKT</v>
+      </c>
+      <c r="Q14" s="52" t="str">
+        <f>[TSK]</f>
+        <v>Discussion for ticketing modification</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H14">
       <formula1>EmployeeNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14">
       <formula1>TSKPRJCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -6757,42 +6822,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="J2" s="62" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="J2" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A4" s="78" t="str">
+      <c r="A4" s="58" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="B4" s="78"/>
+      <c r="B4" s="58"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -6816,83 +6881,83 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="58" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="J5" s="69" t="str">
+      <c r="H5" s="68"/>
+      <c r="J5" s="61" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="58" t="str">
+      <c r="K5" s="64" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="58" t="str">
+      <c r="L5" s="64" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="58" t="str">
+      <c r="M5" s="64" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="58" t="str">
+      <c r="N5" s="64" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="58" t="str">
+      <c r="O5" s="64" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="60" t="str">
+      <c r="P5" s="68" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="70"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="61"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="61"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="69"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="69"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Database Analysis from Old Project</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="71">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>121.00000000000006</v>
       </c>
-      <c r="H7" s="72"/>
+      <c r="H7" s="67"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6926,19 +6991,19 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="73" t="str">
+      <c r="B8" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>DB Designing</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="71">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
         <v>119.99999999999989</v>
       </c>
-      <c r="H8" s="72"/>
+      <c r="H8" s="67"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6972,19 +7037,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="73" t="str">
+      <c r="B9" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Appframe configuration</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="71">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="72"/>
+      <c r="H9" s="67"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7018,19 +7083,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="73" t="str">
+      <c r="B10" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="71">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
-        <v>239.99999999999994</v>
-      </c>
-      <c r="H10" s="72"/>
+        <v>269.99999999999989</v>
+      </c>
+      <c r="H10" s="67"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>90</v>
@@ -7045,7 +7110,7 @@
       </c>
       <c r="M10" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],M$5)</f>
-        <v>59.999999999999943</v>
+        <v>89.999999999999915</v>
       </c>
       <c r="N10" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],N$5)</f>
@@ -7064,19 +7129,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="73" t="str">
+      <c r="B11" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="71">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="72"/>
+      <c r="H11" s="67"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7110,19 +7175,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="73" t="str">
+      <c r="B12" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="71">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="72"/>
+      <c r="H12" s="67"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7156,19 +7221,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="73" t="str">
+      <c r="B13" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="71">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="72"/>
+      <c r="H13" s="67"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7202,19 +7267,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="73" t="str">
+      <c r="B14" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="71">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="72"/>
+      <c r="H14" s="67"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7248,19 +7313,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="73" t="str">
+      <c r="B15" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="71">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="72"/>
+      <c r="H15" s="67"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7294,19 +7359,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="73" t="str">
+      <c r="B16" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="71">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="72"/>
+      <c r="H16" s="67"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7340,19 +7405,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="73" t="str">
+      <c r="B17" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="71">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="72"/>
+      <c r="H17" s="67"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7386,19 +7451,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="73" t="str">
+      <c r="B18" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="71">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="72"/>
+      <c r="H18" s="67"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7432,19 +7497,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="73" t="str">
+      <c r="B19" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="71">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="72"/>
+      <c r="H19" s="67"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7478,19 +7543,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="73" t="str">
+      <c r="B20" s="57" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="71">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="66">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="72"/>
+      <c r="H20" s="67"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7524,19 +7589,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="76" t="str">
+      <c r="B21" s="63" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="74">
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="72">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="75"/>
+      <c r="H21" s="73"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7568,91 +7633,67 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:16">
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="63">
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="75">
         <f>SUM(G7:H21)</f>
-        <v>480.99999999999989</v>
-      </c>
-      <c r="H23" s="65"/>
-      <c r="J23" s="56">
+        <v>510.99999999999983</v>
+      </c>
+      <c r="H23" s="77"/>
+      <c r="J23" s="70">
         <f>SUM(J7:J21)</f>
         <v>90</v>
       </c>
-      <c r="K23" s="56">
+      <c r="K23" s="70">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="56">
+      <c r="L23" s="70">
         <f t="shared" si="0"/>
         <v>330.99999999999994</v>
       </c>
-      <c r="M23" s="56">
+      <c r="M23" s="70">
         <f t="shared" si="0"/>
-        <v>59.999999999999943</v>
-      </c>
-      <c r="N23" s="56">
+        <v>89.999999999999915</v>
+      </c>
+      <c r="N23" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="56">
+      <c r="O23" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="56">
+      <c r="P23" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1">
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="68"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="80"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -7669,12 +7710,36 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -7698,16 +7763,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="F1" s="85" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="F1" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="85"/>
+      <c r="G1" s="102"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -7727,19 +7792,19 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="F2" s="84">
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="F2" s="101">
         <v>43430</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="I2" s="101">
+      <c r="G2" s="101"/>
+      <c r="I2" s="81">
         <f>SUM(I7:I30)</f>
         <v>330</v>
       </c>
-      <c r="J2" s="95" t="str">
+      <c r="J2" s="83" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
         <v>5:30</v>
       </c>
@@ -7756,14 +7821,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="96"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -7777,41 +7842,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -7826,23 +7891,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="103">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="87" t="str">
+      <c r="C7" s="64"/>
+      <c r="D7" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="93">
         <f>SUM(H7:H10)</f>
         <v>330</v>
       </c>
@@ -7850,11 +7915,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="97" t="str">
+      <c r="L7" s="85" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="97"/>
+      <c r="M7" s="85"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -7902,29 +7967,29 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="88" t="str">
+      <c r="B8" s="62"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I8" s="95"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="97" t="str">
+      <c r="L8" s="85" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v>SDS</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="85"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
         <v>240.00000000000003</v>
@@ -7972,29 +8037,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="88" t="str">
+      <c r="B9" s="62"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>89.999999999999915</v>
       </c>
-      <c r="I9" s="95"/>
+      <c r="I9" s="83"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="97" t="str">
+      <c r="L9" s="85" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="85"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8042,29 +8107,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="88" t="str">
+      <c r="B10" s="62"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="I10" s="95"/>
+      <c r="I10" s="83"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="97" t="str">
+      <c r="L10" s="85" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M10" s="97"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8112,23 +8177,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="89">
+      <c r="B11" s="95">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="88" t="str">
+      <c r="C11" s="65"/>
+      <c r="D11" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="95">
+      <c r="I11" s="83">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>0</v>
       </c>
@@ -8136,11 +8201,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="100" t="str">
+      <c r="L11" s="88" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="100"/>
+      <c r="M11" s="88"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8188,20 +8253,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="88" t="str">
+      <c r="B12" s="62"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="95"/>
+      <c r="I12" s="83"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -8250,27 +8315,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="88" t="str">
+      <c r="B13" s="62"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="95"/>
+      <c r="I13" s="83"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -8314,25 +8379,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="88" t="str">
+      <c r="B14" s="62"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="95"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -8376,37 +8441,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="89">
+      <c r="B15" s="95">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="88" t="str">
+      <c r="C15" s="65"/>
+      <c r="D15" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="95">
+      <c r="I15" s="83">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>0</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="98" t="s">
+      <c r="K15" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99" t="s">
+      <c r="L15" s="89"/>
+      <c r="M15" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -8452,40 +8517,40 @@
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="88" t="str">
+      <c r="B16" s="62"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="95"/>
+      <c r="I16" s="83"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="103" t="str">
+      <c r="K16" s="86" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="71"/>
-      <c r="M16" s="97" t="str">
+      <c r="L16" s="66"/>
+      <c r="M16" s="85" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="95">
+      <c r="R16" s="83">
         <f>SUM(Q16:Q19)</f>
         <v>90</v>
       </c>
@@ -8528,37 +8593,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="88" t="str">
+      <c r="B17" s="62"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="95"/>
+      <c r="I17" s="83"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="103"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="97" t="str">
+      <c r="K17" s="86"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="85" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="95"/>
+      <c r="R17" s="83"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -8598,37 +8663,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="88" t="str">
+      <c r="B18" s="62"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="95"/>
+      <c r="I18" s="83"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="103"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="97" t="str">
+      <c r="K18" s="86"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="85" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="95"/>
+      <c r="R18" s="83"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -8668,43 +8733,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="89">
+      <c r="B19" s="95">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="88" t="str">
+      <c r="C19" s="65"/>
+      <c r="D19" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="95">
+      <c r="I19" s="83">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="103"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="97" t="str">
+      <c r="K19" s="86"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="85" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="95"/>
+      <c r="R19" s="83"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -8744,40 +8809,40 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="88" t="str">
+      <c r="B20" s="62"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="95"/>
+      <c r="I20" s="83"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="103" t="str">
+      <c r="K20" s="86" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="L20" s="71"/>
-      <c r="M20" s="97" t="str">
+      <c r="L20" s="66"/>
+      <c r="M20" s="85" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v>Decryption</v>
       </c>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
       <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="R20" s="95">
+      <c r="R20" s="83">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
         <v>240.00000000000003</v>
       </c>
@@ -8820,37 +8885,37 @@
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="88" t="str">
+      <c r="B21" s="62"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="95"/>
+      <c r="I21" s="83"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="103"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="97" t="str">
+      <c r="K21" s="86"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="85" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
         <v>209.99999999999997</v>
       </c>
-      <c r="R21" s="95"/>
+      <c r="R21" s="83"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -8890,37 +8955,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="88" t="str">
+      <c r="B22" s="62"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="95"/>
+      <c r="I22" s="83"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="103"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="97" t="str">
+      <c r="K22" s="86"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="85" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="95"/>
+      <c r="R22" s="83"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -8960,43 +9025,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="89">
+      <c r="B23" s="95">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="88" t="str">
+      <c r="C23" s="65"/>
+      <c r="D23" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="95">
+      <c r="I23" s="83">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>0</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="103"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="97" t="str">
+      <c r="K23" s="86"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="85" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="95"/>
+      <c r="R23" s="83"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -9036,40 +9101,40 @@
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="88" t="str">
+      <c r="B24" s="62"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="95"/>
+      <c r="I24" s="83"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="103" t="str">
+      <c r="K24" s="86" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="97" t="str">
+      <c r="L24" s="66"/>
+      <c r="M24" s="85" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="95">
+      <c r="R24" s="83">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -9112,37 +9177,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="88" t="str">
+      <c r="B25" s="62"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="95"/>
+      <c r="I25" s="83"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="103"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="97" t="str">
+      <c r="K25" s="86"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="85" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="95"/>
+      <c r="R25" s="83"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -9182,37 +9247,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="88" t="str">
+      <c r="B26" s="62"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="95"/>
+      <c r="I26" s="83"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="103"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="97" t="str">
+      <c r="K26" s="86"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="85" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="95"/>
+      <c r="R26" s="83"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -9252,43 +9317,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="89">
+      <c r="B27" s="95">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="88" t="str">
+      <c r="C27" s="65"/>
+      <c r="D27" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="95">
+      <c r="I27" s="83">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="103"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="97" t="str">
+      <c r="K27" s="86"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="85" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="95"/>
+      <c r="R27" s="83"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -9328,40 +9393,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="88" t="str">
+      <c r="B28" s="62"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="95"/>
+      <c r="I28" s="83"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="103" t="str">
+      <c r="K28" s="86" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L28" s="71"/>
-      <c r="M28" s="97" t="str">
+      <c r="L28" s="66"/>
+      <c r="M28" s="85" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
       <c r="Q28" s="22" t="str">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v/>
       </c>
-      <c r="R28" s="95">
+      <c r="R28" s="83">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>0</v>
       </c>
@@ -9404,37 +9469,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="88" t="str">
+      <c r="B29" s="62"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="95"/>
+      <c r="I29" s="83"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="103"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="97" t="str">
+      <c r="K29" s="86"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="85" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
       <c r="Q29" s="22" t="str">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v/>
       </c>
-      <c r="R29" s="95"/>
+      <c r="R29" s="83"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -9471,37 +9536,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="93" t="str">
+      <c r="B30" s="96"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="92" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="96"/>
+      <c r="I30" s="84"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="103"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="97" t="str">
+      <c r="K30" s="86"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="85" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="97"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="95"/>
+      <c r="R30" s="83"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -9539,42 +9604,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="103"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="97" t="str">
+      <c r="K31" s="86"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="85" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="97"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="95"/>
+      <c r="R31" s="83"/>
     </row>
     <row r="32" spans="1:28">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="103" t="str">
+      <c r="K32" s="86" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="97" t="str">
+      <c r="L32" s="66"/>
+      <c r="M32" s="85" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="97"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="95">
+      <c r="R32" s="83">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -9583,61 +9648,127 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="103"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="97" t="str">
+      <c r="K33" s="86"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="85" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="97"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="95"/>
+      <c r="R33" s="83"/>
     </row>
     <row r="34" spans="10:18">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="103"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="97" t="str">
+      <c r="K34" s="86"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="85" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="97"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="95"/>
+      <c r="R34" s="83"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="104"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="100" t="str">
+      <c r="K35" s="87"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="88" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="96"/>
+      <c r="R35" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="K13:N14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="M32:P32"/>
@@ -9654,72 +9785,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="K13:N14"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shareena Anoop\Desktop\Project-Development\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -21,12 +26,12 @@
     <definedName name="ProjectNames">Project[Project]</definedName>
     <definedName name="TSKPRJCodes">ProjectTasks[TaskProjectCode]</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -261,16 +266,26 @@
   <si>
     <t>MITWEB/Modification</t>
   </si>
+  <si>
+    <t>TKT/Appframe configuration</t>
+  </si>
+  <si>
+    <t>Getting branchname into tool</t>
+  </si>
+  <si>
+    <t>RTM/Getting branchname into tool</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\/mmm\/yy"/>
     <numFmt numFmtId="165" formatCode="dd\/mmm"/>
+    <numFmt numFmtId="166" formatCode="hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -760,29 +775,11 @@
     <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -790,28 +787,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -835,56 +814,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -907,6 +871,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,7 +946,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -940,7 +961,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -954,7 +975,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -968,7 +989,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -982,7 +1003,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -996,7 +1017,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1010,7 +1031,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1024,8 +1045,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="23" formatCode="hh:mm\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="hh:mm\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1040,7 +1061,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="dd\/mmm\/yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1085,7 +1106,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1104,7 +1125,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1123,7 +1144,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1142,7 +1163,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1161,7 +1182,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1176,7 +1197,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1230,7 +1251,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1330,7 +1351,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1362,7 +1383,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1445,7 +1466,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1498,7 +1519,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1541,16 +1562,29 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
@@ -1584,6 +1618,7 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
@@ -1617,6 +1652,7 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
@@ -1650,6 +1686,7 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
@@ -1708,6 +1745,7 @@
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1726,7 +1764,13 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1761,13 +1805,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>121.00000000000006</c:v>
+                  <c:v>256.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>119.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>380.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>269.99999999999989</c:v>
@@ -1812,6 +1856,7 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
@@ -1842,19 +1887,30 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="65055744"/>
-        <c:axId val="65065728"/>
+        <c:axId val="-70922784"/>
+        <c:axId val="-70917344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65055744"/>
+        <c:axId val="-70922784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1866,20 +1922,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65065728"/>
+        <c:crossAx val="-70917344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65065728"/>
+        <c:axId val="-70917344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1891,7 +1951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65055744"/>
+        <c:crossAx val="-70922784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1907,6 +1967,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1918,13 +1979,25 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1939,6 +2012,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2028,6 +2102,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2117,6 +2192,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2144,13 +2220,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>121.00000000000006</c:v>
+                  <c:v>256.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>119.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>380.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>90</c:v>
@@ -2206,6 +2282,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2292,6 +2369,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2378,6 +2456,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2464,6 +2543,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2539,18 +2619,29 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="60719488"/>
-        <c:axId val="60721024"/>
+        <c:axId val="-70916256"/>
+        <c:axId val="-70922240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60719488"/>
+        <c:axId val="-70916256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2562,20 +2653,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60721024"/>
+        <c:crossAx val="-70922240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60721024"/>
+        <c:axId val="-70922240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2587,13 +2682,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60719488"/>
+        <c:crossAx val="-70916256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2607,6 +2704,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2618,7 +2716,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2647,9 +2755,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -2683,13 +2795,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>121.00000000000006</c:v>
+                  <c:v>256.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>119.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>380.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>269.99999999999989</c:v>
@@ -2752,8 +2864,13 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
             <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -2789,14 +2906,20 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
           <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2808,7 +2931,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2831,11 +2964,15 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3055,13 +3192,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>121.00000000000006</c:v>
+                  <c:v>256.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>119.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>380.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>90</c:v>
@@ -3453,17 +3590,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="65126784"/>
-        <c:axId val="65128320"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-70915712"/>
+        <c:axId val="-260144064"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="65126784"/>
+        <c:axId val="-70915712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3475,21 +3622,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65128320"/>
+        <c:crossAx val="-260144064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65128320"/>
+        <c:axId val="-260144064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3501,13 +3651,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65126784"/>
+        <c:crossAx val="-70915712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3521,6 +3673,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3532,7 +3685,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3550,8 +3713,10 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3588,9 +3753,17 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3645,7 +3818,13 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -3685,7 +3864,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>330.99999999999994</c:v>
+                  <c:v>846</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>89.999999999999915</c:v>
@@ -3725,9 +3904,17 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3761,7 +3948,13 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
         <c:holeSize val="10"/>
@@ -3769,6 +3962,8 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3782,6 +3977,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3793,7 +3989,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3811,7 +4017,10 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3838,9 +4047,12 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:separator>
 </c:separator>
             <c:showLeaderLines val="1"/>
@@ -3854,12 +4066,9 @@
             <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>TKT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SDS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3871,10 +4080,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>240.00000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3890,13 +4099,21 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3910,6 +4127,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3921,7 +4139,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3943,18 +4171,23 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>TASK 1</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
@@ -3974,10 +4207,15 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
             <c:separator>
 </c:separator>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -3989,12 +4227,9 @@
             <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>TKT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SDS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4009,7 +4244,7 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.000000000000053</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4030,6 +4265,7 @@
           <c:tx>
             <c:v>TASK 2</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4048,7 +4284,13 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -4060,12 +4302,9 @@
             <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>TKT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SDS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4077,10 +4316,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>256.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.99999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4101,6 +4340,7 @@
           <c:tx>
             <c:v>TASK 3</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4119,7 +4359,13 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -4131,12 +4377,9 @@
             <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>TKT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SDS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4148,7 +4391,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>119.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4172,6 +4415,7 @@
           <c:tx>
             <c:v>TASK 4</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4190,7 +4434,13 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -4202,12 +4452,9 @@
             <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>TKT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SDS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4219,7 +4466,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>380.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4238,20 +4485,28 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="67220608"/>
-        <c:axId val="67222144"/>
+        <c:axId val="-9822752"/>
+        <c:axId val="-9823296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67220608"/>
+        <c:axId val="-9822752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4263,20 +4518,23 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67222144"/>
+        <c:crossAx val="-9823296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67222144"/>
+        <c:axId val="-9823296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4288,13 +4546,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67220608"/>
+        <c:crossAx val="-9822752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4306,7 +4565,17 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4329,15 +4598,20 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4357,9 +4631,16 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4398,13 +4679,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>330</c:v>
+                  <c:v>330.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>380.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4419,19 +4700,29 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="67734528"/>
-        <c:axId val="67744512"/>
+        <c:axId val="-9824928"/>
+        <c:axId val="-9820576"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="67734528"/>
+        <c:axId val="-9824928"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="dd\/mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4443,21 +4734,23 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67744512"/>
+        <c:crossAx val="-9820576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67744512"/>
+        <c:axId val="-9820576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4469,13 +4762,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67734528"/>
+        <c:crossAx val="-9824928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4762,8 +5056,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G17" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G18" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:G18"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No" dataDxfId="29">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -4774,13 +5068,13 @@
     </tableColumn>
     <tableColumn id="3" name="Task" dataDxfId="26"/>
     <tableColumn id="4" name="TaskProjectCode" dataDxfId="25">
-      <calculatedColumnFormula>CONCATENATE([Project],"/",[Task])</calculatedColumnFormula>
+      <calculatedColumnFormula>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="PRJ" dataDxfId="24">
-      <calculatedColumnFormula>[Project]</calculatedColumnFormula>
+      <calculatedColumnFormula>ProjectTasks[Project]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="TSK" dataDxfId="23">
-      <calculatedColumnFormula>[Task]</calculatedColumnFormula>
+      <calculatedColumnFormula>ProjectTasks[Task]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4801,20 +5095,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q21"/>
   <tableColumns count="17">
     <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="PRJ" dataDxfId="15">
-      <calculatedColumnFormula>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="TSK" dataDxfId="14">
-      <calculatedColumnFormula>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="EmployeeDate" dataDxfId="13">
-      <calculatedColumnFormula>[Employee]&amp;"/"&amp;[Date]</calculatedColumnFormula>
+      <calculatedColumnFormula>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="EmployeeDateSeq" dataDxfId="12">
       <calculatedColumnFormula>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</calculatedColumnFormula>
@@ -4828,22 +5122,22 @@
     <tableColumn id="5" name="Start Time" dataDxfId="7"/>
     <tableColumn id="6" name="End Time" dataDxfId="6"/>
     <tableColumn id="7" name="Total Minutes" dataDxfId="5">
-      <calculatedColumnFormula>([End Time]-[Start Time])*1440</calculatedColumnFormula>
+      <calculatedColumnFormula>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Total" dataDxfId="4">
-      <calculatedColumnFormula>TEXT([End Time]-[Start Time],"HH:mm")</calculatedColumnFormula>
+      <calculatedColumnFormula>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Day Total Minutes" dataDxfId="3">
-      <calculatedColumnFormula>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Day Total" dataDxfId="2">
-      <calculatedColumnFormula>TEXT([Day Total Minutes]/1440,"HH:mm")</calculatedColumnFormula>
+      <calculatedColumnFormula>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="PRJLST" dataDxfId="1">
-      <calculatedColumnFormula>[PRJ]</calculatedColumnFormula>
+      <calculatedColumnFormula>TaskTimings[PRJ]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="TSKLST" dataDxfId="0">
-      <calculatedColumnFormula>[TSK]</calculatedColumnFormula>
+      <calculatedColumnFormula>TaskTimings[TSK]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4893,7 +5187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4925,9 +5219,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4959,6 +5254,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5134,14 +5430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" customWidth="1"/>
@@ -5151,7 +5447,7 @@
     <col min="11" max="11" width="84.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5171,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>IFERROR($A1+1,1)</f>
         <v>1</v>
@@ -5193,7 +5489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5214,7 +5510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5229,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5244,7 +5540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5259,7 +5555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5274,7 +5570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="51">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5305,14 +5601,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.140625" hidden="1" customWidth="1"/>
@@ -5322,7 +5618,7 @@
     <col min="7" max="7" width="88.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5345,7 +5641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f t="shared" ref="A2:A7" si="0">IFERROR($A1+1,1)</f>
         <v>1</v>
@@ -5361,19 +5657,19 @@
         <v>7</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TEEBPD/Theme Designing</v>
       </c>
       <c r="F2" s="7" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G2" s="7" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Theme Designing</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5389,19 +5685,19 @@
         <v>8</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TEEBPD/Database Structure Designing</v>
       </c>
       <c r="F3" s="7" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G3" s="7" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Database Structure Designing</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5417,19 +5713,19 @@
         <v>11</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TEEBPD/Appframe configuration</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G4" s="7" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Appframe configuration</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5445,19 +5741,19 @@
         <v>12</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TEEBPD/Inhouse Testing</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G5" s="7" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Inhouse Testing</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5473,19 +5769,19 @@
         <v>13</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TEEBPD/Client Demonstration</v>
       </c>
       <c r="F6" s="7" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G6" s="7" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Client Demonstration</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5501,19 +5797,19 @@
         <v>14</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TEEBPD/Client Suggestion Implementation</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G7" s="7" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Client Suggestion Implementation</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" ref="A8:A13" si="1">IFERROR($A7+1,1)</f>
         <v>7</v>
@@ -5529,19 +5825,19 @@
         <v>49</v>
       </c>
       <c r="E8" s="34" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TKT/Database Analysis from Old Project</v>
       </c>
       <c r="F8" s="34" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TKT</v>
       </c>
       <c r="G8" s="34" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Database Analysis from Old Project</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5557,19 +5853,19 @@
         <v>50</v>
       </c>
       <c r="E9" s="34" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TKT/DB Designing</v>
       </c>
       <c r="F9" s="34" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TKT</v>
       </c>
       <c r="G9" s="34" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>DB Designing</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5585,19 +5881,19 @@
         <v>11</v>
       </c>
       <c r="E10" s="34" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TKT/Appframe configuration</v>
       </c>
       <c r="F10" s="34" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TKT</v>
       </c>
       <c r="G10" s="34" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Appframe configuration</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -5613,19 +5909,19 @@
         <v>53</v>
       </c>
       <c r="E11" s="45" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
       <c r="F11" s="45" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>TKT</v>
       </c>
       <c r="G11" s="45" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Discussion for ticketing modification</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -5641,19 +5937,19 @@
         <v>56</v>
       </c>
       <c r="E12" s="45" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>SDS/Decryption</v>
       </c>
       <c r="F12" s="45" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>SDS</v>
       </c>
       <c r="G12" s="45" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Decryption</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="43">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -5669,19 +5965,19 @@
         <v>61</v>
       </c>
       <c r="E13" s="45" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>SDS/Solving the issue of repeating icon in tray</v>
       </c>
       <c r="F13" s="45" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>SDS</v>
       </c>
       <c r="G13" s="45" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <f>IFERROR($A13+1,1)</f>
         <v>13</v>
@@ -5697,19 +5993,19 @@
         <v>66</v>
       </c>
       <c r="E14" s="53" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>PPOIO/Project Study</v>
       </c>
       <c r="F14" s="53" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>PPOIO</v>
       </c>
       <c r="G14" s="53" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Project Study</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
         <f>IFERROR($A14+1,1)</f>
         <v>14</v>
@@ -5725,19 +6021,19 @@
         <v>67</v>
       </c>
       <c r="E15" s="53" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>PPOIO/Business Plan</v>
       </c>
       <c r="F15" s="53" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>PPOIO</v>
       </c>
       <c r="G15" s="53" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Business Plan</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="43">
         <f>IFERROR($A15+1,1)</f>
         <v>15</v>
@@ -5753,19 +6049,19 @@
         <v>70</v>
       </c>
       <c r="E16" s="53" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>APPFRAME/Development</v>
       </c>
       <c r="F16" s="53" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>APPFRAME</v>
       </c>
       <c r="G16" s="53" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Development</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="43">
         <f>IFERROR($A16+1,1)</f>
         <v>16</v>
@@ -5781,21 +6077,49 @@
         <v>76</v>
       </c>
       <c r="E17" s="53" t="str">
-        <f>CONCATENATE([Project],"/",[Task])</f>
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
         <v>MITWEB/Modification</v>
       </c>
       <c r="F17" s="53" t="str">
-        <f>[Project]</f>
+        <f>ProjectTasks[Project]</f>
         <v>MITWEB</v>
       </c>
       <c r="G17" s="53" t="str">
-        <f>[Task]</f>
+        <f>ProjectTasks[Task]</f>
         <v>Modification</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="47">
+        <f>IFERROR($A17+1,1)</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="44" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
+        <v>RTM-1</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="45" t="str">
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <v>RTM/Getting branchname into tool</v>
+      </c>
+      <c r="F18" s="45" t="str">
+        <f>ProjectTasks[Project]</f>
+        <v>RTM</v>
+      </c>
+      <c r="G18" s="45" t="str">
+        <f>ProjectTasks[Task]</f>
+        <v>Getting branchname into tool</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
       <formula1>ProjectCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -5807,19 +6131,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5827,7 +6151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f t="shared" ref="A2:A5" si="0">IFERROR($A1+1,1)</f>
         <v>1</v>
@@ -5836,7 +6160,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5845,7 +6169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5854,7 +6178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5872,14 +6196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="18.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" hidden="1" customWidth="1"/>
@@ -5893,7 +6217,7 @@
     <col min="16" max="17" width="9.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5946,21 +6270,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f t="shared" ref="A2:A8" si="0">IFERROR($A1+1,1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="10" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C2" s="10" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Discussion for ticketing modification</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
         <v>Aswathy/43430</v>
       </c>
       <c r="E2" s="46">
@@ -5987,45 +6311,45 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="L2" s="2">
-        <f>([End Time]-[Start Time])*1440</f>
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
         <v>90</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
         <v>01:30</v>
       </c>
       <c r="N2" s="2">
-        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
         <v>330</v>
       </c>
       <c r="O2" s="2" t="str">
-        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:30</v>
       </c>
       <c r="P2" s="10" t="str">
-        <f>[PRJ]</f>
+        <f>TaskTimings[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q2" s="10" t="str">
-        <f>[TSK]</f>
+        <f>TaskTimings[TSK]</f>
         <v>Discussion for ticketing modification</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="47">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="44" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C3" s="44" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Discussion for ticketing modification</v>
       </c>
       <c r="D3" s="44" t="str">
-        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
         <v>Shareena/43430</v>
       </c>
       <c r="E3" s="46">
@@ -6052,45 +6376,45 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="L3" s="40">
-        <f>([End Time]-[Start Time])*1440</f>
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
         <v>90</v>
       </c>
       <c r="M3" s="40" t="str">
-        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
         <v>01:30</v>
       </c>
       <c r="N3" s="40">
-        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
         <v>330.99999999999994</v>
       </c>
       <c r="O3" s="40" t="str">
-        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:31</v>
       </c>
       <c r="P3" s="44" t="str">
-        <f>[PRJ]</f>
+        <f>TaskTimings[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q3" s="44" t="str">
-        <f>[TSK]</f>
+        <f>TaskTimings[TSK]</f>
         <v>Discussion for ticketing modification</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="47">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="44" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>SDS</v>
       </c>
       <c r="C4" s="44" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Decryption</v>
       </c>
       <c r="D4" s="44" t="str">
-        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
         <v>Aswathy/43430</v>
       </c>
       <c r="E4" s="44">
@@ -6117,45 +6441,45 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="L4" s="40">
-        <f>([End Time]-[Start Time])*1440</f>
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
         <v>30.000000000000053</v>
       </c>
       <c r="M4" s="40" t="str">
-        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
         <v>00:30</v>
       </c>
       <c r="N4" s="40">
-        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
         <v>330</v>
       </c>
       <c r="O4" s="40" t="str">
-        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:30</v>
       </c>
       <c r="P4" s="44" t="str">
-        <f>[PRJ]</f>
+        <f>TaskTimings[PRJ]</f>
         <v>SDS</v>
       </c>
       <c r="Q4" s="44" t="str">
-        <f>[TSK]</f>
+        <f>TaskTimings[TSK]</f>
         <v>Decryption</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="47">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="44" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C5" s="44" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Database Analysis from Old Project</v>
       </c>
       <c r="D5" s="44" t="str">
-        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
         <v>Shareena/43430</v>
       </c>
       <c r="E5" s="44">
@@ -6182,45 +6506,45 @@
         <v>0.55972222222222223</v>
       </c>
       <c r="L5" s="40">
-        <f>([End Time]-[Start Time])*1440</f>
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
         <v>121.00000000000006</v>
       </c>
       <c r="M5" s="40" t="str">
-        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
         <v>02:01</v>
       </c>
       <c r="N5" s="40">
-        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
         <v>330.99999999999994</v>
       </c>
       <c r="O5" s="40" t="str">
-        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:31</v>
       </c>
       <c r="P5" s="44" t="str">
-        <f>[PRJ]</f>
+        <f>TaskTimings[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q5" s="44" t="str">
-        <f>[TSK]</f>
+        <f>TaskTimings[TSK]</f>
         <v>Database Analysis from Old Project</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="44" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>SDS</v>
       </c>
       <c r="C6" s="44" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
       <c r="D6" s="44" t="str">
-        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
         <v>Aswathy/43430</v>
       </c>
       <c r="E6" s="44">
@@ -6247,45 +6571,45 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="L6" s="40">
-        <f>([End Time]-[Start Time])*1440</f>
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
         <v>89.999999999999915</v>
       </c>
       <c r="M6" s="40" t="str">
-        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
         <v>01:30</v>
       </c>
       <c r="N6" s="40">
-        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
         <v>330</v>
       </c>
       <c r="O6" s="40" t="str">
-        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:30</v>
       </c>
       <c r="P6" s="44" t="str">
-        <f>[PRJ]</f>
+        <f>TaskTimings[PRJ]</f>
         <v>SDS</v>
       </c>
       <c r="Q6" s="44" t="str">
-        <f>[TSK]</f>
+        <f>TaskTimings[TSK]</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="47">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="44" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C7" s="44" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>DB Designing</v>
       </c>
       <c r="D7" s="44" t="str">
-        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
         <v>Shareena/43430</v>
       </c>
       <c r="E7" s="44">
@@ -6312,45 +6636,45 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="L7" s="40">
-        <f>([End Time]-[Start Time])*1440</f>
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
         <v>119.99999999999989</v>
       </c>
       <c r="M7" s="40" t="str">
-        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
         <v>02:00</v>
       </c>
       <c r="N7" s="40">
-        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
         <v>330.99999999999994</v>
       </c>
       <c r="O7" s="40" t="str">
-        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:31</v>
       </c>
       <c r="P7" s="44" t="str">
-        <f>[PRJ]</f>
+        <f>TaskTimings[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q7" s="44" t="str">
-        <f>[TSK]</f>
+        <f>TaskTimings[TSK]</f>
         <v>DB Designing</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="44" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>SDS</v>
       </c>
       <c r="C8" s="44" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
       <c r="D8" s="44" t="str">
-        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
         <v>Aswathy/43430</v>
       </c>
       <c r="E8" s="44">
@@ -6377,45 +6701,45 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="L8" s="40">
-        <f>([End Time]-[Start Time])*1440</f>
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
         <v>120.00000000000006</v>
       </c>
       <c r="M8" s="40" t="str">
-        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
         <v>02:00</v>
       </c>
       <c r="N8" s="40">
-        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
         <v>330</v>
       </c>
       <c r="O8" s="40" t="str">
-        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:30</v>
       </c>
       <c r="P8" s="44" t="str">
-        <f>[PRJ]</f>
+        <f>TaskTimings[PRJ]</f>
         <v>SDS</v>
       </c>
       <c r="Q8" s="44" t="str">
-        <f>[TSK]</f>
+        <f>TaskTimings[TSK]</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
-        <f>IFERROR($A8+1,1)</f>
+        <f t="shared" ref="A9:A17" si="1">IFERROR($A8+1,1)</f>
         <v>8</v>
       </c>
       <c r="B9" s="52" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C9" s="52" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Discussion for ticketing modification</v>
       </c>
       <c r="D9" s="52" t="str">
-        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
         <v>Firose/43430</v>
       </c>
       <c r="E9" s="52">
@@ -6442,45 +6766,45 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="L9" s="51">
-        <f>([End Time]-[Start Time])*1440</f>
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="M9" s="51" t="str">
-        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
         <v>01:00</v>
       </c>
       <c r="N9" s="51">
-        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
         <v>419.99999999999989</v>
       </c>
       <c r="O9" s="51" t="str">
-        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
         <v>07:00</v>
       </c>
       <c r="P9" s="52" t="str">
-        <f>[PRJ]</f>
+        <f>TaskTimings[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q9" s="52" t="str">
-        <f>[TSK]</f>
+        <f>TaskTimings[TSK]</f>
         <v>Discussion for ticketing modification</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="43">
-        <f>IFERROR($A9+1,1)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="52" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>PPOIO</v>
       </c>
       <c r="C10" s="52" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Project Study</v>
       </c>
       <c r="D10" s="52" t="str">
-        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
         <v>Firose/43430</v>
       </c>
       <c r="E10" s="52">
@@ -6507,45 +6831,45 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="L10" s="51">
-        <f>([End Time]-[Start Time])*1440</f>
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
         <v>119.99999999999997</v>
       </c>
       <c r="M10" s="51" t="str">
-        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
         <v>02:00</v>
       </c>
       <c r="N10" s="51">
-        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
         <v>419.99999999999989</v>
       </c>
       <c r="O10" s="51" t="str">
-        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
         <v>07:00</v>
       </c>
       <c r="P10" s="52" t="str">
-        <f>[PRJ]</f>
+        <f>TaskTimings[PRJ]</f>
         <v>PPOIO</v>
       </c>
       <c r="Q10" s="52" t="str">
-        <f>[TSK]</f>
+        <f>TaskTimings[TSK]</f>
         <v>Project Study</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
-        <f>IFERROR($A10+1,1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="52" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>PPOIO</v>
       </c>
       <c r="C11" s="52" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Business Plan</v>
       </c>
       <c r="D11" s="52" t="str">
-        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
         <v>Firose/43430</v>
       </c>
       <c r="E11" s="52">
@@ -6572,45 +6896,45 @@
         <v>0.75</v>
       </c>
       <c r="L11" s="51">
-        <f>([End Time]-[Start Time])*1440</f>
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
         <v>239.99999999999994</v>
       </c>
       <c r="M11" s="51" t="str">
-        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
         <v>04:00</v>
       </c>
       <c r="N11" s="51">
-        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
         <v>419.99999999999989</v>
       </c>
       <c r="O11" s="51" t="str">
-        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
         <v>07:00</v>
       </c>
       <c r="P11" s="52" t="str">
-        <f>[PRJ]</f>
+        <f>TaskTimings[PRJ]</f>
         <v>PPOIO</v>
       </c>
       <c r="Q11" s="52" t="str">
-        <f>[TSK]</f>
+        <f>TaskTimings[TSK]</f>
         <v>Business Plan</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
-        <f>IFERROR($A11+1,1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="52" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TEEBPD</v>
       </c>
       <c r="C12" s="52" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Client Suggestion Implementation</v>
       </c>
       <c r="D12" s="52" t="str">
-        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
         <v>Firose/43431</v>
       </c>
       <c r="E12" s="52">
@@ -6637,46 +6961,46 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="L12" s="51">
-        <f>([End Time]-[Start Time])*1440</f>
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
         <v>480.00000000000006</v>
       </c>
       <c r="M12" s="51" t="str">
-        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
         <v>08:00</v>
       </c>
       <c r="N12" s="51">
-        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
         <v>480.00000000000006</v>
       </c>
       <c r="O12" s="51" t="str">
-        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
         <v>08:00</v>
       </c>
       <c r="P12" s="52" t="str">
-        <f>[PRJ]</f>
+        <f>TaskTimings[PRJ]</f>
         <v>TEEBPD</v>
       </c>
       <c r="Q12" s="52" t="str">
-        <f>[TSK]</f>
+        <f>TaskTimings[TSK]</f>
         <v>Client Suggestion Implementation</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="43">
         <f>IFERROR($A12+1,1)</f>
         <v>12</v>
       </c>
       <c r="B13" s="52" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
-        <v>MITWEB</v>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
       </c>
       <c r="C13" s="52" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
-        <v>Modification</v>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Database Analysis from Old Project</v>
       </c>
       <c r="D13" s="52" t="str">
-        <f>[Employee]&amp;"/"&amp;[Date]</f>
-        <v>Firose/43432</v>
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Shareena/43431</v>
       </c>
       <c r="E13" s="52">
         <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
@@ -6684,119 +7008,574 @@
       </c>
       <c r="F13" s="52" t="str">
         <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
-        <v>Firose/43432/1</v>
+        <v>Shareena/43431/1</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I13" s="54">
-        <v>43432</v>
-      </c>
-      <c r="J13" s="55">
-        <v>0.375</v>
+        <v>43431</v>
+      </c>
+      <c r="J13" s="105">
+        <v>0.38541666666666669</v>
       </c>
       <c r="K13" s="55">
-        <v>0.41666666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="L13" s="51">
-        <f>([End Time]-[Start Time])*1440</f>
-        <v>60.000000000000028</v>
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>135</v>
       </c>
       <c r="M13" s="51" t="str">
-        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
-        <v>01:00</v>
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>02:15</v>
       </c>
       <c r="N13" s="51">
-        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
-        <v>90</v>
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>135</v>
       </c>
       <c r="O13" s="51" t="str">
-        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
-        <v>01:30</v>
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>02:15</v>
       </c>
       <c r="P13" s="52" t="str">
-        <f>[PRJ]</f>
-        <v>MITWEB</v>
+        <f>TaskTimings[PRJ]</f>
+        <v>TKT</v>
       </c>
       <c r="Q13" s="52" t="str">
-        <f>[TSK]</f>
-        <v>Modification</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <f>TaskTimings[TSK]</f>
+        <v>Database Analysis from Old Project</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <f>IFERROR($A13+1,1)</f>
         <v>13</v>
       </c>
       <c r="B14" s="52" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
-        <v>TKT</v>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>SDS</v>
       </c>
       <c r="C14" s="52" t="str">
-        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
-        <v>Discussion for ticketing modification</v>
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Solving the issue of repeating icon in tray</v>
       </c>
       <c r="D14" s="52" t="str">
-        <f>[Employee]&amp;"/"&amp;[Date]</f>
-        <v>Firose/43432</v>
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Aswathy/43431</v>
       </c>
       <c r="E14" s="52">
         <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="52" t="str">
         <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43431/1</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="54">
+        <v>43431</v>
+      </c>
+      <c r="J14" s="105">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="K14" s="55">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L14" s="51">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>45</v>
+      </c>
+      <c r="M14" s="51" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>00:45</v>
+      </c>
+      <c r="N14" s="51">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>144.99999999999989</v>
+      </c>
+      <c r="O14" s="51" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>02:25</v>
+      </c>
+      <c r="P14" s="52" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>SDS</v>
+      </c>
+      <c r="Q14" s="52" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Solving the issue of repeating icon in tray</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
+        <f>IFERROR($A12+1,1)</f>
+        <v>12</v>
+      </c>
+      <c r="B15" s="52" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TEEBPD</v>
+      </c>
+      <c r="C15" s="52" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Client Suggestion Implementation</v>
+      </c>
+      <c r="D15" s="52" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Aswathy/43431</v>
+      </c>
+      <c r="E15" s="52">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="52" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43431/2</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="54">
+        <v>43431</v>
+      </c>
+      <c r="J15" s="105">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="K15" s="55">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L15" s="51">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>99.999999999999886</v>
+      </c>
+      <c r="M15" s="51" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>01:40</v>
+      </c>
+      <c r="N15" s="51">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>144.99999999999989</v>
+      </c>
+      <c r="O15" s="51" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>02:25</v>
+      </c>
+      <c r="P15" s="52" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>TEEBPD</v>
+      </c>
+      <c r="Q15" s="52" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Client Suggestion Implementation</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
+        <f>IFERROR($A12+1,1)</f>
+        <v>12</v>
+      </c>
+      <c r="B16" s="52" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>MITWEB</v>
+      </c>
+      <c r="C16" s="52" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Modification</v>
+      </c>
+      <c r="D16" s="52" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Firose/43432</v>
+      </c>
+      <c r="E16" s="52">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="52" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Firose/43432/1</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="54">
+        <v>43432</v>
+      </c>
+      <c r="J16" s="55">
+        <v>0.375</v>
+      </c>
+      <c r="K16" s="55">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L16" s="51">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>60.000000000000028</v>
+      </c>
+      <c r="M16" s="51" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>01:00</v>
+      </c>
+      <c r="N16" s="51">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>90</v>
+      </c>
+      <c r="O16" s="51" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>01:30</v>
+      </c>
+      <c r="P16" s="52" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>MITWEB</v>
+      </c>
+      <c r="Q16" s="52" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Modification</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="52" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C17" s="52" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Discussion for ticketing modification</v>
+      </c>
+      <c r="D17" s="52" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Firose/43432</v>
+      </c>
+      <c r="E17" s="52">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="52" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
         <v>Firose/43432/2</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G17" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H17" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I17" s="54">
         <v>43432</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J17" s="55">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K17" s="55">
         <v>0.4375</v>
       </c>
-      <c r="L14" s="51">
-        <f>([End Time]-[Start Time])*1440</f>
+      <c r="L17" s="51">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
         <v>29.999999999999972</v>
       </c>
-      <c r="M14" s="51" t="str">
-        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+      <c r="M17" s="51" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
         <v>00:30</v>
       </c>
-      <c r="N14" s="51">
-        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+      <c r="N17" s="51">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
         <v>90</v>
       </c>
-      <c r="O14" s="51" t="str">
-        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+      <c r="O17" s="51" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
         <v>01:30</v>
       </c>
-      <c r="P14" s="52" t="str">
-        <f>[PRJ]</f>
+      <c r="P17" s="52" t="str">
+        <f>TaskTimings[PRJ]</f>
         <v>TKT</v>
       </c>
-      <c r="Q14" s="52" t="str">
-        <f>[TSK]</f>
+      <c r="Q17" s="52" t="str">
+        <f>TaskTimings[TSK]</f>
         <v>Discussion for ticketing modification</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="47">
+        <f>IFERROR($A17+1,1)</f>
+        <v>14</v>
+      </c>
+      <c r="B18" s="44" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C18" s="44" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Appframe configuration</v>
+      </c>
+      <c r="D18" s="44" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Shareena/43432</v>
+      </c>
+      <c r="E18" s="44">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="44" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Shareena/43432/1</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="54">
+        <v>43432</v>
+      </c>
+      <c r="J18" s="106">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="K18" s="50">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="L18" s="40">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>380.00000000000011</v>
+      </c>
+      <c r="M18" s="40" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>06:20</v>
+      </c>
+      <c r="N18" s="40">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>380.00000000000011</v>
+      </c>
+      <c r="O18" s="40" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>06:20</v>
+      </c>
+      <c r="P18" s="44" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>TKT</v>
+      </c>
+      <c r="Q18" s="44" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Appframe configuration</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="47">
+        <f>IFERROR($A18+1,1)</f>
+        <v>15</v>
+      </c>
+      <c r="B19" s="44" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>SDS</v>
+      </c>
+      <c r="C19" s="44" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Decryption</v>
+      </c>
+      <c r="D19" s="44" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Aswathy/43432</v>
+      </c>
+      <c r="E19" s="44">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="44" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43432/1</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="54">
+        <v>43432</v>
+      </c>
+      <c r="J19" s="106">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="K19" s="50">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="L19" s="40">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>69.999999999999915</v>
+      </c>
+      <c r="M19" s="40" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>01:10</v>
+      </c>
+      <c r="N19" s="40">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>320</v>
+      </c>
+      <c r="O19" s="40" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:20</v>
+      </c>
+      <c r="P19" s="44" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>SDS</v>
+      </c>
+      <c r="Q19" s="44" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Decryption</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="47">
+        <f>IFERROR($A19+1,1)</f>
+        <v>16</v>
+      </c>
+      <c r="B20" s="44" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>RTM</v>
+      </c>
+      <c r="C20" s="44" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Getting branchname into tool</v>
+      </c>
+      <c r="D20" s="44" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Aswathy/43432</v>
+      </c>
+      <c r="E20" s="44">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="44" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43432/2</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="54">
+        <v>43432</v>
+      </c>
+      <c r="J20" s="106">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="K20" s="50">
+        <v>0.53125</v>
+      </c>
+      <c r="L20" s="40">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="M20" s="40" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>00:30</v>
+      </c>
+      <c r="N20" s="40">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>320</v>
+      </c>
+      <c r="O20" s="40" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:20</v>
+      </c>
+      <c r="P20" s="44" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>RTM</v>
+      </c>
+      <c r="Q20" s="44" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Getting branchname into tool</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="47">
+        <f>IFERROR($A20+1,1)</f>
+        <v>17</v>
+      </c>
+      <c r="B21" s="44" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>SDS</v>
+      </c>
+      <c r="C21" s="44" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Decryption</v>
+      </c>
+      <c r="D21" s="44" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Aswathy/43432</v>
+      </c>
+      <c r="E21" s="44">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>3</v>
+      </c>
+      <c r="F21" s="44" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43432/3</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="54">
+        <v>43432</v>
+      </c>
+      <c r="J21" s="106">
+        <v>0.53125</v>
+      </c>
+      <c r="K21" s="50">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="L21" s="40">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="M21" s="40" t="str">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>03:40</v>
+      </c>
+      <c r="N21" s="40">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>320</v>
+      </c>
+      <c r="O21" s="40" t="str">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>05:20</v>
+      </c>
+      <c r="P21" s="44" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>SDS</v>
+      </c>
+      <c r="Q21" s="44" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Decryption</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H21">
       <formula1>EmployeeNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G21">
       <formula1>TSKPRJCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -6809,55 +7588,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="16" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="J2" s="74" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="J2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A4" s="58" t="str">
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="78"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -6880,84 +7659,84 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="64" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="J5" s="61" t="str">
+      <c r="H5" s="60"/>
+      <c r="J5" s="69" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="64" t="str">
+      <c r="K5" s="58" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="64" t="str">
+      <c r="L5" s="58" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="64" t="str">
+      <c r="M5" s="58" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="64" t="str">
+      <c r="N5" s="58" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="64" t="str">
+      <c r="O5" s="58" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="68" t="str">
+      <c r="P5" s="60" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="62"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="69"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="69"/>
-    </row>
-    <row r="7" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="61"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="61"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="57" t="str">
+      <c r="B7" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Database Analysis from Old Project</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="66">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
-        <v>121.00000000000006</v>
-      </c>
-      <c r="H7" s="67"/>
+        <v>256.00000000000006</v>
+      </c>
+      <c r="H7" s="72"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -6968,7 +7747,7 @@
       </c>
       <c r="L7" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],L$5)</f>
-        <v>121.00000000000006</v>
+        <v>256.00000000000006</v>
       </c>
       <c r="M7" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],M$5)</f>
@@ -6987,23 +7766,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="57" t="str">
+      <c r="B8" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>DB Designing</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="66">
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
         <v>119.99999999999989</v>
       </c>
-      <c r="H8" s="67"/>
+      <c r="H8" s="72"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7033,23 +7812,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="57" t="str">
+      <c r="B9" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Appframe configuration</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="66">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="67"/>
+        <v>380.00000000000011</v>
+      </c>
+      <c r="H9" s="72"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7060,7 +7839,7 @@
       </c>
       <c r="L9" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],L$5)</f>
-        <v>0</v>
+        <v>380.00000000000011</v>
       </c>
       <c r="M9" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],M$5)</f>
@@ -7079,23 +7858,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="57" t="str">
+      <c r="B10" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="66">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>269.99999999999989</v>
       </c>
-      <c r="H10" s="67"/>
+      <c r="H10" s="72"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>90</v>
@@ -7125,23 +7904,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="57" t="str">
+      <c r="B11" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="66">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="67"/>
+      <c r="H11" s="72"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7171,23 +7950,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="57" t="str">
+      <c r="B12" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="66">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="67"/>
+      <c r="H12" s="72"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7217,23 +7996,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="57" t="str">
+      <c r="B13" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="66">
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="67"/>
+      <c r="H13" s="72"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7263,23 +8042,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="57" t="str">
+      <c r="B14" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="66">
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="67"/>
+      <c r="H14" s="72"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7309,23 +8088,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="57" t="str">
+      <c r="B15" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="66">
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="67"/>
+      <c r="H15" s="72"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7355,23 +8134,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="57" t="str">
+      <c r="B16" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="66">
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="67"/>
+      <c r="H16" s="72"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7401,23 +8180,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="57" t="str">
+      <c r="B17" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="66">
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="67"/>
+      <c r="H17" s="72"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7447,23 +8226,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="57" t="str">
+      <c r="B18" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="66">
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="67"/>
+      <c r="H18" s="72"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7493,23 +8272,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="57" t="str">
+      <c r="B19" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="66">
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="67"/>
+      <c r="H19" s="72"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7539,23 +8318,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="57" t="str">
+      <c r="B20" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="66">
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="71">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="67"/>
+      <c r="H20" s="72"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7585,23 +8364,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="63" t="str">
+      <c r="B21" s="76" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="72">
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="74">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="73"/>
+      <c r="H21" s="75"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7631,69 +8410,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:16">
-      <c r="D23" s="75" t="s">
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="75">
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="63">
         <f>SUM(G7:H21)</f>
-        <v>510.99999999999983</v>
-      </c>
-      <c r="H23" s="77"/>
-      <c r="J23" s="70">
+        <v>1026</v>
+      </c>
+      <c r="H23" s="65"/>
+      <c r="J23" s="56">
         <f>SUM(J7:J21)</f>
         <v>90</v>
       </c>
-      <c r="K23" s="70">
+      <c r="K23" s="56">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="70">
+      <c r="L23" s="56">
         <f t="shared" si="0"/>
-        <v>330.99999999999994</v>
-      </c>
-      <c r="M23" s="70">
+        <v>846</v>
+      </c>
+      <c r="M23" s="56">
         <f t="shared" si="0"/>
         <v>89.999999999999915</v>
       </c>
-      <c r="N23" s="70">
+      <c r="N23" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="70">
+      <c r="O23" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="70">
+      <c r="P23" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1">
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="80"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="68"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -7710,36 +8513,12 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -7753,26 +8532,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:M10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="F1" s="102" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="F1" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="102"/>
+      <c r="G1" s="85"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -7791,22 +8570,22 @@
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
     </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="F2" s="101">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="F2" s="84">
         <v>43430</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="I2" s="81">
+      <c r="G2" s="84"/>
+      <c r="I2" s="101">
         <f>SUM(I7:I30)</f>
-        <v>330</v>
-      </c>
-      <c r="J2" s="83" t="str">
+        <v>846</v>
+      </c>
+      <c r="J2" s="95" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
-        <v>5:30</v>
+        <v>14:06</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -7820,15 +8599,15 @@
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="84"/>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -7841,42 +8620,42 @@
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" spans="1:28">
-      <c r="K4" s="74" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K4" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B5" s="74" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="91"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -7887,42 +8666,42 @@
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="103">
+      <c r="B7" s="86">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="104" t="str">
+      <c r="C7" s="58"/>
+      <c r="D7" s="87" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="93">
+      <c r="I7" s="94">
         <f>SUM(H7:H10)</f>
-        <v>330</v>
+        <v>330.99999999999994</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="85" t="str">
+      <c r="L7" s="97" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="85"/>
+      <c r="M7" s="97"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
@@ -7963,36 +8742,36 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="94" t="str">
+      <c r="B8" s="70"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v>SDS/Decryption</v>
-      </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
+        <v>TKT/Database Analysis from Old Project</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>30.000000000000053</v>
-      </c>
-      <c r="I8" s="83"/>
+        <v>121.00000000000006</v>
+      </c>
+      <c r="I8" s="95"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="85" t="str">
+      <c r="L8" s="97" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
-        <v>SDS</v>
-      </c>
-      <c r="M8" s="85"/>
+        <v/>
+      </c>
+      <c r="M8" s="97"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
-        <v>240.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -8006,60 +8785,60 @@
       </c>
       <c r="V8" s="33" t="str">
         <f>IF($U8=0,"",VLOOKUP($D8,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v>SDS</v>
+        <v>TKT</v>
       </c>
       <c r="W8" s="14">
         <f>IF($V8="","",COUNTIF($V$7:$V8,$V8))</f>
-        <v>1</v>
-      </c>
-      <c r="X8" s="14">
+        <v>2</v>
+      </c>
+      <c r="X8" s="14" t="str">
         <f>IF($W8=1,SUM($X$6:$X7)+1,"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="Y8" s="37" t="str">
         <f t="shared" ref="Y8:Y30" si="1">IF($W8="","",$V8)</f>
-        <v>SDS</v>
+        <v>TKT</v>
       </c>
       <c r="Z8" s="33" t="str">
         <f>IF($Y8="","",$Y8&amp;"/"&amp;COUNTIF($Y$7:$Y8,$Y8))</f>
-        <v>SDS/1</v>
+        <v>TKT/2</v>
       </c>
       <c r="AA8" s="33" t="str">
         <f>IF($Z8="","",VLOOKUP($D8,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v>Decryption</v>
+        <v>Database Analysis from Old Project</v>
       </c>
       <c r="AB8" s="33">
         <f t="shared" ref="AB8:AB30" si="2">IF($AA8="",0,SUMIFS($H$7:$H$30,$D$7:$D$30,$Y8&amp;"/"&amp;$AA8))</f>
-        <v>30.000000000000053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>256.00000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="94" t="str">
+      <c r="B9" s="70"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v>SDS/Solving the issue of repeating icon in tray</v>
-      </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
+        <v>TKT/DB Designing</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>89.999999999999915</v>
-      </c>
-      <c r="I9" s="83"/>
+        <v>119.99999999999989</v>
+      </c>
+      <c r="I9" s="95"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="85" t="str">
+      <c r="L9" s="97" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="85"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8076,11 +8855,11 @@
       </c>
       <c r="V9" s="33" t="str">
         <f>IF($U9=0,"",VLOOKUP($D9,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v>SDS</v>
+        <v>TKT</v>
       </c>
       <c r="W9" s="14">
         <f>IF($V9="","",COUNTIF($V$7:$V9,$V9))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X9" s="14" t="str">
         <f>IF($W9=1,SUM($X$6:$X8)+1,"")</f>
@@ -8088,48 +8867,48 @@
       </c>
       <c r="Y9" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>SDS</v>
+        <v>TKT</v>
       </c>
       <c r="Z9" s="33" t="str">
         <f>IF($Y9="","",$Y9&amp;"/"&amp;COUNTIF($Y$7:$Y9,$Y9))</f>
-        <v>SDS/2</v>
+        <v>TKT/3</v>
       </c>
       <c r="AA9" s="33" t="str">
         <f>IF($Z9="","",VLOOKUP($D9,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v>Solving the issue of repeating icon in tray</v>
+        <v>DB Designing</v>
       </c>
       <c r="AB9" s="33">
         <f t="shared" si="2"/>
-        <v>209.99999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>119.99999999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="94" t="str">
+      <c r="B10" s="70"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v>SDS/Solving the issue of repeating icon in tray</v>
-      </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
+        <v/>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>120.00000000000006</v>
-      </c>
-      <c r="I10" s="83"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="95"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="85" t="str">
+      <c r="L10" s="97" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M10" s="85"/>
+      <c r="M10" s="97"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8173,39 +8952,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" thickBot="1">
+    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="95">
+      <c r="B11" s="89">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="94" t="str">
+      <c r="C11" s="59"/>
+      <c r="D11" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+        <v>TKT/Database Analysis from Old Project</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="83">
+        <v>135</v>
+      </c>
+      <c r="I11" s="95">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J11" s="25"/>
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="88" t="str">
+      <c r="L11" s="100" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="88"/>
+      <c r="M11" s="100"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8249,24 +9028,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="94" t="str">
+      <c r="B12" s="70"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="83"/>
+      <c r="I12" s="95"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -8311,31 +9090,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="94" t="str">
+      <c r="B13" s="70"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="83"/>
+      <c r="I13" s="95"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="98" t="s">
+      <c r="K13" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -8375,29 +9154,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" thickBot="1">
+    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="94" t="str">
+      <c r="B14" s="70"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="83"/>
+      <c r="I14" s="95"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -8437,41 +9216,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="95">
+      <c r="B15" s="89">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="94" t="str">
+      <c r="C15" s="59"/>
+      <c r="D15" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
+        <v>TKT/Appframe configuration</v>
+      </c>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="83">
+        <v>380.00000000000011</v>
+      </c>
+      <c r="I15" s="95">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
-        <v>0</v>
+        <v>380.00000000000011</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="90" t="s">
+      <c r="K15" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89" t="s">
+      <c r="L15" s="99"/>
+      <c r="M15" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -8482,15 +9261,15 @@
       <c r="T15" s="25"/>
       <c r="U15" s="14">
         <f>IF(COUNTIFS($D$6:$D15,D15)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="33" t="str">
         <f>IF($U15=0,"",VLOOKUP($D15,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v/>
-      </c>
-      <c r="W15" s="14" t="str">
+        <v>TKT</v>
+      </c>
+      <c r="W15" s="14">
         <f>IF($V15="","",COUNTIF($V$7:$V15,$V15))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="X15" s="14" t="str">
         <f>IF($W15=1,SUM($X$6:$X14)+1,"")</f>
@@ -8498,61 +9277,61 @@
       </c>
       <c r="Y15" s="37" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>TKT</v>
       </c>
       <c r="Z15" s="33" t="str">
         <f>IF($Y15="","",$Y15&amp;"/"&amp;COUNTIF($Y$7:$Y15,$Y15))</f>
-        <v/>
+        <v>TKT/4</v>
       </c>
       <c r="AA15" s="33" t="str">
         <f>IF($Z15="","",VLOOKUP($D15,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v/>
+        <v>Appframe configuration</v>
       </c>
       <c r="AB15" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+        <v>380.00000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="94" t="str">
+      <c r="B16" s="70"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="83"/>
+      <c r="I16" s="95"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="86" t="str">
+      <c r="K16" s="103" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="66"/>
-      <c r="M16" s="85" t="str">
+      <c r="L16" s="71"/>
+      <c r="M16" s="97" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="83">
+      <c r="R16" s="95">
         <f>SUM(Q16:Q19)</f>
-        <v>90</v>
+        <v>846</v>
       </c>
       <c r="S16" s="35"/>
       <c r="T16" s="36"/>
@@ -8589,41 +9368,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="94" t="str">
+      <c r="B17" s="70"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="83"/>
+      <c r="I17" s="95"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="86"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="85" t="str">
+      <c r="K17" s="103"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="97" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
-        <v/>
-      </c>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="22" t="str">
+        <v>Database Analysis from Old Project</v>
+      </c>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="22">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
-        <v/>
-      </c>
-      <c r="R17" s="83"/>
+        <v>256.00000000000006</v>
+      </c>
+      <c r="R17" s="95"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -8659,41 +9438,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="94" t="str">
+      <c r="B18" s="70"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="83"/>
+      <c r="I18" s="95"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="86"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="85" t="str">
+      <c r="K18" s="103"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="97" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
-        <v/>
-      </c>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="22" t="str">
+        <v>DB Designing</v>
+      </c>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="22">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
-        <v/>
-      </c>
-      <c r="R18" s="83"/>
+        <v>119.99999999999989</v>
+      </c>
+      <c r="R18" s="95"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -8729,47 +9508,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="95">
+      <c r="B19" s="89">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="94" t="str">
+      <c r="C19" s="59"/>
+      <c r="D19" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="83">
+      <c r="I19" s="95">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="86"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="85" t="str">
+      <c r="K19" s="103"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="97" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
-        <v/>
-      </c>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="22" t="str">
+        <v>Appframe configuration</v>
+      </c>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="22">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
-        <v/>
-      </c>
-      <c r="R19" s="83"/>
+        <v>380.00000000000011</v>
+      </c>
+      <c r="R19" s="95"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -8805,46 +9584,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="94" t="str">
+      <c r="B20" s="70"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="83"/>
+      <c r="I20" s="95"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="86" t="str">
+      <c r="K20" s="103" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
-        <v>SDS</v>
-      </c>
-      <c r="L20" s="66"/>
-      <c r="M20" s="85" t="str">
+        <v/>
+      </c>
+      <c r="L20" s="71"/>
+      <c r="M20" s="97" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
-        <v>Decryption</v>
-      </c>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="22">
+        <v/>
+      </c>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="22" t="str">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
-        <v>30.000000000000053</v>
-      </c>
-      <c r="R20" s="83">
+        <v/>
+      </c>
+      <c r="R20" s="95">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
-        <v>240.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -8881,41 +9660,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="94" t="str">
+      <c r="B21" s="70"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="83"/>
+      <c r="I21" s="95"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="86"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="85" t="str">
+      <c r="K21" s="103"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="97" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
-        <v>Solving the issue of repeating icon in tray</v>
-      </c>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="22">
+        <v/>
+      </c>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="22" t="str">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
-        <v>209.99999999999997</v>
-      </c>
-      <c r="R21" s="83"/>
+        <v/>
+      </c>
+      <c r="R21" s="95"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -8951,41 +9730,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="94" t="str">
+      <c r="B22" s="70"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="83"/>
+      <c r="I22" s="95"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="86"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="85" t="str">
+      <c r="K22" s="103"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="97" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="83"/>
+      <c r="R22" s="95"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -9021,47 +9800,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="95">
+      <c r="B23" s="89">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="94" t="str">
+      <c r="C23" s="59"/>
+      <c r="D23" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="83">
+      <c r="I23" s="95">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>0</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="86"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="85" t="str">
+      <c r="K23" s="103"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="97" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="83"/>
+      <c r="R23" s="95"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -9097,44 +9876,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="94" t="str">
+      <c r="B24" s="70"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="83"/>
+      <c r="I24" s="95"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="86" t="str">
+      <c r="K24" s="103" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="66"/>
-      <c r="M24" s="85" t="str">
+      <c r="L24" s="71"/>
+      <c r="M24" s="97" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="83">
+      <c r="R24" s="95">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -9173,41 +9952,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="94" t="str">
+      <c r="B25" s="70"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="83"/>
+      <c r="I25" s="95"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="86"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="85" t="str">
+      <c r="K25" s="103"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="97" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="83"/>
+      <c r="R25" s="95"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -9243,41 +10022,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="94" t="str">
+      <c r="B26" s="70"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="83"/>
+      <c r="I26" s="95"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="86"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="85" t="str">
+      <c r="K26" s="103"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="97" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="83"/>
+      <c r="R26" s="95"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -9313,47 +10092,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="95">
+      <c r="B27" s="89">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="94" t="str">
+      <c r="C27" s="59"/>
+      <c r="D27" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="83">
+      <c r="I27" s="95">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="86"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="85" t="str">
+      <c r="K27" s="103"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="97" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="83"/>
+      <c r="R27" s="95"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -9389,44 +10168,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="94" t="str">
+      <c r="B28" s="70"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="83"/>
+      <c r="I28" s="95"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="86" t="str">
+      <c r="K28" s="103" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L28" s="66"/>
-      <c r="M28" s="85" t="str">
+      <c r="L28" s="71"/>
+      <c r="M28" s="97" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
       <c r="Q28" s="22" t="str">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v/>
       </c>
-      <c r="R28" s="83">
+      <c r="R28" s="95">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>0</v>
       </c>
@@ -9465,41 +10244,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="94" t="str">
+      <c r="B29" s="70"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="88" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="83"/>
+      <c r="I29" s="95"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="86"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="85" t="str">
+      <c r="K29" s="103"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="97" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
       <c r="Q29" s="22" t="str">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v/>
       </c>
-      <c r="R29" s="83"/>
+      <c r="R29" s="95"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -9535,38 +10314,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B30" s="96"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="92" t="str">
+    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="93" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="84"/>
+      <c r="I30" s="96"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="86"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="85" t="str">
+      <c r="K30" s="103"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="97" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="97"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="83"/>
+      <c r="R30" s="95"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -9600,109 +10379,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="86"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="85" t="str">
+      <c r="K31" s="103"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="97" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="83"/>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="R31" s="95"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="86" t="str">
+      <c r="K32" s="103" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="66"/>
-      <c r="M32" s="85" t="str">
+      <c r="L32" s="71"/>
+      <c r="M32" s="97" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="83">
+      <c r="R32" s="95">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="10:18">
+    <row r="33" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="86"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="85" t="str">
+      <c r="K33" s="103"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="97" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="83"/>
-    </row>
-    <row r="34" spans="10:18">
+      <c r="R33" s="95"/>
+    </row>
+    <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="86"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="85" t="str">
+      <c r="K34" s="103"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="97" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="83"/>
-    </row>
-    <row r="35" spans="10:18" ht="15.75" thickBot="1">
+      <c r="R34" s="95"/>
+    </row>
+    <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="87"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="88" t="str">
+      <c r="K35" s="104"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="100" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="84"/>
+      <c r="R35" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K20:L23"/>
+    <mergeCell ref="K24:L27"/>
+    <mergeCell ref="K28:L31"/>
+    <mergeCell ref="K32:L35"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K16:L19"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="K13:N14"/>
     <mergeCell ref="A1:D3"/>
@@ -9719,72 +10564,6 @@
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K20:L23"/>
-    <mergeCell ref="K24:L27"/>
-    <mergeCell ref="K28:L31"/>
-    <mergeCell ref="K32:L35"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K16:L19"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -775,11 +775,35 @@
     <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -787,10 +811,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -814,41 +856,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -870,63 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1773,7 +1773,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1811,7 +1810,7 @@
                   <c:v>119.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>380.00000000000011</c:v>
+                  <c:v>-284.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>269.99999999999989</c:v>
@@ -1897,11 +1896,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="-70922784"/>
-        <c:axId val="-70917344"/>
+        <c:axId val="-392961392"/>
+        <c:axId val="-392960848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-70922784"/>
+        <c:axId val="-392961392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +1921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-70917344"/>
+        <c:crossAx val="-392960848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1930,7 +1929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-70917344"/>
+        <c:axId val="-392960848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,7 +1950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-70922784"/>
+        <c:crossAx val="-392961392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2226,7 +2225,7 @@
                   <c:v>119.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>380.00000000000011</c:v>
+                  <c:v>-284.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>90</c:v>
@@ -2629,11 +2628,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="-70916256"/>
-        <c:axId val="-70922240"/>
+        <c:axId val="-392959760"/>
+        <c:axId val="-392952144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-70916256"/>
+        <c:axId val="-392959760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,7 +2652,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-70922240"/>
+        <c:crossAx val="-392952144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2661,7 +2660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-70922240"/>
+        <c:axId val="-392952144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,14 +2681,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-70916256"/>
+        <c:crossAx val="-392959760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2763,9 +2761,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2801,7 +2797,7 @@
                   <c:v>119.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>380.00000000000011</c:v>
+                  <c:v>-284.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>269.99999999999989</c:v>
@@ -2964,7 +2960,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3198,7 +3193,7 @@
                   <c:v>119.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>380.00000000000011</c:v>
+                  <c:v>-284.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>90</c:v>
@@ -3598,11 +3593,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-70915712"/>
-        <c:axId val="-260144064"/>
+        <c:axId val="-392963568"/>
+        <c:axId val="-392959216"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-70915712"/>
+        <c:axId val="-392963568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3622,7 +3617,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-260144064"/>
+        <c:crossAx val="-392959216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3630,7 +3625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-260144064"/>
+        <c:axId val="-392959216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3651,14 +3646,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-70915712"/>
+        <c:crossAx val="-392963568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3713,7 +3707,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3761,9 +3754,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3826,9 +3817,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3864,7 +3853,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>846</c:v>
+                  <c:v>181.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>89.999999999999915</c:v>
@@ -3912,9 +3901,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3962,7 +3949,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4080,7 +4066,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>756</c:v>
+                  <c:v>91.000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4171,7 +4157,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4218,7 +4203,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4293,7 +4277,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4368,7 +4351,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4443,7 +4425,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4466,7 +4447,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>380.00000000000011</c:v>
+                  <c:v>-284.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4494,11 +4475,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-9822752"/>
-        <c:axId val="-9823296"/>
+        <c:axId val="-392951056"/>
+        <c:axId val="-392963024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-9822752"/>
+        <c:axId val="-392951056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4518,7 +4499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-9823296"/>
+        <c:crossAx val="-392963024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4526,7 +4507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-9823296"/>
+        <c:axId val="-392963024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4546,7 +4527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-9822752"/>
+        <c:crossAx val="-392951056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4598,7 +4579,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4640,7 +4620,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4688,7 +4667,7 @@
                   <c:v>380.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-665</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4710,11 +4689,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="-9824928"/>
-        <c:axId val="-9820576"/>
+        <c:axId val="-392957584"/>
+        <c:axId val="-392957040"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-9824928"/>
+        <c:axId val="-392957584"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4734,14 +4713,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-9820576"/>
+        <c:crossAx val="-392957040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-9820576"/>
+        <c:axId val="-392957040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4762,7 +4741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-9824928"/>
+        <c:crossAx val="-392957584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5095,8 +5074,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q22" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q22"/>
   <tableColumns count="17">
     <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -6197,10 +6176,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7019,7 +6998,7 @@
       <c r="I13" s="54">
         <v>43431</v>
       </c>
-      <c r="J13" s="105">
+      <c r="J13" s="56">
         <v>0.38541666666666669</v>
       </c>
       <c r="K13" s="55">
@@ -7084,7 +7063,7 @@
       <c r="I14" s="54">
         <v>43431</v>
       </c>
-      <c r="J14" s="105">
+      <c r="J14" s="56">
         <v>0.38541666666666669</v>
       </c>
       <c r="K14" s="55">
@@ -7149,7 +7128,7 @@
       <c r="I15" s="54">
         <v>43431</v>
       </c>
-      <c r="J15" s="105">
+      <c r="J15" s="56">
         <v>0.47222222222222227</v>
       </c>
       <c r="K15" s="55">
@@ -7344,7 +7323,7 @@
       <c r="I18" s="54">
         <v>43432</v>
       </c>
-      <c r="J18" s="106">
+      <c r="J18" s="57">
         <v>0.43888888888888888</v>
       </c>
       <c r="K18" s="50">
@@ -7409,7 +7388,7 @@
       <c r="I19" s="54">
         <v>43432</v>
       </c>
-      <c r="J19" s="106">
+      <c r="J19" s="57">
         <v>0.44097222222222227</v>
       </c>
       <c r="K19" s="50">
@@ -7474,7 +7453,7 @@
       <c r="I20" s="54">
         <v>43432</v>
       </c>
-      <c r="J20" s="106">
+      <c r="J20" s="57">
         <v>0.51041666666666663</v>
       </c>
       <c r="K20" s="50">
@@ -7539,7 +7518,7 @@
       <c r="I21" s="54">
         <v>43432</v>
       </c>
-      <c r="J21" s="106">
+      <c r="J21" s="57">
         <v>0.53125</v>
       </c>
       <c r="K21" s="50">
@@ -7570,12 +7549,75 @@
         <v>Decryption</v>
       </c>
     </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="47">
+        <f>IFERROR($A21+1,1)</f>
+        <v>18</v>
+      </c>
+      <c r="B22" s="44" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C22" s="44" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Appframe configuration</v>
+      </c>
+      <c r="D22" s="44" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Shareena/43433</v>
+      </c>
+      <c r="E22" s="44">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="44" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Shareena/43433/1</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="48">
+        <v>43433</v>
+      </c>
+      <c r="J22" s="57">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>-665</v>
+      </c>
+      <c r="M22" s="40" t="e">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N22" s="40">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>-665</v>
+      </c>
+      <c r="O22" s="40" t="e">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P22" s="44" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>TKT</v>
+      </c>
+      <c r="Q22" s="44" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Appframe configuration</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H22">
       <formula1>EmployeeNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G22">
       <formula1>TSKPRJCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -7601,42 +7643,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="J2" s="62" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="J2" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="str">
+      <c r="A4" s="60" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="B4" s="78"/>
+      <c r="B4" s="60"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -7660,83 +7702,83 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="58" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="J5" s="69" t="str">
+      <c r="H5" s="70"/>
+      <c r="J5" s="63" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="58" t="str">
+      <c r="K5" s="66" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="58" t="str">
+      <c r="L5" s="66" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="58" t="str">
+      <c r="M5" s="66" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="58" t="str">
+      <c r="N5" s="66" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="58" t="str">
+      <c r="O5" s="66" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="60" t="str">
+      <c r="P5" s="70" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="61"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="61"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="71"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="71"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Database Analysis from Old Project</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="71">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>256.00000000000006</v>
       </c>
-      <c r="H7" s="72"/>
+      <c r="H7" s="69"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7770,19 +7812,19 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="73" t="str">
+      <c r="B8" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>DB Designing</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="71">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
         <v>119.99999999999989</v>
       </c>
-      <c r="H8" s="72"/>
+      <c r="H8" s="69"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7816,19 +7858,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="73" t="str">
+      <c r="B9" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Appframe configuration</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="71">
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
-        <v>380.00000000000011</v>
-      </c>
-      <c r="H9" s="72"/>
+        <v>-284.99999999999989</v>
+      </c>
+      <c r="H9" s="69"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7839,7 +7881,7 @@
       </c>
       <c r="L9" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],L$5)</f>
-        <v>380.00000000000011</v>
+        <v>-284.99999999999989</v>
       </c>
       <c r="M9" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],M$5)</f>
@@ -7862,19 +7904,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="73" t="str">
+      <c r="B10" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="71">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>269.99999999999989</v>
       </c>
-      <c r="H10" s="72"/>
+      <c r="H10" s="69"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>90</v>
@@ -7908,19 +7950,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="73" t="str">
+      <c r="B11" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="71">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="72"/>
+      <c r="H11" s="69"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7954,19 +7996,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="73" t="str">
+      <c r="B12" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="71">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="72"/>
+      <c r="H12" s="69"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8000,19 +8042,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="73" t="str">
+      <c r="B13" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="71">
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="72"/>
+      <c r="H13" s="69"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8046,19 +8088,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="73" t="str">
+      <c r="B14" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="71">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="72"/>
+      <c r="H14" s="69"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8092,19 +8134,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="73" t="str">
+      <c r="B15" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="71">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="72"/>
+      <c r="H15" s="69"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8138,19 +8180,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="73" t="str">
+      <c r="B16" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="71">
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="72"/>
+      <c r="H16" s="69"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8184,19 +8226,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="73" t="str">
+      <c r="B17" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="71">
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="72"/>
+      <c r="H17" s="69"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8230,19 +8272,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="73" t="str">
+      <c r="B18" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="71">
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="72"/>
+      <c r="H18" s="69"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8276,19 +8318,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="73" t="str">
+      <c r="B19" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="71">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="72"/>
+      <c r="H19" s="69"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8322,19 +8364,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="73" t="str">
+      <c r="B20" s="59" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="71">
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="68">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="72"/>
+      <c r="H20" s="69"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8368,14 +8410,14 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="76" t="str">
+      <c r="B21" s="65" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="74">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
@@ -8412,91 +8454,67 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="63">
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="77">
         <f>SUM(G7:H21)</f>
-        <v>1026</v>
-      </c>
-      <c r="H23" s="65"/>
-      <c r="J23" s="56">
+        <v>360.99999999999994</v>
+      </c>
+      <c r="H23" s="79"/>
+      <c r="J23" s="72">
         <f>SUM(J7:J21)</f>
         <v>90</v>
       </c>
-      <c r="K23" s="56">
+      <c r="K23" s="72">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="56">
+      <c r="L23" s="72">
         <f t="shared" si="0"/>
-        <v>846</v>
-      </c>
-      <c r="M23" s="56">
+        <v>181.00000000000006</v>
+      </c>
+      <c r="M23" s="72">
         <f t="shared" si="0"/>
         <v>89.999999999999915</v>
       </c>
-      <c r="N23" s="56">
+      <c r="N23" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="56">
+      <c r="O23" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="56">
+      <c r="P23" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="68"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="82"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -8513,12 +8531,36 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -8535,23 +8577,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="F1" s="85" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="F1" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="85"/>
+      <c r="G1" s="104"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -8571,21 +8613,21 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="F2" s="84">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="F2" s="103">
         <v>43430</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="I2" s="101">
+      <c r="G2" s="103"/>
+      <c r="I2" s="83">
         <f>SUM(I7:I30)</f>
-        <v>846</v>
-      </c>
-      <c r="J2" s="95" t="str">
+        <v>181</v>
+      </c>
+      <c r="J2" s="85" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
-        <v>14:06</v>
+        <v>3:01</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -8600,14 +8642,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="96"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -8621,41 +8663,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -8670,23 +8712,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="105">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="87" t="str">
+      <c r="C7" s="66"/>
+      <c r="D7" s="106" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="95">
         <f>SUM(H7:H10)</f>
         <v>330.99999999999994</v>
       </c>
@@ -8694,14 +8736,14 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="97" t="str">
+      <c r="L7" s="87" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="97"/>
+      <c r="M7" s="87"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
-        <v>756</v>
+        <v>91.000000000000057</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
@@ -8746,29 +8788,29 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="88" t="str">
+      <c r="B8" s="64"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Database Analysis from Old Project</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>121.00000000000006</v>
       </c>
-      <c r="I8" s="95"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="97" t="str">
+      <c r="L8" s="87" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="87"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
         <v>0</v>
@@ -8816,29 +8858,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="88" t="str">
+      <c r="B9" s="64"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/DB Designing</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>119.99999999999989</v>
       </c>
-      <c r="I9" s="95"/>
+      <c r="I9" s="85"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="97" t="str">
+      <c r="L9" s="87" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="97"/>
+      <c r="M9" s="87"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8886,29 +8928,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="88" t="str">
+      <c r="B10" s="64"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="95"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="97" t="str">
+      <c r="L10" s="87" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M10" s="97"/>
+      <c r="M10" s="87"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8956,23 +8998,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="89">
+      <c r="B11" s="97">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="88" t="str">
+      <c r="C11" s="67"/>
+      <c r="D11" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Database Analysis from Old Project</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>135</v>
       </c>
-      <c r="I11" s="95">
+      <c r="I11" s="85">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>135</v>
       </c>
@@ -8980,11 +9022,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="100" t="str">
+      <c r="L11" s="90" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="100"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9032,20 +9074,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="88" t="str">
+      <c r="B12" s="64"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="95"/>
+      <c r="I12" s="85"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -9094,27 +9136,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="88" t="str">
+      <c r="B13" s="64"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="95"/>
+      <c r="I13" s="85"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="81" t="s">
+      <c r="K13" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -9158,25 +9200,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="88" t="str">
+      <c r="B14" s="64"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="95"/>
+      <c r="I14" s="85"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -9220,37 +9262,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="89">
+      <c r="B15" s="97">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="88" t="str">
+      <c r="C15" s="67"/>
+      <c r="D15" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Appframe configuration</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>380.00000000000011</v>
       </c>
-      <c r="I15" s="95">
+      <c r="I15" s="85">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>380.00000000000011</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="98" t="s">
+      <c r="K15" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99" t="s">
+      <c r="L15" s="91"/>
+      <c r="M15" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -9289,49 +9331,49 @@
       </c>
       <c r="AB15" s="33">
         <f t="shared" si="2"/>
-        <v>380.00000000000011</v>
+        <v>-284.99999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="88" t="str">
+      <c r="B16" s="64"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="95"/>
+      <c r="I16" s="85"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="103" t="str">
+      <c r="K16" s="88" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="71"/>
-      <c r="M16" s="97" t="str">
+      <c r="L16" s="68"/>
+      <c r="M16" s="87" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="95">
+      <c r="R16" s="85">
         <f>SUM(Q16:Q19)</f>
-        <v>846</v>
+        <v>181.00000000000006</v>
       </c>
       <c r="S16" s="35"/>
       <c r="T16" s="36"/>
@@ -9372,37 +9414,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="88" t="str">
+      <c r="B17" s="64"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="95"/>
+      <c r="I17" s="85"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="103"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="97" t="str">
+      <c r="K17" s="88"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="87" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v>Database Analysis from Old Project</v>
       </c>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
       <c r="Q17" s="22">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v>256.00000000000006</v>
       </c>
-      <c r="R17" s="95"/>
+      <c r="R17" s="85"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -9442,37 +9484,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="88" t="str">
+      <c r="B18" s="64"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="95"/>
+      <c r="I18" s="85"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="103"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="97" t="str">
+      <c r="K18" s="88"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="87" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v>DB Designing</v>
       </c>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
       <c r="Q18" s="22">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v>119.99999999999989</v>
       </c>
-      <c r="R18" s="95"/>
+      <c r="R18" s="85"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -9512,43 +9554,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="89">
+      <c r="B19" s="97">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="88" t="str">
+      <c r="C19" s="67"/>
+      <c r="D19" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
+        <v>TKT/Appframe configuration</v>
+      </c>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="95">
+        <v>-665</v>
+      </c>
+      <c r="I19" s="85">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
-        <v>0</v>
+        <v>-665</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="103"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="97" t="str">
+      <c r="K19" s="88"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="87" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v>Appframe configuration</v>
       </c>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
       <c r="Q19" s="22">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
-        <v>380.00000000000011</v>
-      </c>
-      <c r="R19" s="95"/>
+        <v>-284.99999999999989</v>
+      </c>
+      <c r="R19" s="85"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -9588,40 +9630,40 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="88" t="str">
+      <c r="B20" s="64"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="95"/>
+      <c r="I20" s="85"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="103" t="str">
+      <c r="K20" s="88" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L20" s="71"/>
-      <c r="M20" s="97" t="str">
+      <c r="L20" s="68"/>
+      <c r="M20" s="87" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
       <c r="Q20" s="22" t="str">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v/>
       </c>
-      <c r="R20" s="95">
+      <c r="R20" s="85">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
         <v>0</v>
       </c>
@@ -9664,37 +9706,37 @@
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="88" t="str">
+      <c r="B21" s="64"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="95"/>
+      <c r="I21" s="85"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="103"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="97" t="str">
+      <c r="K21" s="88"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="87" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
       <c r="Q21" s="22" t="str">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
         <v/>
       </c>
-      <c r="R21" s="95"/>
+      <c r="R21" s="85"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -9734,37 +9776,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="88" t="str">
+      <c r="B22" s="64"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="95"/>
+      <c r="I22" s="85"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="103"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="97" t="str">
+      <c r="K22" s="88"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="87" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="95"/>
+      <c r="R22" s="85"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -9804,43 +9846,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="89">
+      <c r="B23" s="97">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="88" t="str">
+      <c r="C23" s="67"/>
+      <c r="D23" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="95">
+      <c r="I23" s="85">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>0</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="103"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="97" t="str">
+      <c r="K23" s="88"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="87" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="95"/>
+      <c r="R23" s="85"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -9880,40 +9922,40 @@
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="88" t="str">
+      <c r="B24" s="64"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="95"/>
+      <c r="I24" s="85"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="103" t="str">
+      <c r="K24" s="88" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="97" t="str">
+      <c r="L24" s="68"/>
+      <c r="M24" s="87" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="95">
+      <c r="R24" s="85">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -9956,37 +9998,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="88" t="str">
+      <c r="B25" s="64"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="95"/>
+      <c r="I25" s="85"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="103"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="97" t="str">
+      <c r="K25" s="88"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="87" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="95"/>
+      <c r="R25" s="85"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -10026,37 +10068,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="88" t="str">
+      <c r="B26" s="64"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="95"/>
+      <c r="I26" s="85"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="103"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="97" t="str">
+      <c r="K26" s="88"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="87" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="95"/>
+      <c r="R26" s="85"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -10096,43 +10138,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="89">
+      <c r="B27" s="97">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="88" t="str">
+      <c r="C27" s="67"/>
+      <c r="D27" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="95">
+      <c r="I27" s="85">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="103"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="97" t="str">
+      <c r="K27" s="88"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="87" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="95"/>
+      <c r="R27" s="85"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -10172,40 +10214,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="88" t="str">
+      <c r="B28" s="64"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="95"/>
+      <c r="I28" s="85"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="103" t="str">
+      <c r="K28" s="88" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L28" s="71"/>
-      <c r="M28" s="97" t="str">
+      <c r="L28" s="68"/>
+      <c r="M28" s="87" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
       <c r="Q28" s="22" t="str">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v/>
       </c>
-      <c r="R28" s="95">
+      <c r="R28" s="85">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>0</v>
       </c>
@@ -10248,37 +10290,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="88" t="str">
+      <c r="B29" s="64"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="96" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="95"/>
+      <c r="I29" s="85"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="103"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="97" t="str">
+      <c r="K29" s="88"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="87" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="97"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
       <c r="Q29" s="22" t="str">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v/>
       </c>
-      <c r="R29" s="95"/>
+      <c r="R29" s="85"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -10315,37 +10357,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="93" t="str">
+      <c r="B30" s="98"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="94" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="96"/>
+      <c r="I30" s="86"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="103"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="97" t="str">
+      <c r="K30" s="88"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="87" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="97"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="95"/>
+      <c r="R30" s="85"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -10383,42 +10425,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="103"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="97" t="str">
+      <c r="K31" s="88"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="87" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="97"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="95"/>
+      <c r="R31" s="85"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="103" t="str">
+      <c r="K32" s="88" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="71"/>
-      <c r="M32" s="97" t="str">
+      <c r="L32" s="68"/>
+      <c r="M32" s="87" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="97"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="95">
+      <c r="R32" s="85">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -10427,61 +10469,127 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="103"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="97" t="str">
+      <c r="K33" s="88"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="87" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="97"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="95"/>
+      <c r="R33" s="85"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="103"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="97" t="str">
+      <c r="K34" s="88"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="87" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="97"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="95"/>
+      <c r="R34" s="85"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="104"/>
+      <c r="K35" s="89"/>
       <c r="L35" s="74"/>
-      <c r="M35" s="100" t="str">
+      <c r="M35" s="90" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="90"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="96"/>
+      <c r="R35" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="K13:N14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="M32:P32"/>
@@ -10498,72 +10606,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="K13:N14"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -222,9 +222,6 @@
     <t>SDS/Solving the issue of repeating icon in tray</t>
   </si>
   <si>
-    <t>TKT/DB Designing</t>
-  </si>
-  <si>
     <t>Paper Point Online and Inhouse Ordering</t>
   </si>
   <si>
@@ -267,13 +264,22 @@
     <t>MITWEB/Modification</t>
   </si>
   <si>
-    <t>TKT/Appframe configuration</t>
-  </si>
-  <si>
     <t>Getting branchname into tool</t>
   </si>
   <si>
     <t>RTM/Getting branchname into tool</t>
+  </si>
+  <si>
+    <t>Entering table details into excel sheet</t>
+  </si>
+  <si>
+    <t>TKT/Entering table details into excel sheet</t>
+  </si>
+  <si>
+    <t>Note down table relations</t>
+  </si>
+  <si>
+    <t>TKT/Note down table relations</t>
   </si>
 </sst>
 </file>
@@ -373,6 +379,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -628,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -781,29 +788,11 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,28 +800,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -856,56 +827,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -927,6 +883,60 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1589,7 +1599,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -1601,6 +1611,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1623,7 +1639,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -1635,6 +1651,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1657,7 +1679,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -1669,6 +1691,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1691,7 +1719,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -1703,6 +1731,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1781,7 +1815,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -1793,6 +1827,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1804,22 +1844,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>256.00000000000006</c:v>
+                  <c:v>375.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>119.99999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-284.99999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>269.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>510.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-825</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1860,7 +1900,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -1872,6 +1912,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1896,11 +1942,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="-392961392"/>
-        <c:axId val="-392960848"/>
+        <c:axId val="1227229616"/>
+        <c:axId val="1227232880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-392961392"/>
+        <c:axId val="1227229616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,7 +1967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-392960848"/>
+        <c:crossAx val="1227232880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1929,7 +1975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-392960848"/>
+        <c:axId val="1227232880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +1996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-392961392"/>
+        <c:crossAx val="1227229616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2016,7 +2062,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -2028,6 +2074,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2106,7 +2158,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -2118,6 +2170,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2196,7 +2254,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -2208,6 +2266,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2219,22 +2283,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>256.00000000000006</c:v>
+                  <c:v>375.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119.99999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-284.99999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>510.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-825</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2286,7 +2350,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -2298,6 +2362,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2373,7 +2443,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -2385,6 +2455,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2460,7 +2536,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -2472,6 +2548,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2547,7 +2629,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -2559,6 +2641,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2628,11 +2716,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="-392959760"/>
-        <c:axId val="-392952144"/>
+        <c:axId val="1227231792"/>
+        <c:axId val="1227241584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-392959760"/>
+        <c:axId val="1227231792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,7 +2740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-392952144"/>
+        <c:crossAx val="1227241584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2660,7 +2748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-392952144"/>
+        <c:axId val="1227241584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +2769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-392959760"/>
+        <c:crossAx val="1227231792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2768,7 +2856,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -2780,6 +2868,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2791,22 +2885,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>256.00000000000006</c:v>
+                  <c:v>375.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>119.99999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-284.99999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>269.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>510.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-825</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2875,7 +2969,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -2887,6 +2981,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2986,7 +3086,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -2998,6 +3098,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3075,7 +3181,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -3087,6 +3193,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3164,7 +3276,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -3176,6 +3288,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3187,22 +3305,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>256.00000000000006</c:v>
+                  <c:v>375.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119.99999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-284.99999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>510.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-825</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3253,7 +3371,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -3265,6 +3383,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3339,7 +3463,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -3351,6 +3475,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3425,7 +3555,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -3437,6 +3567,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3514,7 +3650,7 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Database Analysis from Old Project</c:v>
                 </c:pt>
@@ -3526,6 +3662,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Discussion for ticketing modification</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Note down table relations</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entering table details into excel sheet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3593,11 +3735,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-392963568"/>
-        <c:axId val="-392959216"/>
+        <c:axId val="1227243760"/>
+        <c:axId val="1227238864"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-392963568"/>
+        <c:axId val="1227243760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3617,7 +3759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-392959216"/>
+        <c:crossAx val="1227238864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3625,7 +3767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-392959216"/>
+        <c:axId val="1227238864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3646,7 +3788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-392963568"/>
+        <c:crossAx val="1227243760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3853,7 +3995,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>181.00000000000006</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>89.999999999999915</c:v>
@@ -4003,7 +4145,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4043,9 +4184,7 @@
 </c:separator>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4066,7 +4205,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>91.000000000000057</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4098,7 +4237,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4299,7 +4437,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>256.00000000000006</c:v>
+                  <c:v>375.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4373,7 +4511,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>119.99999999999989</c:v>
+                  <c:v>510.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4447,7 +4585,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-284.99999999999989</c:v>
+                  <c:v>-825</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4475,11 +4613,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-392951056"/>
-        <c:axId val="-392963024"/>
+        <c:axId val="1227237232"/>
+        <c:axId val="1227230160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-392951056"/>
+        <c:axId val="1227237232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4499,7 +4637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-392963024"/>
+        <c:crossAx val="1227230160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4507,7 +4645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-392963024"/>
+        <c:axId val="1227230160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4527,7 +4665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-392951056"/>
+        <c:crossAx val="1227237232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4667,7 +4805,7 @@
                   <c:v>380.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-665</c:v>
+                  <c:v>-695</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4689,11 +4827,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="-392957584"/>
-        <c:axId val="-392957040"/>
+        <c:axId val="1227233968"/>
+        <c:axId val="1227239408"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-392957584"/>
+        <c:axId val="1227233968"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4713,14 +4851,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-392957040"/>
+        <c:crossAx val="1227239408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-392957040"/>
+        <c:axId val="1227239408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4741,7 +4879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-392957584"/>
+        <c:crossAx val="1227233968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5035,8 +5173,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G18" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:G18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G20" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:G20"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No" dataDxfId="29">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -5074,8 +5212,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q22" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q23" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q23"/>
   <tableColumns count="17">
     <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -5525,10 +5663,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>64</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>65</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>2</v>
@@ -5540,10 +5678,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="41" t="s">
         <v>68</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>69</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>2</v>
@@ -5555,10 +5693,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>74</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>75</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>2</v>
@@ -5581,10 +5719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5962,14 +6100,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="52" t="str">
         <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>PPOIO-1</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="53" t="str">
         <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
@@ -5990,14 +6128,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="52" t="str">
         <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>PPOIO-2</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="53" t="str">
         <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
@@ -6018,14 +6156,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="52" t="str">
         <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>APPFRAME-1</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="53" t="str">
         <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
@@ -6046,14 +6184,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="52" t="str">
         <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>MITWEB-1</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="53" t="str">
         <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
@@ -6081,7 +6219,7 @@
         <v>RTM-1</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" s="45" t="str">
         <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
@@ -6096,9 +6234,65 @@
         <v>Getting branchname into tool</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f>IFERROR($A18+1,1)</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
+        <v>TKT-5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <v>TKT/Note down table relations</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f>ProjectTasks[Project]</f>
+        <v>TKT</v>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f>ProjectTasks[Task]</f>
+        <v>Note down table relations</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>IFERROR($A19+1,1)</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="10" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
+        <v>TKT-6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <v>TKT/Entering table details into excel sheet</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f>ProjectTasks[Project]</f>
+        <v>TKT</v>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f>ProjectTasks[Task]</f>
+        <v>Entering table details into excel sheet</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20">
       <formula1>ProjectCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -6176,10 +6370,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6585,7 +6779,7 @@
       </c>
       <c r="C7" s="44" t="str">
         <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
-        <v>DB Designing</v>
+        <v>Database Analysis from Old Project</v>
       </c>
       <c r="D7" s="44" t="str">
         <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
@@ -6600,7 +6794,7 @@
         <v>Shareena/43430/3</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H7" s="42" t="s">
         <v>16</v>
@@ -6636,7 +6830,7 @@
       </c>
       <c r="Q7" s="44" t="str">
         <f>TaskTimings[TSK]</f>
-        <v>DB Designing</v>
+        <v>Database Analysis from Old Project</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -6795,7 +6989,7 @@
         <v>Firose/43430/2</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="41" t="s">
         <v>34</v>
@@ -6860,7 +7054,7 @@
         <v>Firose/43430/3</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>34</v>
@@ -6925,7 +7119,7 @@
         <v>Firose/43431/1</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>34</v>
@@ -7120,7 +7314,7 @@
         <v>Aswathy/43431/2</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>54</v>
@@ -7185,7 +7379,7 @@
         <v>Firose/43432/1</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>34</v>
@@ -7300,7 +7494,7 @@
       </c>
       <c r="C18" s="44" t="str">
         <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
-        <v>Appframe configuration</v>
+        <v>Note down table relations</v>
       </c>
       <c r="D18" s="44" t="str">
         <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
@@ -7315,7 +7509,7 @@
         <v>Shareena/43432/1</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H18" s="42" t="s">
         <v>16</v>
@@ -7351,7 +7545,7 @@
       </c>
       <c r="Q18" s="44" t="str">
         <f>TaskTimings[TSK]</f>
-        <v>Appframe configuration</v>
+        <v>Note down table relations</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -7445,7 +7639,7 @@
         <v>Aswathy/43432/2</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H20" s="42" t="s">
         <v>54</v>
@@ -7560,7 +7754,7 @@
       </c>
       <c r="C22" s="44" t="str">
         <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
-        <v>Appframe configuration</v>
+        <v>Note down table relations</v>
       </c>
       <c r="D22" s="44" t="str">
         <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
@@ -7575,7 +7769,7 @@
         <v>Shareena/43433/1</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H22" s="42" t="s">
         <v>16</v>
@@ -7586,18 +7780,20 @@
       <c r="J22" s="57">
         <v>0.46180555555555558</v>
       </c>
-      <c r="K22" s="40"/>
+      <c r="K22" s="50">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="L22" s="40">
         <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>-665</v>
-      </c>
-      <c r="M22" s="40" t="e">
+        <v>130.00000000000003</v>
+      </c>
+      <c r="M22" s="40" t="str">
         <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>02:10</v>
       </c>
       <c r="N22" s="40">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-665</v>
+        <v>-695</v>
       </c>
       <c r="O22" s="40" t="e">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
@@ -7609,15 +7805,78 @@
       </c>
       <c r="Q22" s="44" t="str">
         <f>TaskTimings[TSK]</f>
-        <v>Appframe configuration</v>
+        <v>Note down table relations</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f>IFERROR($A22+1,1)</f>
+        <v>19</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Entering table details into excel sheet</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Shareena/43433</v>
+      </c>
+      <c r="E23" s="10">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>2</v>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Shareena/43433/2</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="8">
+        <v>43433</v>
+      </c>
+      <c r="J23" s="107">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>-825</v>
+      </c>
+      <c r="M23" s="2" t="e">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N23" s="2">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>-695</v>
+      </c>
+      <c r="O23" s="2" t="e">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P23" s="10" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>TKT</v>
+      </c>
+      <c r="Q23" s="10" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Entering table details into excel sheet</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H23">
       <formula1>EmployeeNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G23">
       <formula1>TSKPRJCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -7643,42 +7902,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="J2" s="76" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="J2" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="str">
+      <c r="A4" s="80" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="80"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -7702,83 +7961,83 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="66" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="J5" s="63" t="str">
+      <c r="H5" s="62"/>
+      <c r="J5" s="71" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="66" t="str">
+      <c r="K5" s="60" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="66" t="str">
+      <c r="L5" s="60" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="66" t="str">
+      <c r="M5" s="60" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="66" t="str">
+      <c r="N5" s="60" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="66" t="str">
+      <c r="O5" s="60" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="70" t="str">
+      <c r="P5" s="62" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="71"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="71"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="63"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="63"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="59" t="str">
+      <c r="B7" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Database Analysis from Old Project</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="68">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
-        <v>256.00000000000006</v>
-      </c>
-      <c r="H7" s="69"/>
+        <v>375.99999999999994</v>
+      </c>
+      <c r="H7" s="74"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7789,7 +8048,7 @@
       </c>
       <c r="L7" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],L$5)</f>
-        <v>256.00000000000006</v>
+        <v>375.99999999999994</v>
       </c>
       <c r="M7" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],M$5)</f>
@@ -7812,19 +8071,19 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="59" t="str">
+      <c r="B8" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>DB Designing</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="68">
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
-        <v>119.99999999999989</v>
-      </c>
-      <c r="H8" s="69"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="74"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7835,7 +8094,7 @@
       </c>
       <c r="L8" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],L$5)</f>
-        <v>119.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="M8" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],M$5)</f>
@@ -7858,19 +8117,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="59" t="str">
+      <c r="B9" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Appframe configuration</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="68">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
-        <v>-284.99999999999989</v>
-      </c>
-      <c r="H9" s="69"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="74"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7881,7 +8140,7 @@
       </c>
       <c r="L9" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],L$5)</f>
-        <v>-284.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="M9" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],M$5)</f>
@@ -7904,19 +8163,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="59" t="str">
+      <c r="B10" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="68">
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>269.99999999999989</v>
       </c>
-      <c r="H10" s="69"/>
+      <c r="H10" s="74"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>90</v>
@@ -7950,19 +8209,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="59" t="str">
+      <c r="B11" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="68">
+        <v>Note down table relations</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="69"/>
+        <v>510.00000000000011</v>
+      </c>
+      <c r="H11" s="74"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -7973,7 +8232,7 @@
       </c>
       <c r="L11" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],L$5)</f>
-        <v>0</v>
+        <v>510.00000000000011</v>
       </c>
       <c r="M11" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],M$5)</f>
@@ -7996,19 +8255,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="59" t="str">
+      <c r="B12" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="68">
+        <v>Entering table details into excel sheet</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="69"/>
+        <v>-825</v>
+      </c>
+      <c r="H12" s="74"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8019,7 +8278,7 @@
       </c>
       <c r="L12" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],L$5)</f>
-        <v>0</v>
+        <v>-825</v>
       </c>
       <c r="M12" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],M$5)</f>
@@ -8042,19 +8301,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="59" t="str">
+      <c r="B13" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="68">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="69"/>
+      <c r="H13" s="74"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8088,19 +8347,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="59" t="str">
+      <c r="B14" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="68">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="69"/>
+      <c r="H14" s="74"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8134,19 +8393,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="59" t="str">
+      <c r="B15" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="68">
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="74"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8180,19 +8439,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="59" t="str">
+      <c r="B16" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="68">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="69"/>
+      <c r="H16" s="74"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8226,19 +8485,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="59" t="str">
+      <c r="B17" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="68">
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="69"/>
+      <c r="H17" s="74"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8272,19 +8531,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="59" t="str">
+      <c r="B18" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="68">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="69"/>
+      <c r="H18" s="74"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8318,19 +8577,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="59" t="str">
+      <c r="B19" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="68">
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="69"/>
+      <c r="H19" s="74"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8364,19 +8623,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="59" t="str">
+      <c r="B20" s="75" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="68">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="73">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="69"/>
+      <c r="H20" s="74"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8410,19 +8669,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="65" t="str">
+      <c r="B21" s="78" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="74">
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="75"/>
+      <c r="H21" s="77"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8454,67 +8713,91 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="77">
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="65">
         <f>SUM(G7:H21)</f>
-        <v>360.99999999999994</v>
-      </c>
-      <c r="H23" s="79"/>
-      <c r="J23" s="72">
+        <v>331</v>
+      </c>
+      <c r="H23" s="67"/>
+      <c r="J23" s="58">
         <f>SUM(J7:J21)</f>
         <v>90</v>
       </c>
-      <c r="K23" s="72">
+      <c r="K23" s="58">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="72">
+      <c r="L23" s="58">
         <f t="shared" si="0"/>
-        <v>181.00000000000006</v>
-      </c>
-      <c r="M23" s="72">
+        <v>151</v>
+      </c>
+      <c r="M23" s="58">
         <f t="shared" si="0"/>
         <v>89.999999999999915</v>
       </c>
-      <c r="N23" s="72">
+      <c r="N23" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="72">
+      <c r="O23" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="72">
+      <c r="P23" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="82"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="70"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -8531,36 +8814,12 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -8577,23 +8836,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="F1" s="104" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="F1" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="104"/>
+      <c r="G1" s="87"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -8613,21 +8872,21 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="F2" s="103">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="F2" s="86">
         <v>43430</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="I2" s="83">
+      <c r="G2" s="86"/>
+      <c r="I2" s="103">
         <f>SUM(I7:I30)</f>
-        <v>181</v>
-      </c>
-      <c r="J2" s="85" t="str">
+        <v>151</v>
+      </c>
+      <c r="J2" s="97" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
-        <v>3:01</v>
+        <v>2:31</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -8642,14 +8901,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="86"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="98"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -8663,41 +8922,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="93" t="s">
+      <c r="L6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="93"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -8712,23 +8971,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="105">
+      <c r="B7" s="88">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="106" t="str">
+      <c r="C7" s="60"/>
+      <c r="D7" s="89" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="95">
+      <c r="I7" s="96">
         <f>SUM(H7:H10)</f>
         <v>330.99999999999994</v>
       </c>
@@ -8736,14 +8995,14 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="87" t="str">
+      <c r="L7" s="99" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="87"/>
+      <c r="M7" s="99"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
-        <v>91.000000000000057</v>
+        <v>61</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
@@ -8788,29 +9047,29 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="96" t="str">
+      <c r="B8" s="72"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Database Analysis from Old Project</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>121.00000000000006</v>
       </c>
-      <c r="I8" s="85"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="87" t="str">
+      <c r="L8" s="99" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M8" s="87"/>
+      <c r="M8" s="99"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
         <v>0</v>
@@ -8851,36 +9110,36 @@
       </c>
       <c r="AB8" s="33">
         <f t="shared" ref="AB8:AB30" si="2">IF($AA8="",0,SUMIFS($H$7:$H$30,$D$7:$D$30,$Y8&amp;"/"&amp;$AA8))</f>
-        <v>256.00000000000006</v>
+        <v>375.99999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="96" t="str">
+      <c r="B9" s="72"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v>TKT/DB Designing</v>
-      </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
+        <v>TKT/Database Analysis from Old Project</v>
+      </c>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>119.99999999999989</v>
       </c>
-      <c r="I9" s="85"/>
+      <c r="I9" s="97"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="87" t="str">
+      <c r="L9" s="99" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="87"/>
+      <c r="M9" s="99"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8893,15 +9152,15 @@
       <c r="T9" s="25"/>
       <c r="U9" s="14">
         <f>IF(COUNTIFS($D$6:$D9,D9)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="33" t="str">
         <f>IF($U9=0,"",VLOOKUP($D9,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v>TKT</v>
-      </c>
-      <c r="W9" s="14">
+        <v/>
+      </c>
+      <c r="W9" s="14" t="str">
         <f>IF($V9="","",COUNTIF($V$7:$V9,$V9))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="X9" s="14" t="str">
         <f>IF($W9=1,SUM($X$6:$X8)+1,"")</f>
@@ -8909,48 +9168,48 @@
       </c>
       <c r="Y9" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>TKT</v>
+        <v/>
       </c>
       <c r="Z9" s="33" t="str">
         <f>IF($Y9="","",$Y9&amp;"/"&amp;COUNTIF($Y$7:$Y9,$Y9))</f>
-        <v>TKT/3</v>
+        <v/>
       </c>
       <c r="AA9" s="33" t="str">
         <f>IF($Z9="","",VLOOKUP($D9,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v>DB Designing</v>
+        <v/>
       </c>
       <c r="AB9" s="33">
         <f t="shared" si="2"/>
-        <v>119.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="96" t="str">
+      <c r="B10" s="72"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="85"/>
+      <c r="I10" s="97"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="87" t="str">
+      <c r="L10" s="99" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M10" s="87"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8998,23 +9257,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="97">
+      <c r="B11" s="91">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="96" t="str">
+      <c r="C11" s="61"/>
+      <c r="D11" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Database Analysis from Old Project</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>135</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="97">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>135</v>
       </c>
@@ -9022,11 +9281,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="90" t="str">
+      <c r="L11" s="102" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="90"/>
+      <c r="M11" s="102"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9074,20 +9333,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="96" t="str">
+      <c r="B12" s="72"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="85"/>
+      <c r="I12" s="97"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -9136,27 +9395,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="96" t="str">
+      <c r="B13" s="72"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="85"/>
+      <c r="I13" s="97"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="100" t="s">
+      <c r="K13" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -9200,25 +9459,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="96" t="str">
+      <c r="B14" s="72"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="85"/>
+      <c r="I14" s="97"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -9262,37 +9521,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="97">
+      <c r="B15" s="91">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="96" t="str">
+      <c r="C15" s="61"/>
+      <c r="D15" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v>TKT/Appframe configuration</v>
-      </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
+        <v>TKT/Note down table relations</v>
+      </c>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>380.00000000000011</v>
       </c>
-      <c r="I15" s="85">
+      <c r="I15" s="97">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>380.00000000000011</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="92" t="s">
+      <c r="K15" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91" t="s">
+      <c r="L15" s="101"/>
+      <c r="M15" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -9311,7 +9570,7 @@
       </c>
       <c r="W15" s="14">
         <f>IF($V15="","",COUNTIF($V$7:$V15,$V15))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X15" s="14" t="str">
         <f>IF($W15=1,SUM($X$6:$X14)+1,"")</f>
@@ -9323,57 +9582,57 @@
       </c>
       <c r="Z15" s="33" t="str">
         <f>IF($Y15="","",$Y15&amp;"/"&amp;COUNTIF($Y$7:$Y15,$Y15))</f>
-        <v>TKT/4</v>
+        <v>TKT/3</v>
       </c>
       <c r="AA15" s="33" t="str">
         <f>IF($Z15="","",VLOOKUP($D15,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v>Appframe configuration</v>
+        <v>Note down table relations</v>
       </c>
       <c r="AB15" s="33">
         <f t="shared" si="2"/>
-        <v>-284.99999999999989</v>
+        <v>510.00000000000011</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="96" t="str">
+      <c r="B16" s="72"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="85"/>
+      <c r="I16" s="97"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="88" t="str">
+      <c r="K16" s="105" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="68"/>
-      <c r="M16" s="87" t="str">
+      <c r="L16" s="73"/>
+      <c r="M16" s="99" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="85">
+      <c r="R16" s="97">
         <f>SUM(Q16:Q19)</f>
-        <v>181.00000000000006</v>
+        <v>151</v>
       </c>
       <c r="S16" s="35"/>
       <c r="T16" s="36"/>
@@ -9414,37 +9673,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="96" t="str">
+      <c r="B17" s="72"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="85"/>
+      <c r="I17" s="97"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="88"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="87" t="str">
+      <c r="K17" s="105"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="99" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v>Database Analysis from Old Project</v>
       </c>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
       <c r="Q17" s="22">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
-        <v>256.00000000000006</v>
-      </c>
-      <c r="R17" s="85"/>
+        <v>375.99999999999994</v>
+      </c>
+      <c r="R17" s="97"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -9484,37 +9743,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="96" t="str">
+      <c r="B18" s="72"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="85"/>
+      <c r="I18" s="97"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="88"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="87" t="str">
+      <c r="K18" s="105"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="99" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
-        <v>DB Designing</v>
-      </c>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
+        <v>Note down table relations</v>
+      </c>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
       <c r="Q18" s="22">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
-        <v>119.99999999999989</v>
-      </c>
-      <c r="R18" s="85"/>
+        <v>510.00000000000011</v>
+      </c>
+      <c r="R18" s="97"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -9554,43 +9813,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="97">
+      <c r="B19" s="91">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="96" t="str">
+      <c r="C19" s="61"/>
+      <c r="D19" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v>TKT/Appframe configuration</v>
-      </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
+        <v>TKT/Note down table relations</v>
+      </c>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>-665</v>
-      </c>
-      <c r="I19" s="85">
+        <v>130.00000000000003</v>
+      </c>
+      <c r="I19" s="97">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
-        <v>-665</v>
+        <v>-695</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="88"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="87" t="str">
+      <c r="K19" s="105"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="99" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
-        <v>Appframe configuration</v>
-      </c>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
+        <v>Entering table details into excel sheet</v>
+      </c>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
       <c r="Q19" s="22">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
-        <v>-284.99999999999989</v>
-      </c>
-      <c r="R19" s="85"/>
+        <v>-825</v>
+      </c>
+      <c r="R19" s="97"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -9630,40 +9889,40 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="96" t="str">
+      <c r="B20" s="72"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
+        <v>TKT/Entering table details into excel sheet</v>
+      </c>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="85"/>
+        <v>-825</v>
+      </c>
+      <c r="I20" s="97"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="88" t="str">
+      <c r="K20" s="105" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L20" s="68"/>
-      <c r="M20" s="87" t="str">
+      <c r="L20" s="73"/>
+      <c r="M20" s="99" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
       <c r="Q20" s="22" t="str">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v/>
       </c>
-      <c r="R20" s="85">
+      <c r="R20" s="97">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
         <v>0</v>
       </c>
@@ -9671,15 +9930,15 @@
       <c r="T20" s="25"/>
       <c r="U20" s="14">
         <f>IF(COUNTIFS($D$6:$D20,D20)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="33" t="str">
         <f>IF($U20=0,"",VLOOKUP($D20,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v/>
-      </c>
-      <c r="W20" s="14" t="str">
+        <v>TKT</v>
+      </c>
+      <c r="W20" s="14">
         <f>IF($V20="","",COUNTIF($V$7:$V20,$V20))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="X20" s="14" t="str">
         <f>IF($W20=1,SUM($X$6:$X19)+1,"")</f>
@@ -9687,56 +9946,56 @@
       </c>
       <c r="Y20" s="37" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>TKT</v>
       </c>
       <c r="Z20" s="33" t="str">
         <f>IF($Y20="","",$Y20&amp;"/"&amp;COUNTIF($Y$7:$Y20,$Y20))</f>
-        <v/>
+        <v>TKT/4</v>
       </c>
       <c r="AA20" s="33" t="str">
         <f>IF($Z20="","",VLOOKUP($D20,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v/>
+        <v>Entering table details into excel sheet</v>
       </c>
       <c r="AB20" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-825</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="96" t="str">
+      <c r="B21" s="72"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="85"/>
+      <c r="I21" s="97"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="88"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="87" t="str">
+      <c r="K21" s="105"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="99" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
       <c r="Q21" s="22" t="str">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
         <v/>
       </c>
-      <c r="R21" s="85"/>
+      <c r="R21" s="97"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -9776,37 +10035,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="96" t="str">
+      <c r="B22" s="72"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="85"/>
+      <c r="I22" s="97"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="88"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="87" t="str">
+      <c r="K22" s="105"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="99" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="85"/>
+      <c r="R22" s="97"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -9846,43 +10105,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="97">
+      <c r="B23" s="91">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="96" t="str">
+      <c r="C23" s="61"/>
+      <c r="D23" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="85">
+      <c r="I23" s="97">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>0</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="88"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="87" t="str">
+      <c r="K23" s="105"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="99" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="85"/>
+      <c r="R23" s="97"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -9922,40 +10181,40 @@
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="96" t="str">
+      <c r="B24" s="72"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="85"/>
+      <c r="I24" s="97"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="88" t="str">
+      <c r="K24" s="105" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="68"/>
-      <c r="M24" s="87" t="str">
+      <c r="L24" s="73"/>
+      <c r="M24" s="99" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="85">
+      <c r="R24" s="97">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -9998,37 +10257,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="96" t="str">
+      <c r="B25" s="72"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="85"/>
+      <c r="I25" s="97"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="88"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="87" t="str">
+      <c r="K25" s="105"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="99" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="85"/>
+      <c r="R25" s="97"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -10068,37 +10327,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="96" t="str">
+      <c r="B26" s="72"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="85"/>
+      <c r="I26" s="97"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="88"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="87" t="str">
+      <c r="K26" s="105"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="99" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="85"/>
+      <c r="R26" s="97"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -10138,43 +10397,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="97">
+      <c r="B27" s="91">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="96" t="str">
+      <c r="C27" s="61"/>
+      <c r="D27" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="85">
+      <c r="I27" s="97">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="88"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="87" t="str">
+      <c r="K27" s="105"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="99" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="85"/>
+      <c r="R27" s="97"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -10214,40 +10473,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="96" t="str">
+      <c r="B28" s="72"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="85"/>
+      <c r="I28" s="97"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="88" t="str">
+      <c r="K28" s="105" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L28" s="68"/>
-      <c r="M28" s="87" t="str">
+      <c r="L28" s="73"/>
+      <c r="M28" s="99" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
       <c r="Q28" s="22" t="str">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v/>
       </c>
-      <c r="R28" s="85">
+      <c r="R28" s="97">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>0</v>
       </c>
@@ -10290,37 +10549,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="96" t="str">
+      <c r="B29" s="72"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="90" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="85"/>
+      <c r="I29" s="97"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="88"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="87" t="str">
+      <c r="K29" s="105"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="99" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
       <c r="Q29" s="22" t="str">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v/>
       </c>
-      <c r="R29" s="85"/>
+      <c r="R29" s="97"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -10357,37 +10616,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="98"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="94" t="str">
+      <c r="B30" s="92"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="95" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="86"/>
+      <c r="I30" s="98"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="88"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="87" t="str">
+      <c r="K30" s="105"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="99" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="85"/>
+      <c r="R30" s="97"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -10425,42 +10684,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="88"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="87" t="str">
+      <c r="K31" s="105"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="99" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="85"/>
+      <c r="R31" s="97"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="88" t="str">
+      <c r="K32" s="105" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="68"/>
-      <c r="M32" s="87" t="str">
+      <c r="L32" s="73"/>
+      <c r="M32" s="99" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="85">
+      <c r="R32" s="97">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -10469,61 +10728,127 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="88"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="87" t="str">
+      <c r="K33" s="105"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="99" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="85"/>
+      <c r="R33" s="97"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="88"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="87" t="str">
+      <c r="K34" s="105"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="99" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="85"/>
+      <c r="R34" s="97"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="89"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="90" t="str">
+      <c r="K35" s="106"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="102" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
+      <c r="N35" s="102"/>
+      <c r="O35" s="102"/>
+      <c r="P35" s="102"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="86"/>
+      <c r="R35" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K20:L23"/>
+    <mergeCell ref="K24:L27"/>
+    <mergeCell ref="K28:L31"/>
+    <mergeCell ref="K32:L35"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K16:L19"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="K13:N14"/>
     <mergeCell ref="A1:D3"/>
@@ -10540,72 +10865,6 @@
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K20:L23"/>
-    <mergeCell ref="K24:L27"/>
-    <mergeCell ref="K28:L31"/>
-    <mergeCell ref="K32:L35"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K16:L19"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -788,11 +788,32 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,10 +821,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -827,41 +866,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -883,60 +937,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1859,7 +1859,7 @@
                   <c:v>510.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-825</c:v>
+                  <c:v>120.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1942,11 +1942,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1227229616"/>
-        <c:axId val="1227232880"/>
+        <c:axId val="-1166145536"/>
+        <c:axId val="-1166155328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1227229616"/>
+        <c:axId val="-1166145536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227232880"/>
+        <c:crossAx val="-1166155328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1975,7 +1975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1227232880"/>
+        <c:axId val="-1166155328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +1996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227229616"/>
+        <c:crossAx val="-1166145536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2298,7 +2298,7 @@
                   <c:v>510.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-825</c:v>
+                  <c:v>120.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2716,11 +2716,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="1227231792"/>
-        <c:axId val="1227241584"/>
+        <c:axId val="-1166146080"/>
+        <c:axId val="-1166152064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1227231792"/>
+        <c:axId val="-1166146080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2740,7 +2740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227241584"/>
+        <c:crossAx val="-1166152064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2748,7 +2748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1227241584"/>
+        <c:axId val="-1166152064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,7 +2769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227231792"/>
+        <c:crossAx val="-1166146080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2900,7 +2900,7 @@
                   <c:v>510.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-825</c:v>
+                  <c:v>120.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3320,7 +3320,7 @@
                   <c:v>510.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-825</c:v>
+                  <c:v>120.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3735,11 +3735,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1227243760"/>
-        <c:axId val="1227238864"/>
+        <c:axId val="-1166144992"/>
+        <c:axId val="-1166144448"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1227243760"/>
+        <c:axId val="-1166144992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3759,7 +3759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227238864"/>
+        <c:crossAx val="-1166144448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3767,7 +3767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1227238864"/>
+        <c:axId val="-1166144448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3788,7 +3788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227243760"/>
+        <c:crossAx val="-1166144992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3995,7 +3995,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151</c:v>
+                  <c:v>1096</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>89.999999999999915</c:v>
@@ -4205,7 +4205,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>1006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4585,7 +4585,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-825</c:v>
+                  <c:v>120.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4613,11 +4613,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1227237232"/>
-        <c:axId val="1227230160"/>
+        <c:axId val="-1166158048"/>
+        <c:axId val="-1166151520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1227237232"/>
+        <c:axId val="-1166158048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4637,7 +4637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227230160"/>
+        <c:crossAx val="-1166151520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4645,7 +4645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1227230160"/>
+        <c:axId val="-1166151520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4665,7 +4665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227237232"/>
+        <c:crossAx val="-1166158048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4805,7 +4805,7 @@
                   <c:v>380.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-695</c:v>
+                  <c:v>250.00000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4827,11 +4827,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="1227233968"/>
-        <c:axId val="1227239408"/>
+        <c:axId val="-1166154784"/>
+        <c:axId val="-1332630880"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1227233968"/>
+        <c:axId val="-1166154784"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4851,14 +4851,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227239408"/>
+        <c:crossAx val="-1332630880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1227239408"/>
+        <c:axId val="-1332630880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4879,7 +4879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227233968"/>
+        <c:crossAx val="-1166154784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6096,7 +6096,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
-        <f>IFERROR($A13+1,1)</f>
+        <f t="shared" ref="A14:A20" si="2">IFERROR($A13+1,1)</f>
         <v>13</v>
       </c>
       <c r="B14" s="41" t="s">
@@ -6124,7 +6124,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
-        <f>IFERROR($A14+1,1)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B15" s="41" t="s">
@@ -6152,7 +6152,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="43">
-        <f>IFERROR($A15+1,1)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B16" s="41" t="s">
@@ -6180,7 +6180,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="43">
-        <f>IFERROR($A16+1,1)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B17" s="41" t="s">
@@ -6208,7 +6208,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
-        <f>IFERROR($A17+1,1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B18" s="42" t="s">
@@ -6236,7 +6236,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f>IFERROR($A18+1,1)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -6264,7 +6264,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f>IFERROR($A19+1,1)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -6373,7 +6373,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
-        <f>IFERROR($A17+1,1)</f>
+        <f t="shared" ref="A18:A23" si="2">IFERROR($A17+1,1)</f>
         <v>14</v>
       </c>
       <c r="B18" s="44" t="str">
@@ -7550,7 +7550,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="47">
-        <f>IFERROR($A18+1,1)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B19" s="44" t="str">
@@ -7615,7 +7615,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
-        <f>IFERROR($A19+1,1)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B20" s="44" t="str">
@@ -7680,7 +7680,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
-        <f>IFERROR($A20+1,1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B21" s="44" t="str">
@@ -7745,7 +7745,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
-        <f>IFERROR($A21+1,1)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B22" s="44" t="str">
@@ -7793,11 +7793,11 @@
       </c>
       <c r="N22" s="40">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-695</v>
-      </c>
-      <c r="O22" s="40" t="e">
+        <v>250.00000000000009</v>
+      </c>
+      <c r="O22" s="40" t="str">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>04:10</v>
       </c>
       <c r="P22" s="44" t="str">
         <f>TaskTimings[PRJ]</f>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f>IFERROR($A22+1,1)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B23" s="10" t="str">
@@ -7842,25 +7842,27 @@
       <c r="I23" s="8">
         <v>43433</v>
       </c>
-      <c r="J23" s="107">
+      <c r="J23" s="58">
         <v>0.57291666666666663</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" s="9">
+        <v>0.65625</v>
+      </c>
       <c r="L23" s="2">
         <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>-825</v>
-      </c>
-      <c r="M23" s="2" t="e">
+        <v>120.00000000000006</v>
+      </c>
+      <c r="M23" s="2" t="str">
         <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>02:00</v>
       </c>
       <c r="N23" s="2">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-695</v>
-      </c>
-      <c r="O23" s="2" t="e">
+        <v>250.00000000000009</v>
+      </c>
+      <c r="O23" s="2" t="str">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>04:10</v>
       </c>
       <c r="P23" s="10" t="str">
         <f>TaskTimings[PRJ]</f>
@@ -7902,42 +7904,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="J2" s="64" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="J2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="str">
+      <c r="A4" s="61" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="61"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -7961,83 +7963,83 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="60" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="J5" s="71" t="str">
+      <c r="H5" s="71"/>
+      <c r="J5" s="64" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="60" t="str">
+      <c r="K5" s="67" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="60" t="str">
+      <c r="L5" s="67" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="60" t="str">
+      <c r="M5" s="67" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="60" t="str">
+      <c r="N5" s="67" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="60" t="str">
+      <c r="O5" s="67" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="62" t="str">
+      <c r="P5" s="71" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="63"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="63"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="72"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="75" t="str">
+      <c r="B7" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Database Analysis from Old Project</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="73">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>375.99999999999994</v>
       </c>
-      <c r="H7" s="74"/>
+      <c r="H7" s="70"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8071,19 +8073,19 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="75" t="str">
+      <c r="B8" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>DB Designing</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="73">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="74"/>
+      <c r="H8" s="70"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8117,19 +8119,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="75" t="str">
+      <c r="B9" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Appframe configuration</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="73">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="74"/>
+      <c r="H9" s="70"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8163,19 +8165,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="75" t="str">
+      <c r="B10" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="73">
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>269.99999999999989</v>
       </c>
-      <c r="H10" s="74"/>
+      <c r="H10" s="70"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>90</v>
@@ -8209,19 +8211,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="75" t="str">
+      <c r="B11" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Note down table relations</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="73">
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>510.00000000000011</v>
       </c>
-      <c r="H11" s="74"/>
+      <c r="H11" s="70"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8255,19 +8257,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="75" t="str">
+      <c r="B12" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Entering table details into excel sheet</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="73">
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
-        <v>-825</v>
-      </c>
-      <c r="H12" s="74"/>
+        <v>120.00000000000006</v>
+      </c>
+      <c r="H12" s="70"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8278,7 +8280,7 @@
       </c>
       <c r="L12" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],L$5)</f>
-        <v>-825</v>
+        <v>120.00000000000006</v>
       </c>
       <c r="M12" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],M$5)</f>
@@ -8301,19 +8303,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="75" t="str">
+      <c r="B13" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="73">
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="74"/>
+      <c r="H13" s="70"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8347,19 +8349,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="75" t="str">
+      <c r="B14" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="73">
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="70"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8393,19 +8395,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="75" t="str">
+      <c r="B15" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="73">
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="74"/>
+      <c r="H15" s="70"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8439,19 +8441,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="75" t="str">
+      <c r="B16" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="73">
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="74"/>
+      <c r="H16" s="70"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8485,19 +8487,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="75" t="str">
+      <c r="B17" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="73">
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="74"/>
+      <c r="H17" s="70"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8531,19 +8533,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="75" t="str">
+      <c r="B18" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="73">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="74"/>
+      <c r="H18" s="70"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8577,19 +8579,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="75" t="str">
+      <c r="B19" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="73">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="74"/>
+      <c r="H19" s="70"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8623,19 +8625,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="75" t="str">
+      <c r="B20" s="60" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="73">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="69">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="74"/>
+      <c r="H20" s="70"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8669,19 +8671,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="78" t="str">
+      <c r="B21" s="66" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="75">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="77"/>
+      <c r="H21" s="76"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8713,91 +8715,67 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="65">
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="78">
         <f>SUM(G7:H21)</f>
-        <v>331</v>
-      </c>
-      <c r="H23" s="67"/>
-      <c r="J23" s="58">
+        <v>1276</v>
+      </c>
+      <c r="H23" s="80"/>
+      <c r="J23" s="73">
         <f>SUM(J7:J21)</f>
         <v>90</v>
       </c>
-      <c r="K23" s="58">
+      <c r="K23" s="73">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="58">
+      <c r="L23" s="73">
         <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="M23" s="58">
+        <v>1096</v>
+      </c>
+      <c r="M23" s="73">
         <f t="shared" si="0"/>
         <v>89.999999999999915</v>
       </c>
-      <c r="N23" s="58">
+      <c r="N23" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="58">
+      <c r="O23" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="58">
+      <c r="P23" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="70"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="83"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -8814,12 +8792,36 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -8843,16 +8845,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="F1" s="87" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="F1" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="87"/>
+      <c r="G1" s="105"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -8872,21 +8874,21 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="F2" s="86">
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="F2" s="104">
         <v>43430</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="I2" s="103">
+      <c r="G2" s="104"/>
+      <c r="I2" s="84">
         <f>SUM(I7:I30)</f>
-        <v>151</v>
-      </c>
-      <c r="J2" s="97" t="str">
+        <v>1096</v>
+      </c>
+      <c r="J2" s="86" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
-        <v>2:31</v>
+        <v>18:16</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -8901,14 +8903,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="98"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -8922,33 +8924,33 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
@@ -8971,18 +8973,18 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B7" s="106">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="89" t="str">
+      <c r="C7" s="67"/>
+      <c r="D7" s="107" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
@@ -8995,14 +8997,14 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="99" t="str">
+      <c r="L7" s="88" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="99"/>
+      <c r="M7" s="88"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
-        <v>61</v>
+        <v>1006</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
@@ -9047,29 +9049,29 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="90" t="str">
+      <c r="B8" s="65"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Database Analysis from Old Project</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>121.00000000000006</v>
       </c>
-      <c r="I8" s="97"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="99" t="str">
+      <c r="L8" s="88" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M8" s="99"/>
+      <c r="M8" s="88"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
         <v>0</v>
@@ -9117,29 +9119,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="90" t="str">
+      <c r="B9" s="65"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Database Analysis from Old Project</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>119.99999999999989</v>
       </c>
-      <c r="I9" s="97"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="99" t="str">
+      <c r="L9" s="88" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="99"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9187,29 +9189,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="90" t="str">
+      <c r="B10" s="65"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="97"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="99" t="str">
+      <c r="L10" s="88" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M10" s="99"/>
+      <c r="M10" s="88"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9257,23 +9259,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="91">
+      <c r="B11" s="98">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="90" t="str">
+      <c r="C11" s="68"/>
+      <c r="D11" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Database Analysis from Old Project</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>135</v>
       </c>
-      <c r="I11" s="97">
+      <c r="I11" s="86">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>135</v>
       </c>
@@ -9281,11 +9283,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="102" t="str">
+      <c r="L11" s="91" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="102"/>
+      <c r="M11" s="91"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9333,20 +9335,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="90" t="str">
+      <c r="B12" s="65"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="97"/>
+      <c r="I12" s="86"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -9395,27 +9397,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="90" t="str">
+      <c r="B13" s="65"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="97"/>
+      <c r="I13" s="86"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="83" t="s">
+      <c r="K13" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -9459,25 +9461,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="90" t="str">
+      <c r="B14" s="65"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="97"/>
+      <c r="I14" s="86"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -9521,37 +9523,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="91">
+      <c r="B15" s="98">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="90" t="str">
+      <c r="C15" s="68"/>
+      <c r="D15" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Note down table relations</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>380.00000000000011</v>
       </c>
-      <c r="I15" s="97">
+      <c r="I15" s="86">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>380.00000000000011</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="100" t="s">
+      <c r="K15" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101" t="s">
+      <c r="L15" s="92"/>
+      <c r="M15" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -9597,42 +9599,42 @@
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="90" t="str">
+      <c r="B16" s="65"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="97"/>
+      <c r="I16" s="86"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="105" t="str">
+      <c r="K16" s="89" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="73"/>
-      <c r="M16" s="99" t="str">
+      <c r="L16" s="69"/>
+      <c r="M16" s="88" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="97">
+      <c r="R16" s="86">
         <f>SUM(Q16:Q19)</f>
-        <v>151</v>
+        <v>1096</v>
       </c>
       <c r="S16" s="35"/>
       <c r="T16" s="36"/>
@@ -9673,37 +9675,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="90" t="str">
+      <c r="B17" s="65"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="97"/>
+      <c r="I17" s="86"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="105"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="99" t="str">
+      <c r="K17" s="89"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="88" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v>Database Analysis from Old Project</v>
       </c>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
       <c r="Q17" s="22">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v>375.99999999999994</v>
       </c>
-      <c r="R17" s="97"/>
+      <c r="R17" s="86"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -9743,37 +9745,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="90" t="str">
+      <c r="B18" s="65"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="97"/>
+      <c r="I18" s="86"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="105"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="99" t="str">
+      <c r="K18" s="89"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="88" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v>Note down table relations</v>
       </c>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
       <c r="Q18" s="22">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v>510.00000000000011</v>
       </c>
-      <c r="R18" s="97"/>
+      <c r="R18" s="86"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -9813,43 +9815,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="91">
+      <c r="B19" s="98">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="90" t="str">
+      <c r="C19" s="68"/>
+      <c r="D19" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Note down table relations</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>130.00000000000003</v>
       </c>
-      <c r="I19" s="97">
+      <c r="I19" s="86">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
-        <v>-695</v>
+        <v>250.00000000000009</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="105"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="99" t="str">
+      <c r="K19" s="89"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="88" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v>Entering table details into excel sheet</v>
       </c>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
       <c r="Q19" s="22">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
-        <v>-825</v>
-      </c>
-      <c r="R19" s="97"/>
+        <v>120.00000000000006</v>
+      </c>
+      <c r="R19" s="86"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -9889,40 +9891,40 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="90" t="str">
+      <c r="B20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Entering table details into excel sheet</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>-825</v>
-      </c>
-      <c r="I20" s="97"/>
+        <v>120.00000000000006</v>
+      </c>
+      <c r="I20" s="86"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="105" t="str">
+      <c r="K20" s="89" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L20" s="73"/>
-      <c r="M20" s="99" t="str">
+      <c r="L20" s="69"/>
+      <c r="M20" s="88" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
       <c r="Q20" s="22" t="str">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v/>
       </c>
-      <c r="R20" s="97">
+      <c r="R20" s="86">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
         <v>0</v>
       </c>
@@ -9958,44 +9960,44 @@
       </c>
       <c r="AB20" s="33">
         <f t="shared" si="2"/>
-        <v>-825</v>
+        <v>120.00000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="90" t="str">
+      <c r="B21" s="65"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="97"/>
+      <c r="I21" s="86"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="105"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="99" t="str">
+      <c r="K21" s="89"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="88" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
       <c r="Q21" s="22" t="str">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
         <v/>
       </c>
-      <c r="R21" s="97"/>
+      <c r="R21" s="86"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -10035,37 +10037,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="90" t="str">
+      <c r="B22" s="65"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="97"/>
+      <c r="I22" s="86"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="105"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="99" t="str">
+      <c r="K22" s="89"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="88" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="97"/>
+      <c r="R22" s="86"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -10105,43 +10107,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="91">
+      <c r="B23" s="98">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="90" t="str">
+      <c r="C23" s="68"/>
+      <c r="D23" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="97">
+      <c r="I23" s="86">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>0</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="105"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="99" t="str">
+      <c r="K23" s="89"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="88" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="97"/>
+      <c r="R23" s="86"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -10181,40 +10183,40 @@
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="90" t="str">
+      <c r="B24" s="65"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="97"/>
+      <c r="I24" s="86"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="105" t="str">
+      <c r="K24" s="89" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="73"/>
-      <c r="M24" s="99" t="str">
+      <c r="L24" s="69"/>
+      <c r="M24" s="88" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="97">
+      <c r="R24" s="86">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -10257,37 +10259,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="90" t="str">
+      <c r="B25" s="65"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="97"/>
+      <c r="I25" s="86"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="105"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="99" t="str">
+      <c r="K25" s="89"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="88" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="97"/>
+      <c r="R25" s="86"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -10327,37 +10329,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="90" t="str">
+      <c r="B26" s="65"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="97"/>
+      <c r="I26" s="86"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="105"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="99" t="str">
+      <c r="K26" s="89"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="88" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="97"/>
+      <c r="R26" s="86"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -10397,43 +10399,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="91">
+      <c r="B27" s="98">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="90" t="str">
+      <c r="C27" s="68"/>
+      <c r="D27" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="97">
+      <c r="I27" s="86">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="105"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="99" t="str">
+      <c r="K27" s="89"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="88" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="97"/>
+      <c r="R27" s="86"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -10473,40 +10475,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="90" t="str">
+      <c r="B28" s="65"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="97"/>
+      <c r="I28" s="86"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="105" t="str">
+      <c r="K28" s="89" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L28" s="73"/>
-      <c r="M28" s="99" t="str">
+      <c r="L28" s="69"/>
+      <c r="M28" s="88" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
       <c r="Q28" s="22" t="str">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v/>
       </c>
-      <c r="R28" s="97">
+      <c r="R28" s="86">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>0</v>
       </c>
@@ -10549,37 +10551,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="90" t="str">
+      <c r="B29" s="65"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="97"/>
+      <c r="I29" s="86"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="105"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="99" t="str">
+      <c r="K29" s="89"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="88" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
       <c r="Q29" s="22" t="str">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v/>
       </c>
-      <c r="R29" s="97"/>
+      <c r="R29" s="86"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -10616,8 +10618,8 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="95" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
@@ -10629,24 +10631,24 @@
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="98"/>
+      <c r="I30" s="87"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="105"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="99" t="str">
+      <c r="K30" s="89"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="88" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="97"/>
+      <c r="R30" s="86"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -10684,42 +10686,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="105"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="99" t="str">
+      <c r="K31" s="89"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="88" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="97"/>
+      <c r="R31" s="86"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="105" t="str">
+      <c r="K32" s="89" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="73"/>
-      <c r="M32" s="99" t="str">
+      <c r="L32" s="69"/>
+      <c r="M32" s="88" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="97">
+      <c r="R32" s="86">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -10728,61 +10730,127 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="105"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="99" t="str">
+      <c r="K33" s="89"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="88" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="97"/>
+      <c r="R33" s="86"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="105"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="99" t="str">
+      <c r="K34" s="89"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="88" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="97"/>
+      <c r="R34" s="86"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="106"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="102" t="str">
+      <c r="K35" s="90"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="91" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="102"/>
-      <c r="O35" s="102"/>
-      <c r="P35" s="102"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="98"/>
+      <c r="R35" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="K13:N14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="M32:P32"/>
@@ -10799,72 +10867,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="K13:N14"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shareena Anoop\Desktop\Project-Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswathy M S\Desktop\Project-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Solving the issue of repeating icon in tray</t>
   </si>
   <si>
-    <t>SDS/Solving the issue of repeating icon in tray</t>
-  </si>
-  <si>
     <t>Paper Point Online and Inhouse Ordering</t>
   </si>
   <si>
@@ -281,6 +278,15 @@
   <si>
     <t>TKT/Note down table relations</t>
   </si>
+  <si>
+    <t>Request and get Response from  web</t>
+  </si>
+  <si>
+    <t>SDS/Request and get Response from  web</t>
+  </si>
+  <si>
+    <t>RTM/Solving the issue of repeating icon in tray</t>
+  </si>
 </sst>
 </file>
 
@@ -291,7 +297,7 @@
     <numFmt numFmtId="165" formatCode="dd\/mmm"/>
     <numFmt numFmtId="166" formatCode="hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +386,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -635,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -791,6 +803,23 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1599,24 +1628,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1639,24 +1656,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1679,24 +1684,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1719,24 +1712,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1815,24 +1796,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1844,22 +1813,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>375.99999999999994</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-560</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>269.99999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>510.00000000000011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.00000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1900,24 +1869,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1942,11 +1899,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="-1166145536"/>
-        <c:axId val="-1166155328"/>
+        <c:axId val="654675728"/>
+        <c:axId val="654680080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1166145536"/>
+        <c:axId val="654675728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,7 +1924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166155328"/>
+        <c:crossAx val="654680080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1975,7 +1932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1166155328"/>
+        <c:axId val="654680080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +1953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166145536"/>
+        <c:crossAx val="654675728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2062,24 +2019,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2091,16 +2036,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-560</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2158,24 +2103,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2254,24 +2187,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2283,7 +2204,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>375.99999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2292,13 +2213,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>510.00000000000011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.00000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2350,24 +2271,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2388,7 +2297,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.999999999999915</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2443,24 +2352,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2536,24 +2433,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2629,24 +2514,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2716,11 +2589,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="-1166146080"/>
-        <c:axId val="-1166152064"/>
+        <c:axId val="654676272"/>
+        <c:axId val="654676816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1166146080"/>
+        <c:axId val="654676272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2740,7 +2613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166152064"/>
+        <c:crossAx val="654676816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2748,7 +2621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1166152064"/>
+        <c:axId val="654676816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,7 +2642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166146080"/>
+        <c:crossAx val="654676272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2856,24 +2729,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2885,22 +2746,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>375.99999999999994</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-560</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>269.99999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>510.00000000000011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.00000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2969,24 +2830,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3086,24 +2935,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3115,16 +2952,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-560</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3181,24 +3018,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3276,24 +3101,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3305,7 +3118,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>375.99999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3314,13 +3127,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>510.00000000000011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.00000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3371,24 +3184,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3409,7 +3210,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.999999999999915</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3463,24 +3264,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3555,24 +3344,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3650,24 +3427,12 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Database Analysis from Old Project</c:v>
+                  <c:v>Decryption</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DB Designing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Appframe configuration</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Discussion for ticketing modification</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Note down table relations</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Entering table details into excel sheet</c:v>
+                  <c:v>Request and get Response from  web</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3735,11 +3500,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1166144992"/>
-        <c:axId val="-1166144448"/>
+        <c:axId val="654677904"/>
+        <c:axId val="654683344"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1166144992"/>
+        <c:axId val="654677904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3759,7 +3524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166144448"/>
+        <c:crossAx val="654683344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3767,7 +3532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1166144448"/>
+        <c:axId val="654683344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3788,7 +3553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166144992"/>
+        <c:crossAx val="654677904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3989,16 +3754,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>-240</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1096</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.999999999999915</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4191,9 +3956,15 @@
             <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>TKT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RTM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4205,16 +3976,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-240</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>384.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4349,9 +4120,15 @@
             <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>TKT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RTM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4366,13 +4143,13 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>354.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4423,9 +4200,15 @@
             <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>TKT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RTM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4437,16 +4220,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>375.99999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-560</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>30.000000000000053</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4497,9 +4280,15 @@
             <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>TKT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RTM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4511,7 +4300,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>510.00000000000011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4571,9 +4360,15 @@
             <c:strRef>
               <c:f>'Employee Timing Report'!$L$7:$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>TKT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RTM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4585,7 +4380,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>120.00000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4613,11 +4408,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-1166158048"/>
-        <c:axId val="-1166151520"/>
+        <c:axId val="654678448"/>
+        <c:axId val="654678992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1166158048"/>
+        <c:axId val="654678448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4637,7 +4432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166151520"/>
+        <c:crossAx val="654678992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4645,7 +4440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1166151520"/>
+        <c:axId val="654678992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4665,7 +4460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166158048"/>
+        <c:crossAx val="654678448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4796,19 +4591,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>330.99999999999994</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135</c:v>
+                  <c:v>144.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>380.00000000000011</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250.00000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-560</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4827,11 +4622,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="-1166154784"/>
-        <c:axId val="-1332630880"/>
+        <c:axId val="654687152"/>
+        <c:axId val="654685520"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1166154784"/>
+        <c:axId val="654687152"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4851,14 +4646,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1332630880"/>
+        <c:crossAx val="654685520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1332630880"/>
+        <c:axId val="654685520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4879,7 +4674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166154784"/>
+        <c:crossAx val="654687152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5173,8 +4968,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G20" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:G20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G21" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:G21"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No" dataDxfId="29">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -5212,8 +5007,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q23" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q24"/>
   <tableColumns count="17">
     <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -5551,7 +5346,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,10 +5458,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>63</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>64</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>2</v>
@@ -5678,10 +5473,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="41" t="s">
         <v>67</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>68</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>2</v>
@@ -5693,10 +5488,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>73</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>74</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>2</v>
@@ -5719,10 +5514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6072,22 +5867,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C13" s="44" t="str">
         <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
-        <v>SDS-2</v>
+        <v>RTM-1</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>61</v>
       </c>
       <c r="E13" s="45" t="str">
         <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
-        <v>SDS/Solving the issue of repeating icon in tray</v>
+        <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
       <c r="F13" s="45" t="str">
         <f>ProjectTasks[Project]</f>
-        <v>SDS</v>
+        <v>RTM</v>
       </c>
       <c r="G13" s="45" t="str">
         <f>ProjectTasks[Task]</f>
@@ -6100,14 +5895,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="52" t="str">
         <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>PPOIO-1</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="53" t="str">
         <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
@@ -6128,14 +5923,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="52" t="str">
         <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>PPOIO-2</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="53" t="str">
         <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
@@ -6156,14 +5951,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="52" t="str">
         <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>APPFRAME-1</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="53" t="str">
         <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
@@ -6184,14 +5979,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="52" t="str">
         <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
         <v>MITWEB-1</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="53" t="str">
         <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
@@ -6216,10 +6011,10 @@
       </c>
       <c r="C18" s="44" t="str">
         <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
-        <v>RTM-1</v>
+        <v>RTM-2</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="45" t="str">
         <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
@@ -6247,7 +6042,7 @@
         <v>TKT-5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="7" t="str">
         <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
@@ -6275,7 +6070,7 @@
         <v>TKT-6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="7" t="str">
         <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
@@ -6290,9 +6085,37 @@
         <v>Entering table details into excel sheet</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="59">
+        <f>IFERROR($A20+1,1)</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="60" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
+        <v>SDS-2</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="65" t="str">
+        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <v>SDS/Request and get Response from  web</v>
+      </c>
+      <c r="F21" s="65" t="str">
+        <f>ProjectTasks[Project]</f>
+        <v>SDS</v>
+      </c>
+      <c r="G21" s="65" t="str">
+        <f>ProjectTasks[Task]</f>
+        <v>Request and get Response from  web</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B21">
       <formula1>ProjectCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -6370,10 +6193,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6710,7 +6533,7 @@
       </c>
       <c r="B6" s="44" t="str">
         <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
-        <v>SDS</v>
+        <v>RTM</v>
       </c>
       <c r="C6" s="44" t="str">
         <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
@@ -6729,7 +6552,7 @@
         <v>Aswathy/43430/3</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>54</v>
@@ -6761,7 +6584,7 @@
       </c>
       <c r="P6" s="44" t="str">
         <f>TaskTimings[PRJ]</f>
-        <v>SDS</v>
+        <v>RTM</v>
       </c>
       <c r="Q6" s="44" t="str">
         <f>TaskTimings[TSK]</f>
@@ -6840,7 +6663,7 @@
       </c>
       <c r="B8" s="44" t="str">
         <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
-        <v>SDS</v>
+        <v>RTM</v>
       </c>
       <c r="C8" s="44" t="str">
         <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
@@ -6859,7 +6682,7 @@
         <v>Aswathy/43430/4</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H8" s="42" t="s">
         <v>54</v>
@@ -6891,7 +6714,7 @@
       </c>
       <c r="P8" s="44" t="str">
         <f>TaskTimings[PRJ]</f>
-        <v>SDS</v>
+        <v>RTM</v>
       </c>
       <c r="Q8" s="44" t="str">
         <f>TaskTimings[TSK]</f>
@@ -6989,7 +6812,7 @@
         <v>Firose/43430/2</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="41" t="s">
         <v>34</v>
@@ -7054,7 +6877,7 @@
         <v>Firose/43430/3</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>34</v>
@@ -7119,7 +6942,7 @@
         <v>Firose/43431/1</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>34</v>
@@ -7230,7 +7053,7 @@
       </c>
       <c r="B14" s="52" t="str">
         <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
-        <v>SDS</v>
+        <v>RTM</v>
       </c>
       <c r="C14" s="52" t="str">
         <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
@@ -7249,7 +7072,7 @@
         <v>Aswathy/43431/1</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>54</v>
@@ -7281,7 +7104,7 @@
       </c>
       <c r="P14" s="52" t="str">
         <f>TaskTimings[PRJ]</f>
-        <v>SDS</v>
+        <v>RTM</v>
       </c>
       <c r="Q14" s="52" t="str">
         <f>TaskTimings[TSK]</f>
@@ -7295,11 +7118,11 @@
       </c>
       <c r="B15" s="52" t="str">
         <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
-        <v>TEEBPD</v>
+        <v>RTM</v>
       </c>
       <c r="C15" s="52" t="str">
         <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
-        <v>Client Suggestion Implementation</v>
+        <v>Solving the issue of repeating icon in tray</v>
       </c>
       <c r="D15" s="52" t="str">
         <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
@@ -7314,7 +7137,7 @@
         <v>Aswathy/43431/2</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>54</v>
@@ -7346,11 +7169,11 @@
       </c>
       <c r="P15" s="52" t="str">
         <f>TaskTimings[PRJ]</f>
-        <v>TEEBPD</v>
+        <v>RTM</v>
       </c>
       <c r="Q15" s="52" t="str">
         <f>TaskTimings[TSK]</f>
-        <v>Client Suggestion Implementation</v>
+        <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -7379,7 +7202,7 @@
         <v>Firose/43432/1</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>34</v>
@@ -7485,7 +7308,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
-        <f t="shared" ref="A18:A23" si="2">IFERROR($A17+1,1)</f>
+        <f t="shared" ref="A18:A24" si="2">IFERROR($A17+1,1)</f>
         <v>14</v>
       </c>
       <c r="B18" s="44" t="str">
@@ -7509,7 +7332,7 @@
         <v>Shareena/43432/1</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="42" t="s">
         <v>16</v>
@@ -7639,7 +7462,7 @@
         <v>Aswathy/43432/2</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" s="42" t="s">
         <v>54</v>
@@ -7769,7 +7592,7 @@
         <v>Shareena/43433/1</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" s="42" t="s">
         <v>16</v>
@@ -7834,7 +7657,7 @@
         <v>Shareena/43433/2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>16</v>
@@ -7873,12 +7696,75 @@
         <v>Entering table details into excel sheet</v>
       </c>
     </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="59">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>SDS</v>
+      </c>
+      <c r="C24" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Request and get Response from  web</v>
+      </c>
+      <c r="D24" s="60" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Aswathy/43434</v>
+      </c>
+      <c r="E24" s="60">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="60" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43434/1</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="62">
+        <v>43434</v>
+      </c>
+      <c r="J24" s="63">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>-560</v>
+      </c>
+      <c r="M24" s="64" t="e">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N24" s="64">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>-560</v>
+      </c>
+      <c r="O24" s="64" t="e">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P24" s="60" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>SDS</v>
+      </c>
+      <c r="Q24" s="60" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Request and get Response from  web</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H24">
       <formula1>EmployeeNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G24">
       <formula1>TSKPRJCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -7895,7 +7781,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7904,42 +7790,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="A1" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="J2" s="77" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="J2" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="str">
+      <c r="A4" s="68" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
-        <v>TKT</v>
-      </c>
-      <c r="B4" s="61"/>
+        <v>SDS</v>
+      </c>
+      <c r="B4" s="68"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -7963,86 +7849,86 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="67" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="J5" s="64" t="str">
+      <c r="H5" s="78"/>
+      <c r="J5" s="71" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="67" t="str">
+      <c r="K5" s="74" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="67" t="str">
+      <c r="L5" s="74" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="67" t="str">
+      <c r="M5" s="74" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="67" t="str">
+      <c r="N5" s="74" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="67" t="str">
+      <c r="O5" s="74" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="71" t="str">
+      <c r="P5" s="78" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="72"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="72"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="79"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="79"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="str">
+      <c r="B7" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v>Database Analysis from Old Project</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="69">
+        <v>Decryption</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
-        <v>375.99999999999994</v>
-      </c>
-      <c r="H7" s="70"/>
+        <v>320</v>
+      </c>
+      <c r="H7" s="77"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="K7" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],K$5)</f>
@@ -8050,7 +7936,7 @@
       </c>
       <c r="L7" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],L$5)</f>
-        <v>375.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="M7" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],M$5)</f>
@@ -8073,22 +7959,22 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="str">
+      <c r="B8" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v>DB Designing</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="69">
+        <v>Request and get Response from  web</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="70"/>
+        <v>-560</v>
+      </c>
+      <c r="H8" s="77"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
-        <v>0</v>
+        <v>-560</v>
       </c>
       <c r="K8" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],K$5)</f>
@@ -8119,19 +8005,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="str">
+      <c r="B9" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v>Appframe configuration</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="69">
+        <v/>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="70"/>
+      <c r="H9" s="77"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8165,22 +8051,22 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="60" t="str">
+      <c r="B10" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v>Discussion for ticketing modification</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="69">
+        <v/>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
-        <v>269.99999999999989</v>
-      </c>
-      <c r="H10" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="77"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K10" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],K$5)</f>
@@ -8188,11 +8074,11 @@
       </c>
       <c r="L10" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],L$5)</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M10" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],M$5)</f>
-        <v>89.999999999999915</v>
+        <v>0</v>
       </c>
       <c r="N10" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],N$5)</f>
@@ -8211,19 +8097,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="60" t="str">
+      <c r="B11" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v>Note down table relations</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="69">
+        <v/>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
-        <v>510.00000000000011</v>
-      </c>
-      <c r="H11" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="77"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8234,7 +8120,7 @@
       </c>
       <c r="L11" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],L$5)</f>
-        <v>510.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="M11" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],M$5)</f>
@@ -8257,19 +8143,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="60" t="str">
+      <c r="B12" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
-        <v>Entering table details into excel sheet</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="69">
+        <v/>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
-        <v>120.00000000000006</v>
-      </c>
-      <c r="H12" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="77"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8280,7 +8166,7 @@
       </c>
       <c r="L12" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],L$5)</f>
-        <v>120.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="M12" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],M$5)</f>
@@ -8303,19 +8189,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="60" t="str">
+      <c r="B13" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="69">
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="70"/>
+      <c r="H13" s="77"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8349,19 +8235,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="60" t="str">
+      <c r="B14" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="69">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="70"/>
+      <c r="H14" s="77"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8395,19 +8281,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="60" t="str">
+      <c r="B15" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="69">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="77"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8441,19 +8327,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="60" t="str">
+      <c r="B16" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="69">
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="70"/>
+      <c r="H16" s="77"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8487,19 +8373,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="60" t="str">
+      <c r="B17" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="69">
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="70"/>
+      <c r="H17" s="77"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8533,19 +8419,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="60" t="str">
+      <c r="B18" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="69">
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="70"/>
+      <c r="H18" s="77"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8579,19 +8465,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="60" t="str">
+      <c r="B19" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="69">
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="70"/>
+      <c r="H19" s="77"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8625,19 +8511,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="60" t="str">
+      <c r="B20" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="69">
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="70"/>
+      <c r="H20" s="77"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8671,19 +8557,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="66" t="str">
+      <c r="B21" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="75">
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="76"/>
+      <c r="H21" s="83"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8715,58 +8601,58 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="78">
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="85">
         <f>SUM(G7:H21)</f>
-        <v>1276</v>
-      </c>
-      <c r="H23" s="80"/>
-      <c r="J23" s="73">
+        <v>-240</v>
+      </c>
+      <c r="H23" s="87"/>
+      <c r="J23" s="80">
         <f>SUM(J7:J21)</f>
-        <v>90</v>
-      </c>
-      <c r="K23" s="73">
+        <v>-240</v>
+      </c>
+      <c r="K23" s="80">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="73">
+      <c r="L23" s="80">
         <f t="shared" si="0"/>
-        <v>1096</v>
-      </c>
-      <c r="M23" s="73">
+        <v>0</v>
+      </c>
+      <c r="M23" s="80">
         <f t="shared" si="0"/>
-        <v>89.999999999999915</v>
-      </c>
-      <c r="N23" s="73">
+        <v>0</v>
+      </c>
+      <c r="N23" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="73">
+      <c r="O23" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="73">
+      <c r="P23" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="81"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="83"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="90"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -8839,22 +8725,22 @@
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="F1" s="105" t="s">
+      <c r="A1" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="F1" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="105"/>
+      <c r="G1" s="112"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -8874,21 +8760,21 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="F2" s="104">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="F2" s="111">
         <v>43430</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="I2" s="84">
+      <c r="G2" s="111"/>
+      <c r="I2" s="91">
         <f>SUM(I7:I30)</f>
-        <v>1096</v>
-      </c>
-      <c r="J2" s="86" t="str">
+        <v>234.99999999999989</v>
+      </c>
+      <c r="J2" s="93" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
-        <v>18:16</v>
+        <v>3:55</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -8903,14 +8789,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="87"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="94"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -8924,41 +8810,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="94" t="s">
+      <c r="L6" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="94"/>
+      <c r="M6" s="101"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -8973,38 +8859,38 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="106">
+      <c r="B7" s="113">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="107" t="str">
+      <c r="C7" s="74"/>
+      <c r="D7" s="114" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="96">
+      <c r="I7" s="103">
         <f>SUM(H7:H10)</f>
-        <v>330.99999999999994</v>
+        <v>330</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="88" t="str">
+      <c r="L7" s="95" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="88"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
-        <v>1006</v>
+        <v>0</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
@@ -9049,32 +8935,32 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="97" t="str">
+      <c r="B8" s="72"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v>TKT/Database Analysis from Old Project</v>
-      </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
+        <v>SDS/Decryption</v>
+      </c>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>121.00000000000006</v>
-      </c>
-      <c r="I8" s="86"/>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="I8" s="93"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="88" t="str">
+      <c r="L8" s="95" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M8" s="88"/>
+        <v>SDS</v>
+      </c>
+      <c r="M8" s="95"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
-        <v>0</v>
+        <v>-240</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -9088,60 +8974,60 @@
       </c>
       <c r="V8" s="33" t="str">
         <f>IF($U8=0,"",VLOOKUP($D8,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v>TKT</v>
+        <v>SDS</v>
       </c>
       <c r="W8" s="14">
         <f>IF($V8="","",COUNTIF($V$7:$V8,$V8))</f>
+        <v>1</v>
+      </c>
+      <c r="X8" s="14">
+        <f>IF($W8=1,SUM($X$6:$X7)+1,"")</f>
         <v>2</v>
-      </c>
-      <c r="X8" s="14" t="str">
-        <f>IF($W8=1,SUM($X$6:$X7)+1,"")</f>
-        <v/>
       </c>
       <c r="Y8" s="37" t="str">
         <f t="shared" ref="Y8:Y30" si="1">IF($W8="","",$V8)</f>
-        <v>TKT</v>
+        <v>SDS</v>
       </c>
       <c r="Z8" s="33" t="str">
         <f>IF($Y8="","",$Y8&amp;"/"&amp;COUNTIF($Y$7:$Y8,$Y8))</f>
-        <v>TKT/2</v>
+        <v>SDS/1</v>
       </c>
       <c r="AA8" s="33" t="str">
         <f>IF($Z8="","",VLOOKUP($D8,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v>Database Analysis from Old Project</v>
+        <v>Decryption</v>
       </c>
       <c r="AB8" s="33">
         <f t="shared" ref="AB8:AB30" si="2">IF($AA8="",0,SUMIFS($H$7:$H$30,$D$7:$D$30,$Y8&amp;"/"&amp;$AA8))</f>
-        <v>375.99999999999994</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="97" t="str">
+      <c r="B9" s="72"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v>TKT/Database Analysis from Old Project</v>
-      </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
+        <v>RTM/Solving the issue of repeating icon in tray</v>
+      </c>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>119.99999999999989</v>
-      </c>
-      <c r="I9" s="86"/>
+        <v>89.999999999999915</v>
+      </c>
+      <c r="I9" s="93"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="88" t="str">
+      <c r="L9" s="95" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="88"/>
+      <c r="M9" s="95"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9154,67 +9040,67 @@
       <c r="T9" s="25"/>
       <c r="U9" s="14">
         <f>IF(COUNTIFS($D$6:$D9,D9)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="33" t="str">
         <f>IF($U9=0,"",VLOOKUP($D9,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v/>
-      </c>
-      <c r="W9" s="14" t="str">
+        <v>RTM</v>
+      </c>
+      <c r="W9" s="14">
         <f>IF($V9="","",COUNTIF($V$7:$V9,$V9))</f>
-        <v/>
-      </c>
-      <c r="X9" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="X9" s="14">
         <f>IF($W9=1,SUM($X$6:$X8)+1,"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Y9" s="37" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>RTM</v>
       </c>
       <c r="Z9" s="33" t="str">
         <f>IF($Y9="","",$Y9&amp;"/"&amp;COUNTIF($Y$7:$Y9,$Y9))</f>
-        <v/>
+        <v>RTM/1</v>
       </c>
       <c r="AA9" s="33" t="str">
         <f>IF($Z9="","",VLOOKUP($D9,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v/>
+        <v>Solving the issue of repeating icon in tray</v>
       </c>
       <c r="AB9" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>354.99999999999989</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="97" t="str">
+      <c r="B10" s="72"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
+        <v>RTM/Solving the issue of repeating icon in tray</v>
+      </c>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="86"/>
+        <v>120.00000000000006</v>
+      </c>
+      <c r="I10" s="93"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="88" t="str">
+      <c r="L10" s="95" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="M10" s="88"/>
+        <v>RTM</v>
+      </c>
+      <c r="M10" s="95"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>384.99999999999994</v>
       </c>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
@@ -9259,35 +9145,35 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="98">
+      <c r="B11" s="105">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="97" t="str">
+      <c r="C11" s="75"/>
+      <c r="D11" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v>TKT/Database Analysis from Old Project</v>
-      </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
+        <v>RTM/Solving the issue of repeating icon in tray</v>
+      </c>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>135</v>
-      </c>
-      <c r="I11" s="86">
+        <v>45</v>
+      </c>
+      <c r="I11" s="93">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
-        <v>135</v>
+        <v>144.99999999999989</v>
       </c>
       <c r="J11" s="25"/>
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="91" t="str">
+      <c r="L11" s="98" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="91"/>
+      <c r="M11" s="98"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9335,20 +9221,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="97" t="str">
+      <c r="B12" s="72"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
+        <v>RTM/Solving the issue of repeating icon in tray</v>
+      </c>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="86"/>
+        <v>99.999999999999886</v>
+      </c>
+      <c r="I12" s="93"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -9397,27 +9283,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="97" t="str">
+      <c r="B13" s="72"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="86"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="101" t="s">
+      <c r="K13" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -9461,25 +9347,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="97" t="str">
+      <c r="B14" s="72"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="86"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -9523,37 +9409,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="105">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="97" t="str">
+      <c r="C15" s="75"/>
+      <c r="D15" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v>TKT/Note down table relations</v>
-      </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
+        <v>SDS/Decryption</v>
+      </c>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>380.00000000000011</v>
-      </c>
-      <c r="I15" s="86">
+        <v>69.999999999999915</v>
+      </c>
+      <c r="I15" s="93">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
-        <v>380.00000000000011</v>
+        <v>320</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="93" t="s">
+      <c r="K15" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92" t="s">
+      <c r="L15" s="99"/>
+      <c r="M15" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -9564,15 +9450,15 @@
       <c r="T15" s="25"/>
       <c r="U15" s="14">
         <f>IF(COUNTIFS($D$6:$D15,D15)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="33" t="str">
         <f>IF($U15=0,"",VLOOKUP($D15,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v>TKT</v>
-      </c>
-      <c r="W15" s="14">
+        <v/>
+      </c>
+      <c r="W15" s="14" t="str">
         <f>IF($V15="","",COUNTIF($V$7:$V15,$V15))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="X15" s="14" t="str">
         <f>IF($W15=1,SUM($X$6:$X14)+1,"")</f>
@@ -9580,75 +9466,75 @@
       </c>
       <c r="Y15" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>TKT</v>
+        <v/>
       </c>
       <c r="Z15" s="33" t="str">
         <f>IF($Y15="","",$Y15&amp;"/"&amp;COUNTIF($Y$7:$Y15,$Y15))</f>
-        <v>TKT/3</v>
+        <v/>
       </c>
       <c r="AA15" s="33" t="str">
         <f>IF($Z15="","",VLOOKUP($D15,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v>Note down table relations</v>
+        <v/>
       </c>
       <c r="AB15" s="33">
         <f t="shared" si="2"/>
-        <v>510.00000000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="97" t="str">
+      <c r="B16" s="72"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
+        <v>RTM/Getting branchname into tool</v>
+      </c>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="86"/>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="I16" s="93"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="89" t="str">
+      <c r="K16" s="96" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="69"/>
-      <c r="M16" s="88" t="str">
+      <c r="L16" s="76"/>
+      <c r="M16" s="95" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="86">
+      <c r="R16" s="93">
         <f>SUM(Q16:Q19)</f>
-        <v>1096</v>
+        <v>90</v>
       </c>
       <c r="S16" s="35"/>
       <c r="T16" s="36"/>
       <c r="U16" s="14">
         <f>IF(COUNTIFS($D$6:$D16,D16)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="33" t="str">
         <f>IF($U16=0,"",VLOOKUP($D16,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v/>
-      </c>
-      <c r="W16" s="14" t="str">
+        <v>RTM</v>
+      </c>
+      <c r="W16" s="14">
         <f>IF($V16="","",COUNTIF($V$7:$V16,$V16))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="X16" s="14" t="str">
         <f>IF($W16=1,SUM($X$6:$X15)+1,"")</f>
@@ -9656,56 +9542,56 @@
       </c>
       <c r="Y16" s="37" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>RTM</v>
       </c>
       <c r="Z16" s="33" t="str">
         <f>IF($Y16="","",$Y16&amp;"/"&amp;COUNTIF($Y$7:$Y16,$Y16))</f>
-        <v/>
+        <v>RTM/2</v>
       </c>
       <c r="AA16" s="33" t="str">
         <f>IF($Z16="","",VLOOKUP($D16,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v/>
+        <v>Getting branchname into tool</v>
       </c>
       <c r="AB16" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30.000000000000053</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="97" t="str">
+      <c r="B17" s="72"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
+        <v>SDS/Decryption</v>
+      </c>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="86"/>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="I17" s="93"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="89"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="88" t="str">
+      <c r="K17" s="96"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="95" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
-        <v>Database Analysis from Old Project</v>
-      </c>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="22">
+        <v/>
+      </c>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
-        <v>375.99999999999994</v>
-      </c>
-      <c r="R17" s="86"/>
+        <v/>
+      </c>
+      <c r="R17" s="93"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -9745,37 +9631,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="97" t="str">
+      <c r="B18" s="72"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="86"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="89"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="88" t="str">
+      <c r="K18" s="96"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="95" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
-        <v>Note down table relations</v>
-      </c>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="22">
+        <v/>
+      </c>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
-        <v>510.00000000000011</v>
-      </c>
-      <c r="R18" s="86"/>
+        <v/>
+      </c>
+      <c r="R18" s="93"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -9815,43 +9701,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="98">
+      <c r="B19" s="105">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="97" t="str">
+      <c r="C19" s="75"/>
+      <c r="D19" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v>TKT/Note down table relations</v>
-      </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
+        <v/>
+      </c>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>130.00000000000003</v>
-      </c>
-      <c r="I19" s="86">
+        <v>0</v>
+      </c>
+      <c r="I19" s="93">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
-        <v>250.00000000000009</v>
+        <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="89"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="88" t="str">
+      <c r="K19" s="96"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="95" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
-        <v>Entering table details into excel sheet</v>
-      </c>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="22">
+        <v/>
+      </c>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
-        <v>120.00000000000006</v>
-      </c>
-      <c r="R19" s="86"/>
+        <v/>
+      </c>
+      <c r="R19" s="93"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -9891,56 +9777,56 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="97" t="str">
+      <c r="B20" s="72"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v>TKT/Entering table details into excel sheet</v>
-      </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
+        <v/>
+      </c>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>120.00000000000006</v>
-      </c>
-      <c r="I20" s="86"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="93"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="89" t="str">
+      <c r="K20" s="96" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
-        <v/>
-      </c>
-      <c r="L20" s="69"/>
-      <c r="M20" s="88" t="str">
+        <v>SDS</v>
+      </c>
+      <c r="L20" s="76"/>
+      <c r="M20" s="95" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
-        <v/>
-      </c>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="22" t="str">
+        <v>Decryption</v>
+      </c>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
-        <v/>
-      </c>
-      <c r="R20" s="86">
+        <v>320</v>
+      </c>
+      <c r="R20" s="93">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
-        <v>0</v>
+        <v>-240</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
       <c r="U20" s="14">
         <f>IF(COUNTIFS($D$6:$D20,D20)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="33" t="str">
         <f>IF($U20=0,"",VLOOKUP($D20,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v>TKT</v>
-      </c>
-      <c r="W20" s="14">
+        <v/>
+      </c>
+      <c r="W20" s="14" t="str">
         <f>IF($V20="","",COUNTIF($V$7:$V20,$V20))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="X20" s="14" t="str">
         <f>IF($W20=1,SUM($X$6:$X19)+1,"")</f>
@@ -9948,56 +9834,56 @@
       </c>
       <c r="Y20" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>TKT</v>
+        <v/>
       </c>
       <c r="Z20" s="33" t="str">
         <f>IF($Y20="","",$Y20&amp;"/"&amp;COUNTIF($Y$7:$Y20,$Y20))</f>
-        <v>TKT/4</v>
+        <v/>
       </c>
       <c r="AA20" s="33" t="str">
         <f>IF($Z20="","",VLOOKUP($D20,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v>Entering table details into excel sheet</v>
+        <v/>
       </c>
       <c r="AB20" s="33">
         <f t="shared" si="2"/>
-        <v>120.00000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="97" t="str">
+      <c r="B21" s="72"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="86"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="89"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="88" t="str">
+      <c r="K21" s="96"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="95" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
-        <v/>
-      </c>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="22" t="str">
+        <v>Request and get Response from  web</v>
+      </c>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
-        <v/>
-      </c>
-      <c r="R21" s="86"/>
+        <v>-560</v>
+      </c>
+      <c r="R21" s="93"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -10037,37 +9923,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="97" t="str">
+      <c r="B22" s="72"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="86"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="89"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="88" t="str">
+      <c r="K22" s="96"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="95" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="86"/>
+      <c r="R22" s="93"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -10107,56 +9993,56 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="98">
+      <c r="B23" s="105">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="97" t="str">
+      <c r="C23" s="75"/>
+      <c r="D23" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
+        <v>SDS/Request and get Response from  web</v>
+      </c>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="86">
+        <v>-560</v>
+      </c>
+      <c r="I23" s="93">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
-        <v>0</v>
+        <v>-560</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="89"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="88" t="str">
+      <c r="K23" s="96"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="95" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="86"/>
+      <c r="R23" s="93"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
         <f>IF(COUNTIFS($D$6:$D23,D23)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="33" t="str">
         <f>IF($U23=0,"",VLOOKUP($D23,TaskTimings[[Task]:[PRJLST]],10,0))</f>
-        <v/>
-      </c>
-      <c r="W23" s="14" t="str">
+        <v>SDS</v>
+      </c>
+      <c r="W23" s="14">
         <f>IF($V23="","",COUNTIF($V$7:$V23,$V23))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="X23" s="14" t="str">
         <f>IF($W23=1,SUM($X$6:$X22)+1,"")</f>
@@ -10164,59 +10050,59 @@
       </c>
       <c r="Y23" s="37" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>SDS</v>
       </c>
       <c r="Z23" s="33" t="str">
         <f>IF($Y23="","",$Y23&amp;"/"&amp;COUNTIF($Y$7:$Y23,$Y23))</f>
-        <v/>
+        <v>SDS/2</v>
       </c>
       <c r="AA23" s="33" t="str">
         <f>IF($Z23="","",VLOOKUP($D23,TaskTimings[[Task]:[TSKLST]],11,0))</f>
-        <v/>
+        <v>Request and get Response from  web</v>
       </c>
       <c r="AB23" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-560</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="97" t="str">
+      <c r="B24" s="72"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="86"/>
+      <c r="I24" s="93"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="89" t="str">
+      <c r="K24" s="96" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="69"/>
-      <c r="M24" s="88" t="str">
+      <c r="L24" s="76"/>
+      <c r="M24" s="95" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="86">
+      <c r="R24" s="93">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -10259,37 +10145,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="97" t="str">
+      <c r="B25" s="72"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="86"/>
+      <c r="I25" s="93"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="89"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="88" t="str">
+      <c r="K25" s="96"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="95" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="86"/>
+      <c r="R25" s="93"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -10329,37 +10215,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="97" t="str">
+      <c r="B26" s="72"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="86"/>
+      <c r="I26" s="93"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="89"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="88" t="str">
+      <c r="K26" s="96"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="95" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="86"/>
+      <c r="R26" s="93"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -10399,43 +10285,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="98">
+      <c r="B27" s="105">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="97" t="str">
+      <c r="C27" s="75"/>
+      <c r="D27" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="86">
+      <c r="I27" s="93">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="89"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="88" t="str">
+      <c r="K27" s="96"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="95" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="86"/>
+      <c r="R27" s="93"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -10475,42 +10361,42 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="97" t="str">
+      <c r="B28" s="72"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="86"/>
+      <c r="I28" s="93"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="89" t="str">
+      <c r="K28" s="96" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
-        <v/>
-      </c>
-      <c r="L28" s="69"/>
-      <c r="M28" s="88" t="str">
+        <v>RTM</v>
+      </c>
+      <c r="L28" s="76"/>
+      <c r="M28" s="95" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
-        <v/>
-      </c>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="22" t="str">
+        <v>Solving the issue of repeating icon in tray</v>
+      </c>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="22">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
-        <v/>
-      </c>
-      <c r="R28" s="86">
+        <v>354.99999999999989</v>
+      </c>
+      <c r="R28" s="93">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
-        <v>0</v>
+        <v>384.99999999999994</v>
       </c>
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
@@ -10551,37 +10437,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="97" t="str">
+      <c r="B29" s="72"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="86"/>
+      <c r="I29" s="93"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="89"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="88" t="str">
+      <c r="K29" s="96"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="95" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
-        <v/>
-      </c>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="22" t="str">
+        <v>Getting branchname into tool</v>
+      </c>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="22">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
-        <v/>
-      </c>
-      <c r="R29" s="86"/>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="R29" s="93"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -10618,37 +10504,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="99"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="95" t="str">
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="102" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="87"/>
+      <c r="I30" s="94"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="89"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="88" t="str">
+      <c r="K30" s="96"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="95" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="86"/>
+      <c r="R30" s="93"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -10686,42 +10572,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="89"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="88" t="str">
+      <c r="K31" s="96"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="95" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="86"/>
+      <c r="R31" s="93"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="89" t="str">
+      <c r="K32" s="96" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="69"/>
-      <c r="M32" s="88" t="str">
+      <c r="L32" s="76"/>
+      <c r="M32" s="95" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="86">
+      <c r="R32" s="93">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -10730,58 +10616,58 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="89"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="88" t="str">
+      <c r="K33" s="96"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="95" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="86"/>
+      <c r="R33" s="93"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="89"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="88" t="str">
+      <c r="K34" s="96"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="95" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="86"/>
+      <c r="R34" s="93"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="90"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="91" t="str">
+      <c r="K35" s="97"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="98" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="87"/>
+      <c r="R35" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="82">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswathy M S\Desktop\Project-Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shareena Anoop\Desktop\Project-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -820,29 +820,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,28 +832,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -895,56 +859,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -966,6 +915,57 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1899,11 +1899,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="654675728"/>
-        <c:axId val="654680080"/>
+        <c:axId val="582472736"/>
+        <c:axId val="582464576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="654675728"/>
+        <c:axId val="582472736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +1924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654680080"/>
+        <c:crossAx val="582464576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1932,7 +1932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="654680080"/>
+        <c:axId val="582464576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654675728"/>
+        <c:crossAx val="582472736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2589,11 +2589,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="654676272"/>
-        <c:axId val="654676816"/>
+        <c:axId val="582470016"/>
+        <c:axId val="582459136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="654676272"/>
+        <c:axId val="582470016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654676816"/>
+        <c:crossAx val="582459136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2621,7 +2621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="654676816"/>
+        <c:axId val="582459136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,7 +2642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654676272"/>
+        <c:crossAx val="582470016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3500,11 +3500,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="654677904"/>
-        <c:axId val="654683344"/>
+        <c:axId val="582460224"/>
+        <c:axId val="402355312"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="654677904"/>
+        <c:axId val="582460224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3524,7 +3524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654683344"/>
+        <c:crossAx val="402355312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3532,7 +3532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="654683344"/>
+        <c:axId val="402355312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3553,7 +3553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654677904"/>
+        <c:crossAx val="582460224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4408,11 +4408,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="654678448"/>
-        <c:axId val="654678992"/>
+        <c:axId val="402356944"/>
+        <c:axId val="402353680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="654678448"/>
+        <c:axId val="402356944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4432,7 +4432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654678992"/>
+        <c:crossAx val="402353680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4440,7 +4440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="654678992"/>
+        <c:axId val="402353680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4460,7 +4460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654678448"/>
+        <c:crossAx val="402356944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4622,11 +4622,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="654687152"/>
-        <c:axId val="654685520"/>
+        <c:axId val="402351504"/>
+        <c:axId val="569657696"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="654687152"/>
+        <c:axId val="402351504"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4646,14 +4646,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654685520"/>
+        <c:crossAx val="569657696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="654685520"/>
+        <c:axId val="569657696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4674,7 +4674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654687152"/>
+        <c:crossAx val="402351504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5007,8 +5007,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q25" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q25"/>
   <tableColumns count="17">
     <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -6193,10 +6193,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7759,12 +7759,75 @@
         <v>Request and get Response from  web</v>
       </c>
     </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="59">
+        <f>IFERROR($A24+1,1)</f>
+        <v>21</v>
+      </c>
+      <c r="B25" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C25" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Entering table details into excel sheet</v>
+      </c>
+      <c r="D25" s="60" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Shareena/43434</v>
+      </c>
+      <c r="E25" s="60">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="60" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Shareena/43434/1</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="62">
+        <v>43434</v>
+      </c>
+      <c r="J25" s="63">
+        <v>0.40625</v>
+      </c>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>-585</v>
+      </c>
+      <c r="M25" s="64" t="e">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N25" s="64">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>-585</v>
+      </c>
+      <c r="O25" s="64" t="e">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P25" s="60" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>TKT</v>
+      </c>
+      <c r="Q25" s="60" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Entering table details into excel sheet</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25">
       <formula1>EmployeeNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G25">
       <formula1>TSKPRJCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -7790,42 +7853,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="J2" s="84" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="J2" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="str">
+      <c r="A4" s="88" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="88"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -7849,83 +7912,83 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="74" t="s">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="J5" s="71" t="str">
+      <c r="H5" s="70"/>
+      <c r="J5" s="79" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="74" t="str">
+      <c r="K5" s="68" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="74" t="str">
+      <c r="L5" s="68" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="74" t="str">
+      <c r="M5" s="68" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="74" t="str">
+      <c r="N5" s="68" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="74" t="str">
+      <c r="O5" s="68" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="78" t="str">
+      <c r="P5" s="70" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="79"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="79"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="71"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="71"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="67" t="str">
+      <c r="B7" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Decryption</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="76">
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>320</v>
       </c>
-      <c r="H7" s="77"/>
+      <c r="H7" s="82"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>320</v>
@@ -7959,19 +8022,19 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="67" t="str">
+      <c r="B8" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="76">
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
         <v>-560</v>
       </c>
-      <c r="H8" s="77"/>
+      <c r="H8" s="82"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>-560</v>
@@ -8005,19 +8068,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="67" t="str">
+      <c r="B9" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="76">
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="77"/>
+      <c r="H9" s="82"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8051,19 +8114,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="67" t="str">
+      <c r="B10" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="76">
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="77"/>
+      <c r="H10" s="82"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8097,19 +8160,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="67" t="str">
+      <c r="B11" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="76">
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="77"/>
+      <c r="H11" s="82"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8143,19 +8206,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="67" t="str">
+      <c r="B12" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="76">
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="77"/>
+      <c r="H12" s="82"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8189,19 +8252,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="67" t="str">
+      <c r="B13" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="76">
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="77"/>
+      <c r="H13" s="82"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8235,19 +8298,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="67" t="str">
+      <c r="B14" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="76">
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="77"/>
+      <c r="H14" s="82"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8281,19 +8344,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="67" t="str">
+      <c r="B15" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="76">
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="77"/>
+      <c r="H15" s="82"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8327,19 +8390,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="67" t="str">
+      <c r="B16" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="76">
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="77"/>
+      <c r="H16" s="82"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8373,19 +8436,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="67" t="str">
+      <c r="B17" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="76">
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="77"/>
+      <c r="H17" s="82"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8419,19 +8482,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="67" t="str">
+      <c r="B18" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="76">
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="77"/>
+      <c r="H18" s="82"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8465,19 +8528,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="67" t="str">
+      <c r="B19" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="76">
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="77"/>
+      <c r="H19" s="82"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8511,19 +8574,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="67" t="str">
+      <c r="B20" s="83" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="76">
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="81">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="77"/>
+      <c r="H20" s="82"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8557,19 +8620,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="73" t="str">
+      <c r="B21" s="86" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="82">
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="84">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="83"/>
+      <c r="H21" s="85"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8601,67 +8664,91 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="85">
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="73">
         <f>SUM(G7:H21)</f>
         <v>-240</v>
       </c>
-      <c r="H23" s="87"/>
-      <c r="J23" s="80">
+      <c r="H23" s="75"/>
+      <c r="J23" s="66">
         <f>SUM(J7:J21)</f>
         <v>-240</v>
       </c>
-      <c r="K23" s="80">
+      <c r="K23" s="66">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="80">
+      <c r="L23" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="80">
+      <c r="M23" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="80">
+      <c r="N23" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="80">
+      <c r="O23" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="80">
+      <c r="P23" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="90"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="78"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -8678,36 +8765,12 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -8731,16 +8794,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="F1" s="112" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="F1" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="112"/>
+      <c r="G1" s="95"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -8760,19 +8823,19 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="F2" s="111">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="F2" s="94">
         <v>43430</v>
       </c>
-      <c r="G2" s="111"/>
-      <c r="I2" s="91">
+      <c r="G2" s="94"/>
+      <c r="I2" s="111">
         <f>SUM(I7:I30)</f>
         <v>234.99999999999989</v>
       </c>
-      <c r="J2" s="93" t="str">
+      <c r="J2" s="105" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
         <v>3:55</v>
       </c>
@@ -8789,14 +8852,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="94"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="106"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -8810,41 +8873,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="101"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -8859,23 +8922,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="113">
+      <c r="B7" s="96">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="114" t="str">
+      <c r="C7" s="68"/>
+      <c r="D7" s="97" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="104">
         <f>SUM(H7:H10)</f>
         <v>330</v>
       </c>
@@ -8883,11 +8946,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="95" t="str">
+      <c r="L7" s="107" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="107"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -8935,29 +8998,29 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="104" t="str">
+      <c r="B8" s="80"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I8" s="93"/>
+      <c r="I8" s="105"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="95" t="str">
+      <c r="L8" s="107" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v>SDS</v>
       </c>
-      <c r="M8" s="95"/>
+      <c r="M8" s="107"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
         <v>-240</v>
@@ -9005,29 +9068,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="104" t="str">
+      <c r="B9" s="80"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>89.999999999999915</v>
       </c>
-      <c r="I9" s="93"/>
+      <c r="I9" s="105"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="95" t="str">
+      <c r="L9" s="107" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="95"/>
+      <c r="M9" s="107"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9075,29 +9138,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="104" t="str">
+      <c r="B10" s="80"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="I10" s="93"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="95" t="str">
+      <c r="L10" s="107" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v>RTM</v>
       </c>
-      <c r="M10" s="95"/>
+      <c r="M10" s="107"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>384.99999999999994</v>
@@ -9145,23 +9208,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="105">
+      <c r="B11" s="99">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="104" t="str">
+      <c r="C11" s="69"/>
+      <c r="D11" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>45</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="105">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>144.99999999999989</v>
       </c>
@@ -9169,11 +9232,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="98" t="str">
+      <c r="L11" s="110" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="98"/>
+      <c r="M11" s="110"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9221,20 +9284,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="104" t="str">
+      <c r="B12" s="80"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>99.999999999999886</v>
       </c>
-      <c r="I12" s="93"/>
+      <c r="I12" s="105"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -9283,27 +9346,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="104" t="str">
+      <c r="B13" s="80"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="93"/>
+      <c r="I13" s="105"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -9347,25 +9410,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="104" t="str">
+      <c r="B14" s="80"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="93"/>
+      <c r="I14" s="105"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -9409,37 +9472,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="105">
+      <c r="B15" s="99">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="104" t="str">
+      <c r="C15" s="69"/>
+      <c r="D15" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>69.999999999999915</v>
       </c>
-      <c r="I15" s="93">
+      <c r="I15" s="105">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>320</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="100" t="s">
+      <c r="K15" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99" t="s">
+      <c r="L15" s="109"/>
+      <c r="M15" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -9485,40 +9548,40 @@
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="104" t="str">
+      <c r="B16" s="80"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Getting branchname into tool</v>
       </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I16" s="93"/>
+      <c r="I16" s="105"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="96" t="str">
+      <c r="K16" s="113" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="76"/>
-      <c r="M16" s="95" t="str">
+      <c r="L16" s="81"/>
+      <c r="M16" s="107" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="93">
+      <c r="R16" s="105">
         <f>SUM(Q16:Q19)</f>
         <v>90</v>
       </c>
@@ -9561,37 +9624,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="104" t="str">
+      <c r="B17" s="80"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="I17" s="93"/>
+      <c r="I17" s="105"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="96"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="95" t="str">
+      <c r="K17" s="113"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="107" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="93"/>
+      <c r="R17" s="105"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -9631,37 +9694,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="104" t="str">
+      <c r="B18" s="80"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="93"/>
+      <c r="I18" s="105"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="96"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="95" t="str">
+      <c r="K18" s="113"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="107" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="93"/>
+      <c r="R18" s="105"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -9701,43 +9764,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="105">
+      <c r="B19" s="99">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="104" t="str">
+      <c r="C19" s="69"/>
+      <c r="D19" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="93">
+      <c r="I19" s="105">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="96"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="95" t="str">
+      <c r="K19" s="113"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="107" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="93"/>
+      <c r="R19" s="105"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -9777,40 +9840,40 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="104" t="str">
+      <c r="B20" s="80"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="93"/>
+      <c r="I20" s="105"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="96" t="str">
+      <c r="K20" s="113" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="L20" s="76"/>
-      <c r="M20" s="95" t="str">
+      <c r="L20" s="81"/>
+      <c r="M20" s="107" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v>Decryption</v>
       </c>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
       <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v>320</v>
       </c>
-      <c r="R20" s="93">
+      <c r="R20" s="105">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
         <v>-240</v>
       </c>
@@ -9853,37 +9916,37 @@
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="104" t="str">
+      <c r="B21" s="80"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="93"/>
+      <c r="I21" s="105"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="96"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="95" t="str">
+      <c r="K21" s="113"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="107" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
         <v>-560</v>
       </c>
-      <c r="R21" s="93"/>
+      <c r="R21" s="105"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -9923,37 +9986,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="104" t="str">
+      <c r="B22" s="80"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="93"/>
+      <c r="I22" s="105"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="96"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="95" t="str">
+      <c r="K22" s="113"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="107" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="93"/>
+      <c r="R22" s="105"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -9993,43 +10056,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="105">
+      <c r="B23" s="99">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="104" t="str">
+      <c r="C23" s="69"/>
+      <c r="D23" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>-560</v>
       </c>
-      <c r="I23" s="93">
+      <c r="I23" s="105">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>-560</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="96"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="95" t="str">
+      <c r="K23" s="113"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="107" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="93"/>
+      <c r="R23" s="105"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -10069,40 +10132,40 @@
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="104" t="str">
+      <c r="B24" s="80"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="93"/>
+      <c r="I24" s="105"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="96" t="str">
+      <c r="K24" s="113" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="76"/>
-      <c r="M24" s="95" t="str">
+      <c r="L24" s="81"/>
+      <c r="M24" s="107" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="93">
+      <c r="R24" s="105">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -10145,37 +10208,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="104" t="str">
+      <c r="B25" s="80"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="93"/>
+      <c r="I25" s="105"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="96"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="95" t="str">
+      <c r="K25" s="113"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="107" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="93"/>
+      <c r="R25" s="105"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -10215,37 +10278,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="104" t="str">
+      <c r="B26" s="80"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="93"/>
+      <c r="I26" s="105"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="96"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="95" t="str">
+      <c r="K26" s="113"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="107" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="93"/>
+      <c r="R26" s="105"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -10285,43 +10348,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="105">
+      <c r="B27" s="99">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="104" t="str">
+      <c r="C27" s="69"/>
+      <c r="D27" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="93">
+      <c r="I27" s="105">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="96"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="95" t="str">
+      <c r="K27" s="113"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="107" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="93"/>
+      <c r="R27" s="105"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -10361,40 +10424,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="104" t="str">
+      <c r="B28" s="80"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="93"/>
+      <c r="I28" s="105"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="96" t="str">
+      <c r="K28" s="113" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v>RTM</v>
       </c>
-      <c r="L28" s="76"/>
-      <c r="M28" s="95" t="str">
+      <c r="L28" s="81"/>
+      <c r="M28" s="107" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="107"/>
       <c r="Q28" s="22">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v>354.99999999999989</v>
       </c>
-      <c r="R28" s="93">
+      <c r="R28" s="105">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>384.99999999999994</v>
       </c>
@@ -10437,37 +10500,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="104" t="str">
+      <c r="B29" s="80"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="93"/>
+      <c r="I29" s="105"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="96"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="95" t="str">
+      <c r="K29" s="113"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="107" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v>Getting branchname into tool</v>
       </c>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
       <c r="Q29" s="22">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="R29" s="93"/>
+      <c r="R29" s="105"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -10504,37 +10567,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="106"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="102" t="str">
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="103" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="94"/>
+      <c r="I30" s="106"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="96"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="95" t="str">
+      <c r="K30" s="113"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="107" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="93"/>
+      <c r="R30" s="105"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -10572,42 +10635,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="96"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="95" t="str">
+      <c r="K31" s="113"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="107" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="93"/>
+      <c r="R31" s="105"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="96" t="str">
+      <c r="K32" s="113" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="76"/>
-      <c r="M32" s="95" t="str">
+      <c r="L32" s="81"/>
+      <c r="M32" s="107" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="93">
+      <c r="R32" s="105">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -10616,61 +10679,127 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="96"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="95" t="str">
+      <c r="K33" s="113"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="107" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="93"/>
+      <c r="R33" s="105"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="96"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="95" t="str">
+      <c r="K34" s="113"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="107" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="93"/>
+      <c r="R34" s="105"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="97"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="98" t="str">
+      <c r="K35" s="114"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="110" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="110"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="94"/>
+      <c r="R35" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K20:L23"/>
+    <mergeCell ref="K24:L27"/>
+    <mergeCell ref="K28:L31"/>
+    <mergeCell ref="K32:L35"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K16:L19"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="K13:N14"/>
     <mergeCell ref="A1:D3"/>
@@ -10687,72 +10816,6 @@
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K20:L23"/>
-    <mergeCell ref="K24:L27"/>
-    <mergeCell ref="K28:L31"/>
-    <mergeCell ref="K32:L35"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K16:L19"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shareena Anoop\Desktop\Project-Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswathy M S\Desktop\Project-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -647,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -820,11 +820,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,10 +850,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -859,41 +895,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -916,56 +967,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1816,7 +1819,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-560</c:v>
+                  <c:v>-575</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1899,11 +1902,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="582472736"/>
-        <c:axId val="582464576"/>
+        <c:axId val="-264777040"/>
+        <c:axId val="-264776496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="582472736"/>
+        <c:axId val="-264777040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +1927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582464576"/>
+        <c:crossAx val="-264776496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1932,7 +1935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="582464576"/>
+        <c:axId val="-264776496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582472736"/>
+        <c:crossAx val="-264777040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2039,7 +2042,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-560</c:v>
+                  <c:v>-575</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2589,11 +2592,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="582470016"/>
-        <c:axId val="582459136"/>
+        <c:axId val="-264775952"/>
+        <c:axId val="-264774864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="582470016"/>
+        <c:axId val="-264775952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582459136"/>
+        <c:crossAx val="-264774864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2621,7 +2624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="582459136"/>
+        <c:axId val="-264774864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,7 +2645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582470016"/>
+        <c:crossAx val="-264775952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2749,7 +2752,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-560</c:v>
+                  <c:v>-575</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2955,7 +2958,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-560</c:v>
+                  <c:v>-575</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3500,11 +3503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="582460224"/>
-        <c:axId val="402355312"/>
+        <c:axId val="-264774320"/>
+        <c:axId val="-262872960"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="582460224"/>
+        <c:axId val="-264774320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3524,7 +3527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402355312"/>
+        <c:crossAx val="-262872960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3532,7 +3535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402355312"/>
+        <c:axId val="-262872960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3553,7 +3556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582460224"/>
+        <c:crossAx val="-264774320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3754,7 +3757,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-240</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3979,7 +3982,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-240</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4223,7 +4226,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-560</c:v>
+                  <c:v>-575</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4408,11 +4411,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="402356944"/>
-        <c:axId val="402353680"/>
+        <c:axId val="-262877312"/>
+        <c:axId val="-262870240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="402356944"/>
+        <c:axId val="-262877312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4432,7 +4435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402353680"/>
+        <c:crossAx val="-262870240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4440,7 +4443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402353680"/>
+        <c:axId val="-262870240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4460,7 +4463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402356944"/>
+        <c:crossAx val="-262877312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4603,7 +4606,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-560</c:v>
+                  <c:v>-575</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4622,11 +4625,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="402351504"/>
-        <c:axId val="569657696"/>
+        <c:axId val="-262883840"/>
+        <c:axId val="-262885472"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="402351504"/>
+        <c:axId val="-262883840"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4646,14 +4649,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569657696"/>
+        <c:crossAx val="-262885472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="569657696"/>
+        <c:axId val="-262885472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4674,7 +4677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402351504"/>
+        <c:crossAx val="-262883840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5007,8 +5010,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q25" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q26"/>
   <tableColumns count="17">
     <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -6193,10 +6196,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7733,18 +7736,20 @@
       <c r="J24" s="63">
         <v>0.3888888888888889</v>
       </c>
-      <c r="K24" s="64"/>
+      <c r="K24" s="115">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="L24" s="64">
         <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>-560</v>
-      </c>
-      <c r="M24" s="64" t="e">
+        <v>54.999999999999964</v>
+      </c>
+      <c r="M24" s="64" t="str">
         <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>00:55</v>
       </c>
       <c r="N24" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-560</v>
+        <v>-575</v>
       </c>
       <c r="O24" s="64" t="e">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
@@ -7822,12 +7827,75 @@
         <v>Entering table details into excel sheet</v>
       </c>
     </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="59">
+        <f>IFERROR($A25+1,1)</f>
+        <v>22</v>
+      </c>
+      <c r="B26" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>SDS</v>
+      </c>
+      <c r="C26" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Request and get Response from  web</v>
+      </c>
+      <c r="D26" s="60" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Aswathy/43434</v>
+      </c>
+      <c r="E26" s="60">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="60" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43434/2</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="62">
+        <v>43434</v>
+      </c>
+      <c r="J26" s="63">
+        <v>0.4375</v>
+      </c>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>-630</v>
+      </c>
+      <c r="M26" s="64" t="e">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N26" s="64">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>-575</v>
+      </c>
+      <c r="O26" s="64" t="e">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P26" s="60" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>SDS</v>
+      </c>
+      <c r="Q26" s="60" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Request and get Response from  web</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H26">
       <formula1>EmployeeNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G26">
       <formula1>TSKPRJCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -7853,42 +7921,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="J2" s="72" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="J2" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="str">
+      <c r="A4" s="68" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="B4" s="88"/>
+      <c r="B4" s="68"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -7912,83 +7980,83 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="68" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="J5" s="79" t="str">
+      <c r="H5" s="78"/>
+      <c r="J5" s="71" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="68" t="str">
+      <c r="K5" s="74" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="68" t="str">
+      <c r="L5" s="74" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="68" t="str">
+      <c r="M5" s="74" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="68" t="str">
+      <c r="N5" s="74" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="68" t="str">
+      <c r="O5" s="74" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="70" t="str">
+      <c r="P5" s="78" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="71"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="71"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="79"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="79"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="83" t="str">
+      <c r="B7" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Decryption</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="81">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>320</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="77"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>320</v>
@@ -8022,22 +8090,22 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="83" t="str">
+      <c r="B8" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="81">
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
-        <v>-560</v>
-      </c>
-      <c r="H8" s="82"/>
+        <v>-575</v>
+      </c>
+      <c r="H8" s="77"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
-        <v>-560</v>
+        <v>-575</v>
       </c>
       <c r="K8" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],K$5)</f>
@@ -8068,19 +8136,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="83" t="str">
+      <c r="B9" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="81">
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="82"/>
+      <c r="H9" s="77"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8114,19 +8182,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="83" t="str">
+      <c r="B10" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="81">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="82"/>
+      <c r="H10" s="77"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8160,19 +8228,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="83" t="str">
+      <c r="B11" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="81">
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="82"/>
+      <c r="H11" s="77"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8206,19 +8274,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="83" t="str">
+      <c r="B12" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="81">
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="77"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8252,19 +8320,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="83" t="str">
+      <c r="B13" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="81">
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="82"/>
+      <c r="H13" s="77"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8298,19 +8366,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="83" t="str">
+      <c r="B14" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="81">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="82"/>
+      <c r="H14" s="77"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8344,19 +8412,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="83" t="str">
+      <c r="B15" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="81">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="82"/>
+      <c r="H15" s="77"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8390,19 +8458,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="83" t="str">
+      <c r="B16" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="81">
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="82"/>
+      <c r="H16" s="77"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8436,19 +8504,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="83" t="str">
+      <c r="B17" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="81">
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="82"/>
+      <c r="H17" s="77"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8482,19 +8550,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="83" t="str">
+      <c r="B18" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="81">
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="82"/>
+      <c r="H18" s="77"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8528,19 +8596,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="83" t="str">
+      <c r="B19" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="81">
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="82"/>
+      <c r="H19" s="77"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8574,19 +8642,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="83" t="str">
+      <c r="B20" s="67" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="81">
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="76">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="82"/>
+      <c r="H20" s="77"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8620,19 +8688,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="86" t="str">
+      <c r="B21" s="73" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="84">
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="85"/>
+      <c r="H21" s="83"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8664,91 +8732,67 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="73">
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="85">
         <f>SUM(G7:H21)</f>
-        <v>-240</v>
-      </c>
-      <c r="H23" s="75"/>
-      <c r="J23" s="66">
+        <v>-255</v>
+      </c>
+      <c r="H23" s="87"/>
+      <c r="J23" s="80">
         <f>SUM(J7:J21)</f>
-        <v>-240</v>
-      </c>
-      <c r="K23" s="66">
+        <v>-255</v>
+      </c>
+      <c r="K23" s="80">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="66">
+      <c r="L23" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="66">
+      <c r="M23" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="66">
+      <c r="N23" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="66">
+      <c r="O23" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="66">
+      <c r="P23" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="78"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="90"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -8765,12 +8809,36 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -8794,16 +8862,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="F1" s="95" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="F1" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="95"/>
+      <c r="G1" s="112"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -8823,21 +8891,21 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="F2" s="94">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="F2" s="111">
         <v>43430</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="I2" s="111">
+      <c r="G2" s="111"/>
+      <c r="I2" s="91">
         <f>SUM(I7:I30)</f>
-        <v>234.99999999999989</v>
-      </c>
-      <c r="J2" s="105" t="str">
+        <v>219.99999999999989</v>
+      </c>
+      <c r="J2" s="93" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
-        <v>3:55</v>
+        <v>3:40</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -8852,14 +8920,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="106"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="94"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -8873,41 +8941,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="101"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -8922,23 +8990,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="96">
+      <c r="B7" s="113">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="97" t="str">
+      <c r="C7" s="74"/>
+      <c r="D7" s="114" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="103">
         <f>SUM(H7:H10)</f>
         <v>330</v>
       </c>
@@ -8946,11 +9014,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="107" t="str">
+      <c r="L7" s="95" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="107"/>
+      <c r="M7" s="95"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -8998,32 +9066,32 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="98" t="str">
+      <c r="B8" s="72"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I8" s="105"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="107" t="str">
+      <c r="L8" s="95" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v>SDS</v>
       </c>
-      <c r="M8" s="107"/>
+      <c r="M8" s="95"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
-        <v>-240</v>
+        <v>-255</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -9068,29 +9136,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="98" t="str">
+      <c r="B9" s="72"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>89.999999999999915</v>
       </c>
-      <c r="I9" s="105"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="107" t="str">
+      <c r="L9" s="95" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="107"/>
+      <c r="M9" s="95"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9138,29 +9206,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="98" t="str">
+      <c r="B10" s="72"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="I10" s="105"/>
+      <c r="I10" s="93"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="107" t="str">
+      <c r="L10" s="95" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v>RTM</v>
       </c>
-      <c r="M10" s="107"/>
+      <c r="M10" s="95"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>384.99999999999994</v>
@@ -9208,23 +9276,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="99">
+      <c r="B11" s="105">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="98" t="str">
+      <c r="C11" s="75"/>
+      <c r="D11" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>45</v>
       </c>
-      <c r="I11" s="105">
+      <c r="I11" s="93">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>144.99999999999989</v>
       </c>
@@ -9232,11 +9300,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="110" t="str">
+      <c r="L11" s="98" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="110"/>
+      <c r="M11" s="98"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9284,20 +9352,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="98" t="str">
+      <c r="B12" s="72"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>99.999999999999886</v>
       </c>
-      <c r="I12" s="105"/>
+      <c r="I12" s="93"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -9346,27 +9414,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="98" t="str">
+      <c r="B13" s="72"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="105"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="91" t="s">
+      <c r="K13" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -9410,25 +9478,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="98" t="str">
+      <c r="B14" s="72"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="105"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -9472,37 +9540,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="99">
+      <c r="B15" s="105">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="98" t="str">
+      <c r="C15" s="75"/>
+      <c r="D15" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>69.999999999999915</v>
       </c>
-      <c r="I15" s="105">
+      <c r="I15" s="93">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>320</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="108" t="s">
+      <c r="K15" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109" t="s">
+      <c r="L15" s="99"/>
+      <c r="M15" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -9548,40 +9616,40 @@
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="98" t="str">
+      <c r="B16" s="72"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Getting branchname into tool</v>
       </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I16" s="105"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="113" t="str">
+      <c r="K16" s="96" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="81"/>
-      <c r="M16" s="107" t="str">
+      <c r="L16" s="76"/>
+      <c r="M16" s="95" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="105">
+      <c r="R16" s="93">
         <f>SUM(Q16:Q19)</f>
         <v>90</v>
       </c>
@@ -9624,37 +9692,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="98" t="str">
+      <c r="B17" s="72"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="I17" s="105"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="113"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="107" t="str">
+      <c r="K17" s="96"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="95" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="105"/>
+      <c r="R17" s="93"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -9694,37 +9762,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="98" t="str">
+      <c r="B18" s="72"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="105"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="113"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="107" t="str">
+      <c r="K18" s="96"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="95" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="105"/>
+      <c r="R18" s="93"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -9764,43 +9832,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="99">
+      <c r="B19" s="105">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="98" t="str">
+      <c r="C19" s="75"/>
+      <c r="D19" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="105">
+      <c r="I19" s="93">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="113"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="107" t="str">
+      <c r="K19" s="96"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="95" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="105"/>
+      <c r="R19" s="93"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -9840,42 +9908,42 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="98" t="str">
+      <c r="B20" s="72"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="105"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="113" t="str">
+      <c r="K20" s="96" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="L20" s="81"/>
-      <c r="M20" s="107" t="str">
+      <c r="L20" s="76"/>
+      <c r="M20" s="95" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v>Decryption</v>
       </c>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
       <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v>320</v>
       </c>
-      <c r="R20" s="105">
+      <c r="R20" s="93">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
-        <v>-240</v>
+        <v>-255</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -9916,37 +9984,37 @@
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="98" t="str">
+      <c r="B21" s="72"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="105"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="113"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="107" t="str">
+      <c r="K21" s="96"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="95" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
-        <v>-560</v>
-      </c>
-      <c r="R21" s="105"/>
+        <v>-575</v>
+      </c>
+      <c r="R21" s="93"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -9986,37 +10054,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="98" t="str">
+      <c r="B22" s="72"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="105"/>
+      <c r="I22" s="93"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="113"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="107" t="str">
+      <c r="K22" s="96"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="95" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="105"/>
+      <c r="R22" s="93"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -10056,43 +10124,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="99">
+      <c r="B23" s="105">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="98" t="str">
+      <c r="C23" s="75"/>
+      <c r="D23" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>-560</v>
-      </c>
-      <c r="I23" s="105">
+        <v>54.999999999999964</v>
+      </c>
+      <c r="I23" s="93">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
-        <v>-560</v>
+        <v>-575</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="113"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="107" t="str">
+      <c r="K23" s="96"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="95" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="105"/>
+      <c r="R23" s="93"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -10125,47 +10193,47 @@
       </c>
       <c r="AB23" s="33">
         <f t="shared" si="2"/>
-        <v>-560</v>
+        <v>-575</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="98" t="str">
+      <c r="B24" s="72"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
+        <v>SDS/Request and get Response from  web</v>
+      </c>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="105"/>
+        <v>-630</v>
+      </c>
+      <c r="I24" s="93"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="113" t="str">
+      <c r="K24" s="96" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="107" t="str">
+      <c r="L24" s="76"/>
+      <c r="M24" s="95" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="105">
+      <c r="R24" s="93">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -10208,37 +10276,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="98" t="str">
+      <c r="B25" s="72"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="105"/>
+      <c r="I25" s="93"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="113"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="107" t="str">
+      <c r="K25" s="96"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="95" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="105"/>
+      <c r="R25" s="93"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -10278,37 +10346,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="98" t="str">
+      <c r="B26" s="72"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="105"/>
+      <c r="I26" s="93"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="113"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="107" t="str">
+      <c r="K26" s="96"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="95" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="105"/>
+      <c r="R26" s="93"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -10348,43 +10416,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="99">
+      <c r="B27" s="105">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="98" t="str">
+      <c r="C27" s="75"/>
+      <c r="D27" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="105">
+      <c r="I27" s="93">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="113"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="107" t="str">
+      <c r="K27" s="96"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="95" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="105"/>
+      <c r="R27" s="93"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -10424,40 +10492,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="98" t="str">
+      <c r="B28" s="72"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="105"/>
+      <c r="I28" s="93"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="113" t="str">
+      <c r="K28" s="96" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v>RTM</v>
       </c>
-      <c r="L28" s="81"/>
-      <c r="M28" s="107" t="str">
+      <c r="L28" s="76"/>
+      <c r="M28" s="95" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
       <c r="Q28" s="22">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v>354.99999999999989</v>
       </c>
-      <c r="R28" s="105">
+      <c r="R28" s="93">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>384.99999999999994</v>
       </c>
@@ -10500,37 +10568,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="98" t="str">
+      <c r="B29" s="72"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="105"/>
+      <c r="I29" s="93"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="113"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="107" t="str">
+      <c r="K29" s="96"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="95" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v>Getting branchname into tool</v>
       </c>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
       <c r="Q29" s="22">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="R29" s="105"/>
+      <c r="R29" s="93"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -10567,37 +10635,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="103" t="str">
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="102" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="106"/>
+      <c r="I30" s="94"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="113"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="107" t="str">
+      <c r="K30" s="96"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="95" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="105"/>
+      <c r="R30" s="93"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -10635,42 +10703,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="113"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="107" t="str">
+      <c r="K31" s="96"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="95" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="105"/>
+      <c r="R31" s="93"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="113" t="str">
+      <c r="K32" s="96" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="81"/>
-      <c r="M32" s="107" t="str">
+      <c r="L32" s="76"/>
+      <c r="M32" s="95" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="105">
+      <c r="R32" s="93">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -10679,61 +10747,127 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="113"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="107" t="str">
+      <c r="K33" s="96"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="95" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="105"/>
+      <c r="R33" s="93"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="113"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="107" t="str">
+      <c r="K34" s="96"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="95" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="105"/>
+      <c r="R34" s="93"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="114"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="110" t="str">
+      <c r="K35" s="97"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="98" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="106"/>
+      <c r="R35" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="K13:N14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="M32:P32"/>
@@ -10750,72 +10884,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="K13:N14"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -820,6 +820,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,9 +969,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1819,7 +1819,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-575</c:v>
+                  <c:v>-585</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1902,11 +1902,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="-264777040"/>
-        <c:axId val="-264776496"/>
+        <c:axId val="-1275301424"/>
+        <c:axId val="-1275306320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-264777040"/>
+        <c:axId val="-1275301424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,7 +1927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-264776496"/>
+        <c:crossAx val="-1275306320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1935,7 +1935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-264776496"/>
+        <c:axId val="-1275306320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +1956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-264777040"/>
+        <c:crossAx val="-1275301424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2042,7 +2042,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-575</c:v>
+                  <c:v>-585</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2592,11 +2592,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="-264775952"/>
-        <c:axId val="-264774864"/>
+        <c:axId val="-1275311216"/>
+        <c:axId val="-1275307408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-264775952"/>
+        <c:axId val="-1275311216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,7 +2616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-264774864"/>
+        <c:crossAx val="-1275307408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2624,7 +2624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-264774864"/>
+        <c:axId val="-1275307408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,7 +2645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-264775952"/>
+        <c:crossAx val="-1275311216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2752,7 +2752,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-575</c:v>
+                  <c:v>-585</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2958,7 +2958,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-575</c:v>
+                  <c:v>-585</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3503,11 +3503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-264774320"/>
-        <c:axId val="-262872960"/>
+        <c:axId val="-1275296528"/>
+        <c:axId val="-1275300880"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-264774320"/>
+        <c:axId val="-1275296528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3527,7 +3527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-262872960"/>
+        <c:crossAx val="-1275300880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3535,7 +3535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-262872960"/>
+        <c:axId val="-1275300880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3556,7 +3556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-264774320"/>
+        <c:crossAx val="-1275296528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3757,7 +3757,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-255</c:v>
+                  <c:v>-265</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3982,7 +3982,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-255</c:v>
+                  <c:v>-265</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4226,7 +4226,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-575</c:v>
+                  <c:v>-585</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4411,11 +4411,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-262877312"/>
-        <c:axId val="-262870240"/>
+        <c:axId val="-1275306864"/>
+        <c:axId val="-1275310672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-262877312"/>
+        <c:axId val="-1275306864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,7 +4435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-262870240"/>
+        <c:crossAx val="-1275310672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4443,7 +4443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-262870240"/>
+        <c:axId val="-1275310672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4463,7 +4463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-262877312"/>
+        <c:crossAx val="-1275306864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4606,7 +4606,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-575</c:v>
+                  <c:v>-585</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4625,11 +4625,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="-262883840"/>
-        <c:axId val="-262885472"/>
+        <c:axId val="-1275303600"/>
+        <c:axId val="-1275299248"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-262883840"/>
+        <c:axId val="-1275303600"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4649,14 +4649,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-262885472"/>
+        <c:crossAx val="-1275299248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-262885472"/>
+        <c:axId val="-1275299248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4677,7 +4677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-262883840"/>
+        <c:crossAx val="-1275303600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5010,8 +5010,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q27" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q27"/>
   <tableColumns count="17">
     <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -6196,10 +6196,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7736,7 +7736,7 @@
       <c r="J24" s="63">
         <v>0.3888888888888889</v>
       </c>
-      <c r="K24" s="115">
+      <c r="K24" s="66">
         <v>0.42708333333333331</v>
       </c>
       <c r="L24" s="64">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="N24" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-575</v>
+        <v>-585</v>
       </c>
       <c r="O24" s="64" t="e">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
@@ -7864,18 +7864,20 @@
       <c r="J26" s="63">
         <v>0.4375</v>
       </c>
-      <c r="K26" s="64"/>
+      <c r="K26" s="66">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="L26" s="64">
         <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>-630</v>
-      </c>
-      <c r="M26" s="64" t="e">
+        <v>80.000000000000028</v>
+      </c>
+      <c r="M26" s="64" t="str">
         <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>01:20</v>
       </c>
       <c r="N26" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-575</v>
+        <v>-585</v>
       </c>
       <c r="O26" s="64" t="e">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
@@ -7890,12 +7892,75 @@
         <v>Request and get Response from  web</v>
       </c>
     </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="59">
+        <f>IFERROR($A26+1,1)</f>
+        <v>23</v>
+      </c>
+      <c r="B27" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>SDS</v>
+      </c>
+      <c r="C27" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Request and get Response from  web</v>
+      </c>
+      <c r="D27" s="60" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Aswathy/43434</v>
+      </c>
+      <c r="E27" s="60">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>3</v>
+      </c>
+      <c r="F27" s="60" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43434/3</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="62">
+        <v>43434</v>
+      </c>
+      <c r="J27" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>-720</v>
+      </c>
+      <c r="M27" s="64" t="e">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N27" s="64">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>-585</v>
+      </c>
+      <c r="O27" s="64" t="e">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P27" s="60" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>SDS</v>
+      </c>
+      <c r="Q27" s="60" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Request and get Response from  web</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H27">
       <formula1>EmployeeNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G27">
       <formula1>TSKPRJCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -7921,42 +7986,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="J2" s="84" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="J2" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="str">
+      <c r="A4" s="69" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -7980,83 +8045,83 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="74" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="J5" s="71" t="str">
+      <c r="H5" s="79"/>
+      <c r="J5" s="72" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="74" t="str">
+      <c r="K5" s="75" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="74" t="str">
+      <c r="L5" s="75" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="74" t="str">
+      <c r="M5" s="75" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="74" t="str">
+      <c r="N5" s="75" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="74" t="str">
+      <c r="O5" s="75" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="78" t="str">
+      <c r="P5" s="79" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="79"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="79"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="80"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="80"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="67" t="str">
+      <c r="B7" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Decryption</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="76">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>320</v>
       </c>
-      <c r="H7" s="77"/>
+      <c r="H7" s="78"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>320</v>
@@ -8090,22 +8155,22 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="67" t="str">
+      <c r="B8" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="76">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
-        <v>-575</v>
-      </c>
-      <c r="H8" s="77"/>
+        <v>-585</v>
+      </c>
+      <c r="H8" s="78"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
-        <v>-575</v>
+        <v>-585</v>
       </c>
       <c r="K8" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],K$5)</f>
@@ -8136,19 +8201,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="67" t="str">
+      <c r="B9" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="76">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="77"/>
+      <c r="H9" s="78"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8182,19 +8247,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="67" t="str">
+      <c r="B10" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="76">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="77"/>
+      <c r="H10" s="78"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8228,19 +8293,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="67" t="str">
+      <c r="B11" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="76">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="77"/>
+      <c r="H11" s="78"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8274,19 +8339,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="67" t="str">
+      <c r="B12" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="76">
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="77"/>
+      <c r="H12" s="78"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8320,19 +8385,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="67" t="str">
+      <c r="B13" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="76">
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="77"/>
+      <c r="H13" s="78"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8366,19 +8431,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="67" t="str">
+      <c r="B14" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="76">
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="77"/>
+      <c r="H14" s="78"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8412,19 +8477,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="67" t="str">
+      <c r="B15" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="76">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="77"/>
+      <c r="H15" s="78"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8458,19 +8523,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="67" t="str">
+      <c r="B16" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="76">
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="77"/>
+      <c r="H16" s="78"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8504,19 +8569,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="67" t="str">
+      <c r="B17" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="76">
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="77"/>
+      <c r="H17" s="78"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8550,19 +8615,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="67" t="str">
+      <c r="B18" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="76">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="77"/>
+      <c r="H18" s="78"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8596,19 +8661,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="67" t="str">
+      <c r="B19" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="76">
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="77"/>
+      <c r="H19" s="78"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8642,19 +8707,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="67" t="str">
+      <c r="B20" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="76">
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="77"/>
+      <c r="H20" s="78"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8688,19 +8753,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="73" t="str">
+      <c r="B21" s="74" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="82">
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="83">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="83"/>
+      <c r="H21" s="84"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8732,58 +8797,58 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="85">
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="86">
         <f>SUM(G7:H21)</f>
-        <v>-255</v>
-      </c>
-      <c r="H23" s="87"/>
-      <c r="J23" s="80">
+        <v>-265</v>
+      </c>
+      <c r="H23" s="88"/>
+      <c r="J23" s="81">
         <f>SUM(J7:J21)</f>
-        <v>-255</v>
-      </c>
-      <c r="K23" s="80">
+        <v>-265</v>
+      </c>
+      <c r="K23" s="81">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="80">
+      <c r="L23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="80">
+      <c r="M23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="80">
+      <c r="N23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="80">
+      <c r="O23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="80">
+      <c r="P23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="90"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="91"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -8862,16 +8927,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="F1" s="112" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="F1" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="112"/>
+      <c r="G1" s="113"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -8891,21 +8956,21 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="F2" s="111">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="F2" s="112">
         <v>43430</v>
       </c>
-      <c r="G2" s="111"/>
-      <c r="I2" s="91">
+      <c r="G2" s="112"/>
+      <c r="I2" s="92">
         <f>SUM(I7:I30)</f>
-        <v>219.99999999999989</v>
-      </c>
-      <c r="J2" s="93" t="str">
+        <v>209.99999999999989</v>
+      </c>
+      <c r="J2" s="94" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
-        <v>3:40</v>
+        <v>3:30</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -8920,14 +8985,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="94"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -8941,41 +9006,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="101"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -8990,23 +9055,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="113">
+      <c r="B7" s="114">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="114" t="str">
+      <c r="C7" s="75"/>
+      <c r="D7" s="115" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="104">
         <f>SUM(H7:H10)</f>
         <v>330</v>
       </c>
@@ -9014,11 +9079,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="95" t="str">
+      <c r="L7" s="96" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="95"/>
+      <c r="M7" s="96"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -9066,32 +9131,32 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="104" t="str">
+      <c r="B8" s="73"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I8" s="93"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="95" t="str">
+      <c r="L8" s="96" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v>SDS</v>
       </c>
-      <c r="M8" s="95"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
-        <v>-255</v>
+        <v>-265</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -9136,29 +9201,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="104" t="str">
+      <c r="B9" s="73"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>89.999999999999915</v>
       </c>
-      <c r="I9" s="93"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="95" t="str">
+      <c r="L9" s="96" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="95"/>
+      <c r="M9" s="96"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9206,29 +9271,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="104" t="str">
+      <c r="B10" s="73"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="I10" s="93"/>
+      <c r="I10" s="94"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="95" t="str">
+      <c r="L10" s="96" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v>RTM</v>
       </c>
-      <c r="M10" s="95"/>
+      <c r="M10" s="96"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>384.99999999999994</v>
@@ -9276,23 +9341,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="105">
+      <c r="B11" s="106">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="104" t="str">
+      <c r="C11" s="76"/>
+      <c r="D11" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>45</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="94">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>144.99999999999989</v>
       </c>
@@ -9300,11 +9365,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="98" t="str">
+      <c r="L11" s="99" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="98"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9352,20 +9417,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="104" t="str">
+      <c r="B12" s="73"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>99.999999999999886</v>
       </c>
-      <c r="I12" s="93"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -9414,27 +9479,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="104" t="str">
+      <c r="B13" s="73"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="93"/>
+      <c r="I13" s="94"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -9478,25 +9543,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="104" t="str">
+      <c r="B14" s="73"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="93"/>
+      <c r="I14" s="94"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -9540,37 +9605,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="105">
+      <c r="B15" s="106">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="104" t="str">
+      <c r="C15" s="76"/>
+      <c r="D15" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>69.999999999999915</v>
       </c>
-      <c r="I15" s="93">
+      <c r="I15" s="94">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>320</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="100" t="s">
+      <c r="K15" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99" t="s">
+      <c r="L15" s="100"/>
+      <c r="M15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -9616,40 +9681,40 @@
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="104" t="str">
+      <c r="B16" s="73"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Getting branchname into tool</v>
       </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I16" s="93"/>
+      <c r="I16" s="94"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="96" t="str">
+      <c r="K16" s="97" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="76"/>
-      <c r="M16" s="95" t="str">
+      <c r="L16" s="77"/>
+      <c r="M16" s="96" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="93">
+      <c r="R16" s="94">
         <f>SUM(Q16:Q19)</f>
         <v>90</v>
       </c>
@@ -9692,37 +9757,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="104" t="str">
+      <c r="B17" s="73"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="I17" s="93"/>
+      <c r="I17" s="94"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="96"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="95" t="str">
+      <c r="K17" s="97"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="96" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="93"/>
+      <c r="R17" s="94"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -9762,37 +9827,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="104" t="str">
+      <c r="B18" s="73"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="93"/>
+      <c r="I18" s="94"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="96"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="95" t="str">
+      <c r="K18" s="97"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="96" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="93"/>
+      <c r="R18" s="94"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -9832,43 +9897,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="105">
+      <c r="B19" s="106">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="104" t="str">
+      <c r="C19" s="76"/>
+      <c r="D19" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="93">
+      <c r="I19" s="94">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="96"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="95" t="str">
+      <c r="K19" s="97"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="96" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="93"/>
+      <c r="R19" s="94"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -9908,42 +9973,42 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="104" t="str">
+      <c r="B20" s="73"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="93"/>
+      <c r="I20" s="94"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="96" t="str">
+      <c r="K20" s="97" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="L20" s="76"/>
-      <c r="M20" s="95" t="str">
+      <c r="L20" s="77"/>
+      <c r="M20" s="96" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v>Decryption</v>
       </c>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
       <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v>320</v>
       </c>
-      <c r="R20" s="93">
+      <c r="R20" s="94">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
-        <v>-255</v>
+        <v>-265</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -9984,37 +10049,37 @@
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="104" t="str">
+      <c r="B21" s="73"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="93"/>
+      <c r="I21" s="94"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="96"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="95" t="str">
+      <c r="K21" s="97"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="96" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
-        <v>-575</v>
-      </c>
-      <c r="R21" s="93"/>
+        <v>-585</v>
+      </c>
+      <c r="R21" s="94"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -10054,37 +10119,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="104" t="str">
+      <c r="B22" s="73"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="93"/>
+      <c r="I22" s="94"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="96"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="95" t="str">
+      <c r="K22" s="97"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="96" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="93"/>
+      <c r="R22" s="94"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -10124,43 +10189,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="105">
+      <c r="B23" s="106">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="104" t="str">
+      <c r="C23" s="76"/>
+      <c r="D23" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>54.999999999999964</v>
       </c>
-      <c r="I23" s="93">
+      <c r="I23" s="94">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
-        <v>-575</v>
+        <v>-585</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="96"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="95" t="str">
+      <c r="K23" s="97"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="96" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="93"/>
+      <c r="R23" s="94"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -10193,47 +10258,47 @@
       </c>
       <c r="AB23" s="33">
         <f t="shared" si="2"/>
-        <v>-575</v>
+        <v>-585</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="104" t="str">
+      <c r="B24" s="73"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>-630</v>
-      </c>
-      <c r="I24" s="93"/>
+        <v>80.000000000000028</v>
+      </c>
+      <c r="I24" s="94"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="96" t="str">
+      <c r="K24" s="97" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="76"/>
-      <c r="M24" s="95" t="str">
+      <c r="L24" s="77"/>
+      <c r="M24" s="96" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="93">
+      <c r="R24" s="94">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -10276,37 +10341,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="104" t="str">
+      <c r="B25" s="73"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
-      </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
+        <v>SDS/Request and get Response from  web</v>
+      </c>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="93"/>
+        <v>-720</v>
+      </c>
+      <c r="I25" s="94"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="96"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="95" t="str">
+      <c r="K25" s="97"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="96" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="93"/>
+      <c r="R25" s="94"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -10346,37 +10411,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="104" t="str">
+      <c r="B26" s="73"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="93"/>
+      <c r="I26" s="94"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="96"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="95" t="str">
+      <c r="K26" s="97"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="96" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="93"/>
+      <c r="R26" s="94"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -10416,43 +10481,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="105">
+      <c r="B27" s="106">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="104" t="str">
+      <c r="C27" s="76"/>
+      <c r="D27" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="93">
+      <c r="I27" s="94">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="96"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="95" t="str">
+      <c r="K27" s="97"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="96" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="93"/>
+      <c r="R27" s="94"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -10492,40 +10557,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="104" t="str">
+      <c r="B28" s="73"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="93"/>
+      <c r="I28" s="94"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="96" t="str">
+      <c r="K28" s="97" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v>RTM</v>
       </c>
-      <c r="L28" s="76"/>
-      <c r="M28" s="95" t="str">
+      <c r="L28" s="77"/>
+      <c r="M28" s="96" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
       <c r="Q28" s="22">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v>354.99999999999989</v>
       </c>
-      <c r="R28" s="93">
+      <c r="R28" s="94">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>384.99999999999994</v>
       </c>
@@ -10568,37 +10633,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="104" t="str">
+      <c r="B29" s="73"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="93"/>
+      <c r="I29" s="94"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="96"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="95" t="str">
+      <c r="K29" s="97"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="96" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v>Getting branchname into tool</v>
       </c>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
       <c r="Q29" s="22">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="R29" s="93"/>
+      <c r="R29" s="94"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -10635,37 +10700,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="106"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="102" t="str">
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="103" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="94"/>
+      <c r="I30" s="95"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="96"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="95" t="str">
+      <c r="K30" s="97"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="96" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="93"/>
+      <c r="R30" s="94"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -10703,42 +10768,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="96"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="95" t="str">
+      <c r="K31" s="97"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="96" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="93"/>
+      <c r="R31" s="94"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="96" t="str">
+      <c r="K32" s="97" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="76"/>
-      <c r="M32" s="95" t="str">
+      <c r="L32" s="77"/>
+      <c r="M32" s="96" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="93">
+      <c r="R32" s="94">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -10747,58 +10812,58 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="96"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="95" t="str">
+      <c r="K33" s="97"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="96" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="93"/>
+      <c r="R33" s="94"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="96"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="95" t="str">
+      <c r="K34" s="97"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="96" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="93"/>
+      <c r="R34" s="94"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="97"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="98" t="str">
+      <c r="K35" s="98"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="99" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="94"/>
+      <c r="R35" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="82">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswathy M S\Desktop\Project-Development\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="3"/>
   </bookViews>
@@ -26,12 +21,12 @@
     <definedName name="ProjectNames">Project[Project]</definedName>
     <definedName name="TSKPRJCodes">ProjectTasks[TaskProjectCode]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -287,17 +282,22 @@
   <si>
     <t>RTM/Solving the issue of repeating icon in tray</t>
   </si>
+  <si>
+    <t>Finalyzing</t>
+  </si>
+  <si>
+    <t>TEEBPD/Finalyzing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\/mmm\/yy"/>
     <numFmt numFmtId="165" formatCode="dd\/mmm"/>
-    <numFmt numFmtId="166" formatCode="hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -794,13 +794,13 @@
     <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -813,7 +813,7 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -823,29 +823,11 @@
     <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,28 +835,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -898,56 +862,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -970,6 +919,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,7 +1005,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1003,7 +1020,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1017,7 +1034,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1031,7 +1048,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1045,7 +1062,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1059,7 +1076,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1073,7 +1090,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1087,8 +1104,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="hh:mm\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="23" formatCode="hh:mm\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1103,7 +1120,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="dd\/mmm\/yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1148,7 +1165,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1167,7 +1184,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1186,7 +1203,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1205,7 +1222,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1224,7 +1241,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1239,7 +1256,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1293,7 +1310,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1393,7 +1410,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1425,7 +1442,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1508,7 +1525,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1561,7 +1578,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1604,29 +1621,16 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
@@ -1654,7 +1658,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
@@ -1682,7 +1685,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
@@ -1710,7 +1712,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
@@ -1763,7 +1764,6 @@
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1782,13 +1782,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -1867,7 +1861,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
@@ -1892,30 +1885,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="-1275301424"/>
-        <c:axId val="-1275306320"/>
+        <c:axId val="66655744"/>
+        <c:axId val="66657280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1275301424"/>
+        <c:axId val="66655744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1927,24 +1910,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1275306320"/>
+        <c:crossAx val="66657280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1275306320"/>
+        <c:axId val="66657280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1956,7 +1935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1275301424"/>
+        <c:crossAx val="66655744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1972,11 +1951,10 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1984,25 +1962,13 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2017,7 +1983,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2101,7 +2066,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2185,7 +2149,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2269,7 +2232,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2350,7 +2312,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2431,7 +2392,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2512,7 +2472,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
@@ -2582,29 +2541,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="-1275311216"/>
-        <c:axId val="-1275307408"/>
+        <c:axId val="67184128"/>
+        <c:axId val="67185664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1275311216"/>
+        <c:axId val="67184128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2616,24 +2565,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1275307408"/>
+        <c:crossAx val="67185664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1275307408"/>
+        <c:axId val="67185664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2645,14 +2590,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1275311216"/>
+        <c:crossAx val="67184128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2666,11 +2610,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2678,17 +2621,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2717,13 +2650,9 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -2818,13 +2747,8 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -2854,24 +2778,18 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
           <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2879,17 +2797,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2912,14 +2820,11 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3495,27 +3400,18 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1275296528"/>
-        <c:axId val="-1275300880"/>
+        <c:dLbls/>
+        <c:axId val="67576192"/>
+        <c:axId val="67577728"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1275296528"/>
+        <c:axId val="67576192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3527,24 +3423,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1275300880"/>
+        <c:crossAx val="67577728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1275300880"/>
+        <c:axId val="67577728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3556,14 +3449,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1275296528"/>
+        <c:crossAx val="67576192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3577,11 +3469,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3589,17 +3480,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3619,16 +3500,15 @@
       </c:tx>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.2123993121549498E-2"/>
+          <c:x val="2.2123993121549501E-2"/>
           <c:y val="0"/>
-          <c:w val="0.70026343258816892"/>
+          <c:w val="0.70026343258816903"/>
           <c:h val="1"/>
         </c:manualLayout>
       </c:layout>
@@ -3656,13 +3536,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -3719,13 +3593,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -3803,13 +3671,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -3845,13 +3707,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
         <c:holeSize val="10"/>
@@ -3859,7 +3715,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3873,11 +3728,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3885,17 +3739,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3913,9 +3757,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3942,12 +3784,9 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
             <c:separator>
 </c:separator>
             <c:showLeaderLines val="1"/>
@@ -3998,20 +3837,13 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4025,11 +3857,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4037,17 +3868,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4069,22 +3890,18 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>TASK 1</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
@@ -4104,15 +3921,10 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
             <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:separator>
 </c:separator>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -4167,7 +3979,6 @@
           <c:tx>
             <c:v>TASK 2</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4186,13 +3997,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -4247,7 +4052,6 @@
           <c:tx>
             <c:v>TASK 3</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4266,13 +4070,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -4327,7 +4125,6 @@
           <c:tx>
             <c:v>TASK 4</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4346,13 +4143,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -4402,28 +4193,21 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-1275306864"/>
-        <c:axId val="-1275310672"/>
+        <c:axId val="67966080"/>
+        <c:axId val="67967616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1275306864"/>
+        <c:axId val="67966080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4435,23 +4219,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1275310672"/>
+        <c:crossAx val="67967616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1275310672"/>
+        <c:axId val="67967616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4463,18 +4244,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1275306864"/>
+        <c:crossAx val="67966080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4482,17 +4262,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4515,19 +4285,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4547,13 +4313,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -4615,29 +4375,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="-1275303600"/>
-        <c:axId val="-1275299248"/>
+        <c:axId val="68013056"/>
+        <c:axId val="68018944"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-1275303600"/>
+        <c:axId val="68013056"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="dd\/mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4649,23 +4400,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1275299248"/>
+        <c:crossAx val="68018944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1275299248"/>
+        <c:axId val="68018944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4677,18 +4426,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1275303600"/>
+        <c:crossAx val="68013056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4971,8 +4719,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G21" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:G21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G22" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:G22"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No" dataDxfId="29">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -4983,13 +4731,13 @@
     </tableColumn>
     <tableColumn id="3" name="Task" dataDxfId="26"/>
     <tableColumn id="4" name="TaskProjectCode" dataDxfId="25">
-      <calculatedColumnFormula>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</calculatedColumnFormula>
+      <calculatedColumnFormula>CONCATENATE([Project],"/",[Task])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="PRJ" dataDxfId="24">
-      <calculatedColumnFormula>ProjectTasks[Project]</calculatedColumnFormula>
+      <calculatedColumnFormula>[Project]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="TSK" dataDxfId="23">
-      <calculatedColumnFormula>ProjectTasks[Task]</calculatedColumnFormula>
+      <calculatedColumnFormula>[Task]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5010,20 +4758,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q27" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q29" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q29"/>
   <tableColumns count="17">
     <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="PRJ" dataDxfId="15">
-      <calculatedColumnFormula>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="TSK" dataDxfId="14">
-      <calculatedColumnFormula>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="EmployeeDate" dataDxfId="13">
-      <calculatedColumnFormula>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</calculatedColumnFormula>
+      <calculatedColumnFormula>[Employee]&amp;"/"&amp;[Date]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="EmployeeDateSeq" dataDxfId="12">
       <calculatedColumnFormula>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</calculatedColumnFormula>
@@ -5037,22 +4785,22 @@
     <tableColumn id="5" name="Start Time" dataDxfId="7"/>
     <tableColumn id="6" name="End Time" dataDxfId="6"/>
     <tableColumn id="7" name="Total Minutes" dataDxfId="5">
-      <calculatedColumnFormula>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</calculatedColumnFormula>
+      <calculatedColumnFormula>([End Time]-[Start Time])*1440</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Total" dataDxfId="4">
-      <calculatedColumnFormula>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</calculatedColumnFormula>
+      <calculatedColumnFormula>TEXT([End Time]-[Start Time],"HH:mm")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Day Total Minutes" dataDxfId="3">
-      <calculatedColumnFormula>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Day Total" dataDxfId="2">
-      <calculatedColumnFormula>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</calculatedColumnFormula>
+      <calculatedColumnFormula>TEXT([Day Total Minutes]/1440,"HH:mm")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="PRJLST" dataDxfId="1">
-      <calculatedColumnFormula>TaskTimings[PRJ]</calculatedColumnFormula>
+      <calculatedColumnFormula>[PRJ]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="TSKLST" dataDxfId="0">
-      <calculatedColumnFormula>TaskTimings[TSK]</calculatedColumnFormula>
+      <calculatedColumnFormula>[TSK]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5102,7 +4850,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5134,10 +4882,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5169,7 +4916,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5345,14 +5091,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" customWidth="1"/>
@@ -5362,7 +5108,7 @@
     <col min="11" max="11" width="84.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5382,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <f>IFERROR($A1+1,1)</f>
         <v>1</v>
@@ -5404,7 +5150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5425,7 +5171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="D4" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5440,7 +5186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="D5" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5455,7 +5201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="D6" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5470,7 +5216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="D7" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5485,7 +5231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="D8" s="51">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5516,14 +5262,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.140625" hidden="1" customWidth="1"/>
@@ -5533,7 +5279,7 @@
     <col min="7" max="7" width="88.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5556,7 +5302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="5">
         <f t="shared" ref="A2:A7" si="0">IFERROR($A1+1,1)</f>
         <v>1</v>
@@ -5572,19 +5318,19 @@
         <v>7</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TEEBPD/Theme Designing</v>
       </c>
       <c r="F2" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G2" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Theme Designing</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5600,19 +5346,19 @@
         <v>8</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TEEBPD/Database Structure Designing</v>
       </c>
       <c r="F3" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G3" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Database Structure Designing</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5628,19 +5374,19 @@
         <v>11</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TEEBPD/Appframe configuration</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G4" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Appframe configuration</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5656,19 +5402,19 @@
         <v>12</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TEEBPD/Inhouse Testing</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G5" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Inhouse Testing</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5684,19 +5430,19 @@
         <v>13</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TEEBPD/Client Demonstration</v>
       </c>
       <c r="F6" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G6" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Client Demonstration</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5712,19 +5458,19 @@
         <v>14</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TEEBPD/Client Suggestion Implementation</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TEEBPD</v>
       </c>
       <c r="G7" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Client Suggestion Implementation</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="6">
         <f t="shared" ref="A8:A13" si="1">IFERROR($A7+1,1)</f>
         <v>7</v>
@@ -5740,19 +5486,19 @@
         <v>49</v>
       </c>
       <c r="E8" s="34" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TKT/Database Analysis from Old Project</v>
       </c>
       <c r="F8" s="34" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TKT</v>
       </c>
       <c r="G8" s="34" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Database Analysis from Old Project</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5768,19 +5514,19 @@
         <v>50</v>
       </c>
       <c r="E9" s="34" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TKT/DB Designing</v>
       </c>
       <c r="F9" s="34" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TKT</v>
       </c>
       <c r="G9" s="34" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>DB Designing</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5796,19 +5542,19 @@
         <v>11</v>
       </c>
       <c r="E10" s="34" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TKT/Appframe configuration</v>
       </c>
       <c r="F10" s="34" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TKT</v>
       </c>
       <c r="G10" s="34" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Appframe configuration</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="43">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -5824,19 +5570,19 @@
         <v>53</v>
       </c>
       <c r="E11" s="45" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
       <c r="F11" s="45" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TKT</v>
       </c>
       <c r="G11" s="45" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Discussion for ticketing modification</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="43">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -5852,19 +5598,19 @@
         <v>56</v>
       </c>
       <c r="E12" s="45" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>SDS/Decryption</v>
       </c>
       <c r="F12" s="45" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>SDS</v>
       </c>
       <c r="G12" s="45" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Decryption</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="43">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -5880,19 +5626,19 @@
         <v>61</v>
       </c>
       <c r="E13" s="45" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
       <c r="F13" s="45" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>RTM</v>
       </c>
       <c r="G13" s="45" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="43">
         <f t="shared" ref="A14:A20" si="2">IFERROR($A13+1,1)</f>
         <v>13</v>
@@ -5908,19 +5654,19 @@
         <v>64</v>
       </c>
       <c r="E14" s="53" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>PPOIO/Project Study</v>
       </c>
       <c r="F14" s="53" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>PPOIO</v>
       </c>
       <c r="G14" s="53" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Project Study</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="43">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -5936,19 +5682,19 @@
         <v>65</v>
       </c>
       <c r="E15" s="53" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>PPOIO/Business Plan</v>
       </c>
       <c r="F15" s="53" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>PPOIO</v>
       </c>
       <c r="G15" s="53" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Business Plan</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="43">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -5964,19 +5710,19 @@
         <v>68</v>
       </c>
       <c r="E16" s="53" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>APPFRAME/Development</v>
       </c>
       <c r="F16" s="53" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>APPFRAME</v>
       </c>
       <c r="G16" s="53" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Development</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="43">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -5992,19 +5738,19 @@
         <v>74</v>
       </c>
       <c r="E17" s="53" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>MITWEB/Modification</v>
       </c>
       <c r="F17" s="53" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>MITWEB</v>
       </c>
       <c r="G17" s="53" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Modification</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="47">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -6020,19 +5766,19 @@
         <v>76</v>
       </c>
       <c r="E18" s="45" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>RTM/Getting branchname into tool</v>
       </c>
       <c r="F18" s="45" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>RTM</v>
       </c>
       <c r="G18" s="45" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Getting branchname into tool</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="5">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -6048,19 +5794,19 @@
         <v>80</v>
       </c>
       <c r="E19" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TKT/Note down table relations</v>
       </c>
       <c r="F19" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TKT</v>
       </c>
       <c r="G19" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Note down table relations</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="5">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -6076,19 +5822,19 @@
         <v>78</v>
       </c>
       <c r="E20" s="7" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>TKT/Entering table details into excel sheet</v>
       </c>
       <c r="F20" s="7" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>TKT</v>
       </c>
       <c r="G20" s="7" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Entering table details into excel sheet</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="59">
         <f>IFERROR($A20+1,1)</f>
         <v>20</v>
@@ -6104,21 +5850,49 @@
         <v>82</v>
       </c>
       <c r="E21" s="65" t="str">
-        <f>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</f>
+        <f>CONCATENATE([Project],"/",[Task])</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
       <c r="F21" s="65" t="str">
-        <f>ProjectTasks[Project]</f>
+        <f>[Project]</f>
         <v>SDS</v>
       </c>
       <c r="G21" s="65" t="str">
-        <f>ProjectTasks[Task]</f>
+        <f>[Task]</f>
         <v>Request and get Response from  web</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="116">
+        <f>IFERROR($A21+1,1)</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="118" t="str">
+        <f>ProjectTasks[[#This Row],[Project]]&amp;"-"&amp;COUNTIF($B$1:ProjectTasks[[#This Row],[Project]],ProjectTasks[[#This Row],[Project]])</f>
+        <v>TEEBPD-7</v>
+      </c>
+      <c r="D22" s="117" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="119" t="str">
+        <f>CONCATENATE([Project],"/",[Task])</f>
+        <v>TEEBPD/Finalyzing</v>
+      </c>
+      <c r="F22" s="119" t="str">
+        <f>[Project]</f>
+        <v>TEEBPD</v>
+      </c>
+      <c r="G22" s="119" t="str">
+        <f>[Task]</f>
+        <v>Finalyzing</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B22">
       <formula1>ProjectCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -6130,19 +5904,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6150,7 +5924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="5">
         <f t="shared" ref="A2:A5" si="0">IFERROR($A1+1,1)</f>
         <v>1</v>
@@ -6159,7 +5933,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6168,7 +5942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6177,7 +5951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6195,14 +5969,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="4" width="18.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" hidden="1" customWidth="1"/>
@@ -6216,7 +5990,7 @@
     <col min="16" max="17" width="9.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6269,21 +6043,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="5">
         <f t="shared" ref="A2:A8" si="0">IFERROR($A1+1,1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="10" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C2" s="10" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Discussion for ticketing modification</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43430</v>
       </c>
       <c r="E2" s="46">
@@ -6310,45 +6084,45 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="L2" s="2">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>90</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>01:30</v>
       </c>
       <c r="N2" s="2">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>330</v>
       </c>
       <c r="O2" s="2" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:30</v>
       </c>
       <c r="P2" s="10" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q2" s="10" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Discussion for ticketing modification</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="47">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C3" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Discussion for ticketing modification</v>
       </c>
       <c r="D3" s="44" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Shareena/43430</v>
       </c>
       <c r="E3" s="46">
@@ -6375,45 +6149,45 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="L3" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>90</v>
       </c>
       <c r="M3" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>01:30</v>
       </c>
       <c r="N3" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>330.99999999999994</v>
       </c>
       <c r="O3" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:31</v>
       </c>
       <c r="P3" s="44" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q3" s="44" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Discussion for ticketing modification</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="47">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>SDS</v>
       </c>
       <c r="C4" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Decryption</v>
       </c>
       <c r="D4" s="44" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43430</v>
       </c>
       <c r="E4" s="44">
@@ -6440,45 +6214,45 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="L4" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>30.000000000000053</v>
       </c>
       <c r="M4" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>00:30</v>
       </c>
       <c r="N4" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>330</v>
       </c>
       <c r="O4" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:30</v>
       </c>
       <c r="P4" s="44" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>SDS</v>
       </c>
       <c r="Q4" s="44" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Decryption</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="47">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C5" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Database Analysis from Old Project</v>
       </c>
       <c r="D5" s="44" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Shareena/43430</v>
       </c>
       <c r="E5" s="44">
@@ -6505,45 +6279,45 @@
         <v>0.55972222222222223</v>
       </c>
       <c r="L5" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>121.00000000000006</v>
       </c>
       <c r="M5" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>02:01</v>
       </c>
       <c r="N5" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>330.99999999999994</v>
       </c>
       <c r="O5" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:31</v>
       </c>
       <c r="P5" s="44" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q5" s="44" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Database Analysis from Old Project</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>RTM</v>
       </c>
       <c r="C6" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
       <c r="D6" s="44" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43430</v>
       </c>
       <c r="E6" s="44">
@@ -6570,45 +6344,45 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="L6" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>89.999999999999915</v>
       </c>
       <c r="M6" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>01:30</v>
       </c>
       <c r="N6" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>330</v>
       </c>
       <c r="O6" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:30</v>
       </c>
       <c r="P6" s="44" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>RTM</v>
       </c>
       <c r="Q6" s="44" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="47">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C7" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Database Analysis from Old Project</v>
       </c>
       <c r="D7" s="44" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Shareena/43430</v>
       </c>
       <c r="E7" s="44">
@@ -6635,45 +6409,45 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="L7" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>119.99999999999989</v>
       </c>
       <c r="M7" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>02:00</v>
       </c>
       <c r="N7" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>330.99999999999994</v>
       </c>
       <c r="O7" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:31</v>
       </c>
       <c r="P7" s="44" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q7" s="44" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Database Analysis from Old Project</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>RTM</v>
       </c>
       <c r="C8" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
       <c r="D8" s="44" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43430</v>
       </c>
       <c r="E8" s="44">
@@ -6700,45 +6474,45 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="L8" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>120.00000000000006</v>
       </c>
       <c r="M8" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>02:00</v>
       </c>
       <c r="N8" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>330</v>
       </c>
       <c r="O8" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:30</v>
       </c>
       <c r="P8" s="44" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>RTM</v>
       </c>
       <c r="Q8" s="44" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="43">
         <f t="shared" ref="A9:A17" si="1">IFERROR($A8+1,1)</f>
         <v>8</v>
       </c>
       <c r="B9" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C9" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Discussion for ticketing modification</v>
       </c>
       <c r="D9" s="52" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Firose/43430</v>
       </c>
       <c r="E9" s="52">
@@ -6765,45 +6539,45 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="L9" s="51">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="M9" s="51" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>01:00</v>
       </c>
       <c r="N9" s="51">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>419.99999999999989</v>
       </c>
       <c r="O9" s="51" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>07:00</v>
       </c>
       <c r="P9" s="52" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q9" s="52" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Discussion for ticketing modification</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="43">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>PPOIO</v>
       </c>
       <c r="C10" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Project Study</v>
       </c>
       <c r="D10" s="52" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Firose/43430</v>
       </c>
       <c r="E10" s="52">
@@ -6830,45 +6604,45 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="L10" s="51">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>119.99999999999997</v>
       </c>
       <c r="M10" s="51" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>02:00</v>
       </c>
       <c r="N10" s="51">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>419.99999999999989</v>
       </c>
       <c r="O10" s="51" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>07:00</v>
       </c>
       <c r="P10" s="52" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>PPOIO</v>
       </c>
       <c r="Q10" s="52" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Project Study</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="43">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>PPOIO</v>
       </c>
       <c r="C11" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Business Plan</v>
       </c>
       <c r="D11" s="52" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Firose/43430</v>
       </c>
       <c r="E11" s="52">
@@ -6895,45 +6669,45 @@
         <v>0.75</v>
       </c>
       <c r="L11" s="51">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>239.99999999999994</v>
       </c>
       <c r="M11" s="51" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>04:00</v>
       </c>
       <c r="N11" s="51">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>419.99999999999989</v>
       </c>
       <c r="O11" s="51" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>07:00</v>
       </c>
       <c r="P11" s="52" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>PPOIO</v>
       </c>
       <c r="Q11" s="52" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Business Plan</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="43">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TEEBPD</v>
       </c>
       <c r="C12" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Client Suggestion Implementation</v>
       </c>
       <c r="D12" s="52" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Firose/43431</v>
       </c>
       <c r="E12" s="52">
@@ -6960,45 +6734,45 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="L12" s="51">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>480.00000000000006</v>
       </c>
       <c r="M12" s="51" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>08:00</v>
       </c>
       <c r="N12" s="51">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>480.00000000000006</v>
       </c>
       <c r="O12" s="51" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>08:00</v>
       </c>
       <c r="P12" s="52" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>TEEBPD</v>
       </c>
       <c r="Q12" s="52" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Client Suggestion Implementation</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="43">
         <f>IFERROR($A12+1,1)</f>
         <v>12</v>
       </c>
       <c r="B13" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C13" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Database Analysis from Old Project</v>
       </c>
       <c r="D13" s="52" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Shareena/43431</v>
       </c>
       <c r="E13" s="52">
@@ -7025,45 +6799,45 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="L13" s="51">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>135</v>
       </c>
       <c r="M13" s="51" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>02:15</v>
       </c>
       <c r="N13" s="51">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>135</v>
       </c>
       <c r="O13" s="51" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>02:15</v>
       </c>
       <c r="P13" s="52" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q13" s="52" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Database Analysis from Old Project</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="43">
         <f>IFERROR($A13+1,1)</f>
         <v>13</v>
       </c>
       <c r="B14" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>RTM</v>
       </c>
       <c r="C14" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
       <c r="D14" s="52" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43431</v>
       </c>
       <c r="E14" s="52">
@@ -7090,45 +6864,45 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="L14" s="51">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>45</v>
       </c>
       <c r="M14" s="51" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>00:45</v>
       </c>
       <c r="N14" s="51">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>144.99999999999989</v>
       </c>
       <c r="O14" s="51" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>02:25</v>
       </c>
       <c r="P14" s="52" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>RTM</v>
       </c>
       <c r="Q14" s="52" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="43">
         <f>IFERROR($A12+1,1)</f>
         <v>12</v>
       </c>
       <c r="B15" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>RTM</v>
       </c>
       <c r="C15" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
       <c r="D15" s="52" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43431</v>
       </c>
       <c r="E15" s="52">
@@ -7155,45 +6929,45 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="L15" s="51">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>99.999999999999886</v>
       </c>
       <c r="M15" s="51" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>01:40</v>
       </c>
       <c r="N15" s="51">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>144.99999999999989</v>
       </c>
       <c r="O15" s="51" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>02:25</v>
       </c>
       <c r="P15" s="52" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>RTM</v>
       </c>
       <c r="Q15" s="52" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="43">
         <f>IFERROR($A12+1,1)</f>
         <v>12</v>
       </c>
       <c r="B16" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>MITWEB</v>
       </c>
       <c r="C16" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Modification</v>
       </c>
       <c r="D16" s="52" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Firose/43432</v>
       </c>
       <c r="E16" s="52">
@@ -7220,45 +6994,45 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="L16" s="51">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>60.000000000000028</v>
       </c>
       <c r="M16" s="51" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>01:00</v>
       </c>
       <c r="N16" s="51">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>90</v>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>210.00000000000006</v>
       </c>
       <c r="O16" s="51" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>01:30</v>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>03:30</v>
       </c>
       <c r="P16" s="52" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>MITWEB</v>
       </c>
       <c r="Q16" s="52" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Modification</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="43">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C17" s="52" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Discussion for ticketing modification</v>
       </c>
       <c r="D17" s="52" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Firose/43432</v>
       </c>
       <c r="E17" s="52">
@@ -7285,45 +7059,45 @@
         <v>0.4375</v>
       </c>
       <c r="L17" s="51">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>29.999999999999972</v>
       </c>
       <c r="M17" s="51" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>00:30</v>
       </c>
       <c r="N17" s="51">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>90</v>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>210.00000000000006</v>
       </c>
       <c r="O17" s="51" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>01:30</v>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>03:30</v>
       </c>
       <c r="P17" s="52" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q17" s="52" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Discussion for ticketing modification</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="47">
         <f t="shared" ref="A18:A24" si="2">IFERROR($A17+1,1)</f>
         <v>14</v>
       </c>
       <c r="B18" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C18" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Note down table relations</v>
       </c>
       <c r="D18" s="44" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Shareena/43432</v>
       </c>
       <c r="E18" s="44">
@@ -7350,45 +7124,45 @@
         <v>0.70277777777777783</v>
       </c>
       <c r="L18" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>380.00000000000011</v>
       </c>
       <c r="M18" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>06:20</v>
       </c>
       <c r="N18" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>380.00000000000011</v>
       </c>
       <c r="O18" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>06:20</v>
       </c>
       <c r="P18" s="44" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q18" s="44" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Note down table relations</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="47">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B19" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>SDS</v>
       </c>
       <c r="C19" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Decryption</v>
       </c>
       <c r="D19" s="44" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43432</v>
       </c>
       <c r="E19" s="44">
@@ -7415,45 +7189,45 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="L19" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>69.999999999999915</v>
       </c>
       <c r="M19" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>01:10</v>
       </c>
       <c r="N19" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>320</v>
       </c>
       <c r="O19" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:20</v>
       </c>
       <c r="P19" s="44" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>SDS</v>
       </c>
       <c r="Q19" s="44" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Decryption</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="47">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B20" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>RTM</v>
       </c>
       <c r="C20" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Getting branchname into tool</v>
       </c>
       <c r="D20" s="44" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43432</v>
       </c>
       <c r="E20" s="44">
@@ -7480,45 +7254,45 @@
         <v>0.53125</v>
       </c>
       <c r="L20" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>30.000000000000053</v>
       </c>
       <c r="M20" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>00:30</v>
       </c>
       <c r="N20" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>320</v>
       </c>
       <c r="O20" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:20</v>
       </c>
       <c r="P20" s="44" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>RTM</v>
       </c>
       <c r="Q20" s="44" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Getting branchname into tool</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="47">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B21" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>SDS</v>
       </c>
       <c r="C21" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Decryption</v>
       </c>
       <c r="D21" s="44" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43432</v>
       </c>
       <c r="E21" s="44">
@@ -7545,45 +7319,45 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="L21" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>220.00000000000003</v>
       </c>
       <c r="M21" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>03:40</v>
       </c>
       <c r="N21" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>320</v>
       </c>
       <c r="O21" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>05:20</v>
       </c>
       <c r="P21" s="44" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>SDS</v>
       </c>
       <c r="Q21" s="44" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Decryption</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="47">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B22" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C22" s="44" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Note down table relations</v>
       </c>
       <c r="D22" s="44" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Shareena/43433</v>
       </c>
       <c r="E22" s="44">
@@ -7610,45 +7384,45 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="L22" s="40">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>130.00000000000003</v>
       </c>
       <c r="M22" s="40" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>02:10</v>
       </c>
       <c r="N22" s="40">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>250.00000000000009</v>
       </c>
       <c r="O22" s="40" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>04:10</v>
       </c>
       <c r="P22" s="44" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q22" s="44" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Note down table relations</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="5">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B23" s="10" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Entering table details into excel sheet</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Shareena/43433</v>
       </c>
       <c r="E23" s="10">
@@ -7675,45 +7449,45 @@
         <v>0.65625</v>
       </c>
       <c r="L23" s="2">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>120.00000000000006</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>02:00</v>
       </c>
       <c r="N23" s="2">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>250.00000000000009</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>04:10</v>
       </c>
       <c r="P23" s="10" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q23" s="10" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Entering table details into excel sheet</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="59">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B24" s="60" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>SDS</v>
       </c>
       <c r="C24" s="60" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Request and get Response from  web</v>
       </c>
       <c r="D24" s="60" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43434</v>
       </c>
       <c r="E24" s="60">
@@ -7740,45 +7514,45 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="L24" s="64">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>54.999999999999964</v>
       </c>
       <c r="M24" s="64" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>00:55</v>
       </c>
       <c r="N24" s="64">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>-585</v>
       </c>
       <c r="O24" s="64" t="e">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>#VALUE!</v>
       </c>
       <c r="P24" s="60" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>SDS</v>
       </c>
       <c r="Q24" s="60" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Request and get Response from  web</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="59">
         <f>IFERROR($A24+1,1)</f>
         <v>21</v>
       </c>
       <c r="B25" s="60" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>TKT</v>
       </c>
       <c r="C25" s="60" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Entering table details into excel sheet</v>
       </c>
       <c r="D25" s="60" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Shareena/43434</v>
       </c>
       <c r="E25" s="60">
@@ -7803,45 +7577,45 @@
       </c>
       <c r="K25" s="64"/>
       <c r="L25" s="64">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>-585</v>
       </c>
       <c r="M25" s="64" t="e">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>#VALUE!</v>
       </c>
       <c r="N25" s="64">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>-585</v>
       </c>
       <c r="O25" s="64" t="e">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>#VALUE!</v>
       </c>
       <c r="P25" s="60" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>TKT</v>
       </c>
       <c r="Q25" s="60" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Entering table details into excel sheet</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="59">
         <f>IFERROR($A25+1,1)</f>
         <v>22</v>
       </c>
       <c r="B26" s="60" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>SDS</v>
       </c>
       <c r="C26" s="60" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Request and get Response from  web</v>
       </c>
       <c r="D26" s="60" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43434</v>
       </c>
       <c r="E26" s="60">
@@ -7868,45 +7642,45 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="L26" s="64">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>80.000000000000028</v>
       </c>
       <c r="M26" s="64" t="str">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>01:20</v>
       </c>
       <c r="N26" s="64">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>-585</v>
       </c>
       <c r="O26" s="64" t="e">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>#VALUE!</v>
       </c>
       <c r="P26" s="60" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>SDS</v>
       </c>
       <c r="Q26" s="60" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Request and get Response from  web</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="59">
         <f>IFERROR($A26+1,1)</f>
         <v>23</v>
       </c>
       <c r="B27" s="60" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
         <v>SDS</v>
       </c>
       <c r="C27" s="60" t="str">
-        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
         <v>Request and get Response from  web</v>
       </c>
       <c r="D27" s="60" t="str">
-        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
         <v>Aswathy/43434</v>
       </c>
       <c r="E27" s="60">
@@ -7931,36 +7705,166 @@
       </c>
       <c r="K27" s="64"/>
       <c r="L27" s="64">
-        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <f>([End Time]-[Start Time])*1440</f>
         <v>-720</v>
       </c>
       <c r="M27" s="64" t="e">
-        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
         <v>#VALUE!</v>
       </c>
       <c r="N27" s="64">
-        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
         <v>-585</v>
       </c>
       <c r="O27" s="64" t="e">
-        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
         <v>#VALUE!</v>
       </c>
       <c r="P27" s="60" t="str">
-        <f>TaskTimings[PRJ]</f>
+        <f>[PRJ]</f>
         <v>SDS</v>
       </c>
       <c r="Q27" s="60" t="str">
-        <f>TaskTimings[TSK]</f>
+        <f>[TSK]</f>
         <v>Request and get Response from  web</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="116">
+        <f>IFERROR($A27+1,1)</f>
+        <v>24</v>
+      </c>
+      <c r="B28" s="118" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TEEBPD</v>
+      </c>
+      <c r="C28" s="118" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Finalyzing</v>
+      </c>
+      <c r="D28" s="118" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <v>Firose/43432</v>
+      </c>
+      <c r="E28" s="118">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>3</v>
+      </c>
+      <c r="F28" s="118" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Firose/43432/3</v>
+      </c>
+      <c r="G28" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="120">
+        <v>43432</v>
+      </c>
+      <c r="J28" s="121">
+        <v>0.625</v>
+      </c>
+      <c r="K28" s="121">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L28" s="122">
+        <f>([End Time]-[Start Time])*1440</f>
+        <v>120.00000000000006</v>
+      </c>
+      <c r="M28" s="122" t="str">
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <v>02:00</v>
+      </c>
+      <c r="N28" s="122">
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>210.00000000000006</v>
+      </c>
+      <c r="O28" s="122" t="str">
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>03:30</v>
+      </c>
+      <c r="P28" s="118" t="str">
+        <f>[PRJ]</f>
+        <v>TEEBPD</v>
+      </c>
+      <c r="Q28" s="118" t="str">
+        <f>[TSK]</f>
+        <v>Finalyzing</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="116">
+        <f>IFERROR($A28+1,1)</f>
+        <v>25</v>
+      </c>
+      <c r="B29" s="118" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TEEBPD</v>
+      </c>
+      <c r="C29" s="118" t="str">
+        <f>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Finalyzing</v>
+      </c>
+      <c r="D29" s="118" t="str">
+        <f>[Employee]&amp;"/"&amp;[Date]</f>
+        <v>Firose/43433</v>
+      </c>
+      <c r="E29" s="118">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="118" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Firose/43433/1</v>
+      </c>
+      <c r="G29" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="120">
+        <v>43433</v>
+      </c>
+      <c r="J29" s="121">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K29" s="121">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L29" s="122">
+        <f>([End Time]-[Start Time])*1440</f>
+        <v>420</v>
+      </c>
+      <c r="M29" s="122" t="str">
+        <f>TEXT([End Time]-[Start Time],"HH:mm")</f>
+        <v>07:00</v>
+      </c>
+      <c r="N29" s="122">
+        <f>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</f>
+        <v>420</v>
+      </c>
+      <c r="O29" s="122" t="str">
+        <f>TEXT([Day Total Minutes]/1440,"HH:mm")</f>
+        <v>07:00</v>
+      </c>
+      <c r="P29" s="118" t="str">
+        <f>[PRJ]</f>
+        <v>TEEBPD</v>
+      </c>
+      <c r="Q29" s="118" t="str">
+        <f>[TSK]</f>
+        <v>Finalyzing</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H29">
       <formula1>EmployeeNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G29">
       <formula1>TSKPRJCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -7973,55 +7877,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="10" max="16" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="J2" s="85" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="J2" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="str">
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A4" s="89" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="89"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -8044,84 +7948,84 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="J5" s="72" t="str">
+      <c r="H5" s="71"/>
+      <c r="J5" s="80" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="75" t="str">
+      <c r="K5" s="69" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="75" t="str">
+      <c r="L5" s="69" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="75" t="str">
+      <c r="M5" s="69" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="75" t="str">
+      <c r="N5" s="69" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="75" t="str">
+      <c r="O5" s="69" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="79" t="str">
+      <c r="P5" s="71" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="80"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="80"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
+      <c r="A6" s="81"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="72"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="72"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="str">
+      <c r="B7" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Decryption</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="77">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>320</v>
       </c>
-      <c r="H7" s="78"/>
+      <c r="H7" s="83"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>320</v>
@@ -8151,23 +8055,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="68" t="str">
+      <c r="B8" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="77">
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
         <v>-585</v>
       </c>
-      <c r="H8" s="78"/>
+      <c r="H8" s="83"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>-585</v>
@@ -8197,23 +8101,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="68" t="str">
+      <c r="B9" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="77">
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="78"/>
+      <c r="H9" s="83"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8243,23 +8147,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="68" t="str">
+      <c r="B10" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="77">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="78"/>
+      <c r="H10" s="83"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8289,23 +8193,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="68" t="str">
+      <c r="B11" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="77">
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="78"/>
+      <c r="H11" s="83"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8335,23 +8239,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="68" t="str">
+      <c r="B12" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="77">
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="78"/>
+      <c r="H12" s="83"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8381,23 +8285,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="68" t="str">
+      <c r="B13" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="77">
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="78"/>
+      <c r="H13" s="83"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8427,23 +8331,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="68" t="str">
+      <c r="B14" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="77">
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="78"/>
+      <c r="H14" s="83"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8473,23 +8377,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="68" t="str">
+      <c r="B15" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="77">
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="78"/>
+      <c r="H15" s="83"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8519,23 +8423,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="68" t="str">
+      <c r="B16" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="77">
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="78"/>
+      <c r="H16" s="83"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8565,23 +8469,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="68" t="str">
+      <c r="B17" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="77">
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="78"/>
+      <c r="H17" s="83"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8611,23 +8515,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="68" t="str">
+      <c r="B18" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="77">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="78"/>
+      <c r="H18" s="83"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8657,23 +8561,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="68" t="str">
+      <c r="B19" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="77">
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="78"/>
+      <c r="H19" s="83"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8703,23 +8607,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="68" t="str">
+      <c r="B20" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="77">
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="78"/>
+      <c r="H20" s="83"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8749,23 +8653,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1">
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="74" t="str">
+      <c r="B21" s="87" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="83">
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="85">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="84"/>
+      <c r="H21" s="86"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8795,69 +8699,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="86" t="s">
+    <row r="22" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:16">
+      <c r="D23" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="86">
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="74">
         <f>SUM(G7:H21)</f>
         <v>-265</v>
       </c>
-      <c r="H23" s="88"/>
-      <c r="J23" s="81">
+      <c r="H23" s="76"/>
+      <c r="J23" s="67">
         <f>SUM(J7:J21)</f>
         <v>-265</v>
       </c>
-      <c r="K23" s="81">
+      <c r="K23" s="67">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="81">
+      <c r="L23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="81">
+      <c r="M23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="81">
+      <c r="N23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="81">
+      <c r="O23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="81">
+      <c r="P23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="91"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1">
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="79"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -8874,36 +8802,12 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -8917,26 +8821,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="F1" s="113" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="F1" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="113"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -8955,20 +8859,20 @@
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="F2" s="112">
+    <row r="2" spans="1:28">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="F2" s="95">
         <v>43430</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="I2" s="92">
+      <c r="G2" s="95"/>
+      <c r="I2" s="112">
         <f>SUM(I7:I30)</f>
         <v>209.99999999999989</v>
       </c>
-      <c r="J2" s="94" t="str">
+      <c r="J2" s="106" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
         <v>3:30</v>
       </c>
@@ -8984,15 +8888,15 @@
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="95"/>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1">
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -9005,42 +8909,42 @@
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="85" t="s">
+    <row r="4" spans="1:28">
+      <c r="K4" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1">
+      <c r="B5" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" thickBot="1">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -9051,27 +8955,27 @@
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="114">
+      <c r="B7" s="97">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="115" t="str">
+      <c r="C7" s="69"/>
+      <c r="D7" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="105">
         <f>SUM(H7:H10)</f>
         <v>330</v>
       </c>
@@ -9079,11 +8983,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="96" t="str">
+      <c r="L7" s="108" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="96"/>
+      <c r="M7" s="108"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -9127,33 +9031,33 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="105" t="str">
+      <c r="B8" s="81"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I8" s="94"/>
+      <c r="I8" s="106"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="96" t="str">
+      <c r="L8" s="108" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v>SDS</v>
       </c>
-      <c r="M8" s="96"/>
+      <c r="M8" s="108"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
         <v>-265</v>
@@ -9197,33 +9101,33 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="105" t="str">
+      <c r="B9" s="81"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>89.999999999999915</v>
       </c>
-      <c r="I9" s="94"/>
+      <c r="I9" s="106"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="96" t="str">
+      <c r="L9" s="108" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="96"/>
+      <c r="M9" s="108"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9267,33 +9171,33 @@
         <v>354.99999999999989</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="105" t="str">
+      <c r="B10" s="81"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="I10" s="94"/>
+      <c r="I10" s="106"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="96" t="str">
+      <c r="L10" s="108" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v>RTM</v>
       </c>
-      <c r="M10" s="96"/>
+      <c r="M10" s="108"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>384.99999999999994</v>
@@ -9337,27 +9241,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="15.75" thickBot="1">
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="106">
+      <c r="B11" s="100">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="105" t="str">
+      <c r="C11" s="70"/>
+      <c r="D11" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>45</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="106">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>144.99999999999989</v>
       </c>
@@ -9365,11 +9269,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="99" t="str">
+      <c r="L11" s="111" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="99"/>
+      <c r="M11" s="111"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9413,24 +9317,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="105" t="str">
+      <c r="B12" s="81"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>99.999999999999886</v>
       </c>
-      <c r="I12" s="94"/>
+      <c r="I12" s="106"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -9475,31 +9379,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="105" t="str">
+      <c r="B13" s="81"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="94"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="109" t="s">
+      <c r="K13" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -9539,29 +9443,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15.75" thickBot="1">
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="105" t="str">
+      <c r="B14" s="81"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="94"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -9601,41 +9505,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="106">
+      <c r="B15" s="100">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="105" t="str">
+      <c r="C15" s="70"/>
+      <c r="D15" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>69.999999999999915</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="106">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>320</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="101" t="s">
+      <c r="K15" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100" t="s">
+      <c r="L15" s="110"/>
+      <c r="M15" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -9677,44 +9581,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="105" t="str">
+      <c r="B16" s="81"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Getting branchname into tool</v>
       </c>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I16" s="94"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="97" t="str">
+      <c r="K16" s="114" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="96" t="str">
+      <c r="L16" s="82"/>
+      <c r="M16" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="94">
+      <c r="R16" s="106">
         <f>SUM(Q16:Q19)</f>
         <v>90</v>
       </c>
@@ -9753,41 +9657,41 @@
         <v>30.000000000000053</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="105" t="str">
+      <c r="B17" s="81"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="I17" s="94"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="97"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="96" t="str">
+      <c r="K17" s="114"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="94"/>
+      <c r="R17" s="106"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -9823,41 +9727,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="105" t="str">
+      <c r="B18" s="81"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="94"/>
+      <c r="I18" s="106"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="97"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="96" t="str">
+      <c r="K18" s="114"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="94"/>
+      <c r="R18" s="106"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -9893,47 +9797,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28">
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="106">
+      <c r="B19" s="100">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="105" t="str">
+      <c r="C19" s="70"/>
+      <c r="D19" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="94">
+      <c r="I19" s="106">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="97"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="96" t="str">
+      <c r="K19" s="114"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="94"/>
+      <c r="R19" s="106"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -9969,44 +9873,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="105" t="str">
+      <c r="B20" s="81"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="94"/>
+      <c r="I20" s="106"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="97" t="str">
+      <c r="K20" s="114" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="L20" s="77"/>
-      <c r="M20" s="96" t="str">
+      <c r="L20" s="82"/>
+      <c r="M20" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v>Decryption</v>
       </c>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
       <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v>320</v>
       </c>
-      <c r="R20" s="94">
+      <c r="R20" s="106">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
         <v>-265</v>
       </c>
@@ -10045,41 +9949,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="105" t="str">
+      <c r="B21" s="81"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="94"/>
+      <c r="I21" s="106"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="97"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="96" t="str">
+      <c r="K21" s="114"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
         <v>-585</v>
       </c>
-      <c r="R21" s="94"/>
+      <c r="R21" s="106"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -10115,41 +10019,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="105" t="str">
+      <c r="B22" s="81"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="94"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="97"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="96" t="str">
+      <c r="K22" s="114"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="94"/>
+      <c r="R22" s="106"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -10185,47 +10089,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="106">
+      <c r="B23" s="100">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="105" t="str">
+      <c r="C23" s="70"/>
+      <c r="D23" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>54.999999999999964</v>
       </c>
-      <c r="I23" s="94">
+      <c r="I23" s="106">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>-585</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="96" t="str">
+      <c r="K23" s="114"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="94"/>
+      <c r="R23" s="106"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -10261,44 +10165,44 @@
         <v>-585</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="105" t="str">
+      <c r="B24" s="81"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>80.000000000000028</v>
       </c>
-      <c r="I24" s="94"/>
+      <c r="I24" s="106"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="97" t="str">
+      <c r="K24" s="114" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="77"/>
-      <c r="M24" s="96" t="str">
+      <c r="L24" s="82"/>
+      <c r="M24" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="94">
+      <c r="R24" s="106">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -10337,41 +10241,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="105" t="str">
+      <c r="B25" s="81"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>-720</v>
       </c>
-      <c r="I25" s="94"/>
+      <c r="I25" s="106"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="97"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="96" t="str">
+      <c r="K25" s="114"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="94"/>
+      <c r="R25" s="106"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -10407,41 +10311,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28">
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="105" t="str">
+      <c r="B26" s="81"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="94"/>
+      <c r="I26" s="106"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="97"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="96" t="str">
+      <c r="K26" s="114"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="94"/>
+      <c r="R26" s="106"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -10477,47 +10381,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28">
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="106">
+      <c r="B27" s="100">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="105" t="str">
+      <c r="C27" s="70"/>
+      <c r="D27" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="94">
+      <c r="I27" s="106">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="97"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="96" t="str">
+      <c r="K27" s="114"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="94"/>
+      <c r="R27" s="106"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -10553,44 +10457,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28">
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="105" t="str">
+      <c r="B28" s="81"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="94"/>
+      <c r="I28" s="106"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="97" t="str">
+      <c r="K28" s="114" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v>RTM</v>
       </c>
-      <c r="L28" s="77"/>
-      <c r="M28" s="96" t="str">
+      <c r="L28" s="82"/>
+      <c r="M28" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
       <c r="Q28" s="22">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v>354.99999999999989</v>
       </c>
-      <c r="R28" s="94">
+      <c r="R28" s="106">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>384.99999999999994</v>
       </c>
@@ -10629,41 +10533,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28">
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="105" t="str">
+      <c r="B29" s="81"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="94"/>
+      <c r="I29" s="106"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="97"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="96" t="str">
+      <c r="K29" s="114"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v>Getting branchname into tool</v>
       </c>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
       <c r="Q29" s="22">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="R29" s="94"/>
+      <c r="R29" s="106"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -10699,38 +10603,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="107"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="103" t="str">
+    <row r="30" spans="1:28" ht="15.75" thickBot="1">
+      <c r="B30" s="101"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="95"/>
+      <c r="I30" s="107"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="97"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="96" t="str">
+      <c r="K30" s="114"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="94"/>
+      <c r="R30" s="106"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -10764,109 +10668,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28">
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="97"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="96" t="str">
+      <c r="K31" s="114"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="94"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R31" s="106"/>
+    </row>
+    <row r="32" spans="1:28">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="97" t="str">
+      <c r="K32" s="114" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="77"/>
-      <c r="M32" s="96" t="str">
+      <c r="L32" s="82"/>
+      <c r="M32" s="108" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="94">
+      <c r="R32" s="106">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:18">
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="97"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="96" t="str">
+      <c r="K33" s="114"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="108" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="94"/>
-    </row>
-    <row r="34" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="R33" s="106"/>
+    </row>
+    <row r="34" spans="10:18">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="97"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="96" t="str">
+      <c r="K34" s="114"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="108" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="94"/>
-    </row>
-    <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R34" s="106"/>
+    </row>
+    <row r="35" spans="10:18" ht="15.75" thickBot="1">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="98"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="99" t="str">
+      <c r="K35" s="115"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="111" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="95"/>
+      <c r="R35" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K20:L23"/>
+    <mergeCell ref="K24:L27"/>
+    <mergeCell ref="K28:L31"/>
+    <mergeCell ref="K32:L35"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K16:L19"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="K13:N14"/>
     <mergeCell ref="A1:D3"/>
@@ -10883,72 +10853,6 @@
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K20:L23"/>
-    <mergeCell ref="K24:L27"/>
-    <mergeCell ref="K28:L31"/>
-    <mergeCell ref="K32:L35"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K16:L19"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -647,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -820,6 +820,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1816,7 +1819,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-560</c:v>
+                  <c:v>229.99999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1899,11 +1902,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="582472736"/>
-        <c:axId val="582464576"/>
+        <c:axId val="1056333760"/>
+        <c:axId val="1056334304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="582472736"/>
+        <c:axId val="1056333760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +1927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582464576"/>
+        <c:crossAx val="1056334304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1932,7 +1935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="582464576"/>
+        <c:axId val="1056334304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582472736"/>
+        <c:crossAx val="1056333760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2039,7 +2042,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-560</c:v>
+                  <c:v>229.99999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2589,11 +2592,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="582470016"/>
-        <c:axId val="582459136"/>
+        <c:axId val="1056335392"/>
+        <c:axId val="1056335936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="582470016"/>
+        <c:axId val="1056335392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582459136"/>
+        <c:crossAx val="1056335936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2621,7 +2624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="582459136"/>
+        <c:axId val="1056335936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,7 +2645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582470016"/>
+        <c:crossAx val="1056335392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2749,7 +2752,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-560</c:v>
+                  <c:v>229.99999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2955,7 +2958,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-560</c:v>
+                  <c:v>229.99999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3500,11 +3503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="582460224"/>
-        <c:axId val="402355312"/>
+        <c:axId val="1056339200"/>
+        <c:axId val="1056346816"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="582460224"/>
+        <c:axId val="1056339200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3524,7 +3527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402355312"/>
+        <c:crossAx val="1056346816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3532,7 +3535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402355312"/>
+        <c:axId val="1056346816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3553,7 +3556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582460224"/>
+        <c:crossAx val="1056339200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3754,7 +3757,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-240</c:v>
+                  <c:v>549.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3979,7 +3982,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-240</c:v>
+                  <c:v>549.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4223,7 +4226,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-560</c:v>
+                  <c:v>229.99999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4408,11 +4411,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="402356944"/>
-        <c:axId val="402353680"/>
+        <c:axId val="1056344640"/>
+        <c:axId val="1056343008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="402356944"/>
+        <c:axId val="1056344640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4432,7 +4435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402353680"/>
+        <c:crossAx val="1056343008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4440,7 +4443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402353680"/>
+        <c:axId val="1056343008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4460,7 +4463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402356944"/>
+        <c:crossAx val="1056344640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4603,7 +4606,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-560</c:v>
+                  <c:v>229.99999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4622,11 +4625,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="402351504"/>
-        <c:axId val="569657696"/>
+        <c:axId val="1056338112"/>
+        <c:axId val="1056344096"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="402351504"/>
+        <c:axId val="1056338112"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4646,14 +4649,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569657696"/>
+        <c:crossAx val="1056344096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="569657696"/>
+        <c:axId val="1056344096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4674,7 +4677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402351504"/>
+        <c:crossAx val="1056338112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6195,7 +6198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -7733,22 +7736,24 @@
       <c r="J24" s="63">
         <v>0.3888888888888889</v>
       </c>
-      <c r="K24" s="64"/>
+      <c r="K24" s="66">
+        <v>0.54861111111111105</v>
+      </c>
       <c r="L24" s="64">
         <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>-560</v>
-      </c>
-      <c r="M24" s="64" t="e">
+        <v>229.99999999999991</v>
+      </c>
+      <c r="M24" s="64" t="str">
         <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>03:50</v>
       </c>
       <c r="N24" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-560</v>
-      </c>
-      <c r="O24" s="64" t="e">
+        <v>229.99999999999991</v>
+      </c>
+      <c r="O24" s="64" t="str">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>03:50</v>
       </c>
       <c r="P24" s="60" t="str">
         <f>TaskTimings[PRJ]</f>
@@ -7796,22 +7801,24 @@
       <c r="J25" s="63">
         <v>0.40625</v>
       </c>
-      <c r="K25" s="64"/>
+      <c r="K25" s="66">
+        <v>0.54722222222222217</v>
+      </c>
       <c r="L25" s="64">
         <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>-585</v>
-      </c>
-      <c r="M25" s="64" t="e">
+        <v>202.99999999999991</v>
+      </c>
+      <c r="M25" s="64" t="str">
         <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>03:23</v>
       </c>
       <c r="N25" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-585</v>
-      </c>
-      <c r="O25" s="64" t="e">
+        <v>202.99999999999991</v>
+      </c>
+      <c r="O25" s="64" t="str">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>03:23</v>
       </c>
       <c r="P25" s="60" t="str">
         <f>TaskTimings[PRJ]</f>
@@ -7853,42 +7860,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="J2" s="72" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="J2" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="str">
+      <c r="A4" s="89" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="B4" s="88"/>
+      <c r="B4" s="89"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -7912,83 +7919,83 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="68" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="J5" s="79" t="str">
+      <c r="H5" s="71"/>
+      <c r="J5" s="80" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="68" t="str">
+      <c r="K5" s="69" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="68" t="str">
+      <c r="L5" s="69" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="68" t="str">
+      <c r="M5" s="69" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="68" t="str">
+      <c r="N5" s="69" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="68" t="str">
+      <c r="O5" s="69" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="70" t="str">
+      <c r="P5" s="71" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="71"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="71"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="72"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="83" t="str">
+      <c r="B7" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Decryption</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="81">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>320</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="83"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>320</v>
@@ -8022,22 +8029,22 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="83" t="str">
+      <c r="B8" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="81">
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
-        <v>-560</v>
-      </c>
-      <c r="H8" s="82"/>
+        <v>229.99999999999991</v>
+      </c>
+      <c r="H8" s="83"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
-        <v>-560</v>
+        <v>229.99999999999991</v>
       </c>
       <c r="K8" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],K$5)</f>
@@ -8068,19 +8075,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="83" t="str">
+      <c r="B9" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="81">
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="82"/>
+      <c r="H9" s="83"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8114,19 +8121,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="83" t="str">
+      <c r="B10" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="81">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="82"/>
+      <c r="H10" s="83"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8160,19 +8167,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="83" t="str">
+      <c r="B11" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="81">
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="82"/>
+      <c r="H11" s="83"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8206,19 +8213,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="83" t="str">
+      <c r="B12" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="81">
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="83"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8252,19 +8259,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="83" t="str">
+      <c r="B13" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="81">
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="82"/>
+      <c r="H13" s="83"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8298,19 +8305,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="83" t="str">
+      <c r="B14" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="81">
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="82"/>
+      <c r="H14" s="83"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8344,19 +8351,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="83" t="str">
+      <c r="B15" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="81">
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="82"/>
+      <c r="H15" s="83"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8390,19 +8397,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="83" t="str">
+      <c r="B16" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="81">
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="82"/>
+      <c r="H16" s="83"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8436,19 +8443,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="83" t="str">
+      <c r="B17" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="81">
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="82"/>
+      <c r="H17" s="83"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8482,19 +8489,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="83" t="str">
+      <c r="B18" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="81">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="82"/>
+      <c r="H18" s="83"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8528,19 +8535,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="83" t="str">
+      <c r="B19" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="81">
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="82"/>
+      <c r="H19" s="83"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8574,19 +8581,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="83" t="str">
+      <c r="B20" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="81">
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="82"/>
+      <c r="H20" s="83"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8620,19 +8627,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="86" t="str">
+      <c r="B21" s="87" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="84">
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="85">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="85"/>
+      <c r="H21" s="86"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8664,58 +8671,58 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="73">
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="74">
         <f>SUM(G7:H21)</f>
-        <v>-240</v>
-      </c>
-      <c r="H23" s="75"/>
-      <c r="J23" s="66">
+        <v>549.99999999999989</v>
+      </c>
+      <c r="H23" s="76"/>
+      <c r="J23" s="67">
         <f>SUM(J7:J21)</f>
-        <v>-240</v>
-      </c>
-      <c r="K23" s="66">
+        <v>549.99999999999989</v>
+      </c>
+      <c r="K23" s="67">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="66">
+      <c r="L23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="66">
+      <c r="M23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="66">
+      <c r="N23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="66">
+      <c r="O23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="66">
+      <c r="P23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="78"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="79"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -8794,16 +8801,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="F1" s="95" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="F1" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -8823,21 +8830,21 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="F2" s="94">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="F2" s="95">
         <v>43430</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="I2" s="111">
+      <c r="G2" s="95"/>
+      <c r="I2" s="112">
         <f>SUM(I7:I30)</f>
-        <v>234.99999999999989</v>
-      </c>
-      <c r="J2" s="105" t="str">
+        <v>1024.9999999999998</v>
+      </c>
+      <c r="J2" s="106" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
-        <v>3:55</v>
+        <v>17:05</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -8852,14 +8859,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="106"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -8873,41 +8880,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -8922,23 +8929,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="96">
+      <c r="B7" s="97">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="97" t="str">
+      <c r="C7" s="69"/>
+      <c r="D7" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="105">
         <f>SUM(H7:H10)</f>
         <v>330</v>
       </c>
@@ -8946,11 +8953,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="107" t="str">
+      <c r="L7" s="108" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="107"/>
+      <c r="M7" s="108"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -8998,32 +9005,32 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="98" t="str">
+      <c r="B8" s="81"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I8" s="105"/>
+      <c r="I8" s="106"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="107" t="str">
+      <c r="L8" s="108" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v>SDS</v>
       </c>
-      <c r="M8" s="107"/>
+      <c r="M8" s="108"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
-        <v>-240</v>
+        <v>549.99999999999989</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -9068,29 +9075,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="98" t="str">
+      <c r="B9" s="81"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>89.999999999999915</v>
       </c>
-      <c r="I9" s="105"/>
+      <c r="I9" s="106"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="107" t="str">
+      <c r="L9" s="108" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="107"/>
+      <c r="M9" s="108"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9138,29 +9145,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="98" t="str">
+      <c r="B10" s="81"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="I10" s="105"/>
+      <c r="I10" s="106"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="107" t="str">
+      <c r="L10" s="108" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v>RTM</v>
       </c>
-      <c r="M10" s="107"/>
+      <c r="M10" s="108"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>384.99999999999994</v>
@@ -9208,23 +9215,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="99">
+      <c r="B11" s="100">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="98" t="str">
+      <c r="C11" s="70"/>
+      <c r="D11" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>45</v>
       </c>
-      <c r="I11" s="105">
+      <c r="I11" s="106">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>144.99999999999989</v>
       </c>
@@ -9232,11 +9239,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="110" t="str">
+      <c r="L11" s="111" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="110"/>
+      <c r="M11" s="111"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9284,20 +9291,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="98" t="str">
+      <c r="B12" s="81"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>99.999999999999886</v>
       </c>
-      <c r="I12" s="105"/>
+      <c r="I12" s="106"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -9346,27 +9353,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="98" t="str">
+      <c r="B13" s="81"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="105"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="91" t="s">
+      <c r="K13" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -9410,25 +9417,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="98" t="str">
+      <c r="B14" s="81"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="105"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -9472,37 +9479,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="99">
+      <c r="B15" s="100">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="98" t="str">
+      <c r="C15" s="70"/>
+      <c r="D15" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>69.999999999999915</v>
       </c>
-      <c r="I15" s="105">
+      <c r="I15" s="106">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>320</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="108" t="s">
+      <c r="K15" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109" t="s">
+      <c r="L15" s="110"/>
+      <c r="M15" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -9548,40 +9555,40 @@
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="98" t="str">
+      <c r="B16" s="81"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Getting branchname into tool</v>
       </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I16" s="105"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="113" t="str">
+      <c r="K16" s="114" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="81"/>
-      <c r="M16" s="107" t="str">
+      <c r="L16" s="82"/>
+      <c r="M16" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="105">
+      <c r="R16" s="106">
         <f>SUM(Q16:Q19)</f>
         <v>90</v>
       </c>
@@ -9624,37 +9631,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="98" t="str">
+      <c r="B17" s="81"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="I17" s="105"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="113"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="107" t="str">
+      <c r="K17" s="114"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="105"/>
+      <c r="R17" s="106"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -9694,37 +9701,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="98" t="str">
+      <c r="B18" s="81"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="105"/>
+      <c r="I18" s="106"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="113"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="107" t="str">
+      <c r="K18" s="114"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="105"/>
+      <c r="R18" s="106"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -9764,43 +9771,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="99">
+      <c r="B19" s="100">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="98" t="str">
+      <c r="C19" s="70"/>
+      <c r="D19" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="105">
+      <c r="I19" s="106">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="113"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="107" t="str">
+      <c r="K19" s="114"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="105"/>
+      <c r="R19" s="106"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -9840,42 +9847,42 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="98" t="str">
+      <c r="B20" s="81"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="105"/>
+      <c r="I20" s="106"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="113" t="str">
+      <c r="K20" s="114" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="L20" s="81"/>
-      <c r="M20" s="107" t="str">
+      <c r="L20" s="82"/>
+      <c r="M20" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v>Decryption</v>
       </c>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
       <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v>320</v>
       </c>
-      <c r="R20" s="105">
+      <c r="R20" s="106">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
-        <v>-240</v>
+        <v>549.99999999999989</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -9916,37 +9923,37 @@
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="98" t="str">
+      <c r="B21" s="81"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="105"/>
+      <c r="I21" s="106"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="113"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="107" t="str">
+      <c r="K21" s="114"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
-        <v>-560</v>
-      </c>
-      <c r="R21" s="105"/>
+        <v>229.99999999999991</v>
+      </c>
+      <c r="R21" s="106"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -9986,37 +9993,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="98" t="str">
+      <c r="B22" s="81"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="105"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="113"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="107" t="str">
+      <c r="K22" s="114"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="105"/>
+      <c r="R22" s="106"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -10056,43 +10063,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="99">
+      <c r="B23" s="100">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="98" t="str">
+      <c r="C23" s="70"/>
+      <c r="D23" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>-560</v>
-      </c>
-      <c r="I23" s="105">
+        <v>229.99999999999991</v>
+      </c>
+      <c r="I23" s="106">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
-        <v>-560</v>
+        <v>229.99999999999991</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="113"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="107" t="str">
+      <c r="K23" s="114"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="105"/>
+      <c r="R23" s="106"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -10125,47 +10132,47 @@
       </c>
       <c r="AB23" s="33">
         <f t="shared" si="2"/>
-        <v>-560</v>
+        <v>229.99999999999991</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="98" t="str">
+      <c r="B24" s="81"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="105"/>
+      <c r="I24" s="106"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="113" t="str">
+      <c r="K24" s="114" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="107" t="str">
+      <c r="L24" s="82"/>
+      <c r="M24" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="105">
+      <c r="R24" s="106">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -10208,37 +10215,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="98" t="str">
+      <c r="B25" s="81"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="105"/>
+      <c r="I25" s="106"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="113"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="107" t="str">
+      <c r="K25" s="114"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="105"/>
+      <c r="R25" s="106"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -10278,37 +10285,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="98" t="str">
+      <c r="B26" s="81"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="105"/>
+      <c r="I26" s="106"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="113"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="107" t="str">
+      <c r="K26" s="114"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="105"/>
+      <c r="R26" s="106"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -10348,43 +10355,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="99">
+      <c r="B27" s="100">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="98" t="str">
+      <c r="C27" s="70"/>
+      <c r="D27" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="105">
+      <c r="I27" s="106">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="113"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="107" t="str">
+      <c r="K27" s="114"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="105"/>
+      <c r="R27" s="106"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -10424,40 +10431,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="98" t="str">
+      <c r="B28" s="81"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="105"/>
+      <c r="I28" s="106"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="113" t="str">
+      <c r="K28" s="114" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v>RTM</v>
       </c>
-      <c r="L28" s="81"/>
-      <c r="M28" s="107" t="str">
+      <c r="L28" s="82"/>
+      <c r="M28" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
       <c r="Q28" s="22">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v>354.99999999999989</v>
       </c>
-      <c r="R28" s="105">
+      <c r="R28" s="106">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>384.99999999999994</v>
       </c>
@@ -10500,37 +10507,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="98" t="str">
+      <c r="B29" s="81"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="105"/>
+      <c r="I29" s="106"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="113"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="107" t="str">
+      <c r="K29" s="114"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v>Getting branchname into tool</v>
       </c>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
       <c r="Q29" s="22">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="R29" s="105"/>
+      <c r="R29" s="106"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -10567,37 +10574,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="103" t="str">
+      <c r="B30" s="101"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="106"/>
+      <c r="I30" s="107"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="113"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="107" t="str">
+      <c r="K30" s="114"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="105"/>
+      <c r="R30" s="106"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -10635,42 +10642,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="113"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="107" t="str">
+      <c r="K31" s="114"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="105"/>
+      <c r="R31" s="106"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="113" t="str">
+      <c r="K32" s="114" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="81"/>
-      <c r="M32" s="107" t="str">
+      <c r="L32" s="82"/>
+      <c r="M32" s="108" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="105">
+      <c r="R32" s="106">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -10679,58 +10686,58 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="113"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="107" t="str">
+      <c r="K33" s="114"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="108" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="105"/>
+      <c r="R33" s="106"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="113"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="107" t="str">
+      <c r="K34" s="114"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="108" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="105"/>
+      <c r="R34" s="106"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="114"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="110" t="str">
+      <c r="K35" s="115"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="111" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="106"/>
+      <c r="R35" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="82">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -823,29 +823,11 @@
     <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,28 +835,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -898,56 +862,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -969,6 +918,57 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1819,7 +1819,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-560</c:v>
+                  <c:v>227.99999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1902,11 +1902,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1056344640"/>
-        <c:axId val="1056339744"/>
+        <c:axId val="1056345184"/>
+        <c:axId val="1056340832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1056344640"/>
+        <c:axId val="1056345184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,7 +1927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056339744"/>
+        <c:crossAx val="1056340832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1935,7 +1935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1056339744"/>
+        <c:axId val="1056340832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +1956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056344640"/>
+        <c:crossAx val="1056345184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2042,7 +2042,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-560</c:v>
+                  <c:v>227.99999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2592,11 +2592,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="1056337568"/>
-        <c:axId val="1056341920"/>
+        <c:axId val="1056343008"/>
+        <c:axId val="1056341376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1056337568"/>
+        <c:axId val="1056343008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,7 +2616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056341920"/>
+        <c:crossAx val="1056341376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2624,7 +2624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1056341920"/>
+        <c:axId val="1056341376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,7 +2645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056337568"/>
+        <c:crossAx val="1056343008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2752,7 +2752,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-560</c:v>
+                  <c:v>227.99999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2958,7 +2958,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-560</c:v>
+                  <c:v>227.99999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3503,11 +3503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1056340832"/>
-        <c:axId val="1056343552"/>
+        <c:axId val="1056345728"/>
+        <c:axId val="1056346272"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1056340832"/>
+        <c:axId val="1056345728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3527,7 +3527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056343552"/>
+        <c:crossAx val="1056346272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3535,7 +3535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1056343552"/>
+        <c:axId val="1056346272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3556,7 +3556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056340832"/>
+        <c:crossAx val="1056345728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3757,7 +3757,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-240</c:v>
+                  <c:v>547.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3982,7 +3982,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-240</c:v>
+                  <c:v>547.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4226,7 +4226,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-560</c:v>
+                  <c:v>227.99999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4411,11 +4411,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1056341376"/>
-        <c:axId val="1056338112"/>
+        <c:axId val="1056341920"/>
+        <c:axId val="1056346816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1056341376"/>
+        <c:axId val="1056341920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,7 +4435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056338112"/>
+        <c:crossAx val="1056346816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4443,7 +4443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1056338112"/>
+        <c:axId val="1056346816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4463,7 +4463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056341376"/>
+        <c:crossAx val="1056341920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4606,7 +4606,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-560</c:v>
+                  <c:v>227.99999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4625,11 +4625,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="1056334304"/>
-        <c:axId val="1056335936"/>
+        <c:axId val="1056344640"/>
+        <c:axId val="1056332128"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1056334304"/>
+        <c:axId val="1056344640"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4649,14 +4649,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056335936"/>
+        <c:crossAx val="1056332128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1056335936"/>
+        <c:axId val="1056332128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4677,7 +4677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056334304"/>
+        <c:crossAx val="1056344640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6198,7 +6198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -7736,22 +7736,24 @@
       <c r="J24" s="63">
         <v>0.3888888888888889</v>
       </c>
-      <c r="K24" s="66"/>
+      <c r="K24" s="66">
+        <v>0.54722222222222217</v>
+      </c>
       <c r="L24" s="64">
         <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>-560</v>
-      </c>
-      <c r="M24" s="64" t="e">
+        <v>227.99999999999991</v>
+      </c>
+      <c r="M24" s="64" t="str">
         <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>03:48</v>
       </c>
       <c r="N24" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-560</v>
-      </c>
-      <c r="O24" s="64" t="e">
+        <v>227.99999999999991</v>
+      </c>
+      <c r="O24" s="64" t="str">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>03:48</v>
       </c>
       <c r="P24" s="60" t="str">
         <f>TaskTimings[PRJ]</f>
@@ -7799,22 +7801,24 @@
       <c r="J25" s="63">
         <v>0.40625</v>
       </c>
-      <c r="K25" s="66"/>
+      <c r="K25" s="66">
+        <v>0.54861111111111105</v>
+      </c>
       <c r="L25" s="64">
         <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>-585</v>
-      </c>
-      <c r="M25" s="64" t="e">
+        <v>204.99999999999991</v>
+      </c>
+      <c r="M25" s="64" t="str">
         <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>03:25</v>
       </c>
       <c r="N25" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-585</v>
-      </c>
-      <c r="O25" s="64" t="e">
+        <v>204.99999999999991</v>
+      </c>
+      <c r="O25" s="64" t="str">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>03:25</v>
       </c>
       <c r="P25" s="60" t="str">
         <f>TaskTimings[PRJ]</f>
@@ -7856,42 +7860,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="J2" s="85" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="J2" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="str">
+      <c r="A4" s="89" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="89"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -7915,83 +7919,83 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="J5" s="72" t="str">
+      <c r="H5" s="71"/>
+      <c r="J5" s="80" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="75" t="str">
+      <c r="K5" s="69" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="75" t="str">
+      <c r="L5" s="69" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="75" t="str">
+      <c r="M5" s="69" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="75" t="str">
+      <c r="N5" s="69" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="75" t="str">
+      <c r="O5" s="69" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="79" t="str">
+      <c r="P5" s="71" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="80"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="80"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="72"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="str">
+      <c r="B7" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Decryption</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="77">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>320</v>
       </c>
-      <c r="H7" s="78"/>
+      <c r="H7" s="83"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>320</v>
@@ -8025,22 +8029,22 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="68" t="str">
+      <c r="B8" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="77">
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
-        <v>-560</v>
-      </c>
-      <c r="H8" s="78"/>
+        <v>227.99999999999991</v>
+      </c>
+      <c r="H8" s="83"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
-        <v>-560</v>
+        <v>227.99999999999991</v>
       </c>
       <c r="K8" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],K$5)</f>
@@ -8071,19 +8075,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="68" t="str">
+      <c r="B9" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="77">
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="78"/>
+      <c r="H9" s="83"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8117,19 +8121,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="68" t="str">
+      <c r="B10" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="77">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="78"/>
+      <c r="H10" s="83"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8163,19 +8167,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="68" t="str">
+      <c r="B11" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="77">
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="78"/>
+      <c r="H11" s="83"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8209,19 +8213,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="68" t="str">
+      <c r="B12" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="77">
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="78"/>
+      <c r="H12" s="83"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8255,19 +8259,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="68" t="str">
+      <c r="B13" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="77">
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="78"/>
+      <c r="H13" s="83"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8301,19 +8305,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="68" t="str">
+      <c r="B14" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="77">
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="78"/>
+      <c r="H14" s="83"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8347,19 +8351,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="68" t="str">
+      <c r="B15" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="77">
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="78"/>
+      <c r="H15" s="83"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8393,19 +8397,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="68" t="str">
+      <c r="B16" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="77">
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="78"/>
+      <c r="H16" s="83"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8439,19 +8443,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="68" t="str">
+      <c r="B17" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="77">
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="78"/>
+      <c r="H17" s="83"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8485,19 +8489,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="68" t="str">
+      <c r="B18" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="77">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="78"/>
+      <c r="H18" s="83"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8531,19 +8535,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="68" t="str">
+      <c r="B19" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="77">
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="78"/>
+      <c r="H19" s="83"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8577,19 +8581,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="68" t="str">
+      <c r="B20" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="77">
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="78"/>
+      <c r="H20" s="83"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8623,19 +8627,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="74" t="str">
+      <c r="B21" s="87" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="83">
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="85">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="84"/>
+      <c r="H21" s="86"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8667,67 +8671,91 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="86">
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="74">
         <f>SUM(G7:H21)</f>
-        <v>-240</v>
-      </c>
-      <c r="H23" s="88"/>
-      <c r="J23" s="81">
+        <v>547.99999999999989</v>
+      </c>
+      <c r="H23" s="76"/>
+      <c r="J23" s="67">
         <f>SUM(J7:J21)</f>
-        <v>-240</v>
-      </c>
-      <c r="K23" s="81">
+        <v>547.99999999999989</v>
+      </c>
+      <c r="K23" s="67">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="81">
+      <c r="L23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="81">
+      <c r="M23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="81">
+      <c r="N23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="81">
+      <c r="O23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="81">
+      <c r="P23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="91"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="79"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -8744,36 +8772,12 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -8797,16 +8801,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="F1" s="113" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="F1" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="113"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -8826,21 +8830,21 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="F2" s="112">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="F2" s="95">
         <v>43430</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="I2" s="92">
+      <c r="G2" s="95"/>
+      <c r="I2" s="112">
         <f>SUM(I7:I30)</f>
-        <v>234.99999999999989</v>
-      </c>
-      <c r="J2" s="94" t="str">
+        <v>1022.9999999999998</v>
+      </c>
+      <c r="J2" s="106" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
-        <v>3:55</v>
+        <v>17:03</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -8855,14 +8859,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="95"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -8876,41 +8880,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -8925,23 +8929,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="114">
+      <c r="B7" s="97">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="115" t="str">
+      <c r="C7" s="69"/>
+      <c r="D7" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="105">
         <f>SUM(H7:H10)</f>
         <v>330</v>
       </c>
@@ -8949,11 +8953,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="96" t="str">
+      <c r="L7" s="108" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="96"/>
+      <c r="M7" s="108"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -9001,32 +9005,32 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="105" t="str">
+      <c r="B8" s="81"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I8" s="94"/>
+      <c r="I8" s="106"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="96" t="str">
+      <c r="L8" s="108" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v>SDS</v>
       </c>
-      <c r="M8" s="96"/>
+      <c r="M8" s="108"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
-        <v>-240</v>
+        <v>547.99999999999989</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -9071,29 +9075,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="105" t="str">
+      <c r="B9" s="81"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>89.999999999999915</v>
       </c>
-      <c r="I9" s="94"/>
+      <c r="I9" s="106"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="96" t="str">
+      <c r="L9" s="108" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="96"/>
+      <c r="M9" s="108"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9141,29 +9145,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="105" t="str">
+      <c r="B10" s="81"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="I10" s="94"/>
+      <c r="I10" s="106"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="96" t="str">
+      <c r="L10" s="108" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v>RTM</v>
       </c>
-      <c r="M10" s="96"/>
+      <c r="M10" s="108"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>384.99999999999994</v>
@@ -9211,23 +9215,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="106">
+      <c r="B11" s="100">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="105" t="str">
+      <c r="C11" s="70"/>
+      <c r="D11" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>45</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="106">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>144.99999999999989</v>
       </c>
@@ -9235,11 +9239,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="99" t="str">
+      <c r="L11" s="111" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="99"/>
+      <c r="M11" s="111"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9287,20 +9291,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="105" t="str">
+      <c r="B12" s="81"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>99.999999999999886</v>
       </c>
-      <c r="I12" s="94"/>
+      <c r="I12" s="106"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -9349,27 +9353,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="105" t="str">
+      <c r="B13" s="81"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="94"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="109" t="s">
+      <c r="K13" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -9413,25 +9417,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="105" t="str">
+      <c r="B14" s="81"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="94"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -9475,37 +9479,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="106">
+      <c r="B15" s="100">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="105" t="str">
+      <c r="C15" s="70"/>
+      <c r="D15" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>69.999999999999915</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="106">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>320</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="101" t="s">
+      <c r="K15" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100" t="s">
+      <c r="L15" s="110"/>
+      <c r="M15" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -9551,40 +9555,40 @@
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="105" t="str">
+      <c r="B16" s="81"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Getting branchname into tool</v>
       </c>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I16" s="94"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="97" t="str">
+      <c r="K16" s="114" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="96" t="str">
+      <c r="L16" s="82"/>
+      <c r="M16" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="94">
+      <c r="R16" s="106">
         <f>SUM(Q16:Q19)</f>
         <v>90</v>
       </c>
@@ -9627,37 +9631,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="105" t="str">
+      <c r="B17" s="81"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="I17" s="94"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="97"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="96" t="str">
+      <c r="K17" s="114"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="94"/>
+      <c r="R17" s="106"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -9697,37 +9701,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="105" t="str">
+      <c r="B18" s="81"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="94"/>
+      <c r="I18" s="106"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="97"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="96" t="str">
+      <c r="K18" s="114"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="94"/>
+      <c r="R18" s="106"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -9767,43 +9771,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="106">
+      <c r="B19" s="100">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="105" t="str">
+      <c r="C19" s="70"/>
+      <c r="D19" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="94">
+      <c r="I19" s="106">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="97"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="96" t="str">
+      <c r="K19" s="114"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="94"/>
+      <c r="R19" s="106"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -9843,42 +9847,42 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="105" t="str">
+      <c r="B20" s="81"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="94"/>
+      <c r="I20" s="106"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="97" t="str">
+      <c r="K20" s="114" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="L20" s="77"/>
-      <c r="M20" s="96" t="str">
+      <c r="L20" s="82"/>
+      <c r="M20" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v>Decryption</v>
       </c>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
       <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v>320</v>
       </c>
-      <c r="R20" s="94">
+      <c r="R20" s="106">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
-        <v>-240</v>
+        <v>547.99999999999989</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -9919,37 +9923,37 @@
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="105" t="str">
+      <c r="B21" s="81"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="94"/>
+      <c r="I21" s="106"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="97"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="96" t="str">
+      <c r="K21" s="114"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
-        <v>-560</v>
-      </c>
-      <c r="R21" s="94"/>
+        <v>227.99999999999991</v>
+      </c>
+      <c r="R21" s="106"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -9989,37 +9993,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="105" t="str">
+      <c r="B22" s="81"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="94"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="97"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="96" t="str">
+      <c r="K22" s="114"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="94"/>
+      <c r="R22" s="106"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -10059,43 +10063,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="106">
+      <c r="B23" s="100">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="105" t="str">
+      <c r="C23" s="70"/>
+      <c r="D23" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>-560</v>
-      </c>
-      <c r="I23" s="94">
+        <v>227.99999999999991</v>
+      </c>
+      <c r="I23" s="106">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
-        <v>-560</v>
+        <v>227.99999999999991</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="96" t="str">
+      <c r="K23" s="114"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="94"/>
+      <c r="R23" s="106"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -10128,47 +10132,47 @@
       </c>
       <c r="AB23" s="33">
         <f t="shared" si="2"/>
-        <v>-560</v>
+        <v>227.99999999999991</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="105" t="str">
+      <c r="B24" s="81"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="94"/>
+      <c r="I24" s="106"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="97" t="str">
+      <c r="K24" s="114" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="77"/>
-      <c r="M24" s="96" t="str">
+      <c r="L24" s="82"/>
+      <c r="M24" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="94">
+      <c r="R24" s="106">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -10211,37 +10215,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="105" t="str">
+      <c r="B25" s="81"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="94"/>
+      <c r="I25" s="106"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="97"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="96" t="str">
+      <c r="K25" s="114"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="94"/>
+      <c r="R25" s="106"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -10281,37 +10285,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="105" t="str">
+      <c r="B26" s="81"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="94"/>
+      <c r="I26" s="106"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="97"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="96" t="str">
+      <c r="K26" s="114"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="94"/>
+      <c r="R26" s="106"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -10351,43 +10355,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="106">
+      <c r="B27" s="100">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="105" t="str">
+      <c r="C27" s="70"/>
+      <c r="D27" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="94">
+      <c r="I27" s="106">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="97"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="96" t="str">
+      <c r="K27" s="114"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="94"/>
+      <c r="R27" s="106"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -10427,40 +10431,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="105" t="str">
+      <c r="B28" s="81"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="94"/>
+      <c r="I28" s="106"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="97" t="str">
+      <c r="K28" s="114" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v>RTM</v>
       </c>
-      <c r="L28" s="77"/>
-      <c r="M28" s="96" t="str">
+      <c r="L28" s="82"/>
+      <c r="M28" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
       <c r="Q28" s="22">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v>354.99999999999989</v>
       </c>
-      <c r="R28" s="94">
+      <c r="R28" s="106">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>384.99999999999994</v>
       </c>
@@ -10503,37 +10507,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="105" t="str">
+      <c r="B29" s="81"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="94"/>
+      <c r="I29" s="106"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="97"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="96" t="str">
+      <c r="K29" s="114"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v>Getting branchname into tool</v>
       </c>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
       <c r="Q29" s="22">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="R29" s="94"/>
+      <c r="R29" s="106"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -10570,37 +10574,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="107"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="103" t="str">
+      <c r="B30" s="101"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="95"/>
+      <c r="I30" s="107"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="97"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="96" t="str">
+      <c r="K30" s="114"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="94"/>
+      <c r="R30" s="106"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -10638,42 +10642,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="97"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="96" t="str">
+      <c r="K31" s="114"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="94"/>
+      <c r="R31" s="106"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="97" t="str">
+      <c r="K32" s="114" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="77"/>
-      <c r="M32" s="96" t="str">
+      <c r="L32" s="82"/>
+      <c r="M32" s="108" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="94">
+      <c r="R32" s="106">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -10682,61 +10686,127 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="97"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="96" t="str">
+      <c r="K33" s="114"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="108" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="94"/>
+      <c r="R33" s="106"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="97"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="96" t="str">
+      <c r="K34" s="114"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="108" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="94"/>
+      <c r="R34" s="106"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="98"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="99" t="str">
+      <c r="K35" s="115"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="111" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="95"/>
+      <c r="R35" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K20:L23"/>
+    <mergeCell ref="K24:L27"/>
+    <mergeCell ref="K28:L31"/>
+    <mergeCell ref="K32:L35"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K16:L19"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="K13:N14"/>
     <mergeCell ref="A1:D3"/>
@@ -10753,72 +10823,6 @@
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K20:L23"/>
-    <mergeCell ref="K24:L27"/>
-    <mergeCell ref="K28:L31"/>
-    <mergeCell ref="K32:L35"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K16:L19"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shareena Anoop\Desktop\Project-Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswathy M S\Desktop\Project-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -1819,7 +1819,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>227.99999999999991</c:v>
+                  <c:v>-597.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1902,11 +1902,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1056345184"/>
-        <c:axId val="1056340832"/>
+        <c:axId val="1451327360"/>
+        <c:axId val="1451321376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1056345184"/>
+        <c:axId val="1451327360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,7 +1927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056340832"/>
+        <c:crossAx val="1451321376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1935,7 +1935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1056340832"/>
+        <c:axId val="1451321376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +1956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056345184"/>
+        <c:crossAx val="1451327360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2042,7 +2042,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.99999999999991</c:v>
+                  <c:v>-597.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2592,11 +2592,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="1056343008"/>
-        <c:axId val="1056341376"/>
+        <c:axId val="1451322464"/>
+        <c:axId val="1451329536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1056343008"/>
+        <c:axId val="1451322464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,7 +2616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056341376"/>
+        <c:crossAx val="1451329536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2624,7 +2624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1056341376"/>
+        <c:axId val="1451329536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,7 +2645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056343008"/>
+        <c:crossAx val="1451322464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2752,7 +2752,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>227.99999999999991</c:v>
+                  <c:v>-597.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2958,7 +2958,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.99999999999991</c:v>
+                  <c:v>-597.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3503,11 +3503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1056345728"/>
-        <c:axId val="1056346272"/>
+        <c:axId val="1451317568"/>
+        <c:axId val="1451328992"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1056345728"/>
+        <c:axId val="1451317568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3527,7 +3527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056346272"/>
+        <c:crossAx val="1451328992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3535,7 +3535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1056346272"/>
+        <c:axId val="1451328992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3556,7 +3556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056345728"/>
+        <c:crossAx val="1451317568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3757,7 +3757,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>547.99999999999989</c:v>
+                  <c:v>-277.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3982,7 +3982,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>547.99999999999989</c:v>
+                  <c:v>-277.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4226,7 +4226,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>227.99999999999991</c:v>
+                  <c:v>-597.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4411,11 +4411,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1056341920"/>
-        <c:axId val="1056346816"/>
+        <c:axId val="1451323008"/>
+        <c:axId val="1451324640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1056341920"/>
+        <c:axId val="1451323008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,7 +4435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056346816"/>
+        <c:crossAx val="1451324640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4443,7 +4443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1056346816"/>
+        <c:axId val="1451324640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4463,7 +4463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056341920"/>
+        <c:crossAx val="1451323008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4606,7 +4606,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>227.99999999999991</c:v>
+                  <c:v>-597.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4625,11 +4625,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="1056344640"/>
-        <c:axId val="1056332128"/>
+        <c:axId val="1451323552"/>
+        <c:axId val="1451318656"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1056344640"/>
+        <c:axId val="1451323552"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4649,14 +4649,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056332128"/>
+        <c:crossAx val="1451318656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1056332128"/>
+        <c:axId val="1451318656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4677,7 +4677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056344640"/>
+        <c:crossAx val="1451323552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5010,8 +5010,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q25" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q27" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q27"/>
   <tableColumns count="17">
     <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -6196,10 +6196,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7749,11 +7749,11 @@
       </c>
       <c r="N24" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>227.99999999999991</v>
-      </c>
-      <c r="O24" s="64" t="str">
+        <v>-597.00000000000011</v>
+      </c>
+      <c r="O24" s="64" t="e">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>03:48</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P24" s="60" t="str">
         <f>TaskTimings[PRJ]</f>
@@ -7814,11 +7814,11 @@
       </c>
       <c r="N25" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>204.99999999999991</v>
-      </c>
-      <c r="O25" s="64" t="str">
+        <v>-620.00000000000011</v>
+      </c>
+      <c r="O25" s="64" t="e">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>03:25</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P25" s="60" t="str">
         <f>TaskTimings[PRJ]</f>
@@ -7829,12 +7829,138 @@
         <v>Entering table details into excel sheet</v>
       </c>
     </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="59">
+        <f>IFERROR($A25+1,1)</f>
+        <v>22</v>
+      </c>
+      <c r="B26" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>SDS</v>
+      </c>
+      <c r="C26" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Request and get Response from  web</v>
+      </c>
+      <c r="D26" s="60" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Aswathy/43434</v>
+      </c>
+      <c r="E26" s="60">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="60" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Aswathy/43434/2</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="62">
+        <v>43434</v>
+      </c>
+      <c r="J26" s="63">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>-825</v>
+      </c>
+      <c r="M26" s="64" t="e">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N26" s="64">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>-597.00000000000011</v>
+      </c>
+      <c r="O26" s="64" t="e">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P26" s="60" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>SDS</v>
+      </c>
+      <c r="Q26" s="60" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Request and get Response from  web</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="59">
+        <f>IFERROR($A26+1,1)</f>
+        <v>23</v>
+      </c>
+      <c r="B27" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TKT</v>
+      </c>
+      <c r="C27" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Entering table details into excel sheet</v>
+      </c>
+      <c r="D27" s="60" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Shareena/43434</v>
+      </c>
+      <c r="E27" s="60">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>2</v>
+      </c>
+      <c r="F27" s="60" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Shareena/43434/2</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="62">
+        <v>43434</v>
+      </c>
+      <c r="J27" s="63">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>-825</v>
+      </c>
+      <c r="M27" s="64" t="e">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N27" s="64">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>-620.00000000000011</v>
+      </c>
+      <c r="O27" s="64" t="e">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P27" s="60" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>TKT</v>
+      </c>
+      <c r="Q27" s="60" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Entering table details into excel sheet</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H27">
       <formula1>EmployeeNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G27">
       <formula1>TSKPRJCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -8039,12 +8165,12 @@
       <c r="F8" s="84"/>
       <c r="G8" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
-        <v>227.99999999999991</v>
+        <v>-597.00000000000011</v>
       </c>
       <c r="H8" s="83"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
-        <v>227.99999999999991</v>
+        <v>-597.00000000000011</v>
       </c>
       <c r="K8" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],K$5)</f>
@@ -8678,12 +8804,12 @@
       <c r="F23" s="76"/>
       <c r="G23" s="74">
         <f>SUM(G7:H21)</f>
-        <v>547.99999999999989</v>
+        <v>-277.00000000000011</v>
       </c>
       <c r="H23" s="76"/>
       <c r="J23" s="67">
         <f>SUM(J7:J21)</f>
-        <v>547.99999999999989</v>
+        <v>-277.00000000000011</v>
       </c>
       <c r="K23" s="67">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
@@ -8840,11 +8966,11 @@
       <c r="G2" s="95"/>
       <c r="I2" s="112">
         <f>SUM(I7:I30)</f>
-        <v>1022.9999999999998</v>
+        <v>197.99999999999977</v>
       </c>
       <c r="J2" s="106" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
-        <v>17:03</v>
+        <v>3:18</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -9030,7 +9156,7 @@
       <c r="M8" s="108"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
-        <v>547.99999999999989</v>
+        <v>-277.00000000000011</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -9882,7 +10008,7 @@
       </c>
       <c r="R20" s="106">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
-        <v>547.99999999999989</v>
+        <v>-277.00000000000011</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -9951,7 +10077,7 @@
       <c r="P21" s="108"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
-        <v>227.99999999999991</v>
+        <v>-597.00000000000011</v>
       </c>
       <c r="R21" s="106"/>
       <c r="S21" s="25"/>
@@ -10081,7 +10207,7 @@
       </c>
       <c r="I23" s="106">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
-        <v>227.99999999999991</v>
+        <v>-597.00000000000011</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
@@ -10132,7 +10258,7 @@
       </c>
       <c r="AB23" s="33">
         <f t="shared" si="2"/>
-        <v>227.99999999999991</v>
+        <v>-597.00000000000011</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -10143,14 +10269,14 @@
       <c r="C24" s="70"/>
       <c r="D24" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
-        <v/>
+        <v>SDS/Request and get Response from  web</v>
       </c>
       <c r="E24" s="99"/>
       <c r="F24" s="99"/>
       <c r="G24" s="99"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>0</v>
+        <v>-825</v>
       </c>
       <c r="I24" s="106"/>
       <c r="J24" s="28">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswathy M S\Desktop\Project-Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shareena Anoop\Desktop\Project-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>RTM/Solving the issue of repeating icon in tray</t>
+  </si>
+  <si>
+    <t>TEEBPD/Inhouse Testing</t>
   </si>
 </sst>
 </file>
@@ -823,11 +826,29 @@
     <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -835,10 +856,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -862,41 +901,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -918,57 +972,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1902,11 +1905,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1451327360"/>
-        <c:axId val="1451321376"/>
+        <c:axId val="1259982352"/>
+        <c:axId val="1259980720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1451327360"/>
+        <c:axId val="1259982352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,7 +1930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1451321376"/>
+        <c:crossAx val="1259980720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1935,7 +1938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1451321376"/>
+        <c:axId val="1259980720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +1959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1451327360"/>
+        <c:crossAx val="1259982352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2592,11 +2595,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="1451322464"/>
-        <c:axId val="1451329536"/>
+        <c:axId val="1259975280"/>
+        <c:axId val="1259981264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1451322464"/>
+        <c:axId val="1259975280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,7 +2619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1451329536"/>
+        <c:crossAx val="1259981264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2624,7 +2627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1451329536"/>
+        <c:axId val="1259981264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,7 +2648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1451322464"/>
+        <c:crossAx val="1259975280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3503,11 +3506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1451317568"/>
-        <c:axId val="1451328992"/>
+        <c:axId val="1259978544"/>
+        <c:axId val="1259976912"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1451317568"/>
+        <c:axId val="1259978544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3527,7 +3530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1451328992"/>
+        <c:crossAx val="1259976912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3535,7 +3538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1451328992"/>
+        <c:axId val="1259976912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3556,7 +3559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1451317568"/>
+        <c:crossAx val="1259978544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4411,11 +4414,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1451323008"/>
-        <c:axId val="1451324640"/>
+        <c:axId val="1259977456"/>
+        <c:axId val="1259978000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1451323008"/>
+        <c:axId val="1259977456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,7 +4438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1451324640"/>
+        <c:crossAx val="1259978000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4443,7 +4446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1451324640"/>
+        <c:axId val="1259978000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4463,7 +4466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1451323008"/>
+        <c:crossAx val="1259977456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4625,11 +4628,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="1451323552"/>
-        <c:axId val="1451318656"/>
+        <c:axId val="1259979632"/>
+        <c:axId val="1259981808"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1451323552"/>
+        <c:axId val="1259979632"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4649,14 +4652,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1451318656"/>
+        <c:crossAx val="1259981808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1451318656"/>
+        <c:axId val="1259981808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4677,7 +4680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1451323552"/>
+        <c:crossAx val="1259979632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5010,8 +5013,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q27" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q28" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q28"/>
   <tableColumns count="17">
     <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -6196,10 +6199,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7814,7 +7817,7 @@
       </c>
       <c r="N25" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-620.00000000000011</v>
+        <v>-623</v>
       </c>
       <c r="O25" s="64" t="e">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
@@ -7929,18 +7932,20 @@
       <c r="J27" s="63">
         <v>0.57291666666666663</v>
       </c>
-      <c r="K27" s="64"/>
+      <c r="K27" s="66">
+        <v>0.65972222222222221</v>
+      </c>
       <c r="L27" s="64">
         <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>-825</v>
-      </c>
-      <c r="M27" s="64" t="e">
+        <v>125.00000000000003</v>
+      </c>
+      <c r="M27" s="64" t="str">
         <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>02:05</v>
       </c>
       <c r="N27" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-620.00000000000011</v>
+        <v>-623</v>
       </c>
       <c r="O27" s="64" t="e">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
@@ -7955,12 +7960,75 @@
         <v>Entering table details into excel sheet</v>
       </c>
     </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="59">
+        <f>IFERROR($A27+1,1)</f>
+        <v>24</v>
+      </c>
+      <c r="B28" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</f>
+        <v>TEEBPD</v>
+      </c>
+      <c r="C28" s="60" t="str">
+        <f>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</f>
+        <v>Inhouse Testing</v>
+      </c>
+      <c r="D28" s="60" t="str">
+        <f>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</f>
+        <v>Shareena/43434</v>
+      </c>
+      <c r="E28" s="60">
+        <f>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</f>
+        <v>3</v>
+      </c>
+      <c r="F28" s="60" t="str">
+        <f>TaskTimings[[#This Row],[EmployeeDate]]&amp;"/"&amp;TaskTimings[[#This Row],[EmployeeDateSeq]]</f>
+        <v>Shareena/43434/3</v>
+      </c>
+      <c r="G28" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="62">
+        <v>43434</v>
+      </c>
+      <c r="J28" s="63">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64">
+        <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
+        <v>-953</v>
+      </c>
+      <c r="M28" s="64" t="e">
+        <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N28" s="64">
+        <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
+        <v>-623</v>
+      </c>
+      <c r="O28" s="64" t="e">
+        <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P28" s="60" t="str">
+        <f>TaskTimings[PRJ]</f>
+        <v>TEEBPD</v>
+      </c>
+      <c r="Q28" s="60" t="str">
+        <f>TaskTimings[TSK]</f>
+        <v>Inhouse Testing</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H28">
       <formula1>EmployeeNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G28">
       <formula1>TSKPRJCodes</formula1>
     </dataValidation>
   </dataValidations>
@@ -7986,42 +8054,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="J2" s="73" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="J2" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="str">
+      <c r="A4" s="69" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="69"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -8045,83 +8113,83 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="69" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="J5" s="80" t="str">
+      <c r="H5" s="79"/>
+      <c r="J5" s="72" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="69" t="str">
+      <c r="K5" s="75" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="69" t="str">
+      <c r="L5" s="75" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="69" t="str">
+      <c r="M5" s="75" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="69" t="str">
+      <c r="N5" s="75" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="69" t="str">
+      <c r="O5" s="75" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="71" t="str">
+      <c r="P5" s="79" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="72"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="72"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="80"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="80"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="84" t="str">
+      <c r="B7" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Decryption</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="82">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>320</v>
       </c>
-      <c r="H7" s="83"/>
+      <c r="H7" s="78"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>320</v>
@@ -8155,19 +8223,19 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="84" t="str">
+      <c r="B8" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="82">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
         <v>-597.00000000000011</v>
       </c>
-      <c r="H8" s="83"/>
+      <c r="H8" s="78"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>-597.00000000000011</v>
@@ -8201,19 +8269,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="84" t="str">
+      <c r="B9" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="82">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="83"/>
+      <c r="H9" s="78"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8247,19 +8315,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="84" t="str">
+      <c r="B10" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="82">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="83"/>
+      <c r="H10" s="78"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8293,19 +8361,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="84" t="str">
+      <c r="B11" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="82">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="83"/>
+      <c r="H11" s="78"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8339,19 +8407,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="84" t="str">
+      <c r="B12" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="82">
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="83"/>
+      <c r="H12" s="78"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8385,19 +8453,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="84" t="str">
+      <c r="B13" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="82">
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="83"/>
+      <c r="H13" s="78"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8431,19 +8499,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="84" t="str">
+      <c r="B14" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="82">
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="83"/>
+      <c r="H14" s="78"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8477,19 +8545,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="84" t="str">
+      <c r="B15" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="82">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="83"/>
+      <c r="H15" s="78"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8523,19 +8591,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="str">
+      <c r="B16" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="82">
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="83"/>
+      <c r="H16" s="78"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8569,19 +8637,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="84" t="str">
+      <c r="B17" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="82">
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="83"/>
+      <c r="H17" s="78"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8615,19 +8683,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="84" t="str">
+      <c r="B18" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="82">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="83"/>
+      <c r="H18" s="78"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8661,19 +8729,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="84" t="str">
+      <c r="B19" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="82">
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="83"/>
+      <c r="H19" s="78"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8707,19 +8775,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="84" t="str">
+      <c r="B20" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="82">
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="83"/>
+      <c r="H20" s="78"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8753,19 +8821,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="87" t="str">
+      <c r="B21" s="74" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="85">
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="83">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="86"/>
+      <c r="H21" s="84"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8797,91 +8865,67 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="74">
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="86">
         <f>SUM(G7:H21)</f>
         <v>-277.00000000000011</v>
       </c>
-      <c r="H23" s="76"/>
-      <c r="J23" s="67">
+      <c r="H23" s="88"/>
+      <c r="J23" s="81">
         <f>SUM(J7:J21)</f>
         <v>-277.00000000000011</v>
       </c>
-      <c r="K23" s="67">
+      <c r="K23" s="81">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="67">
+      <c r="L23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="67">
+      <c r="M23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="67">
+      <c r="N23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="67">
+      <c r="O23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="67">
+      <c r="P23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="79"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="91"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -8898,12 +8942,36 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -8927,16 +8995,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="F1" s="96" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="F1" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="96"/>
+      <c r="G1" s="113"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -8956,19 +9024,19 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="F2" s="95">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="F2" s="112">
         <v>43430</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="I2" s="112">
+      <c r="G2" s="112"/>
+      <c r="I2" s="92">
         <f>SUM(I7:I30)</f>
         <v>197.99999999999977</v>
       </c>
-      <c r="J2" s="106" t="str">
+      <c r="J2" s="94" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
         <v>3:18</v>
       </c>
@@ -8985,14 +9053,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="107"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -9006,41 +9074,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="103" t="s">
+      <c r="L6" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -9055,23 +9123,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="97">
+      <c r="B7" s="114">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="98" t="str">
+      <c r="C7" s="75"/>
+      <c r="D7" s="115" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="105">
+      <c r="I7" s="104">
         <f>SUM(H7:H10)</f>
         <v>330</v>
       </c>
@@ -9079,11 +9147,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="108" t="str">
+      <c r="L7" s="96" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="108"/>
+      <c r="M7" s="96"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -9131,29 +9199,29 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="99" t="str">
+      <c r="B8" s="73"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I8" s="106"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="108" t="str">
+      <c r="L8" s="96" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v>SDS</v>
       </c>
-      <c r="M8" s="108"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
         <v>-277.00000000000011</v>
@@ -9201,29 +9269,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="99" t="str">
+      <c r="B9" s="73"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>89.999999999999915</v>
       </c>
-      <c r="I9" s="106"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="108" t="str">
+      <c r="L9" s="96" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="108"/>
+      <c r="M9" s="96"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9271,29 +9339,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="99" t="str">
+      <c r="B10" s="73"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="I10" s="106"/>
+      <c r="I10" s="94"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="108" t="str">
+      <c r="L10" s="96" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v>RTM</v>
       </c>
-      <c r="M10" s="108"/>
+      <c r="M10" s="96"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>384.99999999999994</v>
@@ -9341,23 +9409,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="100">
+      <c r="B11" s="106">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="99" t="str">
+      <c r="C11" s="76"/>
+      <c r="D11" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>45</v>
       </c>
-      <c r="I11" s="106">
+      <c r="I11" s="94">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>144.99999999999989</v>
       </c>
@@ -9365,11 +9433,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="111" t="str">
+      <c r="L11" s="99" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="111"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9417,20 +9485,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="99" t="str">
+      <c r="B12" s="73"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>99.999999999999886</v>
       </c>
-      <c r="I12" s="106"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -9479,27 +9547,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="99" t="str">
+      <c r="B13" s="73"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="106"/>
+      <c r="I13" s="94"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="92" t="s">
+      <c r="K13" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -9543,25 +9611,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="99" t="str">
+      <c r="B14" s="73"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="106"/>
+      <c r="I14" s="94"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -9605,37 +9673,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="100">
+      <c r="B15" s="106">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="99" t="str">
+      <c r="C15" s="76"/>
+      <c r="D15" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>69.999999999999915</v>
       </c>
-      <c r="I15" s="106">
+      <c r="I15" s="94">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>320</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="109" t="s">
+      <c r="K15" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110" t="s">
+      <c r="L15" s="100"/>
+      <c r="M15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -9681,40 +9749,40 @@
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="99" t="str">
+      <c r="B16" s="73"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Getting branchname into tool</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I16" s="106"/>
+      <c r="I16" s="94"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="114" t="str">
+      <c r="K16" s="97" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="108" t="str">
+      <c r="L16" s="77"/>
+      <c r="M16" s="96" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="106">
+      <c r="R16" s="94">
         <f>SUM(Q16:Q19)</f>
         <v>90</v>
       </c>
@@ -9757,37 +9825,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="99" t="str">
+      <c r="B17" s="73"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="I17" s="106"/>
+      <c r="I17" s="94"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="114"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="108" t="str">
+      <c r="K17" s="97"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="96" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="106"/>
+      <c r="R17" s="94"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -9827,37 +9895,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="99" t="str">
+      <c r="B18" s="73"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="106"/>
+      <c r="I18" s="94"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="114"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="108" t="str">
+      <c r="K18" s="97"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="96" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="106"/>
+      <c r="R18" s="94"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -9897,43 +9965,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="100">
+      <c r="B19" s="106">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="99" t="str">
+      <c r="C19" s="76"/>
+      <c r="D19" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="106">
+      <c r="I19" s="94">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="114"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="108" t="str">
+      <c r="K19" s="97"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="96" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="106"/>
+      <c r="R19" s="94"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -9973,40 +10041,40 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="99" t="str">
+      <c r="B20" s="73"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="106"/>
+      <c r="I20" s="94"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="114" t="str">
+      <c r="K20" s="97" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="L20" s="82"/>
-      <c r="M20" s="108" t="str">
+      <c r="L20" s="77"/>
+      <c r="M20" s="96" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v>Decryption</v>
       </c>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
       <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v>320</v>
       </c>
-      <c r="R20" s="106">
+      <c r="R20" s="94">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
         <v>-277.00000000000011</v>
       </c>
@@ -10049,37 +10117,37 @@
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="99" t="str">
+      <c r="B21" s="73"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="106"/>
+      <c r="I21" s="94"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="114"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="108" t="str">
+      <c r="K21" s="97"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="96" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
         <v>-597.00000000000011</v>
       </c>
-      <c r="R21" s="106"/>
+      <c r="R21" s="94"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -10119,37 +10187,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="99" t="str">
+      <c r="B22" s="73"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="106"/>
+      <c r="I22" s="94"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="114"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="108" t="str">
+      <c r="K22" s="97"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="96" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="106"/>
+      <c r="R22" s="94"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -10189,43 +10257,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="100">
+      <c r="B23" s="106">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="99" t="str">
+      <c r="C23" s="76"/>
+      <c r="D23" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>227.99999999999991</v>
       </c>
-      <c r="I23" s="106">
+      <c r="I23" s="94">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>-597.00000000000011</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="114"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="108" t="str">
+      <c r="K23" s="97"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="96" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="106"/>
+      <c r="R23" s="94"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -10265,40 +10333,40 @@
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="99" t="str">
+      <c r="B24" s="73"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>-825</v>
       </c>
-      <c r="I24" s="106"/>
+      <c r="I24" s="94"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="114" t="str">
+      <c r="K24" s="97" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="82"/>
-      <c r="M24" s="108" t="str">
+      <c r="L24" s="77"/>
+      <c r="M24" s="96" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="106">
+      <c r="R24" s="94">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -10341,37 +10409,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="99" t="str">
+      <c r="B25" s="73"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="106"/>
+      <c r="I25" s="94"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="114"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="108" t="str">
+      <c r="K25" s="97"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="96" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="106"/>
+      <c r="R25" s="94"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -10411,37 +10479,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="99" t="str">
+      <c r="B26" s="73"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="106"/>
+      <c r="I26" s="94"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="114"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="108" t="str">
+      <c r="K26" s="97"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="96" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="108"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="108"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="106"/>
+      <c r="R26" s="94"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -10481,43 +10549,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="100">
+      <c r="B27" s="106">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="99" t="str">
+      <c r="C27" s="76"/>
+      <c r="D27" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="106">
+      <c r="I27" s="94">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="114"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="108" t="str">
+      <c r="K27" s="97"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="96" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="106"/>
+      <c r="R27" s="94"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -10557,40 +10625,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="99" t="str">
+      <c r="B28" s="73"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="106"/>
+      <c r="I28" s="94"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="114" t="str">
+      <c r="K28" s="97" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v>RTM</v>
       </c>
-      <c r="L28" s="82"/>
-      <c r="M28" s="108" t="str">
+      <c r="L28" s="77"/>
+      <c r="M28" s="96" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="108"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
       <c r="Q28" s="22">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v>354.99999999999989</v>
       </c>
-      <c r="R28" s="106">
+      <c r="R28" s="94">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>384.99999999999994</v>
       </c>
@@ -10633,37 +10701,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="99" t="str">
+      <c r="B29" s="73"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="106"/>
+      <c r="I29" s="94"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="114"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="108" t="str">
+      <c r="K29" s="97"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="96" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v>Getting branchname into tool</v>
       </c>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
       <c r="Q29" s="22">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="R29" s="106"/>
+      <c r="R29" s="94"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -10700,37 +10768,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="104" t="str">
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="103" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="107"/>
+      <c r="I30" s="95"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="114"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="108" t="str">
+      <c r="K30" s="97"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="96" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="106"/>
+      <c r="R30" s="94"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -10768,42 +10836,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="114"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="108" t="str">
+      <c r="K31" s="97"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="96" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="108"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="106"/>
+      <c r="R31" s="94"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="114" t="str">
+      <c r="K32" s="97" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="82"/>
-      <c r="M32" s="108" t="str">
+      <c r="L32" s="77"/>
+      <c r="M32" s="96" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="106">
+      <c r="R32" s="94">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -10812,61 +10880,127 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="114"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="108" t="str">
+      <c r="K33" s="97"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="96" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="108"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="106"/>
+      <c r="R33" s="94"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="114"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="108" t="str">
+      <c r="K34" s="97"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="96" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="108"/>
-      <c r="O34" s="108"/>
-      <c r="P34" s="108"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="106"/>
+      <c r="R34" s="94"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="115"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="111" t="str">
+      <c r="K35" s="98"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="99" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="111"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="107"/>
+      <c r="R35" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="K13:N14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="M32:P32"/>
@@ -10883,72 +11017,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="K13:N14"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -826,29 +826,11 @@
     <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,28 +838,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -901,56 +865,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -972,6 +921,57 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1905,11 +1905,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1259982352"/>
-        <c:axId val="1259980720"/>
+        <c:axId val="1056343552"/>
+        <c:axId val="1056344640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1259982352"/>
+        <c:axId val="1056343552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +1930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259980720"/>
+        <c:crossAx val="1056344640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1938,7 +1938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1259980720"/>
+        <c:axId val="1056344640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,7 +1959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259982352"/>
+        <c:crossAx val="1056343552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2595,11 +2595,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="1259975280"/>
-        <c:axId val="1259981264"/>
+        <c:axId val="1056344096"/>
+        <c:axId val="1056345184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1259975280"/>
+        <c:axId val="1056344096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,7 +2619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259981264"/>
+        <c:crossAx val="1056345184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2627,7 +2627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1259981264"/>
+        <c:axId val="1056345184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,7 +2648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259975280"/>
+        <c:crossAx val="1056344096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3506,11 +3506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1259978544"/>
-        <c:axId val="1259976912"/>
+        <c:axId val="1056335392"/>
+        <c:axId val="1056341376"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1259978544"/>
+        <c:axId val="1056335392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259976912"/>
+        <c:crossAx val="1056341376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3538,7 +3538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1259976912"/>
+        <c:axId val="1056341376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3559,7 +3559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259978544"/>
+        <c:crossAx val="1056335392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4414,11 +4414,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1259977456"/>
-        <c:axId val="1259978000"/>
+        <c:axId val="1056334848"/>
+        <c:axId val="1056335936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1259977456"/>
+        <c:axId val="1056334848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4438,7 +4438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259978000"/>
+        <c:crossAx val="1056335936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4446,7 +4446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1259978000"/>
+        <c:axId val="1056335936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4466,7 +4466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259977456"/>
+        <c:crossAx val="1056334848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4628,11 +4628,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="1259979632"/>
-        <c:axId val="1259981808"/>
+        <c:axId val="1056337568"/>
+        <c:axId val="1056346272"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1259979632"/>
+        <c:axId val="1056337568"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4652,14 +4652,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259981808"/>
+        <c:crossAx val="1056346272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1259981808"/>
+        <c:axId val="1056346272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4680,7 +4680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259979632"/>
+        <c:crossAx val="1056337568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6202,7 +6202,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7817,11 +7817,11 @@
       </c>
       <c r="N25" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-623</v>
-      </c>
-      <c r="O25" s="64" t="e">
+        <v>389.99999999999989</v>
+      </c>
+      <c r="O25" s="64" t="str">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>06:30</v>
       </c>
       <c r="P25" s="60" t="str">
         <f>TaskTimings[PRJ]</f>
@@ -7945,11 +7945,11 @@
       </c>
       <c r="N27" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-623</v>
-      </c>
-      <c r="O27" s="64" t="e">
+        <v>389.99999999999989</v>
+      </c>
+      <c r="O27" s="64" t="str">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>06:30</v>
       </c>
       <c r="P27" s="60" t="str">
         <f>TaskTimings[PRJ]</f>
@@ -7997,22 +7997,24 @@
       <c r="J28" s="63">
         <v>0.66180555555555554</v>
       </c>
-      <c r="K28" s="64"/>
+      <c r="K28" s="66">
+        <v>0.70347222222222217</v>
+      </c>
       <c r="L28" s="64">
         <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>-953</v>
-      </c>
-      <c r="M28" s="64" t="e">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="M28" s="64" t="str">
         <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>01:00</v>
       </c>
       <c r="N28" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-623</v>
-      </c>
-      <c r="O28" s="64" t="e">
+        <v>389.99999999999989</v>
+      </c>
+      <c r="O28" s="64" t="str">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>06:30</v>
       </c>
       <c r="P28" s="60" t="str">
         <f>TaskTimings[PRJ]</f>
@@ -8054,42 +8056,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="J2" s="85" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="J2" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="str">
+      <c r="A4" s="89" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="89"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -8113,83 +8115,83 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="J5" s="72" t="str">
+      <c r="H5" s="71"/>
+      <c r="J5" s="80" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="75" t="str">
+      <c r="K5" s="69" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="75" t="str">
+      <c r="L5" s="69" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="75" t="str">
+      <c r="M5" s="69" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="75" t="str">
+      <c r="N5" s="69" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="75" t="str">
+      <c r="O5" s="69" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="79" t="str">
+      <c r="P5" s="71" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="80"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="80"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="72"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="str">
+      <c r="B7" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Decryption</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="77">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>320</v>
       </c>
-      <c r="H7" s="78"/>
+      <c r="H7" s="83"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>320</v>
@@ -8223,19 +8225,19 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="68" t="str">
+      <c r="B8" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="77">
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
         <v>-597.00000000000011</v>
       </c>
-      <c r="H8" s="78"/>
+      <c r="H8" s="83"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
         <v>-597.00000000000011</v>
@@ -8269,19 +8271,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="68" t="str">
+      <c r="B9" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="77">
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="78"/>
+      <c r="H9" s="83"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8315,19 +8317,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="68" t="str">
+      <c r="B10" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="77">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="78"/>
+      <c r="H10" s="83"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8361,19 +8363,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="68" t="str">
+      <c r="B11" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="77">
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="78"/>
+      <c r="H11" s="83"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8407,19 +8409,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="68" t="str">
+      <c r="B12" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="77">
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="78"/>
+      <c r="H12" s="83"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8453,19 +8455,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="68" t="str">
+      <c r="B13" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="77">
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="78"/>
+      <c r="H13" s="83"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8499,19 +8501,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="68" t="str">
+      <c r="B14" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="77">
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="78"/>
+      <c r="H14" s="83"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8545,19 +8547,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="68" t="str">
+      <c r="B15" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="77">
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="78"/>
+      <c r="H15" s="83"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8591,19 +8593,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="68" t="str">
+      <c r="B16" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="77">
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="78"/>
+      <c r="H16" s="83"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8637,19 +8639,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="68" t="str">
+      <c r="B17" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="77">
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="78"/>
+      <c r="H17" s="83"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8683,19 +8685,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="68" t="str">
+      <c r="B18" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="77">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="78"/>
+      <c r="H18" s="83"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8729,19 +8731,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="68" t="str">
+      <c r="B19" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="77">
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="78"/>
+      <c r="H19" s="83"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8775,19 +8777,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="68" t="str">
+      <c r="B20" s="84" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="77">
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="82">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="78"/>
+      <c r="H20" s="83"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8821,19 +8823,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="74" t="str">
+      <c r="B21" s="87" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="83">
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="85">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="84"/>
+      <c r="H21" s="86"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8865,67 +8867,91 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="86">
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="74">
         <f>SUM(G7:H21)</f>
         <v>-277.00000000000011</v>
       </c>
-      <c r="H23" s="88"/>
-      <c r="J23" s="81">
+      <c r="H23" s="76"/>
+      <c r="J23" s="67">
         <f>SUM(J7:J21)</f>
         <v>-277.00000000000011</v>
       </c>
-      <c r="K23" s="81">
+      <c r="K23" s="67">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="81">
+      <c r="L23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="81">
+      <c r="M23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="81">
+      <c r="N23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="81">
+      <c r="O23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="81">
+      <c r="P23" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="91"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="79"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -8942,36 +8968,12 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -8995,16 +8997,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="F1" s="113" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="F1" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="113"/>
+      <c r="G1" s="96"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -9024,19 +9026,19 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="F2" s="112">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="F2" s="95">
         <v>43430</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="I2" s="92">
+      <c r="G2" s="95"/>
+      <c r="I2" s="112">
         <f>SUM(I7:I30)</f>
         <v>197.99999999999977</v>
       </c>
-      <c r="J2" s="94" t="str">
+      <c r="J2" s="106" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
         <v>3:18</v>
       </c>
@@ -9053,14 +9055,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="95"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -9074,41 +9076,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="102"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -9123,23 +9125,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="114">
+      <c r="B7" s="97">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="115" t="str">
+      <c r="C7" s="69"/>
+      <c r="D7" s="98" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="105">
         <f>SUM(H7:H10)</f>
         <v>330</v>
       </c>
@@ -9147,11 +9149,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="96" t="str">
+      <c r="L7" s="108" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="96"/>
+      <c r="M7" s="108"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -9199,29 +9201,29 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="105" t="str">
+      <c r="B8" s="81"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I8" s="94"/>
+      <c r="I8" s="106"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="96" t="str">
+      <c r="L8" s="108" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v>SDS</v>
       </c>
-      <c r="M8" s="96"/>
+      <c r="M8" s="108"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
         <v>-277.00000000000011</v>
@@ -9269,29 +9271,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="105" t="str">
+      <c r="B9" s="81"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>89.999999999999915</v>
       </c>
-      <c r="I9" s="94"/>
+      <c r="I9" s="106"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="96" t="str">
+      <c r="L9" s="108" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="96"/>
+      <c r="M9" s="108"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9339,29 +9341,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="105" t="str">
+      <c r="B10" s="81"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="I10" s="94"/>
+      <c r="I10" s="106"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="96" t="str">
+      <c r="L10" s="108" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v>RTM</v>
       </c>
-      <c r="M10" s="96"/>
+      <c r="M10" s="108"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>384.99999999999994</v>
@@ -9409,23 +9411,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="106">
+      <c r="B11" s="100">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="105" t="str">
+      <c r="C11" s="70"/>
+      <c r="D11" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>45</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="106">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>144.99999999999989</v>
       </c>
@@ -9433,11 +9435,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="99" t="str">
+      <c r="L11" s="111" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="99"/>
+      <c r="M11" s="111"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9485,20 +9487,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="105" t="str">
+      <c r="B12" s="81"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>99.999999999999886</v>
       </c>
-      <c r="I12" s="94"/>
+      <c r="I12" s="106"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -9547,27 +9549,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="105" t="str">
+      <c r="B13" s="81"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="94"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="109" t="s">
+      <c r="K13" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -9611,25 +9613,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="105" t="str">
+      <c r="B14" s="81"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="94"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -9673,37 +9675,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="106">
+      <c r="B15" s="100">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="105" t="str">
+      <c r="C15" s="70"/>
+      <c r="D15" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>69.999999999999915</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="106">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>320</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="101" t="s">
+      <c r="K15" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100" t="s">
+      <c r="L15" s="110"/>
+      <c r="M15" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -9749,40 +9751,40 @@
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="105" t="str">
+      <c r="B16" s="81"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Getting branchname into tool</v>
       </c>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I16" s="94"/>
+      <c r="I16" s="106"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="97" t="str">
+      <c r="K16" s="114" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="96" t="str">
+      <c r="L16" s="82"/>
+      <c r="M16" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="94">
+      <c r="R16" s="106">
         <f>SUM(Q16:Q19)</f>
         <v>90</v>
       </c>
@@ -9825,37 +9827,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="105" t="str">
+      <c r="B17" s="81"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="I17" s="94"/>
+      <c r="I17" s="106"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="97"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="96" t="str">
+      <c r="K17" s="114"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="94"/>
+      <c r="R17" s="106"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -9895,37 +9897,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="105" t="str">
+      <c r="B18" s="81"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="94"/>
+      <c r="I18" s="106"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="97"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="96" t="str">
+      <c r="K18" s="114"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="94"/>
+      <c r="R18" s="106"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -9965,43 +9967,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="106">
+      <c r="B19" s="100">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="105" t="str">
+      <c r="C19" s="70"/>
+      <c r="D19" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="94">
+      <c r="I19" s="106">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="97"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="96" t="str">
+      <c r="K19" s="114"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="108" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="94"/>
+      <c r="R19" s="106"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -10041,40 +10043,40 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="105" t="str">
+      <c r="B20" s="81"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="94"/>
+      <c r="I20" s="106"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="97" t="str">
+      <c r="K20" s="114" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="L20" s="77"/>
-      <c r="M20" s="96" t="str">
+      <c r="L20" s="82"/>
+      <c r="M20" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v>Decryption</v>
       </c>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
       <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v>320</v>
       </c>
-      <c r="R20" s="94">
+      <c r="R20" s="106">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
         <v>-277.00000000000011</v>
       </c>
@@ -10117,37 +10119,37 @@
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="105" t="str">
+      <c r="B21" s="81"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="94"/>
+      <c r="I21" s="106"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="97"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="96" t="str">
+      <c r="K21" s="114"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
         <v>-597.00000000000011</v>
       </c>
-      <c r="R21" s="94"/>
+      <c r="R21" s="106"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -10187,37 +10189,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="105" t="str">
+      <c r="B22" s="81"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="94"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="97"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="96" t="str">
+      <c r="K22" s="114"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="94"/>
+      <c r="R22" s="106"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -10257,43 +10259,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="106">
+      <c r="B23" s="100">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="105" t="str">
+      <c r="C23" s="70"/>
+      <c r="D23" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>227.99999999999991</v>
       </c>
-      <c r="I23" s="94">
+      <c r="I23" s="106">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
         <v>-597.00000000000011</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="96" t="str">
+      <c r="K23" s="114"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="108" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="94"/>
+      <c r="R23" s="106"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -10333,40 +10335,40 @@
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="105" t="str">
+      <c r="B24" s="81"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>-825</v>
       </c>
-      <c r="I24" s="94"/>
+      <c r="I24" s="106"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="97" t="str">
+      <c r="K24" s="114" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="77"/>
-      <c r="M24" s="96" t="str">
+      <c r="L24" s="82"/>
+      <c r="M24" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="94">
+      <c r="R24" s="106">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -10409,37 +10411,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="105" t="str">
+      <c r="B25" s="81"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="94"/>
+      <c r="I25" s="106"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="97"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="96" t="str">
+      <c r="K25" s="114"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="94"/>
+      <c r="R25" s="106"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -10479,37 +10481,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="105" t="str">
+      <c r="B26" s="81"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="94"/>
+      <c r="I26" s="106"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="97"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="96" t="str">
+      <c r="K26" s="114"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="94"/>
+      <c r="R26" s="106"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -10549,43 +10551,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="106">
+      <c r="B27" s="100">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="105" t="str">
+      <c r="C27" s="70"/>
+      <c r="D27" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="94">
+      <c r="I27" s="106">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="97"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="96" t="str">
+      <c r="K27" s="114"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="108" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="94"/>
+      <c r="R27" s="106"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -10625,40 +10627,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="105" t="str">
+      <c r="B28" s="81"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="94"/>
+      <c r="I28" s="106"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="97" t="str">
+      <c r="K28" s="114" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v>RTM</v>
       </c>
-      <c r="L28" s="77"/>
-      <c r="M28" s="96" t="str">
+      <c r="L28" s="82"/>
+      <c r="M28" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
       <c r="Q28" s="22">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v>354.99999999999989</v>
       </c>
-      <c r="R28" s="94">
+      <c r="R28" s="106">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>384.99999999999994</v>
       </c>
@@ -10701,37 +10703,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="105" t="str">
+      <c r="B29" s="81"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="99" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="94"/>
+      <c r="I29" s="106"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="97"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="96" t="str">
+      <c r="K29" s="114"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v>Getting branchname into tool</v>
       </c>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
       <c r="Q29" s="22">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="R29" s="94"/>
+      <c r="R29" s="106"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -10768,37 +10770,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="107"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="103" t="str">
+      <c r="B30" s="101"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="104" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="95"/>
+      <c r="I30" s="107"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="97"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="96" t="str">
+      <c r="K30" s="114"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="94"/>
+      <c r="R30" s="106"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -10836,42 +10838,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="97"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="96" t="str">
+      <c r="K31" s="114"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="108" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="94"/>
+      <c r="R31" s="106"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="97" t="str">
+      <c r="K32" s="114" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="77"/>
-      <c r="M32" s="96" t="str">
+      <c r="L32" s="82"/>
+      <c r="M32" s="108" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="94">
+      <c r="R32" s="106">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -10880,61 +10882,127 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="97"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="96" t="str">
+      <c r="K33" s="114"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="108" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="94"/>
+      <c r="R33" s="106"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="97"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="96" t="str">
+      <c r="K34" s="114"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="108" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="94"/>
+      <c r="R34" s="106"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="98"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="99" t="str">
+      <c r="K35" s="115"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="111" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="95"/>
+      <c r="R35" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="K20:L23"/>
+    <mergeCell ref="K24:L27"/>
+    <mergeCell ref="K28:L31"/>
+    <mergeCell ref="K32:L35"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="K16:L19"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="K13:N14"/>
     <mergeCell ref="A1:D3"/>
@@ -10951,72 +11019,6 @@
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="K20:L23"/>
-    <mergeCell ref="K24:L27"/>
-    <mergeCell ref="K28:L31"/>
-    <mergeCell ref="K32:L35"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="K16:L19"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shareena Anoop\Desktop\Project-Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswathy M S\Desktop\Project-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -826,11 +826,29 @@
     <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,10 +856,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -865,41 +901,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -921,57 +972,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1822,7 +1822,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-597.00000000000011</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1905,11 +1905,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1056343552"/>
-        <c:axId val="1056344640"/>
+        <c:axId val="-284493184"/>
+        <c:axId val="-284494272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1056343552"/>
+        <c:axId val="-284493184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +1930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056344640"/>
+        <c:crossAx val="-284494272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1938,7 +1938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1056344640"/>
+        <c:axId val="-284494272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,7 +1959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056343552"/>
+        <c:crossAx val="-284493184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2045,7 +2045,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-597.00000000000011</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2595,11 +2595,11 @@
         </c:dLbls>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="1056344096"/>
-        <c:axId val="1056345184"/>
+        <c:axId val="-284499168"/>
+        <c:axId val="-284501344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1056344096"/>
+        <c:axId val="-284499168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,7 +2619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056345184"/>
+        <c:crossAx val="-284501344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2627,7 +2627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1056345184"/>
+        <c:axId val="-284501344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,7 +2648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056344096"/>
+        <c:crossAx val="-284499168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2755,7 +2755,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-597.00000000000011</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2961,7 +2961,7 @@
                   <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-597.00000000000011</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3506,11 +3506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1056335392"/>
-        <c:axId val="1056341376"/>
+        <c:axId val="-284489920"/>
+        <c:axId val="-284492096"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1056335392"/>
+        <c:axId val="-284489920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056341376"/>
+        <c:crossAx val="-284492096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3538,7 +3538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1056341376"/>
+        <c:axId val="-284492096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3559,7 +3559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056335392"/>
+        <c:crossAx val="-284489920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3760,7 +3760,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-277.00000000000011</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3985,7 +3985,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-277.00000000000011</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4229,7 +4229,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-597.00000000000011</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4414,11 +4414,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1056334848"/>
-        <c:axId val="1056335936"/>
+        <c:axId val="-284495360"/>
+        <c:axId val="-284493728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1056334848"/>
+        <c:axId val="-284495360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4438,7 +4438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056335936"/>
+        <c:crossAx val="-284493728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4446,7 +4446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1056335936"/>
+        <c:axId val="-284493728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4466,7 +4466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056334848"/>
+        <c:crossAx val="-284495360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4609,7 +4609,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-597.00000000000011</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4628,11 +4628,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="1056337568"/>
-        <c:axId val="1056346272"/>
+        <c:axId val="-284501888"/>
+        <c:axId val="-284498080"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1056337568"/>
+        <c:axId val="-284501888"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4652,14 +4652,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056346272"/>
+        <c:crossAx val="-284498080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1056346272"/>
+        <c:axId val="-284498080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4680,7 +4680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056337568"/>
+        <c:crossAx val="-284501888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6202,7 +6202,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7752,11 +7752,11 @@
       </c>
       <c r="N24" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-597.00000000000011</v>
-      </c>
-      <c r="O24" s="64" t="e">
+        <v>423</v>
+      </c>
+      <c r="O24" s="64" t="str">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>07:03</v>
       </c>
       <c r="P24" s="60" t="str">
         <f>TaskTimings[PRJ]</f>
@@ -7869,22 +7869,24 @@
       <c r="J26" s="63">
         <v>0.57291666666666663</v>
       </c>
-      <c r="K26" s="64"/>
+      <c r="K26" s="66">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="L26" s="64">
         <f>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</f>
-        <v>-825</v>
-      </c>
-      <c r="M26" s="64" t="e">
+        <v>195.00000000000011</v>
+      </c>
+      <c r="M26" s="64" t="str">
         <f>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>03:15</v>
       </c>
       <c r="N26" s="64">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</f>
-        <v>-597.00000000000011</v>
-      </c>
-      <c r="O26" s="64" t="e">
+        <v>423</v>
+      </c>
+      <c r="O26" s="64" t="str">
         <f>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</f>
-        <v>#VALUE!</v>
+        <v>07:03</v>
       </c>
       <c r="P26" s="60" t="str">
         <f>TaskTimings[PRJ]</f>
@@ -8056,42 +8058,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="J2" s="73" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="J2" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="str">
+      <c r="A4" s="69" t="str">
         <f>VLOOKUP($A$1,Project[[Project]:[Project Code]],2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="69"/>
       <c r="J4" s="14">
         <v>1</v>
       </c>
@@ -8115,83 +8117,83 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="69" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="J5" s="80" t="str">
+      <c r="H5" s="79"/>
+      <c r="J5" s="72" t="str">
         <f>IFERROR(VLOOKUP(J$4,Employees[],2,0),"")</f>
         <v>Aswathy</v>
       </c>
-      <c r="K5" s="69" t="str">
+      <c r="K5" s="75" t="str">
         <f>IFERROR(VLOOKUP(K$4,Employees[],2,0),"")</f>
         <v>Vishnu</v>
       </c>
-      <c r="L5" s="69" t="str">
+      <c r="L5" s="75" t="str">
         <f>IFERROR(VLOOKUP(L$4,Employees[],2,0),"")</f>
         <v>Shareena</v>
       </c>
-      <c r="M5" s="69" t="str">
+      <c r="M5" s="75" t="str">
         <f>IFERROR(VLOOKUP(M$4,Employees[],2,0),"")</f>
         <v>Firose</v>
       </c>
-      <c r="N5" s="69" t="str">
+      <c r="N5" s="75" t="str">
         <f>IFERROR(VLOOKUP(N$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="69" t="str">
+      <c r="O5" s="75" t="str">
         <f>IFERROR(VLOOKUP(O$4,Employees[],2,0),"")</f>
         <v/>
       </c>
-      <c r="P5" s="71" t="str">
+      <c r="P5" s="79" t="str">
         <f>IFERROR(VLOOKUP(P$4,Employees[],2,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="72"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="72"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="80"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="80"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="84" t="str">
+      <c r="B7" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A7,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Decryption</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="82">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7)</f>
         <v>320</v>
       </c>
-      <c r="H7" s="83"/>
+      <c r="H7" s="78"/>
       <c r="J7" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B7,TaskTimings[Employee],J$5)</f>
         <v>320</v>
@@ -8225,22 +8227,22 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="84" t="str">
+      <c r="B8" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A8,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="82">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8)</f>
-        <v>-597.00000000000011</v>
-      </c>
-      <c r="H8" s="83"/>
+        <v>423</v>
+      </c>
+      <c r="H8" s="78"/>
       <c r="J8" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],J$5)</f>
-        <v>-597.00000000000011</v>
+        <v>423</v>
       </c>
       <c r="K8" s="16">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B8,TaskTimings[Employee],K$5)</f>
@@ -8271,19 +8273,19 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="84" t="str">
+      <c r="B9" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A9,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="82">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="83"/>
+      <c r="H9" s="78"/>
       <c r="J9" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B9,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8317,19 +8319,19 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="84" t="str">
+      <c r="B10" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A10,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="82">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="83"/>
+      <c r="H10" s="78"/>
       <c r="J10" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B10,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8363,19 +8365,19 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="84" t="str">
+      <c r="B11" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A11,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="82">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="83"/>
+      <c r="H11" s="78"/>
       <c r="J11" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B11,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8409,19 +8411,19 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="84" t="str">
+      <c r="B12" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A12,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="82">
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="83"/>
+      <c r="H12" s="78"/>
       <c r="J12" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B12,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8455,19 +8457,19 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="84" t="str">
+      <c r="B13" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A13,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="82">
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="83"/>
+      <c r="H13" s="78"/>
       <c r="J13" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B13,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8501,19 +8503,19 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="84" t="str">
+      <c r="B14" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A14,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="82">
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="83"/>
+      <c r="H14" s="78"/>
       <c r="J14" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B14,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8547,19 +8549,19 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="84" t="str">
+      <c r="B15" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A15,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="82">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="83"/>
+      <c r="H15" s="78"/>
       <c r="J15" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B15,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8593,19 +8595,19 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="84" t="str">
+      <c r="B16" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A16,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="82">
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="83"/>
+      <c r="H16" s="78"/>
       <c r="J16" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B16,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8639,19 +8641,19 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="84" t="str">
+      <c r="B17" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A17,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="82">
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="83"/>
+      <c r="H17" s="78"/>
       <c r="J17" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B17,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8685,19 +8687,19 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="84" t="str">
+      <c r="B18" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A18,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="82">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="83"/>
+      <c r="H18" s="78"/>
       <c r="J18" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B18,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8731,19 +8733,19 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="84" t="str">
+      <c r="B19" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A19,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="82">
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="83"/>
+      <c r="H19" s="78"/>
       <c r="J19" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B19,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8777,19 +8779,19 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="84" t="str">
+      <c r="B20" s="68" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A20,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="82">
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="77">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="83"/>
+      <c r="H20" s="78"/>
       <c r="J20" s="15">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B20,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8823,19 +8825,19 @@
       <c r="A21" s="13">
         <v>15</v>
       </c>
-      <c r="B21" s="87" t="str">
+      <c r="B21" s="74" t="str">
         <f>IFERROR(VLOOKUP($A$4&amp;"-"&amp;$A21,ProjectTasks[[PRJTSKSEQ]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="85">
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="83">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="86"/>
+      <c r="H21" s="84"/>
       <c r="J21" s="18">
         <f>SUMIFS(TaskTimings[Total Minutes],TaskTimings[PRJ],$A$4,TaskTimings[TSK],$B21,TaskTimings[Employee],J$5)</f>
         <v>0</v>
@@ -8867,91 +8869,67 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="74">
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="86">
         <f>SUM(G7:H21)</f>
-        <v>-277.00000000000011</v>
-      </c>
-      <c r="H23" s="76"/>
-      <c r="J23" s="67">
+        <v>743</v>
+      </c>
+      <c r="H23" s="88"/>
+      <c r="J23" s="81">
         <f>SUM(J7:J21)</f>
-        <v>-277.00000000000011</v>
-      </c>
-      <c r="K23" s="67">
+        <v>743</v>
+      </c>
+      <c r="K23" s="81">
         <f t="shared" ref="K23:P23" si="0">SUM(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="67">
+      <c r="L23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="67">
+      <c r="M23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="67">
+      <c r="N23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="67">
+      <c r="O23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="67">
+      <c r="P23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="79"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="91"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="D23:F24"/>
     <mergeCell ref="G23:H24"/>
@@ -8968,12 +8946,36 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:E3">
@@ -8997,16 +8999,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="F1" s="96" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="F1" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="96"/>
+      <c r="G1" s="113"/>
       <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
@@ -9026,21 +9028,21 @@
       <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="F2" s="95">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="F2" s="112">
         <v>43430</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="I2" s="112">
+      <c r="G2" s="112"/>
+      <c r="I2" s="92">
         <f>SUM(I7:I30)</f>
-        <v>197.99999999999977</v>
-      </c>
-      <c r="J2" s="106" t="str">
+        <v>1218</v>
+      </c>
+      <c r="J2" s="94" t="str">
         <f>TEXT($I$2/1440,"H:mm")</f>
-        <v>3:18</v>
+        <v>20:18</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -9055,14 +9057,14 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="107"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -9076,41 +9078,41 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
       <c r="J6" s="25"/>
       <c r="K6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="103" t="s">
+      <c r="L6" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="39" t="s">
         <v>41</v>
       </c>
@@ -9125,23 +9127,23 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="97">
+      <c r="B7" s="114">
         <f>$F$2</f>
         <v>43430</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="98" t="str">
+      <c r="C7" s="75"/>
+      <c r="D7" s="115" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>TKT/Discussion for ticketing modification</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="23">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A6,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>90</v>
       </c>
-      <c r="I7" s="105">
+      <c r="I7" s="104">
         <f>SUM(H7:H10)</f>
         <v>330</v>
       </c>
@@ -9149,11 +9151,11 @@
       <c r="K7" s="30">
         <v>1</v>
       </c>
-      <c r="L7" s="108" t="str">
+      <c r="L7" s="96" t="str">
         <f>IFERROR(VLOOKUP($K7,$X$7:$Y$30,2,0),"")</f>
         <v>TKT</v>
       </c>
-      <c r="M7" s="108"/>
+      <c r="M7" s="96"/>
       <c r="N7" s="26">
         <f>SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L7)</f>
         <v>0</v>
@@ -9201,32 +9203,32 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="99" t="str">
+      <c r="B8" s="73"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A7,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I8" s="106"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="25"/>
       <c r="K8" s="30">
         <v>2</v>
       </c>
-      <c r="L8" s="108" t="str">
+      <c r="L8" s="96" t="str">
         <f>IFERROR(VLOOKUP($K8,$X$7:$Y$30,2,0),"")</f>
         <v>SDS</v>
       </c>
-      <c r="M8" s="108"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="26">
         <f t="shared" ref="N8:N11" si="0">SUMIFS($AB$8:$AB$30,$Y$8:$Y$30,$L8)</f>
-        <v>-277.00000000000011</v>
+        <v>743</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
@@ -9271,29 +9273,29 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="99" t="str">
+      <c r="B9" s="73"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A8,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>89.999999999999915</v>
       </c>
-      <c r="I9" s="106"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="25"/>
       <c r="K9" s="30">
         <v>3</v>
       </c>
-      <c r="L9" s="108" t="str">
+      <c r="L9" s="96" t="str">
         <f>IFERROR(VLOOKUP($K9,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M9" s="108"/>
+      <c r="M9" s="96"/>
       <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9341,29 +9343,29 @@
       <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="99" t="str">
+      <c r="B10" s="73"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$7&amp;"/"&amp;$A9,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>120.00000000000006</v>
       </c>
-      <c r="I10" s="106"/>
+      <c r="I10" s="94"/>
       <c r="J10" s="25"/>
       <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="L10" s="108" t="str">
+      <c r="L10" s="96" t="str">
         <f>IFERROR(VLOOKUP($K10,$X$7:$Y$30,2,0),"")</f>
         <v>RTM</v>
       </c>
-      <c r="M10" s="108"/>
+      <c r="M10" s="96"/>
       <c r="N10" s="26">
         <f t="shared" si="0"/>
         <v>384.99999999999994</v>
@@ -9411,23 +9413,23 @@
       <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="100">
+      <c r="B11" s="106">
         <f>B7+1</f>
         <v>43431</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="99" t="str">
+      <c r="C11" s="76"/>
+      <c r="D11" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
       <c r="H11" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A10,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>45</v>
       </c>
-      <c r="I11" s="106">
+      <c r="I11" s="94">
         <f t="shared" ref="I11" si="3">SUM(H11:H14)</f>
         <v>144.99999999999989</v>
       </c>
@@ -9435,11 +9437,11 @@
       <c r="K11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="111" t="str">
+      <c r="L11" s="99" t="str">
         <f>IFERROR(VLOOKUP($K11,$X$7:$Y$30,2,0),"")</f>
         <v/>
       </c>
-      <c r="M11" s="111"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9487,20 +9489,20 @@
       <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="99" t="str">
+      <c r="B12" s="73"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
       <c r="H12" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A11,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>99.999999999999886</v>
       </c>
-      <c r="I12" s="106"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -9549,27 +9551,27 @@
       <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="99" t="str">
+      <c r="B13" s="73"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
       <c r="H13" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A12,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="106"/>
+      <c r="I13" s="94"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="92" t="s">
+      <c r="K13" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
@@ -9613,25 +9615,25 @@
       <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="99" t="str">
+      <c r="B14" s="73"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$11&amp;"/"&amp;$A13,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="106"/>
+      <c r="I14" s="94"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
@@ -9675,37 +9677,37 @@
       <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="100">
+      <c r="B15" s="106">
         <f>B11+1</f>
         <v>43432</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="99" t="str">
+      <c r="C15" s="76"/>
+      <c r="D15" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
       <c r="H15" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A14,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>69.999999999999915</v>
       </c>
-      <c r="I15" s="106">
+      <c r="I15" s="94">
         <f t="shared" ref="I15" si="4">SUM(H15:H18)</f>
         <v>320</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="109" t="s">
+      <c r="K15" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110" t="s">
+      <c r="L15" s="100"/>
+      <c r="M15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
       <c r="Q15" s="23" t="s">
         <v>42</v>
       </c>
@@ -9751,40 +9753,40 @@
       <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="99" t="str">
+      <c r="B16" s="73"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>RTM/Getting branchname into tool</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
       <c r="H16" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A15,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="I16" s="106"/>
+      <c r="I16" s="94"/>
       <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="114" t="str">
+      <c r="K16" s="97" t="str">
         <f>VLOOKUP(1,$K$7:$M$11,2,0)</f>
         <v>TKT</v>
       </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="108" t="str">
+      <c r="L16" s="77"/>
+      <c r="M16" s="96" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J16,$Z$7:$AA$30,2,0),""))</f>
         <v>Discussion for ticketing modification</v>
       </c>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
       <c r="Q16" s="22">
         <f>IF($M16="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M16))</f>
         <v>90</v>
       </c>
-      <c r="R16" s="106">
+      <c r="R16" s="94">
         <f>SUM(Q16:Q19)</f>
         <v>90</v>
       </c>
@@ -9827,37 +9829,37 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="99" t="str">
+      <c r="B17" s="73"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Decryption</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
       <c r="H17" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A16,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="I17" s="106"/>
+      <c r="I17" s="94"/>
       <c r="J17" s="28">
         <v>2</v>
       </c>
-      <c r="K17" s="114"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="108" t="str">
+      <c r="K17" s="97"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="96" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J17,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
       <c r="Q17" s="22" t="str">
         <f>IF($M17="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M17))</f>
         <v/>
       </c>
-      <c r="R17" s="106"/>
+      <c r="R17" s="94"/>
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
       <c r="U17" s="14">
@@ -9897,37 +9899,37 @@
       <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="99" t="str">
+      <c r="B18" s="73"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
       <c r="H18" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$15&amp;"/"&amp;$A17,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="106"/>
+      <c r="I18" s="94"/>
       <c r="J18" s="28">
         <v>3</v>
       </c>
-      <c r="K18" s="114"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="108" t="str">
+      <c r="K18" s="97"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="96" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J18,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
       <c r="Q18" s="22" t="str">
         <f>IF($M18="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M18))</f>
         <v/>
       </c>
-      <c r="R18" s="106"/>
+      <c r="R18" s="94"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="14">
@@ -9967,43 +9969,43 @@
       <c r="A19" s="14">
         <v>2</v>
       </c>
-      <c r="B19" s="100">
+      <c r="B19" s="106">
         <f>B15+1</f>
         <v>43433</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="99" t="str">
+      <c r="C19" s="76"/>
+      <c r="D19" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
       <c r="H19" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A18,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="106">
+      <c r="I19" s="94">
         <f t="shared" ref="I19" si="5">SUM(H19:H22)</f>
         <v>0</v>
       </c>
       <c r="J19" s="28">
         <v>4</v>
       </c>
-      <c r="K19" s="114"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="108" t="str">
+      <c r="K19" s="97"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="96" t="str">
         <f>IF($K$16="","",IFERROR(VLOOKUP($K$16&amp;"/"&amp;$J19,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
       <c r="Q19" s="22" t="str">
         <f>IF($M19="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$16&amp;"/"&amp;$M19))</f>
         <v/>
       </c>
-      <c r="R19" s="106"/>
+      <c r="R19" s="94"/>
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
       <c r="U19" s="14">
@@ -10043,42 +10045,42 @@
       <c r="A20" s="14">
         <v>3</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="99" t="str">
+      <c r="B20" s="73"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
       <c r="H20" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A19,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="106"/>
+      <c r="I20" s="94"/>
       <c r="J20" s="28">
         <v>1</v>
       </c>
-      <c r="K20" s="114" t="str">
+      <c r="K20" s="97" t="str">
         <f>VLOOKUP(2,$K$7:$M$11,2,0)</f>
         <v>SDS</v>
       </c>
-      <c r="L20" s="82"/>
-      <c r="M20" s="108" t="str">
+      <c r="L20" s="77"/>
+      <c r="M20" s="96" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J20,$Z$7:$AA$30,2,0),""))</f>
         <v>Decryption</v>
       </c>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
       <c r="Q20" s="22">
         <f>IF($M20="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M20))</f>
         <v>320</v>
       </c>
-      <c r="R20" s="106">
+      <c r="R20" s="94">
         <f t="shared" ref="R20" si="6">SUM(Q20:Q23)</f>
-        <v>-277.00000000000011</v>
+        <v>743</v>
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -10119,37 +10121,37 @@
       <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="99" t="str">
+      <c r="B21" s="73"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
       <c r="H21" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A20,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="106"/>
+      <c r="I21" s="94"/>
       <c r="J21" s="28">
         <v>2</v>
       </c>
-      <c r="K21" s="114"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="108" t="str">
+      <c r="K21" s="97"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="96" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J21,$Z$7:$AA$30,2,0),""))</f>
         <v>Request and get Response from  web</v>
       </c>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
       <c r="Q21" s="22">
         <f>IF($M21="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M21))</f>
-        <v>-597.00000000000011</v>
-      </c>
-      <c r="R21" s="106"/>
+        <v>423</v>
+      </c>
+      <c r="R21" s="94"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
       <c r="U21" s="14">
@@ -10189,37 +10191,37 @@
       <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="99" t="str">
+      <c r="B22" s="73"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$19&amp;"/"&amp;$A21,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="106"/>
+      <c r="I22" s="94"/>
       <c r="J22" s="28">
         <v>3</v>
       </c>
-      <c r="K22" s="114"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="108" t="str">
+      <c r="K22" s="97"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="96" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J22,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
       <c r="Q22" s="22" t="str">
         <f>IF($M22="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M22))</f>
         <v/>
       </c>
-      <c r="R22" s="106"/>
+      <c r="R22" s="94"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="14">
@@ -10259,43 +10261,43 @@
       <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="100">
+      <c r="B23" s="106">
         <f>B19+1</f>
         <v>43434</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="99" t="str">
+      <c r="C23" s="76"/>
+      <c r="D23" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
       <c r="H23" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A22,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>227.99999999999991</v>
       </c>
-      <c r="I23" s="106">
+      <c r="I23" s="94">
         <f t="shared" ref="I23" si="7">SUM(H23:H26)</f>
-        <v>-597.00000000000011</v>
+        <v>423</v>
       </c>
       <c r="J23" s="28">
         <v>4</v>
       </c>
-      <c r="K23" s="114"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="108" t="str">
+      <c r="K23" s="97"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="96" t="str">
         <f>IF($K$20="","",IFERROR(VLOOKUP($K$20&amp;"/"&amp;$J23,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
       <c r="Q23" s="22" t="str">
         <f>IF($M23="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$20&amp;"/"&amp;$M23))</f>
         <v/>
       </c>
-      <c r="R23" s="106"/>
+      <c r="R23" s="94"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="14">
@@ -10328,47 +10330,47 @@
       </c>
       <c r="AB23" s="33">
         <f t="shared" si="2"/>
-        <v>-597.00000000000011</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>3</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="99" t="str">
+      <c r="B24" s="73"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v>SDS/Request and get Response from  web</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
       <c r="H24" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A23,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
-        <v>-825</v>
-      </c>
-      <c r="I24" s="106"/>
+        <v>195.00000000000011</v>
+      </c>
+      <c r="I24" s="94"/>
       <c r="J24" s="28">
         <v>1</v>
       </c>
-      <c r="K24" s="114" t="str">
+      <c r="K24" s="97" t="str">
         <f>VLOOKUP(3,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L24" s="82"/>
-      <c r="M24" s="108" t="str">
+      <c r="L24" s="77"/>
+      <c r="M24" s="96" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J24,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
       <c r="Q24" s="22" t="str">
         <f>IF($M24="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M24))</f>
         <v/>
       </c>
-      <c r="R24" s="106">
+      <c r="R24" s="94">
         <f t="shared" ref="R24" si="8">SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
@@ -10411,37 +10413,37 @@
       <c r="A25" s="14">
         <v>4</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="99" t="str">
+      <c r="B25" s="73"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
       <c r="H25" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A24,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="106"/>
+      <c r="I25" s="94"/>
       <c r="J25" s="28">
         <v>2</v>
       </c>
-      <c r="K25" s="114"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="108" t="str">
+      <c r="K25" s="97"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="96" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J25,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="108"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
       <c r="Q25" s="22" t="str">
         <f>IF($M25="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M25))</f>
         <v/>
       </c>
-      <c r="R25" s="106"/>
+      <c r="R25" s="94"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="14">
@@ -10481,37 +10483,37 @@
       <c r="A26" s="14">
         <v>1</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="99" t="str">
+      <c r="B26" s="73"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$23&amp;"/"&amp;$A25,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="106"/>
+      <c r="I26" s="94"/>
       <c r="J26" s="28">
         <v>3</v>
       </c>
-      <c r="K26" s="114"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="108" t="str">
+      <c r="K26" s="97"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="96" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J26,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N26" s="108"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="108"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
       <c r="Q26" s="22" t="str">
         <f>IF($M26="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M26))</f>
         <v/>
       </c>
-      <c r="R26" s="106"/>
+      <c r="R26" s="94"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
       <c r="U26" s="14">
@@ -10551,43 +10553,43 @@
       <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="100">
+      <c r="B27" s="106">
         <f>B23+1</f>
         <v>43435</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="99" t="str">
+      <c r="C27" s="76"/>
+      <c r="D27" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
       <c r="H27" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A26,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="106">
+      <c r="I27" s="94">
         <f t="shared" ref="I27" si="9">SUM(H27:H30)</f>
         <v>0</v>
       </c>
       <c r="J27" s="28">
         <v>4</v>
       </c>
-      <c r="K27" s="114"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="108" t="str">
+      <c r="K27" s="97"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="96" t="str">
         <f>IF($K$24="","",IFERROR(VLOOKUP($K$24&amp;"/"&amp;$J27,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
       <c r="Q27" s="22" t="str">
         <f>IF($M27="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$24&amp;"/"&amp;$M27))</f>
         <v/>
       </c>
-      <c r="R27" s="106"/>
+      <c r="R27" s="94"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="14">
@@ -10627,40 +10629,40 @@
       <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="99" t="str">
+      <c r="B28" s="73"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
       <c r="H28" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A27,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="106"/>
+      <c r="I28" s="94"/>
       <c r="J28" s="28">
         <v>1</v>
       </c>
-      <c r="K28" s="114" t="str">
+      <c r="K28" s="97" t="str">
         <f>VLOOKUP(4,$K$7:$M$11,2,0)</f>
         <v>RTM</v>
       </c>
-      <c r="L28" s="82"/>
-      <c r="M28" s="108" t="str">
+      <c r="L28" s="77"/>
+      <c r="M28" s="96" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J28,$Z$7:$AA$30,2,0),""))</f>
         <v>Solving the issue of repeating icon in tray</v>
       </c>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="108"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
       <c r="Q28" s="22">
         <f>IF($M28="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M28))</f>
         <v>354.99999999999989</v>
       </c>
-      <c r="R28" s="106">
+      <c r="R28" s="94">
         <f t="shared" ref="R28" si="10">SUM(Q28:Q31)</f>
         <v>384.99999999999994</v>
       </c>
@@ -10703,37 +10705,37 @@
       <c r="A29" s="14">
         <v>4</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="99" t="str">
+      <c r="B29" s="73"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="105" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
       <c r="H29" s="22">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A28,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="106"/>
+      <c r="I29" s="94"/>
       <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="K29" s="114"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="108" t="str">
+      <c r="K29" s="97"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="96" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J29,$Z$7:$AA$30,2,0),""))</f>
         <v>Getting branchname into tool</v>
       </c>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
       <c r="Q29" s="22">
         <f>IF($M29="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M29))</f>
         <v>30.000000000000053</v>
       </c>
-      <c r="R29" s="106"/>
+      <c r="R29" s="94"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="14">
@@ -10770,37 +10772,37 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="104" t="str">
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="103" t="str">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Task]],2,0),"")</f>
         <v/>
       </c>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP($A$1&amp;"/"&amp;$B$27&amp;"/"&amp;$A29,TaskTimings[[EmployeeDateSeqCode]:[Total Minutes]],7,0),0)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="107"/>
+      <c r="I30" s="95"/>
       <c r="J30" s="28">
         <v>3</v>
       </c>
-      <c r="K30" s="114"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="108" t="str">
+      <c r="K30" s="97"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="96" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J30,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
       <c r="Q30" s="22" t="str">
         <f>IF($M30="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M30))</f>
         <v/>
       </c>
-      <c r="R30" s="106"/>
+      <c r="R30" s="94"/>
       <c r="U30" s="14">
         <f>IF(COUNTIFS($D$6:$D30,D30)=1,1,0)</f>
         <v>0</v>
@@ -10838,42 +10840,42 @@
       <c r="J31" s="28">
         <v>4</v>
       </c>
-      <c r="K31" s="114"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="108" t="str">
+      <c r="K31" s="97"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="96" t="str">
         <f>IF($K$28="","",IFERROR(VLOOKUP($K$28&amp;"/"&amp;$J31,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="108"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
       <c r="Q31" s="22" t="str">
         <f>IF($M31="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$28&amp;"/"&amp;$M31))</f>
         <v/>
       </c>
-      <c r="R31" s="106"/>
+      <c r="R31" s="94"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>1</v>
       </c>
-      <c r="K32" s="114" t="str">
+      <c r="K32" s="97" t="str">
         <f>VLOOKUP(5,$K$7:$M$11,2,0)</f>
         <v/>
       </c>
-      <c r="L32" s="82"/>
-      <c r="M32" s="108" t="str">
+      <c r="L32" s="77"/>
+      <c r="M32" s="96" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J32,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
       <c r="Q32" s="22" t="str">
         <f>IF($M32="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M32))</f>
         <v/>
       </c>
-      <c r="R32" s="106">
+      <c r="R32" s="94">
         <f t="shared" ref="R32" si="11">SUM(Q32:Q35)</f>
         <v>0</v>
       </c>
@@ -10882,61 +10884,127 @@
       <c r="J33" s="28">
         <v>2</v>
       </c>
-      <c r="K33" s="114"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="108" t="str">
+      <c r="K33" s="97"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="96" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J33,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="108"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
       <c r="Q33" s="22" t="str">
         <f>IF($M33="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M33))</f>
         <v/>
       </c>
-      <c r="R33" s="106"/>
+      <c r="R33" s="94"/>
     </row>
     <row r="34" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J34" s="28">
         <v>3</v>
       </c>
-      <c r="K34" s="114"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="108" t="str">
+      <c r="K34" s="97"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="96" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J34,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N34" s="108"/>
-      <c r="O34" s="108"/>
-      <c r="P34" s="108"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
       <c r="Q34" s="22" t="str">
         <f>IF($M34="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M34))</f>
         <v/>
       </c>
-      <c r="R34" s="106"/>
+      <c r="R34" s="94"/>
     </row>
     <row r="35" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="28">
         <v>4</v>
       </c>
-      <c r="K35" s="115"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="111" t="str">
+      <c r="K35" s="98"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="99" t="str">
         <f>IF($K$32="","",IFERROR(VLOOKUP($K$32&amp;"/"&amp;$J35,$Z$7:$AA$30,2,0),""))</f>
         <v/>
       </c>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="111"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
       <c r="Q35" s="24" t="str">
         <f>IF($M35="","",SUMIFS($H$7:$H$30,$D$7:$D$30,$K$32&amp;"/"&amp;$M35))</f>
         <v/>
       </c>
-      <c r="R35" s="107"/>
+      <c r="R35" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="K13:N14"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B5:F6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="M32:P32"/>
@@ -10953,72 +11021,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="K13:N14"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D3">

--- a/Milestone Project Management.xlsx
+++ b/Milestone Project Management.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswathy M S\Desktop\Project-Development\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7155" activeTab="3"/>
   </bookViews>
@@ -26,12 +21,12 @@
     <definedName name="ProjectNames">Project[Project]</definedName>
     <definedName name="TSKPRJCodes">ProjectTasks[TaskProjectCode]</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -290,17 +285,22 @@
   <si>
     <t>TEEBPD/Inhouse Testing</t>
   </si>
+  <si>
+    <t>Finalizing</t>
+  </si>
+  <si>
+    <t>TEEBPD/Finalizing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\/mmm\/yy"/>
     <numFmt numFmtId="165" formatCode="dd\/mmm"/>
-    <numFmt numFmtId="166" formatCode="hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -797,13 +797,13 @@
     <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -816,7 +816,7 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -826,29 +826,11 @@
     <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,28 +838,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -901,56 +865,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -973,6 +922,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,7 +1008,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1006,7 +1023,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1020,7 +1037,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1034,7 +1051,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1048,7 +1065,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1062,7 +1079,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1076,7 +1093,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1090,8 +1107,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="hh:mm\ AM/PM"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="23" formatCode="hh:mm\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1106,7 +1123,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="dd\/mmm\/yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1151,7 +1168,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1170,7 +1187,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1189,7 +1206,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1208,7 +1225,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1227,7 +1244,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1242,7 +1259,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1296,7 +1313,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1396,7 +1413,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1428,7 +1445,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1511,7 +1528,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1564,7 +1581,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1607,39 +1624,23 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1657,17 +1658,13 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1685,17 +1682,13 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1713,17 +1706,13 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1766,7 +1755,6 @@
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1785,13 +1773,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -1802,12 +1784,9 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1819,10 +1798,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>320</c:v>
+                  <c:v>60.000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1870,17 +1849,13 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1895,30 +1870,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="-284493184"/>
-        <c:axId val="-284494272"/>
+        <c:axId val="67515904"/>
+        <c:axId val="67517440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-284493184"/>
+        <c:axId val="67515904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1930,24 +1895,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-284494272"/>
+        <c:crossAx val="67517440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-284494272"/>
+        <c:axId val="67517440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1959,7 +1920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-284493184"/>
+        <c:crossAx val="67515904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1975,11 +1936,10 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1987,25 +1947,13 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2020,32 +1968,31 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Report'!$J$6:$J$21</c:f>
+              <c:f>'Project Report'!$J$7:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>320</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>423</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2081,9 +2028,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2104,27 +2048,26 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Report'!$K$6:$K$21</c:f>
+              <c:f>'Project Report'!$K$7:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2165,9 +2108,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2188,27 +2128,26 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Report'!$L$6:$L$21</c:f>
+              <c:f>'Project Report'!$L$7:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2249,9 +2188,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2272,27 +2208,26 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Report'!$M$6:$M$21</c:f>
+              <c:f>'Project Report'!$M$7:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>60.000000000000028</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2333,9 +2268,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2353,27 +2285,26 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Report'!$N$6:$N$21</c:f>
+              <c:f>'Project Report'!$N$7:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2414,9 +2345,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2434,27 +2362,26 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Report'!$O$6:$O$21</c:f>
+              <c:f>'Project Report'!$O$7:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2495,9 +2422,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2515,27 +2439,26 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Report'!$P$6:$P$21</c:f>
+              <c:f>'Project Report'!$P$7:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2576,38 +2499,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="20"/>
         <c:overlap val="100"/>
-        <c:axId val="-284499168"/>
-        <c:axId val="-284501344"/>
+        <c:axId val="68306432"/>
+        <c:axId val="68307968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-284499168"/>
+        <c:axId val="68306432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2619,24 +2529,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-284501344"/>
+        <c:crossAx val="68307968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-284501344"/>
+        <c:axId val="68307968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2648,14 +2554,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-284499168"/>
+        <c:crossAx val="68306432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2669,11 +2575,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2681,17 +2586,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2720,13 +2615,9 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -2735,12 +2626,9 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2752,10 +2640,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>320</c:v>
+                  <c:v>60.000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2821,13 +2709,8 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -2836,12 +2719,9 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2857,24 +2737,18 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
           <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2882,17 +2756,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2915,14 +2779,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2941,12 +2803,9 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2958,10 +2817,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>320</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>423</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3024,12 +2883,9 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3107,12 +2963,9 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3190,12 +3043,9 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3207,7 +3057,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>60.000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3270,12 +3120,9 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3350,12 +3197,9 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3433,12 +3277,9 @@
             <c:strRef>
               <c:f>'Project Report'!$B$7:$F$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decryption</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Request and get Response from  web</c:v>
+                  <c:v>Modification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3498,27 +3339,18 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-284489920"/>
-        <c:axId val="-284492096"/>
+        <c:dLbls/>
+        <c:axId val="68432256"/>
+        <c:axId val="68433792"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-284489920"/>
+        <c:axId val="68432256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3530,24 +3362,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-284492096"/>
+        <c:crossAx val="68433792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-284492096"/>
+        <c:axId val="68433792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3559,14 +3388,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-284489920"/>
+        <c:crossAx val="68432256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3580,11 +3409,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3592,17 +3420,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3620,18 +3438,18 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.2123993121549498E-2"/>
+          <c:x val="2.2123993121549501E-2"/>
           <c:y val="0"/>
-          <c:w val="0.70026343258816892"/>
+          <c:w val="0.70026343258816903"/>
           <c:h val="1"/>
         </c:manualLayout>
       </c:layout>
@@ -3659,13 +3477,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -3722,13 +3534,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -3760,7 +3566,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>743</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3769,7 +3575,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>60.000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3806,13 +3612,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -3848,13 +3648,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
         <c:holeSize val="10"/>
@@ -3862,7 +3656,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3876,11 +3670,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3888,17 +3681,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3916,9 +3699,8 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -3945,12 +3727,9 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
             <c:separator>
 </c:separator>
             <c:showLeaderLines val="1"/>
@@ -3967,10 +3746,10 @@
                   <c:v>TKT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SDS</c:v>
+                  <c:v>PPOIO</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>RTM</c:v>
+                  <c:v>TEEBPD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3985,13 +3764,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>743</c:v>
+                  <c:v>359.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>384.99999999999994</c:v>
+                  <c:v>1380</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4001,20 +3780,14 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4028,11 +3801,10 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4040,17 +3812,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4072,22 +3834,19 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>TASK 1</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
@@ -4107,15 +3866,10 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
             <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
             <c:separator>
 </c:separator>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -4131,10 +3885,10 @@
                   <c:v>TKT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SDS</c:v>
+                  <c:v>PPOIO</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>RTM</c:v>
+                  <c:v>TEEBPD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4146,16 +3900,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>89.999999999999915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>320</c:v>
+                  <c:v>119.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>354.99999999999989</c:v>
+                  <c:v>480.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4170,7 +3924,6 @@
           <c:tx>
             <c:v>TASK 2</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4189,13 +3942,10 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showSerName val="1"/>
+            <c:separator>
+</c:separator>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -4211,10 +3961,10 @@
                   <c:v>TKT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SDS</c:v>
+                  <c:v>PPOIO</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>RTM</c:v>
+                  <c:v>TEEBPD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4229,13 +3979,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423</c:v>
+                  <c:v>239.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.000000000000053</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4250,7 +4000,6 @@
           <c:tx>
             <c:v>TASK 3</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4269,13 +4018,10 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showSerName val="1"/>
+            <c:separator>
+</c:separator>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -4291,10 +4037,10 @@
                   <c:v>TKT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SDS</c:v>
+                  <c:v>PPOIO</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>RTM</c:v>
+                  <c:v>TEEBPD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4315,7 +4061,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4330,7 +4076,6 @@
           <c:tx>
             <c:v>TASK 4</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4349,13 +4094,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -4371,10 +4110,10 @@
                   <c:v>TKT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SDS</c:v>
+                  <c:v>PPOIO</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>RTM</c:v>
+                  <c:v>TEEBPD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4405,28 +4144,21 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="-284495360"/>
-        <c:axId val="-284493728"/>
+        <c:axId val="69805184"/>
+        <c:axId val="69806720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-284495360"/>
+        <c:axId val="69805184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4438,23 +4170,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-284493728"/>
+        <c:crossAx val="69806720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-284493728"/>
+        <c:axId val="69806720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4466,18 +4195,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-284495360"/>
+        <c:crossAx val="69805184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4485,17 +4213,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-IN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4518,19 +4236,16 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4550,13 +4265,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -4597,19 +4306,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>330</c:v>
+                  <c:v>419.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144.99999999999989</c:v>
+                  <c:v>480.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>320</c:v>
+                  <c:v>210.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>423</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4618,29 +4327,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="25"/>
         <c:overlap val="40"/>
-        <c:axId val="-284501888"/>
-        <c:axId val="-284498080"/>
+        <c:axId val="69852160"/>
+        <c:axId val="81462016"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-284501888"/>
+        <c:axId val="69852160"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="dd\/mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4652,23 +4352,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-284498080"/>
+        <c:crossAx val="81462016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-284498080"/>
+        <c:axId val="81462016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4680,18 +4378,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-284501888"/>
+        <c:crossAx val="69852160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4974,8 +4671,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G21" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:G21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProjectTasks" displayName="ProjectTasks" ref="A1:G22" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:G22"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No" dataDxfId="29">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
@@ -4986,13 +4683,13 @@
     </tableColumn>
     <tableColumn id="3" name="Task" dataDxfId="26"/>
     <tableColumn id="4" name="TaskProjectCode" dataDxfId="25">
-      <calculatedColumnFormula>CONCATENATE(ProjectTasks[Project],"/",ProjectTasks[Task])</calculatedColumnFormula>
+      <calculatedColumnFormula>CONCATENATE([Project],"/",[Task])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="PRJ" dataDxfId="24">
-      <calculatedColumnFormula>ProjectTasks[Project]</calculatedColumnFormula>
+      <calculatedColumnFormula>[Project]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="TSK" dataDxfId="23">
-      <calculatedColumnFormula>ProjectTasks[Task]</calculatedColumnFormula>
+      <calculatedColumnFormula>[Task]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5013,20 +4710,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q28" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TaskTimings" displayName="TaskTimings" ref="A1:Q32" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q32"/>
   <tableColumns count="17">
     <tableColumn id="1" name="No" dataDxfId="16">
       <calculatedColumnFormula>IFERROR($A1+1,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="PRJ" dataDxfId="15">
-      <calculatedColumnFormula>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="TSK" dataDxfId="14">
-      <calculatedColumnFormula>VLOOKUP(TaskTimings[Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP([Task],ProjectTasks[[TaskProjectCode]:[TSK]],3,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="EmployeeDate" dataDxfId="13">
-      <calculatedColumnFormula>TaskTimings[Employee]&amp;"/"&amp;TaskTimings[Date]</calculatedColumnFormula>
+      <calculatedColumnFormula>[Employee]&amp;"/"&amp;[Date]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="EmployeeDateSeq" dataDxfId="12">
       <calculatedColumnFormula>COUNTIF($D$1:TaskTimings[[#This Row],[EmployeeDate]],TaskTimings[[#This Row],[EmployeeDate]])</calculatedColumnFormula>
@@ -5040,22 +4737,22 @@
     <tableColumn id="5" name="Start Time" dataDxfId="7"/>
     <tableColumn id="6" name="End Time" dataDxfId="6"/>
     <tableColumn id="7" name="Total Minutes" dataDxfId="5">
-      <calculatedColumnFormula>(TaskTimings[End Time]-TaskTimings[Start Time])*1440</calculatedColumnFormula>
+      <calculatedColumnFormula>([End Time]-[Start Time])*1440</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Total" dataDxfId="4">
-      <calculatedColumnFormula>TEXT(TaskTimings[End Time]-TaskTimings[Start Time],"HH:mm")</calculatedColumnFormula>
+      <calculatedColumnFormula>TEXT([End Time]-[Start Time],"HH:mm")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Day Total Minutes" dataDxfId="3">
-      <calculatedColumnFormula>SUMIFS(TaskTimings[Total Minutes],TaskTimings[Date],TaskTimings[Date],TaskTimings[Employee],TaskTimings[Employee])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIFS([Total Minutes],[Date],[Date],[Employee],[Employee])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Day Total" dataDxfId="2">
-      <calculatedColumnFormula>TEXT(TaskTimings[Day Total Minutes]/1440,"HH:mm")</calculatedColumnFormula>
+      <calculatedColumnFormula>TEXT([Day Total Minutes]/1440,"HH:mm")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="PRJLST" dataDxfId="1">
-      <calculatedColumnFormula>TaskTimings[PRJ]</calculatedColumnFormula>
+      <calculatedColumnFormula>[PRJ]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="TSKLST" dataDxfId="0">
-      <calculatedColumnFormula>TaskTimings[TSK]</calculatedColumnFormula>
+      <calculatedColumnFormula>[TSK]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5105,7 +4802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5137,10 +4834,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5172,7 +4868,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5348,14 +5043,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" customWidth="1"/>
@@ -5365,7 +5060,7 @@
     <col min="11" max="11" width="84.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5385,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <f>IFERROR($A1+1,1)</f>
         <v>1</v>
@@ -5407,7 +5102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5428,7 +5123,7 @@
         <v>2</v>
       </